--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gaemy\grida\src\GridaBoard\language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E8F091-8ABA-4A6A-9774-ABD413433F3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152129F1-E633-419B-A144-73DA0A9E7FF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3690" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="225">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -720,6 +720,10 @@
       </rPr>
       <t>업로드</t>
     </r>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
 </sst>
@@ -1724,7 +1728,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1741,7 +1745,7 @@
     <col min="10" max="11" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1799,7 +1803,7 @@
       <c r="Y2" s="15"/>
       <c r="Z2" s="16"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="14.25">
       <c r="A3" s="9"/>
       <c r="B3" s="17"/>
       <c r="C3" s="11"/>
@@ -1827,7 +1831,7 @@
       <c r="Y3" s="21"/>
       <c r="Z3" s="22"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="15">
       <c r="A4" s="23"/>
       <c r="B4" s="24"/>
       <c r="C4" s="25"/>
@@ -1905,9 +1909,11 @@
       <c r="Y5" s="41"/>
       <c r="Z5" s="41"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="14.25">
       <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
+      <c r="B6" s="43" t="s">
+        <v>224</v>
+      </c>
       <c r="C6" s="44" t="s">
         <v>12</v>
       </c>
@@ -1941,7 +1947,7 @@
       <c r="Y6" s="51"/>
       <c r="Z6" s="51"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="18">
       <c r="A7" s="42"/>
       <c r="B7" s="43"/>
       <c r="C7" s="52" t="s">
@@ -1977,7 +1983,7 @@
       <c r="Y7" s="51"/>
       <c r="Z7" s="51"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="14.25">
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="44" t="s">
@@ -2013,7 +2019,7 @@
       <c r="Y8" s="51"/>
       <c r="Z8" s="51"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="14.25">
       <c r="A9" s="42"/>
       <c r="B9" s="43"/>
       <c r="C9" s="52" t="s">
@@ -2049,7 +2055,7 @@
       <c r="Y9" s="51"/>
       <c r="Z9" s="51"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="14.25">
       <c r="A10" s="42"/>
       <c r="B10" s="43"/>
       <c r="C10" s="52" t="s">
@@ -2085,7 +2091,7 @@
       <c r="Y10" s="51"/>
       <c r="Z10" s="51"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="14.25">
       <c r="A11" s="42"/>
       <c r="B11" s="43"/>
       <c r="C11" s="44" t="s">
@@ -2121,7 +2127,7 @@
       <c r="Y11" s="51"/>
       <c r="Z11" s="51"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="14.25">
       <c r="A12" s="42"/>
       <c r="B12" s="43"/>
       <c r="C12" s="44" t="s">
@@ -2157,7 +2163,7 @@
       <c r="Y12" s="51"/>
       <c r="Z12" s="51"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14.25">
       <c r="A13" s="42"/>
       <c r="B13" s="43"/>
       <c r="C13" s="44" t="s">
@@ -2193,7 +2199,7 @@
       <c r="Y13" s="51"/>
       <c r="Z13" s="51"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="14.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43"/>
       <c r="C14" s="44" t="s">
@@ -2229,7 +2235,7 @@
       <c r="Y14" s="51"/>
       <c r="Z14" s="51"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="14.25">
       <c r="A15" s="42"/>
       <c r="B15" s="43"/>
       <c r="C15" s="44" t="s">
@@ -2265,7 +2271,7 @@
       <c r="Y15" s="51"/>
       <c r="Z15" s="51"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="14.25">
       <c r="A16" s="42"/>
       <c r="B16" s="43"/>
       <c r="C16" s="44" t="s">
@@ -2301,7 +2307,7 @@
       <c r="Y16" s="51"/>
       <c r="Z16" s="51"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="15">
       <c r="A17" s="42"/>
       <c r="B17" s="43"/>
       <c r="C17" s="44" t="s">
@@ -2337,7 +2343,7 @@
       <c r="Y17" s="51"/>
       <c r="Z17" s="51"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="15">
       <c r="A18" s="42"/>
       <c r="B18" s="43"/>
       <c r="C18" s="44" t="s">
@@ -2373,7 +2379,7 @@
       <c r="Y18" s="51"/>
       <c r="Z18" s="51"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="14.25">
       <c r="A19" s="42"/>
       <c r="B19" s="43"/>
       <c r="C19" s="44" t="s">
@@ -2445,7 +2451,7 @@
       <c r="Y20" s="51"/>
       <c r="Z20" s="51"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="14.25">
       <c r="A21" s="42"/>
       <c r="B21" s="43"/>
       <c r="C21" s="44" t="s">
@@ -2481,7 +2487,7 @@
       <c r="Y21" s="51"/>
       <c r="Z21" s="51"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="15">
       <c r="A22" s="42"/>
       <c r="B22" s="43"/>
       <c r="C22" s="44" t="s">
@@ -2517,7 +2523,7 @@
       <c r="Y22" s="51"/>
       <c r="Z22" s="51"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="14.25">
       <c r="A23" s="42"/>
       <c r="B23" s="43"/>
       <c r="C23" s="44" t="s">
@@ -2553,7 +2559,7 @@
       <c r="Y23" s="51"/>
       <c r="Z23" s="51"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="14.25">
       <c r="A24" s="42"/>
       <c r="B24" s="43"/>
       <c r="C24" s="44" t="s">
@@ -2589,7 +2595,7 @@
       <c r="Y24" s="51"/>
       <c r="Z24" s="51"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="14.25">
       <c r="A25" s="42"/>
       <c r="B25" s="43"/>
       <c r="C25" s="44" t="s">
@@ -2625,7 +2631,7 @@
       <c r="Y25" s="51"/>
       <c r="Z25" s="51"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="14.25">
       <c r="A26" s="42"/>
       <c r="B26" s="43"/>
       <c r="C26" s="44" t="s">
@@ -2661,7 +2667,7 @@
       <c r="Y26" s="51"/>
       <c r="Z26" s="51"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="15">
       <c r="A27" s="42"/>
       <c r="B27" s="43"/>
       <c r="C27" s="44" t="s">
@@ -2697,7 +2703,7 @@
       <c r="Y27" s="51"/>
       <c r="Z27" s="51"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="14.25">
       <c r="A28" s="42"/>
       <c r="B28" s="43"/>
       <c r="C28" s="44" t="s">
@@ -2733,7 +2739,7 @@
       <c r="Y28" s="51"/>
       <c r="Z28" s="51"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" ht="14.25">
       <c r="A29" s="42"/>
       <c r="B29" s="43"/>
       <c r="C29" s="44" t="s">

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="236">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -695,6 +695,30 @@
   </si>
   <si>
     <t>블루투스 어뎁터가 없습니다</t>
+  </si>
+  <si>
+    <t>alert_regedPdf</t>
+  </si>
+  <si>
+    <t>이미 등록된 PDF가 존재합니다</t>
+  </si>
+  <si>
+    <t>alert_wrongFileType</t>
+  </si>
+  <si>
+    <t>불러올 수 없는 타입의 파일입니다</t>
+  </si>
+  <si>
+    <t>alert_fileOpenCancel</t>
+  </si>
+  <si>
+    <t>불러오기가 취소되었습니다</t>
+  </si>
+  <si>
+    <t>alert_needPage</t>
+  </si>
+  <si>
+    <t>PDF를 등록하거나 펜을 사용해서 페이지를 생성해주세요</t>
   </si>
 </sst>
 </file>
@@ -5419,10 +5443,14 @@
     <row r="106">
       <c r="A106" s="45"/>
       <c r="B106" s="112"/>
-      <c r="C106" s="114"/>
+      <c r="C106" s="109" t="s">
+        <v>228</v>
+      </c>
       <c r="D106" s="110"/>
       <c r="E106" s="111"/>
-      <c r="F106" s="115"/>
+      <c r="F106" s="50" t="s">
+        <v>229</v>
+      </c>
       <c r="G106" s="54"/>
       <c r="H106" s="103"/>
       <c r="I106" s="54"/>
@@ -5447,10 +5475,14 @@
     <row r="107">
       <c r="A107" s="45"/>
       <c r="B107" s="112"/>
-      <c r="C107" s="114"/>
+      <c r="C107" s="109" t="s">
+        <v>230</v>
+      </c>
       <c r="D107" s="110"/>
       <c r="E107" s="111"/>
-      <c r="F107" s="115"/>
+      <c r="F107" s="50" t="s">
+        <v>231</v>
+      </c>
       <c r="G107" s="54"/>
       <c r="H107" s="103"/>
       <c r="I107" s="54"/>
@@ -5475,10 +5507,14 @@
     <row r="108">
       <c r="A108" s="45"/>
       <c r="B108" s="112"/>
-      <c r="C108" s="114"/>
+      <c r="C108" s="109" t="s">
+        <v>232</v>
+      </c>
       <c r="D108" s="110"/>
       <c r="E108" s="111"/>
-      <c r="F108" s="115"/>
+      <c r="F108" s="50" t="s">
+        <v>233</v>
+      </c>
       <c r="G108" s="54"/>
       <c r="H108" s="103"/>
       <c r="I108" s="54"/>
@@ -5503,10 +5539,14 @@
     <row r="109">
       <c r="A109" s="45"/>
       <c r="B109" s="112"/>
-      <c r="C109" s="114"/>
+      <c r="C109" s="109" t="s">
+        <v>234</v>
+      </c>
       <c r="D109" s="110"/>
       <c r="E109" s="111"/>
-      <c r="F109" s="115"/>
+      <c r="F109" s="50" t="s">
+        <v>235</v>
+      </c>
       <c r="G109" s="54"/>
       <c r="H109" s="103"/>
       <c r="I109" s="54"/>
@@ -5531,10 +5571,10 @@
     <row r="110">
       <c r="A110" s="45"/>
       <c r="B110" s="112"/>
-      <c r="C110" s="114"/>
+      <c r="C110" s="109"/>
       <c r="D110" s="110"/>
       <c r="E110" s="111"/>
-      <c r="F110" s="115"/>
+      <c r="F110" s="50"/>
       <c r="G110" s="54"/>
       <c r="H110" s="103"/>
       <c r="I110" s="54"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="550">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -1636,10 +1636,13 @@
     <t>gridaboard.ioにペアリング中</t>
   </si>
   <si>
+    <t>dont_show_day</t>
+  </si>
+  <si>
     <t>팝업 닫기</t>
   </si>
   <si>
-    <t>하루동안보지않기</t>
+    <t>하루동안 보지 않기</t>
   </si>
   <si>
     <t>Do not show for a day</t>
@@ -7432,19 +7435,21 @@
     <row r="118">
       <c r="A118" s="41"/>
       <c r="B118" s="105"/>
-      <c r="C118" s="116"/>
+      <c r="C118" s="109" t="s">
+        <v>541</v>
+      </c>
       <c r="D118" s="115" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E118" s="116"/>
-      <c r="F118" s="46" t="s">
-        <v>542</v>
+      <c r="F118" s="83" t="s">
+        <v>543</v>
       </c>
       <c r="G118" s="63" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H118" s="63" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I118" s="117"/>
       <c r="J118" s="51"/>
@@ -7469,12 +7474,12 @@
       <c r="A119" s="41"/>
       <c r="B119" s="105"/>
       <c r="C119" s="109" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D119" s="103"/>
       <c r="E119" s="104"/>
       <c r="F119" s="83" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I119" s="119"/>
       <c r="J119" s="51"/>
@@ -7499,12 +7504,12 @@
       <c r="A120" s="41"/>
       <c r="B120" s="105"/>
       <c r="C120" s="109" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D120" s="103"/>
       <c r="E120" s="104"/>
       <c r="F120" s="83" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G120" s="119"/>
       <c r="H120" s="119"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="554">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -1661,6 +1661,18 @@
   </si>
   <si>
     <t>그리다보드 가이드</t>
+  </si>
+  <si>
+    <t>need_password</t>
+  </si>
+  <si>
+    <t>파일이 암호화 되어있습니다. 비밀번호를 입력해주세요.</t>
+  </si>
+  <si>
+    <t>wrong_password</t>
+  </si>
+  <si>
+    <t>잘못된 비밀번호입니다</t>
   </si>
 </sst>
 </file>
@@ -7535,10 +7547,14 @@
     <row r="121">
       <c r="A121" s="41"/>
       <c r="B121" s="105"/>
-      <c r="C121" s="104"/>
+      <c r="C121" s="109" t="s">
+        <v>550</v>
+      </c>
       <c r="D121" s="103"/>
       <c r="E121" s="104"/>
-      <c r="F121" s="120"/>
+      <c r="F121" s="83" t="s">
+        <v>551</v>
+      </c>
       <c r="G121" s="119"/>
       <c r="H121" s="119"/>
       <c r="I121" s="119"/>
@@ -7563,10 +7579,14 @@
     <row r="122">
       <c r="A122" s="41"/>
       <c r="B122" s="105"/>
-      <c r="C122" s="104"/>
+      <c r="C122" s="109" t="s">
+        <v>552</v>
+      </c>
       <c r="D122" s="103"/>
       <c r="E122" s="104"/>
-      <c r="F122" s="120"/>
+      <c r="F122" s="83" t="s">
+        <v>553</v>
+      </c>
       <c r="G122" s="119"/>
       <c r="H122" s="119"/>
       <c r="I122" s="119"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="568">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -1702,13 +1702,19 @@
     <t>filename_cantStart</t>
   </si>
   <si>
-    <t>파일명이 공백 혹은 점으로 시작할 수 없습니다.</t>
+    <t>파일명은 점(.)으로 시작할 수 없습니다.</t>
   </si>
   <si>
     <t>filename_onlyallowed</t>
   </si>
   <si>
-    <t>파일명에는 알파벳, 한글, 일어, 한자, 숫자, +-_ . 만 이용할 수 있습니다.</t>
+    <t>파일명에는 %[allow] 만 사용 가능합니다.</t>
+  </si>
+  <si>
+    <t>filename_allow</t>
+  </si>
+  <si>
+    <t>한글, 영문, 한자, 일어, 숫자와 기호(+, -, _, .)</t>
   </si>
 </sst>
 </file>
@@ -7761,10 +7767,14 @@
     <row r="125">
       <c r="A125" s="41"/>
       <c r="B125" s="105"/>
-      <c r="C125" s="104"/>
+      <c r="C125" s="109" t="s">
+        <v>566</v>
+      </c>
       <c r="D125" s="103"/>
       <c r="E125" s="104"/>
-      <c r="F125" s="124"/>
+      <c r="F125" s="83" t="s">
+        <v>567</v>
+      </c>
       <c r="G125" s="123"/>
       <c r="H125" s="123"/>
       <c r="I125" s="123"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -1831,7 +1831,7 @@
     </r>
   </si>
   <si>
-    <t>https://muz.so/grida_sample</t>
+    <t>https://drive.google.com/u/0/uc?id=1fLBReey87C2mQ-P5WMAvAOtuJN2CLfm0&amp;export=download</t>
   </si>
   <si>
     <t>파일 불러오기</t>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="639">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -1815,6 +1815,24 @@
   </si>
   <si>
     <t>Unshelved (%d)</t>
+  </si>
+  <si>
+    <t>word_New</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>word_select</t>
+  </si>
+  <si>
+    <t>Select (%d)</t>
+  </si>
+  <si>
+    <t>boardList_lastOpened</t>
+  </si>
+  <si>
+    <t>Last opened</t>
   </si>
   <si>
     <t>title</t>
@@ -8540,10 +8558,14 @@
     <row r="140">
       <c r="A140" s="41"/>
       <c r="B140" s="104"/>
-      <c r="C140" s="103"/>
+      <c r="C140" s="120" t="s">
+        <v>596</v>
+      </c>
       <c r="D140" s="102"/>
       <c r="E140" s="103"/>
-      <c r="F140" s="123"/>
+      <c r="F140" s="119" t="s">
+        <v>597</v>
+      </c>
       <c r="G140" s="118"/>
       <c r="H140" s="118"/>
       <c r="I140" s="118"/>
@@ -8568,10 +8590,14 @@
     <row r="141">
       <c r="A141" s="41"/>
       <c r="B141" s="104"/>
-      <c r="C141" s="103"/>
+      <c r="C141" s="120" t="s">
+        <v>598</v>
+      </c>
       <c r="D141" s="102"/>
       <c r="E141" s="103"/>
-      <c r="F141" s="123"/>
+      <c r="F141" s="119" t="s">
+        <v>599</v>
+      </c>
       <c r="G141" s="118"/>
       <c r="H141" s="118"/>
       <c r="I141" s="118"/>
@@ -8596,10 +8622,14 @@
     <row r="142">
       <c r="A142" s="41"/>
       <c r="B142" s="104"/>
-      <c r="C142" s="103"/>
+      <c r="C142" s="120" t="s">
+        <v>600</v>
+      </c>
       <c r="D142" s="102"/>
       <c r="E142" s="103"/>
-      <c r="F142" s="123"/>
+      <c r="F142" s="119" t="s">
+        <v>601</v>
+      </c>
       <c r="G142" s="118"/>
       <c r="H142" s="118"/>
       <c r="I142" s="118"/>
@@ -34298,22 +34328,22 @@
         <v>14</v>
       </c>
       <c r="B1" s="125" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D1" s="125" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="E1" s="125" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="F1" s="125" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="G1" s="126" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="H1" s="127"/>
       <c r="I1" s="127"/>
@@ -34337,18 +34367,18 @@
     </row>
     <row r="2">
       <c r="A2" s="127" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="B2" s="128"/>
       <c r="C2" s="127"/>
       <c r="D2" s="110" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="E2" s="128" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="F2" s="129" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="G2" s="127"/>
       <c r="H2" s="127"/>
@@ -34377,10 +34407,10 @@
       <c r="C3" s="127"/>
       <c r="D3" s="127"/>
       <c r="E3" s="128" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="F3" s="110" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="G3" s="130"/>
       <c r="H3" s="127"/>
@@ -34412,7 +34442,7 @@
         <v>519</v>
       </c>
       <c r="F4" s="110" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="G4" s="130"/>
       <c r="H4" s="127"/>
@@ -34444,7 +34474,7 @@
         <v>519</v>
       </c>
       <c r="F5" s="131" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="H5" s="127"/>
       <c r="I5" s="127"/>
@@ -34472,13 +34502,13 @@
       <c r="C6" s="127"/>
       <c r="D6" s="127"/>
       <c r="E6" s="132" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="G6" s="134" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="H6" s="127"/>
       <c r="I6" s="127"/>
@@ -34506,10 +34536,10 @@
       <c r="C7" s="127"/>
       <c r="D7" s="127"/>
       <c r="E7" s="130" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F7" s="130" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="G7" s="127"/>
       <c r="H7" s="127"/>
@@ -34538,10 +34568,10 @@
       <c r="C8" s="127"/>
       <c r="D8" s="127"/>
       <c r="E8" s="130" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F8" s="130" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="G8" s="127"/>
       <c r="H8" s="127"/>
@@ -34570,10 +34600,10 @@
       <c r="C9" s="127"/>
       <c r="D9" s="127"/>
       <c r="E9" s="135" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F9" s="136" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="G9" s="127"/>
       <c r="H9" s="127"/>
@@ -34602,10 +34632,10 @@
       <c r="C10" s="127"/>
       <c r="D10" s="127"/>
       <c r="E10" s="136" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="F10" s="130" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="G10" s="127"/>
       <c r="H10" s="127"/>
@@ -34634,10 +34664,10 @@
       <c r="C11" s="127"/>
       <c r="D11" s="127"/>
       <c r="E11" s="136" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="F11" s="137" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="G11" s="127"/>
       <c r="H11" s="127"/>
@@ -34666,10 +34696,10 @@
       <c r="C12" s="127"/>
       <c r="D12" s="127"/>
       <c r="E12" s="130" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="F12" s="110" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="G12" s="127"/>
       <c r="H12" s="127"/>
@@ -34698,10 +34728,10 @@
       <c r="C13" s="127"/>
       <c r="D13" s="127"/>
       <c r="E13" s="130" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="F13" s="130" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="G13" s="127"/>
       <c r="H13" s="127"/>
@@ -34730,10 +34760,10 @@
       <c r="C14" s="127"/>
       <c r="D14" s="127"/>
       <c r="E14" s="130" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="F14" s="130" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="G14" s="127"/>
       <c r="H14" s="127"/>
@@ -34762,10 +34792,10 @@
       <c r="C15" s="127"/>
       <c r="D15" s="127"/>
       <c r="E15" s="130" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="F15" s="130" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="G15" s="127"/>
       <c r="H15" s="127"/>
@@ -34797,7 +34827,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="130" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="G16" s="127"/>
       <c r="H16" s="127"/>
@@ -34829,7 +34859,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="130" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="G17" s="127"/>
       <c r="H17" s="127"/>
@@ -34861,7 +34891,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="130" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="G18" s="127"/>
       <c r="H18" s="127"/>
@@ -34890,10 +34920,10 @@
       <c r="C19" s="127"/>
       <c r="D19" s="127"/>
       <c r="E19" s="130" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="F19" s="136" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="G19" s="127"/>
       <c r="H19" s="127"/>
@@ -34979,7 +35009,7 @@
       <c r="D22" s="127"/>
       <c r="E22" s="139"/>
       <c r="F22" s="130" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="G22" s="127"/>
       <c r="H22" s="127"/>
@@ -35038,7 +35068,7 @@
       <c r="E24" s="139"/>
       <c r="F24" s="139"/>
       <c r="G24" s="136" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="H24" s="127"/>
       <c r="I24" s="127"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>그리다보드 샘플 영문 명언으로 수정 예정/ 수정 후 링크 등 변경 예정(남)</t>
         </r>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="661">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -2097,6 +2098,130 @@
   </si>
   <si>
     <t>save_to_saveAs</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_to_overwrite</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>덮어쓰기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save(Overwrite)</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_overwrite_popup_title</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_overwrite_popup_name</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_overwrite_popup_holder</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_overwrite_popup_save</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_overwrite_popup_cancel</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="&quot;Noto Sans KR&quot;"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="&quot;Noto Sans KR&quot;"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>덮어쓰기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="&quot;Noto Sans KR&quot;"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
 </sst>
@@ -3197,13 +3322,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1064"/>
+  <dimension ref="A1:Z1071"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3221,7 +3346,7 @@
     <col min="15" max="15" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3279,7 +3404,7 @@
       <c r="Y2" s="14"/>
       <c r="Z2" s="15"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="14.25">
       <c r="A3" s="8"/>
       <c r="B3" s="16"/>
       <c r="C3" s="10"/>
@@ -3307,7 +3432,7 @@
       <c r="Y3" s="20"/>
       <c r="Z3" s="21"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="15">
       <c r="A4" s="22"/>
       <c r="B4" s="23" t="s">
         <v>1</v>
@@ -3389,7 +3514,7 @@
       <c r="Y5" s="40"/>
       <c r="Z5" s="40"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="14.25">
       <c r="A6" s="41"/>
       <c r="B6" s="42" t="s">
         <v>14</v>
@@ -3475,7 +3600,7 @@
       <c r="Y7" s="51"/>
       <c r="Z7" s="51"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="14.25">
       <c r="A8" s="41"/>
       <c r="B8" s="42"/>
       <c r="C8" s="43" t="s">
@@ -3517,7 +3642,7 @@
       <c r="Y8" s="51"/>
       <c r="Z8" s="51"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="14.25">
       <c r="A9" s="41"/>
       <c r="B9" s="42"/>
       <c r="C9" s="52" t="s">
@@ -3559,7 +3684,7 @@
       <c r="Y9" s="51"/>
       <c r="Z9" s="51"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="14.25">
       <c r="A10" s="41"/>
       <c r="B10" s="42"/>
       <c r="C10" s="52" t="s">
@@ -3601,7 +3726,7 @@
       <c r="Y10" s="51"/>
       <c r="Z10" s="51"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="14.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42"/>
       <c r="C11" s="43" t="s">
@@ -3643,7 +3768,7 @@
       <c r="Y11" s="51"/>
       <c r="Z11" s="51"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="14.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42"/>
       <c r="C12" s="43" t="s">
@@ -3913,7 +4038,7 @@
       <c r="Y18" s="51"/>
       <c r="Z18" s="51"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="14.25">
       <c r="A19" s="41"/>
       <c r="B19" s="42"/>
       <c r="C19" s="43" t="s">
@@ -3955,7 +4080,7 @@
       <c r="Y19" s="51"/>
       <c r="Z19" s="51"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="14.25">
       <c r="A20" s="41"/>
       <c r="B20" s="42"/>
       <c r="C20" s="43" t="s">
@@ -3997,7 +4122,7 @@
       <c r="Y20" s="51"/>
       <c r="Z20" s="51"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="14.25">
       <c r="A21" s="41"/>
       <c r="B21" s="42"/>
       <c r="C21" s="43" t="s">
@@ -4039,7 +4164,7 @@
       <c r="Y21" s="51"/>
       <c r="Z21" s="51"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="14.25">
       <c r="A22" s="41"/>
       <c r="B22" s="42"/>
       <c r="C22" s="43" t="s">
@@ -4081,7 +4206,7 @@
       <c r="Y22" s="51"/>
       <c r="Z22" s="51"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="15">
       <c r="A23" s="41"/>
       <c r="B23" s="42"/>
       <c r="C23" s="43" t="s">
@@ -4123,7 +4248,7 @@
       <c r="Y23" s="51"/>
       <c r="Z23" s="51"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="15">
       <c r="A24" s="41"/>
       <c r="B24" s="42"/>
       <c r="C24" s="43" t="s">
@@ -4165,30 +4290,26 @@
       <c r="Y24" s="51"/>
       <c r="Z24" s="51"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="14.25">
       <c r="A25" s="41"/>
       <c r="B25" s="42"/>
-      <c r="C25" s="43" t="s">
-        <v>64</v>
+      <c r="C25" s="45" t="s">
+        <v>652</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="60" t="s">
-        <v>68</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="123" t="s">
+        <v>653</v>
+      </c>
+      <c r="G25" s="68" t="s">
+        <v>654</v>
+      </c>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
       <c r="J25" s="61"/>
       <c r="K25" s="61"/>
       <c r="L25" s="51"/>
@@ -4207,29 +4328,25 @@
       <c r="Y25" s="51"/>
       <c r="Z25" s="51"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="14.25">
       <c r="A26" s="41"/>
       <c r="B26" s="42"/>
-      <c r="C26" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" s="60" t="s">
-        <v>73</v>
+      <c r="C26" s="45" t="s">
+        <v>655</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>660</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="123" t="s">
+        <v>641</v>
+      </c>
+      <c r="G26" s="68"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92" t="s">
+        <v>59</v>
       </c>
       <c r="J26" s="61"/>
       <c r="K26" s="61"/>
@@ -4249,29 +4366,29 @@
       <c r="Y26" s="51"/>
       <c r="Z26" s="51"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="14.25">
       <c r="A27" s="41"/>
       <c r="B27" s="42"/>
-      <c r="C27" s="43" t="s">
-        <v>74</v>
+      <c r="C27" s="45" t="s">
+        <v>656</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="60" t="s">
-        <v>78</v>
+        <v>660</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="123" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="92" t="s">
+        <v>37</v>
       </c>
       <c r="J27" s="61"/>
       <c r="K27" s="61"/>
@@ -4291,32 +4408,32 @@
       <c r="Y27" s="51"/>
       <c r="Z27" s="51"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="14.25">
       <c r="A28" s="41"/>
       <c r="B28" s="42"/>
-      <c r="C28" s="43" t="s">
-        <v>79</v>
+      <c r="C28" s="45" t="s">
+        <v>657</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>16</v>
+        <v>660</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
+        <v>29</v>
+      </c>
+      <c r="F28" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="51"/>
       <c r="M28" s="51"/>
       <c r="N28" s="51"/>
@@ -4333,32 +4450,32 @@
       <c r="Y28" s="51"/>
       <c r="Z28" s="51"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" ht="15">
       <c r="A29" s="41"/>
       <c r="B29" s="42"/>
-      <c r="C29" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="67" t="s">
-        <v>80</v>
+      <c r="C29" s="45" t="s">
+        <v>658</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>660</v>
       </c>
       <c r="E29" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="I29" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="F29" s="123" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
       <c r="L29" s="51"/>
       <c r="M29" s="51"/>
       <c r="N29" s="51"/>
@@ -4375,32 +4492,32 @@
       <c r="Y29" s="51"/>
       <c r="Z29" s="51"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" ht="15">
       <c r="A30" s="41"/>
       <c r="B30" s="42"/>
-      <c r="C30" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>80</v>
+      <c r="C30" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>660</v>
       </c>
       <c r="E30" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="I30" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
+      <c r="F30" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
       <c r="L30" s="51"/>
       <c r="M30" s="51"/>
       <c r="N30" s="51"/>
@@ -4417,30 +4534,16 @@
       <c r="Y30" s="51"/>
       <c r="Z30" s="51"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="14.25">
       <c r="A31" s="41"/>
       <c r="B31" s="42"/>
-      <c r="C31" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="I31" s="60" t="s">
-        <v>98</v>
-      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
       <c r="J31" s="61"/>
       <c r="K31" s="61"/>
       <c r="L31" s="51"/>
@@ -4459,29 +4562,29 @@
       <c r="Y31" s="51"/>
       <c r="Z31" s="51"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="14.25">
       <c r="A32" s="41"/>
       <c r="B32" s="42"/>
       <c r="C32" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>80</v>
+        <v>64</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>16</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>100</v>
+        <v>17</v>
+      </c>
+      <c r="F32" s="66" t="s">
+        <v>65</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>102</v>
+        <v>66</v>
+      </c>
+      <c r="H32" s="64" t="s">
+        <v>67</v>
       </c>
       <c r="I32" s="60" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="J32" s="61"/>
       <c r="K32" s="61"/>
@@ -4501,32 +4604,32 @@
       <c r="Y32" s="51"/>
       <c r="Z32" s="51"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" ht="14.25">
       <c r="A33" s="41"/>
       <c r="B33" s="42"/>
       <c r="C33" s="43" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="D33" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="58" t="s">
-        <v>108</v>
+        <v>65</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="64" t="s">
+        <v>72</v>
       </c>
       <c r="I33" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
+        <v>73</v>
+      </c>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
       <c r="L33" s="51"/>
       <c r="M33" s="51"/>
       <c r="N33" s="51"/>
@@ -4543,29 +4646,29 @@
       <c r="Y33" s="51"/>
       <c r="Z33" s="51"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" ht="14.25">
       <c r="A34" s="41"/>
       <c r="B34" s="42"/>
       <c r="C34" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>105</v>
+        <v>74</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>22</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="H34" s="48" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="I34" s="60" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="J34" s="61"/>
       <c r="K34" s="61"/>
@@ -4585,32 +4688,32 @@
       <c r="Y34" s="51"/>
       <c r="Z34" s="51"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" ht="15">
       <c r="A35" s="41"/>
       <c r="B35" s="42"/>
       <c r="C35" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="G35" s="68" t="s">
-        <v>117</v>
+      <c r="G35" s="57" t="s">
+        <v>81</v>
       </c>
       <c r="H35" s="48" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="I35" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
+        <v>83</v>
+      </c>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
       <c r="L35" s="51"/>
       <c r="M35" s="51"/>
       <c r="N35" s="51"/>
@@ -4627,11 +4730,11 @@
       <c r="Y35" s="51"/>
       <c r="Z35" s="51"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" ht="14.25">
       <c r="A36" s="41"/>
       <c r="B36" s="42"/>
       <c r="C36" s="43" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D36" s="67" t="s">
         <v>80</v>
@@ -4640,16 +4743,16 @@
         <v>29</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="G36" s="47" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="H36" s="48" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="I36" s="60" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="J36" s="61"/>
       <c r="K36" s="61"/>
@@ -4669,29 +4772,29 @@
       <c r="Y36" s="51"/>
       <c r="Z36" s="51"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" ht="28.5">
       <c r="A37" s="41"/>
       <c r="B37" s="42"/>
       <c r="C37" s="43" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="D37" s="67" t="s">
         <v>80</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="H37" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="I37" s="69" t="s">
-        <v>124</v>
+        <v>92</v>
+      </c>
+      <c r="I37" s="60" t="s">
+        <v>93</v>
       </c>
       <c r="J37" s="61"/>
       <c r="K37" s="61"/>
@@ -4711,29 +4814,29 @@
       <c r="Y37" s="51"/>
       <c r="Z37" s="51"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" ht="14.25">
       <c r="A38" s="41"/>
       <c r="B38" s="42"/>
       <c r="C38" s="43" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="D38" s="67" t="s">
         <v>80</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="F38" s="46" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="G38" s="47" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="H38" s="48" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="I38" s="60" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="J38" s="61"/>
       <c r="K38" s="61"/>
@@ -4753,29 +4856,29 @@
       <c r="Y38" s="51"/>
       <c r="Z38" s="51"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" ht="14.25">
       <c r="A39" s="41"/>
       <c r="B39" s="42"/>
       <c r="C39" s="43" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="D39" s="67" t="s">
         <v>80</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="G39" s="47" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="H39" s="48" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="I39" s="60" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="J39" s="61"/>
       <c r="K39" s="61"/>
@@ -4795,32 +4898,32 @@
       <c r="Y39" s="51"/>
       <c r="Z39" s="51"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" ht="15">
       <c r="A40" s="41"/>
       <c r="B40" s="42"/>
       <c r="C40" s="43" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D40" s="67" t="s">
         <v>80</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="H40" s="48" t="s">
-        <v>139</v>
+        <v>106</v>
+      </c>
+      <c r="G40" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" s="58" t="s">
+        <v>108</v>
       </c>
       <c r="I40" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
+        <v>109</v>
+      </c>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
       <c r="L40" s="51"/>
       <c r="M40" s="51"/>
       <c r="N40" s="51"/>
@@ -4837,11 +4940,11 @@
       <c r="Y40" s="51"/>
       <c r="Z40" s="51"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" ht="42.75">
       <c r="A41" s="41"/>
       <c r="B41" s="42"/>
       <c r="C41" s="43" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="D41" s="67" t="s">
         <v>80</v>
@@ -4850,16 +4953,16 @@
         <v>105</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="H41" s="48" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="I41" s="60" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="J41" s="61"/>
       <c r="K41" s="61"/>
@@ -4879,11 +4982,11 @@
       <c r="Y41" s="51"/>
       <c r="Z41" s="51"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" ht="14.25">
       <c r="A42" s="41"/>
       <c r="B42" s="42"/>
       <c r="C42" s="43" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="D42" s="67" t="s">
         <v>80</v>
@@ -4892,16 +4995,16 @@
         <v>105</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G42" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="H42" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="I42" s="70" t="s">
-        <v>150</v>
+        <v>116</v>
+      </c>
+      <c r="G42" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" s="60" t="s">
+        <v>119</v>
       </c>
       <c r="J42" s="61"/>
       <c r="K42" s="61"/>
@@ -4921,29 +5024,29 @@
       <c r="Y42" s="51"/>
       <c r="Z42" s="51"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" ht="14.25">
       <c r="A43" s="41"/>
       <c r="B43" s="42"/>
       <c r="C43" s="43" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>80</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="F43" s="46" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="G43" s="47" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="H43" s="48" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="I43" s="60" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="J43" s="61"/>
       <c r="K43" s="61"/>
@@ -4963,29 +5066,29 @@
       <c r="Y43" s="51"/>
       <c r="Z43" s="51"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" ht="14.25">
       <c r="A44" s="41"/>
       <c r="B44" s="42"/>
       <c r="C44" s="43" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="D44" s="67" t="s">
         <v>80</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F44" s="46" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="G44" s="47" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="H44" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="I44" s="60" t="s">
-        <v>160</v>
+        <v>123</v>
+      </c>
+      <c r="I44" s="69" t="s">
+        <v>124</v>
       </c>
       <c r="J44" s="61"/>
       <c r="K44" s="61"/>
@@ -5005,29 +5108,29 @@
       <c r="Y44" s="51"/>
       <c r="Z44" s="51"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" ht="42.75">
       <c r="A45" s="41"/>
       <c r="B45" s="42"/>
       <c r="C45" s="43" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="D45" s="67" t="s">
         <v>80</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F45" s="46" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="G45" s="47" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="H45" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="I45" s="71" t="s">
-        <v>165</v>
+        <v>129</v>
+      </c>
+      <c r="I45" s="60" t="s">
+        <v>130</v>
       </c>
       <c r="J45" s="61"/>
       <c r="K45" s="61"/>
@@ -5047,11 +5150,11 @@
       <c r="Y45" s="51"/>
       <c r="Z45" s="51"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="14.25">
       <c r="A46" s="41"/>
       <c r="B46" s="42"/>
       <c r="C46" s="43" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="D46" s="67" t="s">
         <v>80</v>
@@ -5060,19 +5163,19 @@
         <v>105</v>
       </c>
       <c r="F46" s="46" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="G46" s="47" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="H46" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="I46" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
+        <v>134</v>
+      </c>
+      <c r="I46" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
       <c r="L46" s="51"/>
       <c r="M46" s="51"/>
       <c r="N46" s="51"/>
@@ -5089,29 +5192,29 @@
       <c r="Y46" s="51"/>
       <c r="Z46" s="51"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" ht="14.25">
       <c r="A47" s="41"/>
       <c r="B47" s="42"/>
       <c r="C47" s="43" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="D47" s="67" t="s">
         <v>80</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="F47" s="46" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="G47" s="47" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="H47" s="48" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="I47" s="60" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="J47" s="61"/>
       <c r="K47" s="61"/>
@@ -5131,11 +5234,11 @@
       <c r="Y47" s="51"/>
       <c r="Z47" s="51"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" ht="14.25">
       <c r="A48" s="41"/>
       <c r="B48" s="42"/>
-      <c r="C48" s="52" t="s">
-        <v>176</v>
+      <c r="C48" s="43" t="s">
+        <v>141</v>
       </c>
       <c r="D48" s="67" t="s">
         <v>80</v>
@@ -5144,16 +5247,16 @@
         <v>105</v>
       </c>
       <c r="F48" s="46" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="G48" s="47" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="H48" s="48" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="I48" s="60" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="J48" s="61"/>
       <c r="K48" s="61"/>
@@ -5173,29 +5276,29 @@
       <c r="Y48" s="51"/>
       <c r="Z48" s="51"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" ht="42.75">
       <c r="A49" s="41"/>
       <c r="B49" s="42"/>
       <c r="C49" s="43" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="D49" s="67" t="s">
         <v>80</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F49" s="46" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="G49" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="H49" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="I49" s="60" t="s">
-        <v>185</v>
+        <v>148</v>
+      </c>
+      <c r="H49" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="I49" s="70" t="s">
+        <v>150</v>
       </c>
       <c r="J49" s="61"/>
       <c r="K49" s="61"/>
@@ -5215,32 +5318,32 @@
       <c r="Y49" s="51"/>
       <c r="Z49" s="51"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="28.5">
       <c r="A50" s="41"/>
       <c r="B50" s="42"/>
       <c r="C50" s="43" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="D50" s="67" t="s">
         <v>80</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F50" s="46" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="G50" s="47" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="H50" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="I50" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="J50" s="73"/>
-      <c r="K50" s="73"/>
+        <v>154</v>
+      </c>
+      <c r="I50" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
       <c r="L50" s="51"/>
       <c r="M50" s="51"/>
       <c r="N50" s="51"/>
@@ -5257,32 +5360,32 @@
       <c r="Y50" s="51"/>
       <c r="Z50" s="51"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="14.25">
       <c r="A51" s="41"/>
       <c r="B51" s="42"/>
       <c r="C51" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51" s="44" t="s">
-        <v>192</v>
+        <v>156</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>80</v>
       </c>
       <c r="E51" s="45" t="s">
         <v>29</v>
       </c>
       <c r="F51" s="46" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="G51" s="47" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="H51" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="I51" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
+        <v>159</v>
+      </c>
+      <c r="I51" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
       <c r="L51" s="51"/>
       <c r="M51" s="51"/>
       <c r="N51" s="51"/>
@@ -5299,32 +5402,32 @@
       <c r="Y51" s="51"/>
       <c r="Z51" s="51"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="14.25">
       <c r="A52" s="41"/>
       <c r="B52" s="42"/>
       <c r="C52" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="D52" s="44" t="s">
-        <v>192</v>
+        <v>161</v>
+      </c>
+      <c r="D52" s="67" t="s">
+        <v>80</v>
       </c>
       <c r="E52" s="45" t="s">
         <v>29</v>
       </c>
       <c r="F52" s="46" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="G52" s="47" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H52" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="I52" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
+        <v>164</v>
+      </c>
+      <c r="I52" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
       <c r="L52" s="51"/>
       <c r="M52" s="51"/>
       <c r="N52" s="51"/>
@@ -5341,32 +5444,32 @@
       <c r="Y52" s="51"/>
       <c r="Z52" s="51"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="41"/>
       <c r="B53" s="42"/>
       <c r="C53" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="D53" s="44" t="s">
-        <v>192</v>
+        <v>166</v>
+      </c>
+      <c r="D53" s="67" t="s">
+        <v>80</v>
       </c>
       <c r="E53" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="F53" s="76" t="s">
-        <v>198</v>
+      <c r="F53" s="46" t="s">
+        <v>167</v>
       </c>
       <c r="G53" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="H53" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="I53" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="J53" s="61"/>
-      <c r="K53" s="61"/>
+        <v>168</v>
+      </c>
+      <c r="H53" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="I53" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
       <c r="L53" s="51"/>
       <c r="M53" s="51"/>
       <c r="N53" s="51"/>
@@ -5383,29 +5486,29 @@
       <c r="Y53" s="51"/>
       <c r="Z53" s="51"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" ht="28.5">
       <c r="A54" s="41"/>
       <c r="B54" s="42"/>
       <c r="C54" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>192</v>
+        <v>171</v>
+      </c>
+      <c r="D54" s="67" t="s">
+        <v>80</v>
       </c>
       <c r="E54" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="F54" s="76" t="s">
-        <v>204</v>
+      <c r="F54" s="46" t="s">
+        <v>172</v>
       </c>
       <c r="G54" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="H54" s="64" t="s">
-        <v>206</v>
+        <v>173</v>
+      </c>
+      <c r="H54" s="48" t="s">
+        <v>174</v>
       </c>
       <c r="I54" s="60" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="J54" s="61"/>
       <c r="K54" s="61"/>
@@ -5425,29 +5528,29 @@
       <c r="Y54" s="51"/>
       <c r="Z54" s="51"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" ht="14.25">
       <c r="A55" s="41"/>
       <c r="B55" s="42"/>
-      <c r="C55" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="D55" s="44" t="s">
-        <v>192</v>
+      <c r="C55" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="67" t="s">
+        <v>80</v>
       </c>
       <c r="E55" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="F55" s="76" t="s">
-        <v>209</v>
+      <c r="F55" s="46" t="s">
+        <v>177</v>
       </c>
       <c r="G55" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="H55" s="64" t="s">
-        <v>211</v>
+        <v>178</v>
+      </c>
+      <c r="H55" s="48" t="s">
+        <v>179</v>
       </c>
       <c r="I55" s="60" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="J55" s="61"/>
       <c r="K55" s="61"/>
@@ -5467,32 +5570,32 @@
       <c r="Y55" s="51"/>
       <c r="Z55" s="51"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="14.25">
       <c r="A56" s="41"/>
       <c r="B56" s="42"/>
       <c r="C56" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="D56" s="44" t="s">
-        <v>192</v>
+        <v>181</v>
+      </c>
+      <c r="D56" s="67" t="s">
+        <v>80</v>
       </c>
       <c r="E56" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F56" s="76" t="s">
-        <v>214</v>
+      <c r="F56" s="46" t="s">
+        <v>182</v>
       </c>
       <c r="G56" s="47" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="H56" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="I56" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
+        <v>184</v>
+      </c>
+      <c r="I56" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
       <c r="L56" s="51"/>
       <c r="M56" s="51"/>
       <c r="N56" s="51"/>
@@ -5513,28 +5616,28 @@
       <c r="A57" s="41"/>
       <c r="B57" s="42"/>
       <c r="C57" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="D57" s="44" t="s">
-        <v>192</v>
+        <v>186</v>
+      </c>
+      <c r="D57" s="67" t="s">
+        <v>80</v>
       </c>
       <c r="E57" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" s="76" t="s">
-        <v>219</v>
+        <v>29</v>
+      </c>
+      <c r="F57" s="46" t="s">
+        <v>187</v>
       </c>
       <c r="G57" s="47" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="H57" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="I57" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75"/>
+        <v>189</v>
+      </c>
+      <c r="I57" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
       <c r="L57" s="51"/>
       <c r="M57" s="51"/>
       <c r="N57" s="51"/>
@@ -5555,25 +5658,25 @@
       <c r="A58" s="41"/>
       <c r="B58" s="42"/>
       <c r="C58" s="43" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="D58" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E58" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F58" s="76" t="s">
-        <v>224</v>
+        <v>29</v>
+      </c>
+      <c r="F58" s="46" t="s">
+        <v>193</v>
       </c>
       <c r="G58" s="47" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="H58" s="48" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="I58" s="74" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="J58" s="75"/>
       <c r="K58" s="75"/>
@@ -5593,32 +5696,32 @@
       <c r="Y58" s="51"/>
       <c r="Z58" s="51"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="41"/>
       <c r="B59" s="42"/>
       <c r="C59" s="43" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="D59" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E59" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F59" s="76" t="s">
-        <v>229</v>
+        <v>29</v>
+      </c>
+      <c r="F59" s="46" t="s">
+        <v>198</v>
       </c>
       <c r="G59" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H59" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="I59" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
+        <v>199</v>
+      </c>
+      <c r="H59" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="I59" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="J59" s="75"/>
+      <c r="K59" s="75"/>
       <c r="L59" s="51"/>
       <c r="M59" s="51"/>
       <c r="N59" s="51"/>
@@ -5635,29 +5738,29 @@
       <c r="Y59" s="51"/>
       <c r="Z59" s="51"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" ht="14.25">
       <c r="A60" s="41"/>
       <c r="B60" s="42"/>
       <c r="C60" s="43" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="D60" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E60" s="45" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F60" s="76" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="G60" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="H60" s="48" t="s">
-        <v>236</v>
+        <v>199</v>
+      </c>
+      <c r="H60" s="64" t="s">
+        <v>200</v>
       </c>
       <c r="I60" s="60" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="J60" s="61"/>
       <c r="K60" s="61"/>
@@ -5677,29 +5780,29 @@
       <c r="Y60" s="51"/>
       <c r="Z60" s="51"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" ht="14.25">
       <c r="A61" s="41"/>
       <c r="B61" s="42"/>
       <c r="C61" s="43" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="D61" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E61" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="46" t="s">
-        <v>239</v>
+        <v>105</v>
+      </c>
+      <c r="F61" s="76" t="s">
+        <v>204</v>
       </c>
       <c r="G61" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="H61" s="48" t="s">
-        <v>241</v>
+        <v>205</v>
+      </c>
+      <c r="H61" s="64" t="s">
+        <v>206</v>
       </c>
       <c r="I61" s="60" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="J61" s="61"/>
       <c r="K61" s="61"/>
@@ -5719,29 +5822,29 @@
       <c r="Y61" s="51"/>
       <c r="Z61" s="51"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" ht="28.5">
       <c r="A62" s="41"/>
       <c r="B62" s="42"/>
       <c r="C62" s="43" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="D62" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E62" s="45" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F62" s="76" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="G62" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="H62" s="48" t="s">
-        <v>246</v>
+        <v>210</v>
+      </c>
+      <c r="H62" s="64" t="s">
+        <v>211</v>
       </c>
       <c r="I62" s="60" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="J62" s="61"/>
       <c r="K62" s="61"/>
@@ -5761,32 +5864,32 @@
       <c r="Y62" s="51"/>
       <c r="Z62" s="51"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="41"/>
       <c r="B63" s="42"/>
       <c r="C63" s="43" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="D63" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E63" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63" s="46" t="s">
-        <v>249</v>
+        <v>29</v>
+      </c>
+      <c r="F63" s="76" t="s">
+        <v>214</v>
       </c>
       <c r="G63" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="H63" s="64" t="s">
-        <v>251</v>
-      </c>
-      <c r="I63" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61"/>
+        <v>215</v>
+      </c>
+      <c r="H63" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="I63" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="J63" s="73"/>
+      <c r="K63" s="73"/>
       <c r="L63" s="51"/>
       <c r="M63" s="51"/>
       <c r="N63" s="51"/>
@@ -5807,7 +5910,7 @@
       <c r="A64" s="41"/>
       <c r="B64" s="42"/>
       <c r="C64" s="43" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="D64" s="44" t="s">
         <v>192</v>
@@ -5815,20 +5918,20 @@
       <c r="E64" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="F64" s="46" t="s">
-        <v>254</v>
+      <c r="F64" s="76" t="s">
+        <v>219</v>
       </c>
       <c r="G64" s="47" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="H64" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="I64" s="72" t="s">
-        <v>257</v>
-      </c>
-      <c r="J64" s="73"/>
-      <c r="K64" s="73"/>
+        <v>221</v>
+      </c>
+      <c r="I64" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="J64" s="75"/>
+      <c r="K64" s="75"/>
       <c r="L64" s="51"/>
       <c r="M64" s="51"/>
       <c r="N64" s="51"/>
@@ -5849,7 +5952,7 @@
       <c r="A65" s="41"/>
       <c r="B65" s="42"/>
       <c r="C65" s="43" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="D65" s="44" t="s">
         <v>192</v>
@@ -5858,16 +5961,16 @@
         <v>105</v>
       </c>
       <c r="F65" s="76" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="G65" s="47" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="H65" s="48" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="I65" s="74" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="J65" s="75"/>
       <c r="K65" s="75"/>
@@ -5887,11 +5990,11 @@
       <c r="Y65" s="51"/>
       <c r="Z65" s="51"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="28.5">
       <c r="A66" s="41"/>
       <c r="B66" s="42"/>
       <c r="C66" s="43" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D66" s="44" t="s">
         <v>192</v>
@@ -5900,19 +6003,19 @@
         <v>105</v>
       </c>
       <c r="F66" s="76" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="G66" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="H66" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="I66" s="74" t="s">
-        <v>267</v>
-      </c>
-      <c r="J66" s="75"/>
-      <c r="K66" s="75"/>
+        <v>230</v>
+      </c>
+      <c r="H66" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="I66" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
       <c r="L66" s="51"/>
       <c r="M66" s="51"/>
       <c r="N66" s="51"/>
@@ -5933,25 +6036,25 @@
       <c r="A67" s="41"/>
       <c r="B67" s="42"/>
       <c r="C67" s="43" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="D67" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E67" s="45" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F67" s="76" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="G67" s="47" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="H67" s="48" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="I67" s="60" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="J67" s="61"/>
       <c r="K67" s="61"/>
@@ -5971,32 +6074,32 @@
       <c r="Y67" s="51"/>
       <c r="Z67" s="51"/>
     </row>
-    <row r="68" spans="1:26" ht="18">
+    <row r="68" spans="1:26" ht="14.25">
       <c r="A68" s="41"/>
       <c r="B68" s="42"/>
       <c r="C68" s="43" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="D68" s="44" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="E68" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="G68" s="77" t="s">
-        <v>275</v>
+        <v>22</v>
+      </c>
+      <c r="F68" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="G68" s="47" t="s">
+        <v>240</v>
       </c>
       <c r="H68" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="I68" s="72" t="s">
-        <v>276</v>
-      </c>
-      <c r="J68" s="78"/>
-      <c r="K68" s="78"/>
+        <v>241</v>
+      </c>
+      <c r="I68" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="J68" s="61"/>
+      <c r="K68" s="61"/>
       <c r="L68" s="51"/>
       <c r="M68" s="51"/>
       <c r="N68" s="51"/>
@@ -6013,29 +6116,29 @@
       <c r="Y68" s="51"/>
       <c r="Z68" s="51"/>
     </row>
-    <row r="69" spans="1:26" ht="15">
+    <row r="69" spans="1:26" ht="14.25">
       <c r="A69" s="41"/>
       <c r="B69" s="42"/>
       <c r="C69" s="43" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="E69" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G69" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="H69" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="I69" s="79" t="s">
-        <v>49</v>
+        <v>22</v>
+      </c>
+      <c r="F69" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="G69" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="H69" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="I69" s="60" t="s">
+        <v>247</v>
       </c>
       <c r="J69" s="61"/>
       <c r="K69" s="61"/>
@@ -6059,25 +6162,25 @@
       <c r="A70" s="41"/>
       <c r="B70" s="42"/>
       <c r="C70" s="43" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>279</v>
+        <v>192</v>
       </c>
       <c r="E70" s="45" t="s">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="F70" s="46" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="G70" s="47" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="H70" s="64" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="I70" s="60" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="J70" s="61"/>
       <c r="K70" s="61"/>
@@ -6097,32 +6200,32 @@
       <c r="Y70" s="51"/>
       <c r="Z70" s="51"/>
     </row>
-    <row r="71" spans="1:26" ht="15">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="41"/>
       <c r="B71" s="42"/>
       <c r="C71" s="43" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="E71" s="45" t="s">
-        <v>287</v>
+        <v>105</v>
       </c>
       <c r="F71" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="G71" s="77" t="s">
-        <v>289</v>
-      </c>
-      <c r="H71" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="I71" s="79" t="s">
-        <v>290</v>
-      </c>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
+        <v>254</v>
+      </c>
+      <c r="G71" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="H71" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="I71" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="J71" s="73"/>
+      <c r="K71" s="73"/>
       <c r="L71" s="51"/>
       <c r="M71" s="51"/>
       <c r="N71" s="51"/>
@@ -6139,32 +6242,32 @@
       <c r="Y71" s="51"/>
       <c r="Z71" s="51"/>
     </row>
-    <row r="72" spans="1:26" ht="14.25">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="41"/>
       <c r="B72" s="42"/>
       <c r="C72" s="43" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="E72" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="F72" s="46" t="s">
-        <v>47</v>
+        <v>105</v>
+      </c>
+      <c r="F72" s="76" t="s">
+        <v>259</v>
       </c>
       <c r="G72" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="I72" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61"/>
+        <v>260</v>
+      </c>
+      <c r="H72" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="I72" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="J72" s="75"/>
+      <c r="K72" s="75"/>
       <c r="L72" s="51"/>
       <c r="M72" s="51"/>
       <c r="N72" s="51"/>
@@ -6181,32 +6284,32 @@
       <c r="Y72" s="51"/>
       <c r="Z72" s="51"/>
     </row>
-    <row r="73" spans="1:26" ht="15">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="41"/>
       <c r="B73" s="42"/>
       <c r="C73" s="43" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="F73" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="G73" s="77" t="s">
-        <v>295</v>
-      </c>
-      <c r="H73" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="I73" s="79" t="s">
-        <v>297</v>
-      </c>
-      <c r="J73" s="61"/>
-      <c r="K73" s="61"/>
+        <v>105</v>
+      </c>
+      <c r="F73" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="G73" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="H73" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="I73" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="J73" s="75"/>
+      <c r="K73" s="75"/>
       <c r="L73" s="51"/>
       <c r="M73" s="51"/>
       <c r="N73" s="51"/>
@@ -6223,29 +6326,29 @@
       <c r="Y73" s="51"/>
       <c r="Z73" s="51"/>
     </row>
-    <row r="74" spans="1:26" ht="28.5">
+    <row r="74" spans="1:26" ht="14.25">
       <c r="A74" s="41"/>
       <c r="B74" s="42"/>
       <c r="C74" s="43" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="E74" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="F74" s="62" t="s">
-        <v>299</v>
+        <v>29</v>
+      </c>
+      <c r="F74" s="76" t="s">
+        <v>269</v>
       </c>
       <c r="G74" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="H74" s="64" t="s">
-        <v>301</v>
+        <v>270</v>
+      </c>
+      <c r="H74" s="48" t="s">
+        <v>271</v>
       </c>
       <c r="I74" s="60" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="J74" s="61"/>
       <c r="K74" s="61"/>
@@ -6265,32 +6368,32 @@
       <c r="Y74" s="51"/>
       <c r="Z74" s="51"/>
     </row>
-    <row r="75" spans="1:26" ht="14.25">
+    <row r="75" spans="1:26" ht="18">
       <c r="A75" s="41"/>
       <c r="B75" s="42"/>
       <c r="C75" s="43" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="E75" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="F75" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="G75" s="47" t="s">
-        <v>305</v>
+        <v>29</v>
+      </c>
+      <c r="F75" s="76" t="s">
+        <v>274</v>
+      </c>
+      <c r="G75" s="77" t="s">
+        <v>275</v>
       </c>
       <c r="H75" s="48" t="s">
-        <v>306</v>
-      </c>
-      <c r="I75" s="60" t="s">
-        <v>307</v>
-      </c>
-      <c r="J75" s="61"/>
-      <c r="K75" s="61"/>
+        <v>276</v>
+      </c>
+      <c r="I75" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="J75" s="78"/>
+      <c r="K75" s="78"/>
       <c r="L75" s="51"/>
       <c r="M75" s="51"/>
       <c r="N75" s="51"/>
@@ -6307,29 +6410,29 @@
       <c r="Y75" s="51"/>
       <c r="Z75" s="51"/>
     </row>
-    <row r="76" spans="1:26" ht="14.25">
+    <row r="76" spans="1:26" ht="15">
       <c r="A76" s="41"/>
       <c r="B76" s="42"/>
       <c r="C76" s="43" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D76" s="44" t="s">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="E76" s="45" t="s">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="F76" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="G76" s="47" t="s">
-        <v>311</v>
+        <v>46</v>
+      </c>
+      <c r="G76" s="77" t="s">
+        <v>47</v>
       </c>
       <c r="H76" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="I76" s="60" t="s">
-        <v>313</v>
+        <v>48</v>
+      </c>
+      <c r="I76" s="79" t="s">
+        <v>49</v>
       </c>
       <c r="J76" s="61"/>
       <c r="K76" s="61"/>
@@ -6351,27 +6454,27 @@
     </row>
     <row r="77" spans="1:26" ht="14.25">
       <c r="A77" s="41"/>
-      <c r="B77" s="80"/>
+      <c r="B77" s="42"/>
       <c r="C77" s="43" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="E77" s="45" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F77" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="G77" s="81" t="s">
-        <v>316</v>
+        <v>281</v>
+      </c>
+      <c r="G77" s="47" t="s">
+        <v>282</v>
       </c>
       <c r="H77" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="I77" s="82" t="s">
-        <v>318</v>
+        <v>283</v>
+      </c>
+      <c r="I77" s="60" t="s">
+        <v>284</v>
       </c>
       <c r="J77" s="61"/>
       <c r="K77" s="61"/>
@@ -6391,29 +6494,29 @@
       <c r="Y77" s="51"/>
       <c r="Z77" s="51"/>
     </row>
-    <row r="78" spans="1:26" ht="14.25">
+    <row r="78" spans="1:26" ht="15">
       <c r="A78" s="41"/>
-      <c r="B78" s="80"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="43" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="D78" s="44" t="s">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>17</v>
+        <v>287</v>
       </c>
       <c r="F78" s="46" t="s">
-        <v>320</v>
-      </c>
-      <c r="G78" s="81" t="s">
-        <v>321</v>
+        <v>288</v>
+      </c>
+      <c r="G78" s="77" t="s">
+        <v>289</v>
       </c>
       <c r="H78" s="64" t="s">
-        <v>322</v>
-      </c>
-      <c r="I78" s="82" t="s">
-        <v>323</v>
+        <v>289</v>
+      </c>
+      <c r="I78" s="79" t="s">
+        <v>290</v>
       </c>
       <c r="J78" s="61"/>
       <c r="K78" s="61"/>
@@ -6435,27 +6538,27 @@
     </row>
     <row r="79" spans="1:26" ht="14.25">
       <c r="A79" s="41"/>
-      <c r="B79" s="80"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="43" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="D79" s="44" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="E79" s="45" t="s">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="F79" s="46" t="s">
-        <v>325</v>
-      </c>
-      <c r="G79" s="81" t="s">
-        <v>326</v>
+        <v>47</v>
+      </c>
+      <c r="G79" s="47" t="s">
+        <v>47</v>
       </c>
       <c r="H79" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="I79" s="83" t="s">
-        <v>328</v>
+        <v>48</v>
+      </c>
+      <c r="I79" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="J79" s="61"/>
       <c r="K79" s="61"/>
@@ -6475,29 +6578,29 @@
       <c r="Y79" s="51"/>
       <c r="Z79" s="51"/>
     </row>
-    <row r="80" spans="1:26" ht="42.75">
+    <row r="80" spans="1:26" ht="15">
       <c r="A80" s="41"/>
-      <c r="B80" s="80"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="43" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="D80" s="44" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="E80" s="45" t="s">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="F80" s="46" t="s">
-        <v>330</v>
-      </c>
-      <c r="G80" s="81" t="s">
-        <v>331</v>
+        <v>294</v>
+      </c>
+      <c r="G80" s="77" t="s">
+        <v>295</v>
       </c>
       <c r="H80" s="64" t="s">
-        <v>332</v>
-      </c>
-      <c r="I80" s="82" t="s">
-        <v>333</v>
+        <v>296</v>
+      </c>
+      <c r="I80" s="79" t="s">
+        <v>297</v>
       </c>
       <c r="J80" s="61"/>
       <c r="K80" s="61"/>
@@ -6519,27 +6622,27 @@
     </row>
     <row r="81" spans="1:26" ht="28.5">
       <c r="A81" s="41"/>
-      <c r="B81" s="80"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="43" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="E81" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="G81" s="81" t="s">
-        <v>337</v>
+        <v>287</v>
+      </c>
+      <c r="F81" s="62" t="s">
+        <v>299</v>
+      </c>
+      <c r="G81" s="47" t="s">
+        <v>300</v>
       </c>
       <c r="H81" s="64" t="s">
-        <v>338</v>
-      </c>
-      <c r="I81" s="82" t="s">
-        <v>339</v>
+        <v>301</v>
+      </c>
+      <c r="I81" s="60" t="s">
+        <v>302</v>
       </c>
       <c r="J81" s="61"/>
       <c r="K81" s="61"/>
@@ -6561,27 +6664,27 @@
     </row>
     <row r="82" spans="1:26" ht="14.25">
       <c r="A82" s="41"/>
-      <c r="B82" s="80"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="43" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="D82" s="44" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="E82" s="45" t="s">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="F82" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="G82" s="81" t="s">
-        <v>343</v>
-      </c>
-      <c r="H82" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="I82" s="82" t="s">
-        <v>345</v>
+        <v>304</v>
+      </c>
+      <c r="G82" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="H82" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="I82" s="60" t="s">
+        <v>307</v>
       </c>
       <c r="J82" s="61"/>
       <c r="K82" s="61"/>
@@ -6603,27 +6706,27 @@
     </row>
     <row r="83" spans="1:26" ht="14.25">
       <c r="A83" s="41"/>
-      <c r="B83" s="80"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="43" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="D83" s="44" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="E83" s="45" t="s">
         <v>287</v>
       </c>
       <c r="F83" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="G83" s="81" t="s">
-        <v>349</v>
+        <v>310</v>
+      </c>
+      <c r="G83" s="47" t="s">
+        <v>311</v>
       </c>
       <c r="H83" s="64" t="s">
-        <v>350</v>
-      </c>
-      <c r="I83" s="82" t="s">
-        <v>351</v>
+        <v>312</v>
+      </c>
+      <c r="I83" s="60" t="s">
+        <v>313</v>
       </c>
       <c r="J83" s="61"/>
       <c r="K83" s="61"/>
@@ -6643,29 +6746,29 @@
       <c r="Y83" s="51"/>
       <c r="Z83" s="51"/>
     </row>
-    <row r="84" spans="1:26" ht="28.5">
+    <row r="84" spans="1:26" ht="14.25">
       <c r="A84" s="41"/>
       <c r="B84" s="80"/>
       <c r="C84" s="43" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="D84" s="44" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="E84" s="45" t="s">
         <v>287</v>
       </c>
       <c r="F84" s="46" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="G84" s="81" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="H84" s="64" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="I84" s="82" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="J84" s="61"/>
       <c r="K84" s="61"/>
@@ -6689,25 +6792,25 @@
       <c r="A85" s="41"/>
       <c r="B85" s="80"/>
       <c r="C85" s="43" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="D85" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="E85" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F85" s="46" t="s">
-        <v>358</v>
-      </c>
-      <c r="G85" s="84" t="s">
-        <v>359</v>
+      <c r="G85" s="81" t="s">
+        <v>321</v>
       </c>
       <c r="H85" s="64" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="I85" s="82" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="J85" s="61"/>
       <c r="K85" s="61"/>
@@ -6731,7 +6834,7 @@
       <c r="A86" s="41"/>
       <c r="B86" s="80"/>
       <c r="C86" s="43" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="D86" s="44" t="s">
         <v>320</v>
@@ -6740,16 +6843,16 @@
         <v>29</v>
       </c>
       <c r="F86" s="46" t="s">
-        <v>363</v>
-      </c>
-      <c r="G86" s="84" t="s">
-        <v>364</v>
+        <v>325</v>
+      </c>
+      <c r="G86" s="81" t="s">
+        <v>326</v>
       </c>
       <c r="H86" s="64" t="s">
-        <v>365</v>
-      </c>
-      <c r="I86" s="82" t="s">
-        <v>366</v>
+        <v>327</v>
+      </c>
+      <c r="I86" s="83" t="s">
+        <v>328</v>
       </c>
       <c r="J86" s="61"/>
       <c r="K86" s="61"/>
@@ -6769,32 +6872,32 @@
       <c r="Y86" s="51"/>
       <c r="Z86" s="51"/>
     </row>
-    <row r="87" spans="1:26" ht="14.25">
+    <row r="87" spans="1:26" ht="42.75">
       <c r="A87" s="41"/>
       <c r="B87" s="80"/>
       <c r="C87" s="43" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="D87" s="44" t="s">
-        <v>16</v>
+        <v>320</v>
       </c>
       <c r="E87" s="45" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F87" s="46" t="s">
-        <v>368</v>
-      </c>
-      <c r="G87" s="85" t="s">
-        <v>369</v>
+        <v>330</v>
+      </c>
+      <c r="G87" s="81" t="s">
+        <v>331</v>
       </c>
       <c r="H87" s="64" t="s">
-        <v>370</v>
-      </c>
-      <c r="I87" s="86" t="s">
-        <v>371</v>
-      </c>
-      <c r="J87" s="87"/>
-      <c r="K87" s="87"/>
+        <v>332</v>
+      </c>
+      <c r="I87" s="82" t="s">
+        <v>333</v>
+      </c>
+      <c r="J87" s="61"/>
+      <c r="K87" s="61"/>
       <c r="L87" s="51"/>
       <c r="M87" s="51"/>
       <c r="N87" s="51"/>
@@ -6811,32 +6914,32 @@
       <c r="Y87" s="51"/>
       <c r="Z87" s="51"/>
     </row>
-    <row r="88" spans="1:26" ht="14.25">
+    <row r="88" spans="1:26" ht="28.5">
       <c r="A88" s="41"/>
       <c r="B88" s="80"/>
       <c r="C88" s="43" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="D88" s="44" t="s">
-        <v>16</v>
+        <v>335</v>
       </c>
       <c r="E88" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F88" s="76" t="s">
-        <v>373</v>
-      </c>
-      <c r="G88" s="85" t="s">
-        <v>374</v>
+        <v>29</v>
+      </c>
+      <c r="F88" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="G88" s="81" t="s">
+        <v>337</v>
       </c>
       <c r="H88" s="64" t="s">
-        <v>375</v>
-      </c>
-      <c r="I88" s="86" t="s">
-        <v>376</v>
-      </c>
-      <c r="J88" s="87"/>
-      <c r="K88" s="87"/>
+        <v>338</v>
+      </c>
+      <c r="I88" s="82" t="s">
+        <v>339</v>
+      </c>
+      <c r="J88" s="61"/>
+      <c r="K88" s="61"/>
       <c r="L88" s="51"/>
       <c r="M88" s="51"/>
       <c r="N88" s="51"/>
@@ -6857,28 +6960,28 @@
       <c r="A89" s="41"/>
       <c r="B89" s="80"/>
       <c r="C89" s="43" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="D89" s="44" t="s">
-        <v>16</v>
+        <v>341</v>
       </c>
       <c r="E89" s="45" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="F89" s="46" t="s">
-        <v>379</v>
-      </c>
-      <c r="G89" s="85" t="s">
-        <v>380</v>
+        <v>342</v>
+      </c>
+      <c r="G89" s="81" t="s">
+        <v>343</v>
       </c>
       <c r="H89" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="I89" s="86" t="s">
-        <v>382</v>
-      </c>
-      <c r="J89" s="87"/>
-      <c r="K89" s="87"/>
+        <v>344</v>
+      </c>
+      <c r="I89" s="82" t="s">
+        <v>345</v>
+      </c>
+      <c r="J89" s="61"/>
+      <c r="K89" s="61"/>
       <c r="L89" s="51"/>
       <c r="M89" s="51"/>
       <c r="N89" s="51"/>
@@ -6899,28 +7002,28 @@
       <c r="A90" s="41"/>
       <c r="B90" s="80"/>
       <c r="C90" s="43" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="D90" s="44" t="s">
-        <v>16</v>
+        <v>347</v>
       </c>
       <c r="E90" s="45" t="s">
-        <v>378</v>
+        <v>287</v>
       </c>
       <c r="F90" s="46" t="s">
-        <v>384</v>
-      </c>
-      <c r="G90" s="88" t="s">
-        <v>385</v>
+        <v>348</v>
+      </c>
+      <c r="G90" s="81" t="s">
+        <v>349</v>
       </c>
       <c r="H90" s="64" t="s">
-        <v>386</v>
-      </c>
-      <c r="I90" s="86" t="s">
-        <v>387</v>
-      </c>
-      <c r="J90" s="87"/>
-      <c r="K90" s="87"/>
+        <v>350</v>
+      </c>
+      <c r="I90" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="J90" s="61"/>
+      <c r="K90" s="61"/>
       <c r="L90" s="51"/>
       <c r="M90" s="51"/>
       <c r="N90" s="51"/>
@@ -6937,32 +7040,32 @@
       <c r="Y90" s="51"/>
       <c r="Z90" s="51"/>
     </row>
-    <row r="91" spans="1:26" ht="14.25">
+    <row r="91" spans="1:26" ht="28.5">
       <c r="A91" s="41"/>
       <c r="B91" s="80"/>
       <c r="C91" s="43" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="D91" s="44" t="s">
-        <v>16</v>
+        <v>347</v>
       </c>
       <c r="E91" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="F91" s="89" t="s">
-        <v>389</v>
-      </c>
-      <c r="G91" s="88" t="s">
-        <v>390</v>
+        <v>287</v>
+      </c>
+      <c r="F91" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="G91" s="81" t="s">
+        <v>354</v>
       </c>
       <c r="H91" s="64" t="s">
-        <v>391</v>
-      </c>
-      <c r="I91" s="86" t="s">
-        <v>392</v>
-      </c>
-      <c r="J91" s="87"/>
-      <c r="K91" s="87"/>
+        <v>355</v>
+      </c>
+      <c r="I91" s="82" t="s">
+        <v>356</v>
+      </c>
+      <c r="J91" s="61"/>
+      <c r="K91" s="61"/>
       <c r="L91" s="51"/>
       <c r="M91" s="51"/>
       <c r="N91" s="51"/>
@@ -6982,29 +7085,29 @@
     <row r="92" spans="1:26" ht="14.25">
       <c r="A92" s="41"/>
       <c r="B92" s="80"/>
-      <c r="C92" s="90" t="s">
-        <v>393</v>
+      <c r="C92" s="43" t="s">
+        <v>357</v>
       </c>
       <c r="D92" s="44" t="s">
-        <v>16</v>
+        <v>320</v>
       </c>
       <c r="E92" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="F92" s="89" t="s">
-        <v>394</v>
-      </c>
-      <c r="G92" s="88" t="s">
-        <v>395</v>
+        <v>29</v>
+      </c>
+      <c r="F92" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="G92" s="84" t="s">
+        <v>359</v>
       </c>
       <c r="H92" s="64" t="s">
-        <v>396</v>
-      </c>
-      <c r="I92" s="86" t="s">
-        <v>397</v>
-      </c>
-      <c r="J92" s="87"/>
-      <c r="K92" s="87"/>
+        <v>360</v>
+      </c>
+      <c r="I92" s="82" t="s">
+        <v>361</v>
+      </c>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
       <c r="L92" s="51"/>
       <c r="M92" s="51"/>
       <c r="N92" s="51"/>
@@ -7024,29 +7127,29 @@
     <row r="93" spans="1:26" ht="14.25">
       <c r="A93" s="41"/>
       <c r="B93" s="80"/>
-      <c r="C93" s="90" t="s">
-        <v>398</v>
+      <c r="C93" s="43" t="s">
+        <v>362</v>
       </c>
       <c r="D93" s="44" t="s">
-        <v>16</v>
+        <v>320</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="F93" s="89" t="s">
-        <v>399</v>
-      </c>
-      <c r="G93" s="91" t="s">
-        <v>400</v>
-      </c>
-      <c r="H93" s="92" t="s">
-        <v>401</v>
-      </c>
-      <c r="I93" s="93" t="s">
-        <v>402</v>
-      </c>
-      <c r="J93" s="87"/>
-      <c r="K93" s="87"/>
+        <v>29</v>
+      </c>
+      <c r="F93" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="G93" s="84" t="s">
+        <v>364</v>
+      </c>
+      <c r="H93" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="I93" s="82" t="s">
+        <v>366</v>
+      </c>
+      <c r="J93" s="61"/>
+      <c r="K93" s="61"/>
       <c r="L93" s="51"/>
       <c r="M93" s="51"/>
       <c r="N93" s="51"/>
@@ -7066,26 +7169,26 @@
     <row r="94" spans="1:26" ht="14.25">
       <c r="A94" s="41"/>
       <c r="B94" s="80"/>
-      <c r="C94" s="90" t="s">
-        <v>403</v>
+      <c r="C94" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="D94" s="44" t="s">
         <v>16</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="F94" s="89" t="s">
-        <v>404</v>
-      </c>
-      <c r="G94" s="88" t="s">
-        <v>405</v>
+        <v>17</v>
+      </c>
+      <c r="F94" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="G94" s="85" t="s">
+        <v>369</v>
       </c>
       <c r="H94" s="64" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="I94" s="86" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="J94" s="87"/>
       <c r="K94" s="87"/>
@@ -7108,26 +7211,26 @@
     <row r="95" spans="1:26" ht="14.25">
       <c r="A95" s="41"/>
       <c r="B95" s="80"/>
-      <c r="C95" s="90" t="s">
-        <v>408</v>
+      <c r="C95" s="43" t="s">
+        <v>372</v>
       </c>
       <c r="D95" s="44" t="s">
         <v>16</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="F95" s="46" t="s">
-        <v>409</v>
+        <v>17</v>
+      </c>
+      <c r="F95" s="76" t="s">
+        <v>373</v>
       </c>
       <c r="G95" s="85" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="H95" s="64" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="I95" s="86" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="J95" s="87"/>
       <c r="K95" s="87"/>
@@ -7150,8 +7253,8 @@
     <row r="96" spans="1:26" ht="14.25">
       <c r="A96" s="41"/>
       <c r="B96" s="80"/>
-      <c r="C96" s="90" t="s">
-        <v>413</v>
+      <c r="C96" s="43" t="s">
+        <v>377</v>
       </c>
       <c r="D96" s="44" t="s">
         <v>16</v>
@@ -7160,16 +7263,16 @@
         <v>378</v>
       </c>
       <c r="F96" s="46" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="G96" s="85" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="H96" s="64" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="I96" s="86" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="J96" s="87"/>
       <c r="K96" s="87"/>
@@ -7192,29 +7295,29 @@
     <row r="97" spans="1:26" ht="14.25">
       <c r="A97" s="41"/>
       <c r="B97" s="80"/>
-      <c r="C97" s="90" t="s">
-        <v>418</v>
+      <c r="C97" s="43" t="s">
+        <v>383</v>
       </c>
       <c r="D97" s="44" t="s">
-        <v>419</v>
+        <v>16</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>22</v>
+        <v>378</v>
       </c>
       <c r="F97" s="46" t="s">
-        <v>420</v>
-      </c>
-      <c r="G97" s="85" t="s">
-        <v>420</v>
+        <v>384</v>
+      </c>
+      <c r="G97" s="88" t="s">
+        <v>385</v>
       </c>
       <c r="H97" s="64" t="s">
-        <v>420</v>
-      </c>
-      <c r="I97" s="94" t="s">
-        <v>421</v>
-      </c>
-      <c r="J97" s="51"/>
-      <c r="K97" s="51"/>
+        <v>386</v>
+      </c>
+      <c r="I97" s="86" t="s">
+        <v>387</v>
+      </c>
+      <c r="J97" s="87"/>
+      <c r="K97" s="87"/>
       <c r="L97" s="51"/>
       <c r="M97" s="51"/>
       <c r="N97" s="51"/>
@@ -7234,29 +7337,29 @@
     <row r="98" spans="1:26" ht="14.25">
       <c r="A98" s="41"/>
       <c r="B98" s="80"/>
-      <c r="C98" s="90" t="s">
-        <v>422</v>
+      <c r="C98" s="43" t="s">
+        <v>388</v>
       </c>
       <c r="D98" s="44" t="s">
-        <v>419</v>
+        <v>16</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F98" s="46" t="s">
-        <v>423</v>
-      </c>
-      <c r="G98" s="85" t="s">
-        <v>423</v>
+        <v>378</v>
+      </c>
+      <c r="F98" s="89" t="s">
+        <v>389</v>
+      </c>
+      <c r="G98" s="88" t="s">
+        <v>390</v>
       </c>
       <c r="H98" s="64" t="s">
-        <v>423</v>
-      </c>
-      <c r="I98" s="85" t="s">
-        <v>423</v>
-      </c>
-      <c r="J98" s="51"/>
-      <c r="K98" s="51"/>
+        <v>391</v>
+      </c>
+      <c r="I98" s="86" t="s">
+        <v>392</v>
+      </c>
+      <c r="J98" s="87"/>
+      <c r="K98" s="87"/>
       <c r="L98" s="51"/>
       <c r="M98" s="51"/>
       <c r="N98" s="51"/>
@@ -7277,28 +7380,28 @@
       <c r="A99" s="41"/>
       <c r="B99" s="80"/>
       <c r="C99" s="90" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="D99" s="44" t="s">
-        <v>419</v>
+        <v>16</v>
       </c>
       <c r="E99" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F99" s="95" t="s">
-        <v>425</v>
-      </c>
-      <c r="G99" s="85" t="s">
-        <v>426</v>
+        <v>378</v>
+      </c>
+      <c r="F99" s="89" t="s">
+        <v>394</v>
+      </c>
+      <c r="G99" s="88" t="s">
+        <v>395</v>
       </c>
       <c r="H99" s="64" t="s">
-        <v>427</v>
-      </c>
-      <c r="I99" s="94" t="s">
-        <v>428</v>
-      </c>
-      <c r="J99" s="51"/>
-      <c r="K99" s="51"/>
+        <v>396</v>
+      </c>
+      <c r="I99" s="86" t="s">
+        <v>397</v>
+      </c>
+      <c r="J99" s="87"/>
+      <c r="K99" s="87"/>
       <c r="L99" s="51"/>
       <c r="M99" s="51"/>
       <c r="N99" s="51"/>
@@ -7319,28 +7422,28 @@
       <c r="A100" s="41"/>
       <c r="B100" s="80"/>
       <c r="C100" s="90" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="D100" s="44" t="s">
-        <v>419</v>
+        <v>16</v>
       </c>
       <c r="E100" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F100" s="95" t="s">
-        <v>430</v>
-      </c>
-      <c r="G100" s="85" t="s">
-        <v>431</v>
-      </c>
-      <c r="H100" s="64" t="s">
-        <v>432</v>
-      </c>
-      <c r="I100" s="94" t="s">
-        <v>433</v>
-      </c>
-      <c r="J100" s="51"/>
-      <c r="K100" s="51"/>
+        <v>378</v>
+      </c>
+      <c r="F100" s="89" t="s">
+        <v>399</v>
+      </c>
+      <c r="G100" s="91" t="s">
+        <v>400</v>
+      </c>
+      <c r="H100" s="92" t="s">
+        <v>401</v>
+      </c>
+      <c r="I100" s="93" t="s">
+        <v>402</v>
+      </c>
+      <c r="J100" s="87"/>
+      <c r="K100" s="87"/>
       <c r="L100" s="51"/>
       <c r="M100" s="51"/>
       <c r="N100" s="51"/>
@@ -7361,28 +7464,28 @@
       <c r="A101" s="41"/>
       <c r="B101" s="80"/>
       <c r="C101" s="90" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="D101" s="44" t="s">
-        <v>419</v>
+        <v>16</v>
       </c>
       <c r="E101" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F101" s="95" t="s">
-        <v>435</v>
-      </c>
-      <c r="G101" s="85" t="s">
-        <v>436</v>
+        <v>378</v>
+      </c>
+      <c r="F101" s="89" t="s">
+        <v>404</v>
+      </c>
+      <c r="G101" s="88" t="s">
+        <v>405</v>
       </c>
       <c r="H101" s="64" t="s">
-        <v>437</v>
-      </c>
-      <c r="I101" s="94" t="s">
-        <v>438</v>
-      </c>
-      <c r="J101" s="51"/>
-      <c r="K101" s="51"/>
+        <v>406</v>
+      </c>
+      <c r="I101" s="86" t="s">
+        <v>407</v>
+      </c>
+      <c r="J101" s="87"/>
+      <c r="K101" s="87"/>
       <c r="L101" s="51"/>
       <c r="M101" s="51"/>
       <c r="N101" s="51"/>
@@ -7401,30 +7504,30 @@
     </row>
     <row r="102" spans="1:26" ht="14.25">
       <c r="A102" s="41"/>
-      <c r="B102" s="96"/>
-      <c r="C102" s="43" t="s">
-        <v>439</v>
+      <c r="B102" s="80"/>
+      <c r="C102" s="90" t="s">
+        <v>408</v>
       </c>
       <c r="D102" s="44" t="s">
-        <v>419</v>
+        <v>16</v>
       </c>
       <c r="E102" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F102" s="95" t="s">
-        <v>440</v>
+        <v>378</v>
+      </c>
+      <c r="F102" s="46" t="s">
+        <v>409</v>
       </c>
       <c r="G102" s="85" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="H102" s="64" t="s">
-        <v>442</v>
-      </c>
-      <c r="I102" s="94" t="s">
-        <v>443</v>
-      </c>
-      <c r="J102" s="51"/>
-      <c r="K102" s="51"/>
+        <v>411</v>
+      </c>
+      <c r="I102" s="86" t="s">
+        <v>412</v>
+      </c>
+      <c r="J102" s="87"/>
+      <c r="K102" s="87"/>
       <c r="L102" s="51"/>
       <c r="M102" s="51"/>
       <c r="N102" s="51"/>
@@ -7443,30 +7546,30 @@
     </row>
     <row r="103" spans="1:26" ht="14.25">
       <c r="A103" s="41"/>
-      <c r="B103" s="96"/>
-      <c r="C103" s="43" t="s">
-        <v>444</v>
+      <c r="B103" s="80"/>
+      <c r="C103" s="90" t="s">
+        <v>413</v>
       </c>
       <c r="D103" s="44" t="s">
-        <v>445</v>
+        <v>16</v>
       </c>
       <c r="E103" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F103" s="95" t="s">
-        <v>446</v>
+        <v>378</v>
+      </c>
+      <c r="F103" s="46" t="s">
+        <v>414</v>
       </c>
       <c r="G103" s="85" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="H103" s="64" t="s">
-        <v>448</v>
-      </c>
-      <c r="I103" s="94" t="s">
-        <v>449</v>
-      </c>
-      <c r="J103" s="51"/>
-      <c r="K103" s="51"/>
+        <v>416</v>
+      </c>
+      <c r="I103" s="86" t="s">
+        <v>417</v>
+      </c>
+      <c r="J103" s="87"/>
+      <c r="K103" s="87"/>
       <c r="L103" s="51"/>
       <c r="M103" s="51"/>
       <c r="N103" s="51"/>
@@ -7483,29 +7586,29 @@
       <c r="Y103" s="51"/>
       <c r="Z103" s="51"/>
     </row>
-    <row r="104" spans="1:26" ht="28.5">
+    <row r="104" spans="1:26" ht="14.25">
       <c r="A104" s="41"/>
-      <c r="B104" s="96"/>
-      <c r="C104" s="43" t="s">
-        <v>450</v>
+      <c r="B104" s="80"/>
+      <c r="C104" s="90" t="s">
+        <v>418</v>
       </c>
       <c r="D104" s="44" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="E104" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F104" s="95" t="s">
-        <v>452</v>
-      </c>
-      <c r="G104" s="84" t="s">
-        <v>453</v>
+        <v>22</v>
+      </c>
+      <c r="F104" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="G104" s="85" t="s">
+        <v>420</v>
       </c>
       <c r="H104" s="64" t="s">
-        <v>454</v>
-      </c>
-      <c r="I104" s="97" t="s">
-        <v>455</v>
+        <v>420</v>
+      </c>
+      <c r="I104" s="94" t="s">
+        <v>421</v>
       </c>
       <c r="J104" s="51"/>
       <c r="K104" s="51"/>
@@ -7527,23 +7630,27 @@
     </row>
     <row r="105" spans="1:26" ht="14.25">
       <c r="A105" s="41"/>
-      <c r="B105" s="96"/>
-      <c r="C105" s="52" t="s">
-        <v>456</v>
-      </c>
-      <c r="D105" s="98"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="100" t="s">
-        <v>457</v>
+      <c r="B105" s="80"/>
+      <c r="C105" s="90" t="s">
+        <v>422</v>
+      </c>
+      <c r="D105" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="E105" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="46" t="s">
+        <v>423</v>
       </c>
       <c r="G105" s="85" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="H105" s="64" t="s">
-        <v>459</v>
-      </c>
-      <c r="I105" s="94" t="s">
-        <v>460</v>
+        <v>423</v>
+      </c>
+      <c r="I105" s="85" t="s">
+        <v>423</v>
       </c>
       <c r="J105" s="51"/>
       <c r="K105" s="51"/>
@@ -7565,23 +7672,27 @@
     </row>
     <row r="106" spans="1:26" ht="14.25">
       <c r="A106" s="41"/>
-      <c r="B106" s="96"/>
-      <c r="C106" s="52" t="s">
-        <v>461</v>
-      </c>
-      <c r="D106" s="98"/>
-      <c r="E106" s="99"/>
-      <c r="F106" s="100" t="s">
-        <v>462</v>
+      <c r="B106" s="80"/>
+      <c r="C106" s="90" t="s">
+        <v>424</v>
+      </c>
+      <c r="D106" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="E106" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" s="95" t="s">
+        <v>425</v>
       </c>
       <c r="G106" s="85" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="H106" s="64" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="I106" s="94" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="J106" s="51"/>
       <c r="K106" s="51"/>
@@ -7603,23 +7714,27 @@
     </row>
     <row r="107" spans="1:26" ht="14.25">
       <c r="A107" s="41"/>
-      <c r="B107" s="96"/>
-      <c r="C107" s="101" t="s">
-        <v>466</v>
-      </c>
-      <c r="D107" s="102"/>
-      <c r="E107" s="103"/>
-      <c r="F107" s="100" t="s">
-        <v>467</v>
+      <c r="B107" s="80"/>
+      <c r="C107" s="90" t="s">
+        <v>429</v>
+      </c>
+      <c r="D107" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="E107" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" s="95" t="s">
+        <v>430</v>
       </c>
       <c r="G107" s="85" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="H107" s="64" t="s">
-        <v>469</v>
+        <v>432</v>
       </c>
       <c r="I107" s="94" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
       <c r="J107" s="51"/>
       <c r="K107" s="51"/>
@@ -7641,23 +7756,27 @@
     </row>
     <row r="108" spans="1:26" ht="14.25">
       <c r="A108" s="41"/>
-      <c r="B108" s="96"/>
-      <c r="C108" s="101" t="s">
-        <v>471</v>
-      </c>
-      <c r="D108" s="102"/>
-      <c r="E108" s="103"/>
-      <c r="F108" s="100" t="s">
-        <v>472</v>
+      <c r="B108" s="80"/>
+      <c r="C108" s="90" t="s">
+        <v>434</v>
+      </c>
+      <c r="D108" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="E108" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="95" t="s">
+        <v>435</v>
       </c>
       <c r="G108" s="85" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="H108" s="64" t="s">
-        <v>317</v>
+        <v>437</v>
       </c>
       <c r="I108" s="94" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="J108" s="51"/>
       <c r="K108" s="51"/>
@@ -7680,22 +7799,26 @@
     <row r="109" spans="1:26" ht="14.25">
       <c r="A109" s="41"/>
       <c r="B109" s="96"/>
-      <c r="C109" s="101" t="s">
-        <v>475</v>
-      </c>
-      <c r="D109" s="102"/>
-      <c r="E109" s="103"/>
-      <c r="F109" s="100" t="s">
-        <v>476</v>
+      <c r="C109" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="D109" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="E109" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" s="95" t="s">
+        <v>440</v>
       </c>
       <c r="G109" s="85" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="H109" s="64" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="I109" s="94" t="s">
-        <v>479</v>
+        <v>443</v>
       </c>
       <c r="J109" s="51"/>
       <c r="K109" s="51"/>
@@ -7717,23 +7840,27 @@
     </row>
     <row r="110" spans="1:26" ht="14.25">
       <c r="A110" s="41"/>
-      <c r="B110" s="104"/>
-      <c r="C110" s="105" t="s">
-        <v>480</v>
-      </c>
-      <c r="D110" s="102"/>
-      <c r="E110" s="103"/>
-      <c r="F110" s="100" t="s">
-        <v>481</v>
+      <c r="B110" s="96"/>
+      <c r="C110" s="43" t="s">
+        <v>444</v>
+      </c>
+      <c r="D110" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="E110" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" s="95" t="s">
+        <v>446</v>
       </c>
       <c r="G110" s="85" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="H110" s="64" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="I110" s="94" t="s">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="J110" s="51"/>
       <c r="K110" s="51"/>
@@ -7753,34 +7880,36 @@
       <c r="Y110" s="51"/>
       <c r="Z110" s="51"/>
     </row>
-    <row r="111" spans="1:26" ht="42.75">
+    <row r="111" spans="1:26" ht="28.5">
       <c r="A111" s="41"/>
-      <c r="B111" s="104"/>
-      <c r="C111" s="101" t="s">
-        <v>485</v>
-      </c>
-      <c r="D111" s="102"/>
-      <c r="E111" s="103"/>
-      <c r="F111" s="106" t="s">
-        <v>486</v>
+      <c r="B111" s="96"/>
+      <c r="C111" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="D111" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="E111" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="95" t="s">
+        <v>452</v>
       </c>
       <c r="G111" s="84" t="s">
-        <v>487</v>
-      </c>
-      <c r="H111" s="107" t="s">
-        <v>488</v>
-      </c>
-      <c r="I111" s="94" t="s">
-        <v>489</v>
+        <v>453</v>
+      </c>
+      <c r="H111" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="I111" s="97" t="s">
+        <v>455</v>
       </c>
       <c r="J111" s="51"/>
       <c r="K111" s="51"/>
       <c r="L111" s="51"/>
       <c r="M111" s="51"/>
       <c r="N111" s="51"/>
-      <c r="O111" s="108" t="s">
-        <v>490</v>
-      </c>
+      <c r="O111" s="51"/>
       <c r="P111" s="51"/>
       <c r="Q111" s="51"/>
       <c r="R111" s="51"/>
@@ -7795,23 +7924,23 @@
     </row>
     <row r="112" spans="1:26" ht="14.25">
       <c r="A112" s="41"/>
-      <c r="B112" s="104"/>
-      <c r="C112" s="101" t="s">
-        <v>491</v>
-      </c>
-      <c r="D112" s="102"/>
-      <c r="E112" s="103"/>
-      <c r="F112" s="46" t="s">
-        <v>492</v>
-      </c>
-      <c r="G112" s="84" t="s">
-        <v>493</v>
-      </c>
-      <c r="H112" s="107" t="s">
-        <v>494</v>
+      <c r="B112" s="96"/>
+      <c r="C112" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="D112" s="98"/>
+      <c r="E112" s="99"/>
+      <c r="F112" s="100" t="s">
+        <v>457</v>
+      </c>
+      <c r="G112" s="85" t="s">
+        <v>458</v>
+      </c>
+      <c r="H112" s="64" t="s">
+        <v>459</v>
       </c>
       <c r="I112" s="94" t="s">
-        <v>495</v>
+        <v>460</v>
       </c>
       <c r="J112" s="51"/>
       <c r="K112" s="51"/>
@@ -7833,23 +7962,23 @@
     </row>
     <row r="113" spans="1:26" ht="14.25">
       <c r="A113" s="41"/>
-      <c r="B113" s="104"/>
-      <c r="C113" s="101" t="s">
-        <v>496</v>
-      </c>
-      <c r="D113" s="102"/>
-      <c r="E113" s="103"/>
-      <c r="F113" s="46" t="s">
-        <v>497</v>
-      </c>
-      <c r="G113" s="84" t="s">
-        <v>498</v>
-      </c>
-      <c r="H113" s="107" t="s">
-        <v>499</v>
+      <c r="B113" s="96"/>
+      <c r="C113" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="D113" s="98"/>
+      <c r="E113" s="99"/>
+      <c r="F113" s="100" t="s">
+        <v>462</v>
+      </c>
+      <c r="G113" s="85" t="s">
+        <v>463</v>
+      </c>
+      <c r="H113" s="64" t="s">
+        <v>464</v>
       </c>
       <c r="I113" s="94" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="J113" s="51"/>
       <c r="K113" s="51"/>
@@ -7871,23 +8000,23 @@
     </row>
     <row r="114" spans="1:26" ht="14.25">
       <c r="A114" s="41"/>
-      <c r="B114" s="104"/>
+      <c r="B114" s="96"/>
       <c r="C114" s="101" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="D114" s="102"/>
       <c r="E114" s="103"/>
-      <c r="F114" s="46" t="s">
-        <v>502</v>
-      </c>
-      <c r="G114" s="84" t="s">
-        <v>503</v>
-      </c>
-      <c r="H114" s="107" t="s">
-        <v>504</v>
+      <c r="F114" s="100" t="s">
+        <v>467</v>
+      </c>
+      <c r="G114" s="85" t="s">
+        <v>468</v>
+      </c>
+      <c r="H114" s="64" t="s">
+        <v>469</v>
       </c>
       <c r="I114" s="94" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="J114" s="51"/>
       <c r="K114" s="51"/>
@@ -7909,23 +8038,23 @@
     </row>
     <row r="115" spans="1:26" ht="14.25">
       <c r="A115" s="41"/>
-      <c r="B115" s="104"/>
+      <c r="B115" s="96"/>
       <c r="C115" s="101" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="D115" s="102"/>
       <c r="E115" s="103"/>
-      <c r="F115" s="46" t="s">
-        <v>507</v>
-      </c>
-      <c r="G115" s="84" t="s">
-        <v>508</v>
-      </c>
-      <c r="H115" s="107" t="s">
-        <v>509</v>
+      <c r="F115" s="100" t="s">
+        <v>472</v>
+      </c>
+      <c r="G115" s="85" t="s">
+        <v>473</v>
+      </c>
+      <c r="H115" s="64" t="s">
+        <v>317</v>
       </c>
       <c r="I115" s="94" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="J115" s="51"/>
       <c r="K115" s="51"/>
@@ -7947,34 +8076,30 @@
     </row>
     <row r="116" spans="1:26" ht="14.25">
       <c r="A116" s="41"/>
-      <c r="B116" s="104"/>
+      <c r="B116" s="96"/>
       <c r="C116" s="101" t="s">
-        <v>511</v>
-      </c>
-      <c r="D116" s="109" t="s">
-        <v>512</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="D116" s="102"/>
       <c r="E116" s="103"/>
-      <c r="F116" s="46" t="s">
-        <v>513</v>
-      </c>
-      <c r="G116" s="63" t="s">
-        <v>514</v>
-      </c>
-      <c r="H116" s="110" t="s">
-        <v>515</v>
-      </c>
-      <c r="I116" s="97" t="s">
-        <v>516</v>
+      <c r="F116" s="100" t="s">
+        <v>476</v>
+      </c>
+      <c r="G116" s="85" t="s">
+        <v>477</v>
+      </c>
+      <c r="H116" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="I116" s="94" t="s">
+        <v>479</v>
       </c>
       <c r="J116" s="51"/>
       <c r="K116" s="51"/>
       <c r="L116" s="51"/>
       <c r="M116" s="51"/>
       <c r="N116" s="51"/>
-      <c r="O116" s="111" t="s">
-        <v>517</v>
-      </c>
+      <c r="O116" s="51"/>
       <c r="P116" s="51"/>
       <c r="Q116" s="51"/>
       <c r="R116" s="51"/>
@@ -7990,23 +8115,23 @@
     <row r="117" spans="1:26" ht="14.25">
       <c r="A117" s="41"/>
       <c r="B117" s="104"/>
-      <c r="C117" s="101" t="s">
-        <v>518</v>
-      </c>
-      <c r="D117" s="109" t="s">
-        <v>512</v>
-      </c>
+      <c r="C117" s="105" t="s">
+        <v>480</v>
+      </c>
+      <c r="D117" s="102"/>
       <c r="E117" s="103"/>
-      <c r="F117" s="46" t="s">
-        <v>519</v>
-      </c>
-      <c r="G117" s="63" t="s">
-        <v>520</v>
-      </c>
-      <c r="H117" s="63" t="s">
-        <v>521</v>
-      </c>
-      <c r="I117" s="112"/>
+      <c r="F117" s="100" t="s">
+        <v>481</v>
+      </c>
+      <c r="G117" s="85" t="s">
+        <v>482</v>
+      </c>
+      <c r="H117" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="I117" s="94" t="s">
+        <v>484</v>
+      </c>
       <c r="J117" s="51"/>
       <c r="K117" s="51"/>
       <c r="L117" s="51"/>
@@ -8025,30 +8150,34 @@
       <c r="Y117" s="51"/>
       <c r="Z117" s="51"/>
     </row>
-    <row r="118" spans="1:26" ht="15">
+    <row r="118" spans="1:26" ht="42.75">
       <c r="A118" s="41"/>
       <c r="B118" s="104"/>
-      <c r="C118" s="101"/>
-      <c r="D118" s="113" t="s">
-        <v>522</v>
-      </c>
+      <c r="C118" s="101" t="s">
+        <v>485</v>
+      </c>
+      <c r="D118" s="102"/>
       <c r="E118" s="103"/>
-      <c r="F118" s="114" t="s">
-        <v>523</v>
-      </c>
-      <c r="G118" s="63" t="s">
-        <v>524</v>
-      </c>
-      <c r="H118" s="63" t="s">
-        <v>525</v>
-      </c>
-      <c r="I118" s="112"/>
+      <c r="F118" s="106" t="s">
+        <v>486</v>
+      </c>
+      <c r="G118" s="84" t="s">
+        <v>487</v>
+      </c>
+      <c r="H118" s="107" t="s">
+        <v>488</v>
+      </c>
+      <c r="I118" s="94" t="s">
+        <v>489</v>
+      </c>
       <c r="J118" s="51"/>
       <c r="K118" s="51"/>
       <c r="L118" s="51"/>
       <c r="M118" s="51"/>
       <c r="N118" s="51"/>
-      <c r="O118" s="51"/>
+      <c r="O118" s="108" t="s">
+        <v>490</v>
+      </c>
       <c r="P118" s="51"/>
       <c r="Q118" s="51"/>
       <c r="R118" s="51"/>
@@ -8064,21 +8193,23 @@
     <row r="119" spans="1:26" ht="14.25">
       <c r="A119" s="41"/>
       <c r="B119" s="104"/>
-      <c r="C119" s="103"/>
-      <c r="D119" s="113" t="s">
-        <v>526</v>
-      </c>
+      <c r="C119" s="101" t="s">
+        <v>491</v>
+      </c>
+      <c r="D119" s="102"/>
       <c r="E119" s="103"/>
       <c r="F119" s="46" t="s">
-        <v>527</v>
-      </c>
-      <c r="G119" s="63" t="s">
-        <v>528</v>
-      </c>
-      <c r="H119" s="63" t="s">
-        <v>529</v>
-      </c>
-      <c r="I119" s="112"/>
+        <v>492</v>
+      </c>
+      <c r="G119" s="84" t="s">
+        <v>493</v>
+      </c>
+      <c r="H119" s="107" t="s">
+        <v>494</v>
+      </c>
+      <c r="I119" s="94" t="s">
+        <v>495</v>
+      </c>
       <c r="J119" s="51"/>
       <c r="K119" s="51"/>
       <c r="L119" s="51"/>
@@ -8100,21 +8231,23 @@
     <row r="120" spans="1:26" ht="14.25">
       <c r="A120" s="41"/>
       <c r="B120" s="104"/>
-      <c r="C120" s="103"/>
-      <c r="D120" s="109" t="s">
-        <v>512</v>
-      </c>
+      <c r="C120" s="101" t="s">
+        <v>496</v>
+      </c>
+      <c r="D120" s="102"/>
       <c r="E120" s="103"/>
       <c r="F120" s="46" t="s">
-        <v>530</v>
-      </c>
-      <c r="G120" s="63" t="s">
-        <v>531</v>
-      </c>
-      <c r="H120" s="63" t="s">
-        <v>532</v>
-      </c>
-      <c r="I120" s="112"/>
+        <v>497</v>
+      </c>
+      <c r="G120" s="84" t="s">
+        <v>498</v>
+      </c>
+      <c r="H120" s="107" t="s">
+        <v>499</v>
+      </c>
+      <c r="I120" s="94" t="s">
+        <v>500</v>
+      </c>
       <c r="J120" s="51"/>
       <c r="K120" s="51"/>
       <c r="L120" s="51"/>
@@ -8136,21 +8269,23 @@
     <row r="121" spans="1:26" ht="14.25">
       <c r="A121" s="41"/>
       <c r="B121" s="104"/>
-      <c r="C121" s="103"/>
-      <c r="D121" s="109" t="s">
-        <v>512</v>
-      </c>
+      <c r="C121" s="101" t="s">
+        <v>501</v>
+      </c>
+      <c r="D121" s="102"/>
       <c r="E121" s="103"/>
       <c r="F121" s="46" t="s">
-        <v>533</v>
-      </c>
-      <c r="G121" s="63" t="s">
-        <v>534</v>
-      </c>
-      <c r="H121" s="63" t="s">
-        <v>535</v>
-      </c>
-      <c r="I121" s="112"/>
+        <v>502</v>
+      </c>
+      <c r="G121" s="84" t="s">
+        <v>503</v>
+      </c>
+      <c r="H121" s="107" t="s">
+        <v>504</v>
+      </c>
+      <c r="I121" s="94" t="s">
+        <v>505</v>
+      </c>
       <c r="J121" s="51"/>
       <c r="K121" s="51"/>
       <c r="L121" s="51"/>
@@ -8169,24 +8304,26 @@
       <c r="Y121" s="51"/>
       <c r="Z121" s="51"/>
     </row>
-    <row r="122" spans="1:26" ht="28.5">
+    <row r="122" spans="1:26" ht="14.25">
       <c r="A122" s="41"/>
       <c r="B122" s="104"/>
-      <c r="C122" s="103"/>
-      <c r="D122" s="109" t="s">
-        <v>512</v>
-      </c>
+      <c r="C122" s="101" t="s">
+        <v>506</v>
+      </c>
+      <c r="D122" s="102"/>
       <c r="E122" s="103"/>
       <c r="F122" s="46" t="s">
-        <v>536</v>
-      </c>
-      <c r="G122" s="63" t="s">
-        <v>537</v>
-      </c>
-      <c r="H122" s="63" t="s">
-        <v>538</v>
-      </c>
-      <c r="I122" s="112"/>
+        <v>507</v>
+      </c>
+      <c r="G122" s="84" t="s">
+        <v>508</v>
+      </c>
+      <c r="H122" s="107" t="s">
+        <v>509</v>
+      </c>
+      <c r="I122" s="94" t="s">
+        <v>510</v>
+      </c>
       <c r="J122" s="51"/>
       <c r="K122" s="51"/>
       <c r="L122" s="51"/>
@@ -8208,27 +8345,33 @@
     <row r="123" spans="1:26" ht="14.25">
       <c r="A123" s="41"/>
       <c r="B123" s="104"/>
-      <c r="C123" s="103"/>
+      <c r="C123" s="101" t="s">
+        <v>511</v>
+      </c>
       <c r="D123" s="109" t="s">
         <v>512</v>
       </c>
       <c r="E123" s="103"/>
       <c r="F123" s="46" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="G123" s="63" t="s">
-        <v>540</v>
-      </c>
-      <c r="H123" s="63" t="s">
-        <v>541</v>
-      </c>
-      <c r="I123" s="112"/>
+        <v>514</v>
+      </c>
+      <c r="H123" s="110" t="s">
+        <v>515</v>
+      </c>
+      <c r="I123" s="97" t="s">
+        <v>516</v>
+      </c>
       <c r="J123" s="51"/>
       <c r="K123" s="51"/>
       <c r="L123" s="51"/>
       <c r="M123" s="51"/>
       <c r="N123" s="51"/>
-      <c r="O123" s="51"/>
+      <c r="O123" s="111" t="s">
+        <v>517</v>
+      </c>
       <c r="P123" s="51"/>
       <c r="Q123" s="51"/>
       <c r="R123" s="51"/>
@@ -8245,20 +8388,20 @@
       <c r="A124" s="41"/>
       <c r="B124" s="104"/>
       <c r="C124" s="101" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="D124" s="109" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="E124" s="103"/>
       <c r="F124" s="46" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="G124" s="63" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="H124" s="63" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="I124" s="112"/>
       <c r="J124" s="51"/>
@@ -8279,26 +8422,24 @@
       <c r="Y124" s="51"/>
       <c r="Z124" s="51"/>
     </row>
-    <row r="125" spans="1:26" ht="14.25">
+    <row r="125" spans="1:26" ht="15">
       <c r="A125" s="41"/>
       <c r="B125" s="104"/>
-      <c r="C125" s="101" t="s">
-        <v>547</v>
-      </c>
-      <c r="D125" s="102"/>
+      <c r="C125" s="101"/>
+      <c r="D125" s="113" t="s">
+        <v>522</v>
+      </c>
       <c r="E125" s="103"/>
-      <c r="F125" s="115" t="s">
-        <v>548</v>
-      </c>
-      <c r="G125" s="116" t="s">
-        <v>549</v>
-      </c>
-      <c r="H125" s="116" t="s">
-        <v>549</v>
-      </c>
-      <c r="I125" s="117" t="s">
-        <v>549</v>
-      </c>
+      <c r="F125" s="114" t="s">
+        <v>523</v>
+      </c>
+      <c r="G125" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="H125" s="63" t="s">
+        <v>525</v>
+      </c>
+      <c r="I125" s="112"/>
       <c r="J125" s="51"/>
       <c r="K125" s="51"/>
       <c r="L125" s="51"/>
@@ -8320,23 +8461,21 @@
     <row r="126" spans="1:26" ht="14.25">
       <c r="A126" s="41"/>
       <c r="B126" s="104"/>
-      <c r="C126" s="101" t="s">
-        <v>550</v>
-      </c>
-      <c r="D126" s="102"/>
+      <c r="C126" s="103"/>
+      <c r="D126" s="113" t="s">
+        <v>526</v>
+      </c>
       <c r="E126" s="103"/>
-      <c r="F126" s="115" t="s">
-        <v>551</v>
-      </c>
-      <c r="G126" s="117" t="s">
-        <v>552</v>
-      </c>
-      <c r="H126" s="117" t="s">
-        <v>552</v>
-      </c>
-      <c r="I126" s="117" t="s">
-        <v>552</v>
-      </c>
+      <c r="F126" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="G126" s="63" t="s">
+        <v>528</v>
+      </c>
+      <c r="H126" s="63" t="s">
+        <v>529</v>
+      </c>
+      <c r="I126" s="112"/>
       <c r="J126" s="51"/>
       <c r="K126" s="51"/>
       <c r="L126" s="51"/>
@@ -8358,23 +8497,21 @@
     <row r="127" spans="1:26" ht="14.25">
       <c r="A127" s="41"/>
       <c r="B127" s="104"/>
-      <c r="C127" s="101" t="s">
-        <v>553</v>
-      </c>
-      <c r="D127" s="102"/>
+      <c r="C127" s="103"/>
+      <c r="D127" s="109" t="s">
+        <v>512</v>
+      </c>
       <c r="E127" s="103"/>
-      <c r="F127" s="95" t="s">
-        <v>554</v>
-      </c>
-      <c r="G127" s="117" t="s">
-        <v>555</v>
-      </c>
-      <c r="H127" s="117" t="s">
-        <v>556</v>
-      </c>
-      <c r="I127" s="117" t="s">
-        <v>557</v>
-      </c>
+      <c r="F127" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="G127" s="63" t="s">
+        <v>531</v>
+      </c>
+      <c r="H127" s="63" t="s">
+        <v>532</v>
+      </c>
+      <c r="I127" s="112"/>
       <c r="J127" s="51"/>
       <c r="K127" s="51"/>
       <c r="L127" s="51"/>
@@ -8396,23 +8533,21 @@
     <row r="128" spans="1:26" ht="14.25">
       <c r="A128" s="41"/>
       <c r="B128" s="104"/>
-      <c r="C128" s="101" t="s">
-        <v>558</v>
-      </c>
-      <c r="D128" s="102"/>
+      <c r="C128" s="103"/>
+      <c r="D128" s="109" t="s">
+        <v>512</v>
+      </c>
       <c r="E128" s="103"/>
-      <c r="F128" s="95" t="s">
-        <v>559</v>
-      </c>
-      <c r="G128" s="117" t="s">
-        <v>560</v>
-      </c>
-      <c r="H128" s="117" t="s">
-        <v>561</v>
-      </c>
-      <c r="I128" s="117" t="s">
-        <v>562</v>
-      </c>
+      <c r="F128" s="46" t="s">
+        <v>533</v>
+      </c>
+      <c r="G128" s="63" t="s">
+        <v>534</v>
+      </c>
+      <c r="H128" s="63" t="s">
+        <v>535</v>
+      </c>
+      <c r="I128" s="112"/>
       <c r="J128" s="51"/>
       <c r="K128" s="51"/>
       <c r="L128" s="51"/>
@@ -8431,20 +8566,24 @@
       <c r="Y128" s="51"/>
       <c r="Z128" s="51"/>
     </row>
-    <row r="129" spans="1:26" ht="14.25">
+    <row r="129" spans="1:26" ht="28.5">
       <c r="A129" s="41"/>
       <c r="B129" s="104"/>
-      <c r="C129" s="101" t="s">
-        <v>563</v>
-      </c>
-      <c r="D129" s="102"/>
+      <c r="C129" s="103"/>
+      <c r="D129" s="109" t="s">
+        <v>512</v>
+      </c>
       <c r="E129" s="103"/>
       <c r="F129" s="46" t="s">
-        <v>564</v>
-      </c>
-      <c r="G129" s="118"/>
-      <c r="H129" s="118"/>
-      <c r="I129" s="118"/>
+        <v>536</v>
+      </c>
+      <c r="G129" s="63" t="s">
+        <v>537</v>
+      </c>
+      <c r="H129" s="63" t="s">
+        <v>538</v>
+      </c>
+      <c r="I129" s="112"/>
       <c r="J129" s="51"/>
       <c r="K129" s="51"/>
       <c r="L129" s="51"/>
@@ -8466,17 +8605,21 @@
     <row r="130" spans="1:26" ht="14.25">
       <c r="A130" s="41"/>
       <c r="B130" s="104"/>
-      <c r="C130" s="101" t="s">
-        <v>565</v>
-      </c>
-      <c r="D130" s="102"/>
+      <c r="C130" s="103"/>
+      <c r="D130" s="109" t="s">
+        <v>512</v>
+      </c>
       <c r="E130" s="103"/>
       <c r="F130" s="46" t="s">
-        <v>566</v>
-      </c>
-      <c r="G130" s="118"/>
-      <c r="H130" s="118"/>
-      <c r="I130" s="118"/>
+        <v>539</v>
+      </c>
+      <c r="G130" s="63" t="s">
+        <v>540</v>
+      </c>
+      <c r="H130" s="63" t="s">
+        <v>541</v>
+      </c>
+      <c r="I130" s="112"/>
       <c r="J130" s="51"/>
       <c r="K130" s="51"/>
       <c r="L130" s="51"/>
@@ -8499,16 +8642,22 @@
       <c r="A131" s="41"/>
       <c r="B131" s="104"/>
       <c r="C131" s="101" t="s">
-        <v>567</v>
-      </c>
-      <c r="D131" s="102"/>
+        <v>542</v>
+      </c>
+      <c r="D131" s="109" t="s">
+        <v>543</v>
+      </c>
       <c r="E131" s="103"/>
       <c r="F131" s="46" t="s">
-        <v>568</v>
-      </c>
-      <c r="G131" s="118"/>
-      <c r="H131" s="118"/>
-      <c r="I131" s="118"/>
+        <v>544</v>
+      </c>
+      <c r="G131" s="63" t="s">
+        <v>545</v>
+      </c>
+      <c r="H131" s="63" t="s">
+        <v>546</v>
+      </c>
+      <c r="I131" s="112"/>
       <c r="J131" s="51"/>
       <c r="K131" s="51"/>
       <c r="L131" s="51"/>
@@ -8531,16 +8680,22 @@
       <c r="A132" s="41"/>
       <c r="B132" s="104"/>
       <c r="C132" s="101" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="D132" s="102"/>
       <c r="E132" s="103"/>
-      <c r="F132" s="46" t="s">
-        <v>570</v>
-      </c>
-      <c r="G132" s="118"/>
-      <c r="H132" s="118"/>
-      <c r="I132" s="118"/>
+      <c r="F132" s="115" t="s">
+        <v>548</v>
+      </c>
+      <c r="G132" s="116" t="s">
+        <v>549</v>
+      </c>
+      <c r="H132" s="116" t="s">
+        <v>549</v>
+      </c>
+      <c r="I132" s="117" t="s">
+        <v>549</v>
+      </c>
       <c r="J132" s="51"/>
       <c r="K132" s="51"/>
       <c r="L132" s="51"/>
@@ -8563,16 +8718,22 @@
       <c r="A133" s="41"/>
       <c r="B133" s="104"/>
       <c r="C133" s="101" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="D133" s="102"/>
       <c r="E133" s="103"/>
-      <c r="F133" s="46" t="s">
-        <v>572</v>
-      </c>
-      <c r="G133" s="118"/>
-      <c r="H133" s="118"/>
-      <c r="I133" s="118"/>
+      <c r="F133" s="115" t="s">
+        <v>551</v>
+      </c>
+      <c r="G133" s="117" t="s">
+        <v>552</v>
+      </c>
+      <c r="H133" s="117" t="s">
+        <v>552</v>
+      </c>
+      <c r="I133" s="117" t="s">
+        <v>552</v>
+      </c>
       <c r="J133" s="51"/>
       <c r="K133" s="51"/>
       <c r="L133" s="51"/>
@@ -8595,16 +8756,22 @@
       <c r="A134" s="41"/>
       <c r="B134" s="104"/>
       <c r="C134" s="101" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="D134" s="102"/>
       <c r="E134" s="103"/>
-      <c r="F134" s="46" t="s">
-        <v>574</v>
-      </c>
-      <c r="G134" s="118"/>
-      <c r="H134" s="118"/>
-      <c r="I134" s="118"/>
+      <c r="F134" s="95" t="s">
+        <v>554</v>
+      </c>
+      <c r="G134" s="117" t="s">
+        <v>555</v>
+      </c>
+      <c r="H134" s="117" t="s">
+        <v>556</v>
+      </c>
+      <c r="I134" s="117" t="s">
+        <v>557</v>
+      </c>
       <c r="J134" s="51"/>
       <c r="K134" s="51"/>
       <c r="L134" s="51"/>
@@ -8627,16 +8794,22 @@
       <c r="A135" s="41"/>
       <c r="B135" s="104"/>
       <c r="C135" s="101" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="D135" s="102"/>
       <c r="E135" s="103"/>
-      <c r="F135" s="46" t="s">
-        <v>576</v>
-      </c>
-      <c r="G135" s="118"/>
-      <c r="H135" s="118"/>
-      <c r="I135" s="118"/>
+      <c r="F135" s="95" t="s">
+        <v>559</v>
+      </c>
+      <c r="G135" s="117" t="s">
+        <v>560</v>
+      </c>
+      <c r="H135" s="117" t="s">
+        <v>561</v>
+      </c>
+      <c r="I135" s="117" t="s">
+        <v>562</v>
+      </c>
       <c r="J135" s="51"/>
       <c r="K135" s="51"/>
       <c r="L135" s="51"/>
@@ -8659,12 +8832,12 @@
       <c r="A136" s="41"/>
       <c r="B136" s="104"/>
       <c r="C136" s="101" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="D136" s="102"/>
       <c r="E136" s="103"/>
       <c r="F136" s="46" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="G136" s="118"/>
       <c r="H136" s="118"/>
@@ -8691,12 +8864,12 @@
       <c r="A137" s="41"/>
       <c r="B137" s="104"/>
       <c r="C137" s="101" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="D137" s="102"/>
       <c r="E137" s="103"/>
       <c r="F137" s="46" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="G137" s="118"/>
       <c r="H137" s="118"/>
@@ -8723,12 +8896,12 @@
       <c r="A138" s="41"/>
       <c r="B138" s="104"/>
       <c r="C138" s="101" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="D138" s="102"/>
       <c r="E138" s="103"/>
       <c r="F138" s="46" t="s">
-        <v>462</v>
+        <v>568</v>
       </c>
       <c r="G138" s="118"/>
       <c r="H138" s="118"/>
@@ -8755,12 +8928,12 @@
       <c r="A139" s="41"/>
       <c r="B139" s="104"/>
       <c r="C139" s="101" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="D139" s="102"/>
       <c r="E139" s="103"/>
       <c r="F139" s="46" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="G139" s="118"/>
       <c r="H139" s="118"/>
@@ -8787,12 +8960,12 @@
       <c r="A140" s="41"/>
       <c r="B140" s="104"/>
       <c r="C140" s="101" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="D140" s="102"/>
       <c r="E140" s="103"/>
-      <c r="F140" s="119" t="s">
-        <v>585</v>
+      <c r="F140" s="46" t="s">
+        <v>572</v>
       </c>
       <c r="G140" s="118"/>
       <c r="H140" s="118"/>
@@ -8818,13 +8991,13 @@
     <row r="141" spans="1:26" ht="14.25">
       <c r="A141" s="41"/>
       <c r="B141" s="104"/>
-      <c r="C141" s="120" t="s">
-        <v>586</v>
+      <c r="C141" s="101" t="s">
+        <v>573</v>
       </c>
       <c r="D141" s="102"/>
       <c r="E141" s="103"/>
-      <c r="F141" s="119" t="s">
-        <v>587</v>
+      <c r="F141" s="46" t="s">
+        <v>574</v>
       </c>
       <c r="G141" s="118"/>
       <c r="H141" s="118"/>
@@ -8850,13 +9023,13 @@
     <row r="142" spans="1:26" ht="14.25">
       <c r="A142" s="41"/>
       <c r="B142" s="104"/>
-      <c r="C142" s="120" t="s">
-        <v>588</v>
+      <c r="C142" s="101" t="s">
+        <v>575</v>
       </c>
       <c r="D142" s="102"/>
       <c r="E142" s="103"/>
-      <c r="F142" s="119" t="s">
-        <v>589</v>
+      <c r="F142" s="46" t="s">
+        <v>576</v>
       </c>
       <c r="G142" s="118"/>
       <c r="H142" s="118"/>
@@ -8882,13 +9055,13 @@
     <row r="143" spans="1:26" ht="14.25">
       <c r="A143" s="41"/>
       <c r="B143" s="104"/>
-      <c r="C143" s="120" t="s">
-        <v>590</v>
+      <c r="C143" s="101" t="s">
+        <v>577</v>
       </c>
       <c r="D143" s="102"/>
       <c r="E143" s="103"/>
-      <c r="F143" s="119" t="s">
-        <v>591</v>
+      <c r="F143" s="46" t="s">
+        <v>578</v>
       </c>
       <c r="G143" s="118"/>
       <c r="H143" s="118"/>
@@ -8914,13 +9087,13 @@
     <row r="144" spans="1:26" ht="14.25">
       <c r="A144" s="41"/>
       <c r="B144" s="104"/>
-      <c r="C144" s="120" t="s">
-        <v>592</v>
-      </c>
-      <c r="D144" s="121"/>
-      <c r="E144" s="122"/>
-      <c r="F144" s="119" t="s">
-        <v>593</v>
+      <c r="C144" s="101" t="s">
+        <v>579</v>
+      </c>
+      <c r="D144" s="102"/>
+      <c r="E144" s="103"/>
+      <c r="F144" s="46" t="s">
+        <v>580</v>
       </c>
       <c r="G144" s="118"/>
       <c r="H144" s="118"/>
@@ -8946,13 +9119,13 @@
     <row r="145" spans="1:26" ht="14.25">
       <c r="A145" s="41"/>
       <c r="B145" s="104"/>
-      <c r="C145" s="120" t="s">
-        <v>594</v>
-      </c>
-      <c r="D145" s="121"/>
-      <c r="E145" s="122"/>
-      <c r="F145" s="119" t="s">
-        <v>595</v>
+      <c r="C145" s="101" t="s">
+        <v>581</v>
+      </c>
+      <c r="D145" s="102"/>
+      <c r="E145" s="103"/>
+      <c r="F145" s="46" t="s">
+        <v>462</v>
       </c>
       <c r="G145" s="118"/>
       <c r="H145" s="118"/>
@@ -8978,13 +9151,13 @@
     <row r="146" spans="1:26" ht="14.25">
       <c r="A146" s="41"/>
       <c r="B146" s="104"/>
-      <c r="C146" s="120" t="s">
-        <v>596</v>
+      <c r="C146" s="101" t="s">
+        <v>582</v>
       </c>
       <c r="D146" s="102"/>
       <c r="E146" s="103"/>
-      <c r="F146" s="119" t="s">
-        <v>597</v>
+      <c r="F146" s="46" t="s">
+        <v>583</v>
       </c>
       <c r="G146" s="118"/>
       <c r="H146" s="118"/>
@@ -9010,13 +9183,13 @@
     <row r="147" spans="1:26" ht="14.25">
       <c r="A147" s="41"/>
       <c r="B147" s="104"/>
-      <c r="C147" s="120" t="s">
-        <v>598</v>
+      <c r="C147" s="101" t="s">
+        <v>584</v>
       </c>
       <c r="D147" s="102"/>
       <c r="E147" s="103"/>
       <c r="F147" s="119" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="G147" s="118"/>
       <c r="H147" s="118"/>
@@ -9043,12 +9216,12 @@
       <c r="A148" s="41"/>
       <c r="B148" s="104"/>
       <c r="C148" s="120" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="D148" s="102"/>
       <c r="E148" s="103"/>
       <c r="F148" s="119" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="G148" s="118"/>
       <c r="H148" s="118"/>
@@ -9074,13 +9247,13 @@
     <row r="149" spans="1:26" ht="14.25">
       <c r="A149" s="41"/>
       <c r="B149" s="104"/>
-      <c r="C149" s="103" t="s">
-        <v>639</v>
+      <c r="C149" s="120" t="s">
+        <v>588</v>
       </c>
       <c r="D149" s="102"/>
       <c r="E149" s="103"/>
-      <c r="F149" s="140" t="s">
-        <v>640</v>
+      <c r="F149" s="119" t="s">
+        <v>589</v>
       </c>
       <c r="G149" s="118"/>
       <c r="H149" s="118"/>
@@ -9106,10 +9279,14 @@
     <row r="150" spans="1:26" ht="14.25">
       <c r="A150" s="41"/>
       <c r="B150" s="104"/>
-      <c r="C150" s="103"/>
+      <c r="C150" s="120" t="s">
+        <v>590</v>
+      </c>
       <c r="D150" s="102"/>
       <c r="E150" s="103"/>
-      <c r="F150" s="123"/>
+      <c r="F150" s="119" t="s">
+        <v>591</v>
+      </c>
       <c r="G150" s="118"/>
       <c r="H150" s="118"/>
       <c r="I150" s="118"/>
@@ -9134,10 +9311,14 @@
     <row r="151" spans="1:26" ht="14.25">
       <c r="A151" s="41"/>
       <c r="B151" s="104"/>
-      <c r="C151" s="103"/>
-      <c r="D151" s="102"/>
-      <c r="E151" s="103"/>
-      <c r="F151" s="123"/>
+      <c r="C151" s="120" t="s">
+        <v>592</v>
+      </c>
+      <c r="D151" s="121"/>
+      <c r="E151" s="122"/>
+      <c r="F151" s="119" t="s">
+        <v>593</v>
+      </c>
       <c r="G151" s="118"/>
       <c r="H151" s="118"/>
       <c r="I151" s="118"/>
@@ -9162,10 +9343,14 @@
     <row r="152" spans="1:26" ht="14.25">
       <c r="A152" s="41"/>
       <c r="B152" s="104"/>
-      <c r="C152" s="103"/>
-      <c r="D152" s="102"/>
-      <c r="E152" s="103"/>
-      <c r="F152" s="123"/>
+      <c r="C152" s="120" t="s">
+        <v>594</v>
+      </c>
+      <c r="D152" s="121"/>
+      <c r="E152" s="122"/>
+      <c r="F152" s="119" t="s">
+        <v>595</v>
+      </c>
       <c r="G152" s="118"/>
       <c r="H152" s="118"/>
       <c r="I152" s="118"/>
@@ -9190,10 +9375,14 @@
     <row r="153" spans="1:26" ht="14.25">
       <c r="A153" s="41"/>
       <c r="B153" s="104"/>
-      <c r="C153" s="103"/>
+      <c r="C153" s="120" t="s">
+        <v>596</v>
+      </c>
       <c r="D153" s="102"/>
       <c r="E153" s="103"/>
-      <c r="F153" s="123"/>
+      <c r="F153" s="119" t="s">
+        <v>597</v>
+      </c>
       <c r="G153" s="118"/>
       <c r="H153" s="118"/>
       <c r="I153" s="118"/>
@@ -9218,10 +9407,14 @@
     <row r="154" spans="1:26" ht="14.25">
       <c r="A154" s="41"/>
       <c r="B154" s="104"/>
-      <c r="C154" s="103"/>
+      <c r="C154" s="120" t="s">
+        <v>598</v>
+      </c>
       <c r="D154" s="102"/>
       <c r="E154" s="103"/>
-      <c r="F154" s="123"/>
+      <c r="F154" s="119" t="s">
+        <v>599</v>
+      </c>
       <c r="G154" s="118"/>
       <c r="H154" s="118"/>
       <c r="I154" s="118"/>
@@ -9246,10 +9439,14 @@
     <row r="155" spans="1:26" ht="14.25">
       <c r="A155" s="41"/>
       <c r="B155" s="104"/>
-      <c r="C155" s="103"/>
+      <c r="C155" s="120" t="s">
+        <v>600</v>
+      </c>
       <c r="D155" s="102"/>
       <c r="E155" s="103"/>
-      <c r="F155" s="123"/>
+      <c r="F155" s="119" t="s">
+        <v>601</v>
+      </c>
       <c r="G155" s="118"/>
       <c r="H155" s="118"/>
       <c r="I155" s="118"/>
@@ -9274,10 +9471,14 @@
     <row r="156" spans="1:26" ht="14.25">
       <c r="A156" s="41"/>
       <c r="B156" s="104"/>
-      <c r="C156" s="103"/>
+      <c r="C156" s="103" t="s">
+        <v>639</v>
+      </c>
       <c r="D156" s="102"/>
       <c r="E156" s="103"/>
-      <c r="F156" s="123"/>
+      <c r="F156" s="140" t="s">
+        <v>640</v>
+      </c>
       <c r="G156" s="118"/>
       <c r="H156" s="118"/>
       <c r="I156" s="118"/>
@@ -34696,7 +34897,7 @@
       <c r="Z1063" s="51"/>
     </row>
     <row r="1064" spans="1:26" ht="14.25">
-      <c r="A1064" s="124"/>
+      <c r="A1064" s="41"/>
       <c r="B1064" s="104"/>
       <c r="C1064" s="103"/>
       <c r="D1064" s="102"/>
@@ -34722,6 +34923,202 @@
       <c r="X1064" s="51"/>
       <c r="Y1064" s="51"/>
       <c r="Z1064" s="51"/>
+    </row>
+    <row r="1065" spans="1:26" ht="14.25">
+      <c r="A1065" s="41"/>
+      <c r="B1065" s="104"/>
+      <c r="C1065" s="103"/>
+      <c r="D1065" s="102"/>
+      <c r="E1065" s="103"/>
+      <c r="F1065" s="123"/>
+      <c r="G1065" s="118"/>
+      <c r="H1065" s="118"/>
+      <c r="I1065" s="118"/>
+      <c r="J1065" s="51"/>
+      <c r="K1065" s="51"/>
+      <c r="L1065" s="51"/>
+      <c r="M1065" s="51"/>
+      <c r="N1065" s="51"/>
+      <c r="O1065" s="51"/>
+      <c r="P1065" s="51"/>
+      <c r="Q1065" s="51"/>
+      <c r="R1065" s="51"/>
+      <c r="S1065" s="51"/>
+      <c r="T1065" s="51"/>
+      <c r="U1065" s="51"/>
+      <c r="V1065" s="51"/>
+      <c r="W1065" s="51"/>
+      <c r="X1065" s="51"/>
+      <c r="Y1065" s="51"/>
+      <c r="Z1065" s="51"/>
+    </row>
+    <row r="1066" spans="1:26" ht="14.25">
+      <c r="A1066" s="41"/>
+      <c r="B1066" s="104"/>
+      <c r="C1066" s="103"/>
+      <c r="D1066" s="102"/>
+      <c r="E1066" s="103"/>
+      <c r="F1066" s="123"/>
+      <c r="G1066" s="118"/>
+      <c r="H1066" s="118"/>
+      <c r="I1066" s="118"/>
+      <c r="J1066" s="51"/>
+      <c r="K1066" s="51"/>
+      <c r="L1066" s="51"/>
+      <c r="M1066" s="51"/>
+      <c r="N1066" s="51"/>
+      <c r="O1066" s="51"/>
+      <c r="P1066" s="51"/>
+      <c r="Q1066" s="51"/>
+      <c r="R1066" s="51"/>
+      <c r="S1066" s="51"/>
+      <c r="T1066" s="51"/>
+      <c r="U1066" s="51"/>
+      <c r="V1066" s="51"/>
+      <c r="W1066" s="51"/>
+      <c r="X1066" s="51"/>
+      <c r="Y1066" s="51"/>
+      <c r="Z1066" s="51"/>
+    </row>
+    <row r="1067" spans="1:26" ht="14.25">
+      <c r="A1067" s="41"/>
+      <c r="B1067" s="104"/>
+      <c r="C1067" s="103"/>
+      <c r="D1067" s="102"/>
+      <c r="E1067" s="103"/>
+      <c r="F1067" s="123"/>
+      <c r="G1067" s="118"/>
+      <c r="H1067" s="118"/>
+      <c r="I1067" s="118"/>
+      <c r="J1067" s="51"/>
+      <c r="K1067" s="51"/>
+      <c r="L1067" s="51"/>
+      <c r="M1067" s="51"/>
+      <c r="N1067" s="51"/>
+      <c r="O1067" s="51"/>
+      <c r="P1067" s="51"/>
+      <c r="Q1067" s="51"/>
+      <c r="R1067" s="51"/>
+      <c r="S1067" s="51"/>
+      <c r="T1067" s="51"/>
+      <c r="U1067" s="51"/>
+      <c r="V1067" s="51"/>
+      <c r="W1067" s="51"/>
+      <c r="X1067" s="51"/>
+      <c r="Y1067" s="51"/>
+      <c r="Z1067" s="51"/>
+    </row>
+    <row r="1068" spans="1:26" ht="14.25">
+      <c r="A1068" s="41"/>
+      <c r="B1068" s="104"/>
+      <c r="C1068" s="103"/>
+      <c r="D1068" s="102"/>
+      <c r="E1068" s="103"/>
+      <c r="F1068" s="123"/>
+      <c r="G1068" s="118"/>
+      <c r="H1068" s="118"/>
+      <c r="I1068" s="118"/>
+      <c r="J1068" s="51"/>
+      <c r="K1068" s="51"/>
+      <c r="L1068" s="51"/>
+      <c r="M1068" s="51"/>
+      <c r="N1068" s="51"/>
+      <c r="O1068" s="51"/>
+      <c r="P1068" s="51"/>
+      <c r="Q1068" s="51"/>
+      <c r="R1068" s="51"/>
+      <c r="S1068" s="51"/>
+      <c r="T1068" s="51"/>
+      <c r="U1068" s="51"/>
+      <c r="V1068" s="51"/>
+      <c r="W1068" s="51"/>
+      <c r="X1068" s="51"/>
+      <c r="Y1068" s="51"/>
+      <c r="Z1068" s="51"/>
+    </row>
+    <row r="1069" spans="1:26" ht="14.25">
+      <c r="A1069" s="41"/>
+      <c r="B1069" s="104"/>
+      <c r="C1069" s="103"/>
+      <c r="D1069" s="102"/>
+      <c r="E1069" s="103"/>
+      <c r="F1069" s="123"/>
+      <c r="G1069" s="118"/>
+      <c r="H1069" s="118"/>
+      <c r="I1069" s="118"/>
+      <c r="J1069" s="51"/>
+      <c r="K1069" s="51"/>
+      <c r="L1069" s="51"/>
+      <c r="M1069" s="51"/>
+      <c r="N1069" s="51"/>
+      <c r="O1069" s="51"/>
+      <c r="P1069" s="51"/>
+      <c r="Q1069" s="51"/>
+      <c r="R1069" s="51"/>
+      <c r="S1069" s="51"/>
+      <c r="T1069" s="51"/>
+      <c r="U1069" s="51"/>
+      <c r="V1069" s="51"/>
+      <c r="W1069" s="51"/>
+      <c r="X1069" s="51"/>
+      <c r="Y1069" s="51"/>
+      <c r="Z1069" s="51"/>
+    </row>
+    <row r="1070" spans="1:26" ht="14.25">
+      <c r="A1070" s="41"/>
+      <c r="B1070" s="104"/>
+      <c r="C1070" s="103"/>
+      <c r="D1070" s="102"/>
+      <c r="E1070" s="103"/>
+      <c r="F1070" s="123"/>
+      <c r="G1070" s="118"/>
+      <c r="H1070" s="118"/>
+      <c r="I1070" s="118"/>
+      <c r="J1070" s="51"/>
+      <c r="K1070" s="51"/>
+      <c r="L1070" s="51"/>
+      <c r="M1070" s="51"/>
+      <c r="N1070" s="51"/>
+      <c r="O1070" s="51"/>
+      <c r="P1070" s="51"/>
+      <c r="Q1070" s="51"/>
+      <c r="R1070" s="51"/>
+      <c r="S1070" s="51"/>
+      <c r="T1070" s="51"/>
+      <c r="U1070" s="51"/>
+      <c r="V1070" s="51"/>
+      <c r="W1070" s="51"/>
+      <c r="X1070" s="51"/>
+      <c r="Y1070" s="51"/>
+      <c r="Z1070" s="51"/>
+    </row>
+    <row r="1071" spans="1:26" ht="14.25">
+      <c r="A1071" s="124"/>
+      <c r="B1071" s="104"/>
+      <c r="C1071" s="103"/>
+      <c r="D1071" s="102"/>
+      <c r="E1071" s="103"/>
+      <c r="F1071" s="123"/>
+      <c r="G1071" s="118"/>
+      <c r="H1071" s="118"/>
+      <c r="I1071" s="118"/>
+      <c r="J1071" s="51"/>
+      <c r="K1071" s="51"/>
+      <c r="L1071" s="51"/>
+      <c r="M1071" s="51"/>
+      <c r="N1071" s="51"/>
+      <c r="O1071" s="51"/>
+      <c r="P1071" s="51"/>
+      <c r="Q1071" s="51"/>
+      <c r="R1071" s="51"/>
+      <c r="S1071" s="51"/>
+      <c r="T1071" s="51"/>
+      <c r="U1071" s="51"/>
+      <c r="V1071" s="51"/>
+      <c r="W1071" s="51"/>
+      <c r="X1071" s="51"/>
+      <c r="Y1071" s="51"/>
+      <c r="Z1071" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="41" type="noConversion"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loite\Documents\GridaBoard2\src\GridaBoard\language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091CFEB7-2577-451B-950C-B85E061F9586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FD519A-0A9B-455F-8470-8C59553669B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2040" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">그리다보드 샘플 영문 명언으로 수정 예정/ 수정 후 링크 등 변경 예정(남)
 =&gt;0525 하기 링크로 변경
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="677">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -2048,6 +2049,36 @@
   </si>
   <si>
     <t>By Update Date</t>
+  </si>
+  <si>
+    <t>boardList_gridView_menu_open</t>
+  </si>
+  <si>
+    <t>보드리스트&gt;보드 아이템 메뉴</t>
+  </si>
+  <si>
+    <t>열기</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>boardList_gridView_menu_changeName</t>
+  </si>
+  <si>
+    <t>이름 변경</t>
+  </si>
+  <si>
+    <t>Change Name</t>
+  </si>
+  <si>
+    <t>boardList_gridView_menu_copy</t>
+  </si>
+  <si>
+    <t>복제</t>
+  </si>
+  <si>
+    <t>Copy</t>
   </si>
 </sst>
 </file>
@@ -3263,10 +3294,10 @@
   <dimension ref="A1:Z1058"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F141" sqref="F141"/>
+      <selection pane="bottomRight" activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3284,7 +3315,7 @@
     <col min="15" max="15" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3342,7 +3373,7 @@
       <c r="Y2" s="14"/>
       <c r="Z2" s="15"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="14.25">
       <c r="A3" s="8"/>
       <c r="B3" s="16"/>
       <c r="C3" s="10"/>
@@ -3370,7 +3401,7 @@
       <c r="Y3" s="20"/>
       <c r="Z3" s="21"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="15">
       <c r="A4" s="22"/>
       <c r="B4" s="23" t="s">
         <v>1</v>
@@ -3452,7 +3483,7 @@
       <c r="Y5" s="40"/>
       <c r="Z5" s="40"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="14.25">
       <c r="A6" s="41"/>
       <c r="B6" s="42" t="s">
         <v>14</v>
@@ -3538,7 +3569,7 @@
       <c r="Y7" s="51"/>
       <c r="Z7" s="51"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="14.25">
       <c r="A8" s="41"/>
       <c r="B8" s="42"/>
       <c r="C8" s="43" t="s">
@@ -3580,7 +3611,7 @@
       <c r="Y8" s="51"/>
       <c r="Z8" s="51"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="14.25">
       <c r="A9" s="41"/>
       <c r="B9" s="42"/>
       <c r="C9" s="52" t="s">
@@ -3622,7 +3653,7 @@
       <c r="Y9" s="51"/>
       <c r="Z9" s="51"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="14.25">
       <c r="A10" s="41"/>
       <c r="B10" s="42"/>
       <c r="C10" s="52" t="s">
@@ -3664,7 +3695,7 @@
       <c r="Y10" s="51"/>
       <c r="Z10" s="51"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="14.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42"/>
       <c r="C11" s="43" t="s">
@@ -3706,7 +3737,7 @@
       <c r="Y11" s="51"/>
       <c r="Z11" s="51"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="14.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42"/>
       <c r="C12" s="43" t="s">
@@ -3748,7 +3779,7 @@
       <c r="Y12" s="51"/>
       <c r="Z12" s="51"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42"/>
       <c r="C13" s="43" t="s">
@@ -3790,7 +3821,7 @@
       <c r="Y13" s="51"/>
       <c r="Z13" s="51"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="14.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42"/>
       <c r="C14" s="43" t="s">
@@ -3832,7 +3863,7 @@
       <c r="Y14" s="51"/>
       <c r="Z14" s="51"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="14.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42"/>
       <c r="C15" s="43" t="s">
@@ -3874,7 +3905,7 @@
       <c r="Y15" s="51"/>
       <c r="Z15" s="51"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="14.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42"/>
       <c r="C16" s="43" t="s">
@@ -3916,7 +3947,7 @@
       <c r="Y16" s="51"/>
       <c r="Z16" s="51"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="15">
       <c r="A17" s="41"/>
       <c r="B17" s="42"/>
       <c r="C17" s="43" t="s">
@@ -3958,7 +3989,7 @@
       <c r="Y17" s="51"/>
       <c r="Z17" s="51"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="15">
       <c r="A18" s="41"/>
       <c r="B18" s="42"/>
       <c r="C18" s="43" t="s">
@@ -4000,7 +4031,7 @@
       <c r="Y18" s="51"/>
       <c r="Z18" s="51"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="14.25">
       <c r="A19" s="66"/>
       <c r="B19" s="67"/>
       <c r="C19" s="68" t="s">
@@ -4042,7 +4073,7 @@
       <c r="Y19" s="73"/>
       <c r="Z19" s="73"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="14.25">
       <c r="A20" s="66"/>
       <c r="B20" s="67"/>
       <c r="C20" s="68" t="s">
@@ -4084,7 +4115,7 @@
       <c r="Y20" s="73"/>
       <c r="Z20" s="73"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="14.25">
       <c r="A21" s="66"/>
       <c r="B21" s="67"/>
       <c r="C21" s="68" t="s">
@@ -4126,7 +4157,7 @@
       <c r="Y21" s="73"/>
       <c r="Z21" s="73"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="15">
       <c r="A22" s="66"/>
       <c r="B22" s="67"/>
       <c r="C22" s="68" t="s">
@@ -4168,7 +4199,7 @@
       <c r="Y22" s="73"/>
       <c r="Z22" s="73"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="14.25">
       <c r="A23" s="66"/>
       <c r="B23" s="67"/>
       <c r="C23" s="68" t="s">
@@ -4210,7 +4241,7 @@
       <c r="Y23" s="73"/>
       <c r="Z23" s="73"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="28.5">
       <c r="A24" s="66"/>
       <c r="B24" s="67"/>
       <c r="C24" s="68" t="s">
@@ -4252,7 +4283,7 @@
       <c r="Y24" s="73"/>
       <c r="Z24" s="73"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="14.25">
       <c r="A25" s="41"/>
       <c r="B25" s="42"/>
       <c r="C25" s="43" t="s">
@@ -4294,7 +4325,7 @@
       <c r="Y25" s="51"/>
       <c r="Z25" s="51"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="14.25">
       <c r="A26" s="41"/>
       <c r="B26" s="42"/>
       <c r="C26" s="43" t="s">
@@ -4336,7 +4367,7 @@
       <c r="Y26" s="51"/>
       <c r="Z26" s="51"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="15">
       <c r="A27" s="41"/>
       <c r="B27" s="42"/>
       <c r="C27" s="43" t="s">
@@ -4378,7 +4409,7 @@
       <c r="Y27" s="51"/>
       <c r="Z27" s="51"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="42.75">
       <c r="A28" s="41"/>
       <c r="B28" s="42"/>
       <c r="C28" s="43" t="s">
@@ -4420,7 +4451,7 @@
       <c r="Y28" s="51"/>
       <c r="Z28" s="51"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" ht="14.25">
       <c r="A29" s="41"/>
       <c r="B29" s="42"/>
       <c r="C29" s="43" t="s">
@@ -9505,14 +9536,22 @@
       <c r="Y158" s="164"/>
       <c r="Z158" s="164"/>
     </row>
-    <row r="159" spans="1:26" ht="14.25">
+    <row r="159" spans="1:26" ht="15" thickBot="1">
       <c r="A159" s="41"/>
       <c r="B159" s="112"/>
-      <c r="C159" s="111"/>
-      <c r="D159" s="110"/>
-      <c r="E159" s="111"/>
-      <c r="F159" s="142"/>
-      <c r="G159" s="126"/>
+      <c r="C159" s="161" t="s">
+        <v>667</v>
+      </c>
+      <c r="D159" s="162" t="s">
+        <v>668</v>
+      </c>
+      <c r="E159" s="160"/>
+      <c r="F159" s="163" t="s">
+        <v>669</v>
+      </c>
+      <c r="G159" s="164" t="s">
+        <v>670</v>
+      </c>
       <c r="H159" s="126"/>
       <c r="I159" s="126"/>
       <c r="J159" s="51"/>
@@ -9533,14 +9572,22 @@
       <c r="Y159" s="51"/>
       <c r="Z159" s="51"/>
     </row>
-    <row r="160" spans="1:26" ht="14.25">
+    <row r="160" spans="1:26" ht="15" thickBot="1">
       <c r="A160" s="41"/>
       <c r="B160" s="112"/>
-      <c r="C160" s="111"/>
-      <c r="D160" s="110"/>
-      <c r="E160" s="111"/>
-      <c r="F160" s="142"/>
-      <c r="G160" s="126"/>
+      <c r="C160" s="161" t="s">
+        <v>671</v>
+      </c>
+      <c r="D160" s="162" t="s">
+        <v>668</v>
+      </c>
+      <c r="E160" s="160"/>
+      <c r="F160" s="163" t="s">
+        <v>672</v>
+      </c>
+      <c r="G160" s="164" t="s">
+        <v>673</v>
+      </c>
       <c r="H160" s="126"/>
       <c r="I160" s="126"/>
       <c r="J160" s="51"/>
@@ -9561,14 +9608,22 @@
       <c r="Y160" s="51"/>
       <c r="Z160" s="51"/>
     </row>
-    <row r="161" spans="1:26" ht="14.25">
+    <row r="161" spans="1:26" ht="15" thickBot="1">
       <c r="A161" s="41"/>
       <c r="B161" s="112"/>
-      <c r="C161" s="111"/>
-      <c r="D161" s="110"/>
-      <c r="E161" s="111"/>
-      <c r="F161" s="142"/>
-      <c r="G161" s="126"/>
+      <c r="C161" s="161" t="s">
+        <v>674</v>
+      </c>
+      <c r="D161" s="162" t="s">
+        <v>668</v>
+      </c>
+      <c r="E161" s="160"/>
+      <c r="F161" s="163" t="s">
+        <v>675</v>
+      </c>
+      <c r="G161" s="164" t="s">
+        <v>676</v>
+      </c>
       <c r="H161" s="126"/>
       <c r="I161" s="126"/>
       <c r="J161" s="51"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loite\Documents\GridaBoard2\src\GridaBoard\language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FD519A-0A9B-455F-8470-8C59553669B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD63F656-9ADA-4BC6-A039-ADE27B62FE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2040" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="681">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -2079,6 +2079,18 @@
   </si>
   <si>
     <t>Copy</t>
+  </si>
+  <si>
+    <t>profile_logout</t>
+  </si>
+  <si>
+    <t>프로필 버튼&gt;로그아웃</t>
+  </si>
+  <si>
+    <t>로그아웃</t>
+  </si>
+  <si>
+    <t>Logout</t>
   </si>
 </sst>
 </file>
@@ -3297,7 +3309,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F163" sqref="F163"/>
+      <selection pane="bottomRight" activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9644,14 +9656,24 @@
       <c r="Y161" s="51"/>
       <c r="Z161" s="51"/>
     </row>
-    <row r="162" spans="1:26" ht="14.25">
+    <row r="162" spans="1:26" ht="15" thickBot="1">
       <c r="A162" s="41"/>
       <c r="B162" s="112"/>
-      <c r="C162" s="111"/>
-      <c r="D162" s="110"/>
-      <c r="E162" s="111"/>
-      <c r="F162" s="142"/>
-      <c r="G162" s="126"/>
+      <c r="C162" s="161" t="s">
+        <v>677</v>
+      </c>
+      <c r="D162" s="162" t="s">
+        <v>678</v>
+      </c>
+      <c r="E162" s="161" t="s">
+        <v>22</v>
+      </c>
+      <c r="F162" s="163" t="s">
+        <v>679</v>
+      </c>
+      <c r="G162" s="164" t="s">
+        <v>680</v>
+      </c>
       <c r="H162" s="126"/>
       <c r="I162" s="126"/>
       <c r="J162" s="51"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loite\Documents\GridaBoard2\src\GridaBoard\language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD63F656-9ADA-4BC6-A039-ADE27B62FE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388EBFBF-D906-47FD-A906-55D12C78B0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="701">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -2091,6 +2091,69 @@
   </si>
   <si>
     <t>Logout</t>
+  </si>
+  <si>
+    <t>toBoardList_title</t>
+  </si>
+  <si>
+    <t>홈 버튼</t>
+  </si>
+  <si>
+    <t>dialog</t>
+  </si>
+  <si>
+    <t>그리다보드 홈으로 이동합니다.</t>
+  </si>
+  <si>
+    <t>toBoardList_sub</t>
+  </si>
+  <si>
+    <t>저장하지 않은 내용은 제거됩니다.</t>
+  </si>
+  <si>
+    <t>Unsaved content will be removed.</t>
+  </si>
+  <si>
+    <t>deletePage_title</t>
+  </si>
+  <si>
+    <t>페이지를 삭제하시겠습니까?</t>
+  </si>
+  <si>
+    <t>profile_logout_msg</t>
+  </si>
+  <si>
+    <t>로그아웃 하시겠습니까?</t>
+  </si>
+  <si>
+    <t>Do you really want to log out?</t>
+  </si>
+  <si>
+    <t>deleteBoard_title</t>
+  </si>
+  <si>
+    <t>선택한 %d개의 보드를 제거합니다.</t>
+  </si>
+  <si>
+    <t>Remove selected %d boards.</t>
+  </si>
+  <si>
+    <t>deleteBoard_sub</t>
+  </si>
+  <si>
+    <t>제거된 보드는 휴지통에 보관됩니다.</t>
+  </si>
+  <si>
+    <t>Removed boards are placed in the trash.</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to the Gridaboard Home</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want to remove the page?</t>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2700,7 +2763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3085,6 +3148,9 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3306,10 +3372,10 @@
   <dimension ref="A1:Z1058"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D166" sqref="D166"/>
+      <selection pane="bottomRight" activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9694,14 +9760,24 @@
       <c r="Y162" s="51"/>
       <c r="Z162" s="51"/>
     </row>
-    <row r="163" spans="1:26" ht="14.25">
+    <row r="163" spans="1:26" ht="15" thickBot="1">
       <c r="A163" s="41"/>
       <c r="B163" s="112"/>
-      <c r="C163" s="111"/>
-      <c r="D163" s="110"/>
-      <c r="E163" s="111"/>
-      <c r="F163" s="142"/>
-      <c r="G163" s="126"/>
+      <c r="C163" s="161" t="s">
+        <v>681</v>
+      </c>
+      <c r="D163" s="162" t="s">
+        <v>682</v>
+      </c>
+      <c r="E163" s="161" t="s">
+        <v>683</v>
+      </c>
+      <c r="F163" s="163" t="s">
+        <v>684</v>
+      </c>
+      <c r="G163" s="164" t="s">
+        <v>699</v>
+      </c>
       <c r="H163" s="126"/>
       <c r="I163" s="126"/>
       <c r="J163" s="51"/>
@@ -9722,14 +9798,24 @@
       <c r="Y163" s="51"/>
       <c r="Z163" s="51"/>
     </row>
-    <row r="164" spans="1:26" ht="14.25">
+    <row r="164" spans="1:26" ht="15" thickBot="1">
       <c r="A164" s="41"/>
       <c r="B164" s="112"/>
-      <c r="C164" s="111"/>
-      <c r="D164" s="110"/>
-      <c r="E164" s="111"/>
-      <c r="F164" s="142"/>
-      <c r="G164" s="126"/>
+      <c r="C164" s="161" t="s">
+        <v>685</v>
+      </c>
+      <c r="D164" s="162" t="s">
+        <v>682</v>
+      </c>
+      <c r="E164" s="161" t="s">
+        <v>683</v>
+      </c>
+      <c r="F164" s="163" t="s">
+        <v>686</v>
+      </c>
+      <c r="G164" s="164" t="s">
+        <v>687</v>
+      </c>
       <c r="H164" s="126"/>
       <c r="I164" s="126"/>
       <c r="J164" s="51"/>
@@ -9750,14 +9836,22 @@
       <c r="Y164" s="51"/>
       <c r="Z164" s="51"/>
     </row>
-    <row r="165" spans="1:26" ht="14.25">
+    <row r="165" spans="1:26" ht="15" thickBot="1">
       <c r="A165" s="41"/>
       <c r="B165" s="112"/>
-      <c r="C165" s="111"/>
-      <c r="D165" s="110"/>
-      <c r="E165" s="111"/>
-      <c r="F165" s="142"/>
-      <c r="G165" s="126"/>
+      <c r="C165" s="161" t="s">
+        <v>688</v>
+      </c>
+      <c r="D165" s="166"/>
+      <c r="E165" s="161" t="s">
+        <v>683</v>
+      </c>
+      <c r="F165" s="163" t="s">
+        <v>689</v>
+      </c>
+      <c r="G165" s="164" t="s">
+        <v>700</v>
+      </c>
       <c r="H165" s="126"/>
       <c r="I165" s="126"/>
       <c r="J165" s="51"/>
@@ -9778,14 +9872,20 @@
       <c r="Y165" s="51"/>
       <c r="Z165" s="51"/>
     </row>
-    <row r="166" spans="1:26" ht="14.25">
+    <row r="166" spans="1:26" ht="15" thickBot="1">
       <c r="A166" s="41"/>
       <c r="B166" s="112"/>
-      <c r="C166" s="111"/>
-      <c r="D166" s="110"/>
-      <c r="E166" s="111"/>
-      <c r="F166" s="142"/>
-      <c r="G166" s="126"/>
+      <c r="C166" s="161" t="s">
+        <v>690</v>
+      </c>
+      <c r="D166" s="166"/>
+      <c r="E166" s="160"/>
+      <c r="F166" s="163" t="s">
+        <v>691</v>
+      </c>
+      <c r="G166" s="164" t="s">
+        <v>692</v>
+      </c>
       <c r="H166" s="126"/>
       <c r="I166" s="126"/>
       <c r="J166" s="51"/>
@@ -9806,14 +9906,22 @@
       <c r="Y166" s="51"/>
       <c r="Z166" s="51"/>
     </row>
-    <row r="167" spans="1:26" ht="14.25">
+    <row r="167" spans="1:26" ht="15" thickBot="1">
       <c r="A167" s="41"/>
       <c r="B167" s="112"/>
-      <c r="C167" s="111"/>
-      <c r="D167" s="110"/>
-      <c r="E167" s="111"/>
-      <c r="F167" s="142"/>
-      <c r="G167" s="126"/>
+      <c r="C167" s="161" t="s">
+        <v>693</v>
+      </c>
+      <c r="D167" s="166"/>
+      <c r="E167" s="161" t="s">
+        <v>683</v>
+      </c>
+      <c r="F167" s="163" t="s">
+        <v>694</v>
+      </c>
+      <c r="G167" s="164" t="s">
+        <v>695</v>
+      </c>
       <c r="H167" s="126"/>
       <c r="I167" s="126"/>
       <c r="J167" s="51"/>
@@ -9834,14 +9942,24 @@
       <c r="Y167" s="51"/>
       <c r="Z167" s="51"/>
     </row>
-    <row r="168" spans="1:26" ht="14.25">
+    <row r="168" spans="1:26" ht="15" thickBot="1">
       <c r="A168" s="41"/>
       <c r="B168" s="112"/>
-      <c r="C168" s="111"/>
-      <c r="D168" s="110"/>
-      <c r="E168" s="111"/>
-      <c r="F168" s="142"/>
-      <c r="G168" s="126"/>
+      <c r="C168" s="161" t="s">
+        <v>696</v>
+      </c>
+      <c r="D168" s="162" t="s">
+        <v>661</v>
+      </c>
+      <c r="E168" s="161" t="s">
+        <v>683</v>
+      </c>
+      <c r="F168" s="163" t="s">
+        <v>697</v>
+      </c>
+      <c r="G168" s="164" t="s">
+        <v>698</v>
+      </c>
       <c r="H168" s="126"/>
       <c r="I168" s="126"/>
       <c r="J168" s="51"/>
@@ -34785,6 +34903,7 @@
   </sheetData>
   <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loite\Documents\GridaBoard2\src\GridaBoard\language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388EBFBF-D906-47FD-A906-55D12C78B0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F382AFD-9280-46B4-AFB4-0640CA10F536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22740" yWindow="4620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="705">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -2153,6 +2153,19 @@
   </si>
   <si>
     <t>Do you want to remove the page?</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리다보드 &gt; 왼쪽 사이드 버튼</t>
+  </si>
+  <si>
+    <t>현재 페이지의 필기를 모두 삭제하시겠습니까?</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete all of the notes on the current page?</t>
+  </si>
+  <si>
+    <t>clearPage_title</t>
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
 </sst>
@@ -2160,7 +2173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2399,6 +2412,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Noto Sans KR"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
       <name val="Noto Sans KR"/>
       <family val="2"/>
     </font>
@@ -2763,7 +2782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3151,6 +3170,9 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3372,10 +3394,10 @@
   <dimension ref="A1:Z1058"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G168" sqref="G168"/>
+      <selection pane="bottomRight" activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9980,14 +10002,24 @@
       <c r="Y168" s="51"/>
       <c r="Z168" s="51"/>
     </row>
-    <row r="169" spans="1:26" ht="14.25">
+    <row r="169" spans="1:26" ht="15" thickBot="1">
       <c r="A169" s="41"/>
       <c r="B169" s="112"/>
-      <c r="C169" s="111"/>
-      <c r="D169" s="110"/>
-      <c r="E169" s="111"/>
-      <c r="F169" s="142"/>
-      <c r="G169" s="126"/>
+      <c r="C169" s="161" t="s">
+        <v>704</v>
+      </c>
+      <c r="D169" s="162" t="s">
+        <v>701</v>
+      </c>
+      <c r="E169" s="161" t="s">
+        <v>683</v>
+      </c>
+      <c r="F169" s="167" t="s">
+        <v>702</v>
+      </c>
+      <c r="G169" s="164" t="s">
+        <v>703</v>
+      </c>
       <c r="H169" s="126"/>
       <c r="I169" s="126"/>
       <c r="J169" s="51"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loite\Documents\GridaBoard2\src\GridaBoard\language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F382AFD-9280-46B4-AFB4-0640CA10F536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A7FE41-A13F-4F05-8D02-D5D2F6F98D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22740" yWindow="4620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="709">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -2167,6 +2167,18 @@
   <si>
     <t>clearPage_title</t>
     <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteForever_msg</t>
+  </si>
+  <si>
+    <t>snackbar</t>
+  </si>
+  <si>
+    <t>선택한 파일을 삭제했습니다</t>
+  </si>
+  <si>
+    <t>Selected board(s) sucessfully removed</t>
   </si>
 </sst>
 </file>
@@ -3394,10 +3406,10 @@
   <dimension ref="A1:Z1058"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F150" sqref="F150"/>
+      <selection pane="bottomRight" activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10040,14 +10052,24 @@
       <c r="Y169" s="51"/>
       <c r="Z169" s="51"/>
     </row>
-    <row r="170" spans="1:26" ht="14.25">
+    <row r="170" spans="1:26" ht="15" thickBot="1">
       <c r="A170" s="41"/>
       <c r="B170" s="112"/>
-      <c r="C170" s="111"/>
-      <c r="D170" s="110"/>
-      <c r="E170" s="111"/>
-      <c r="F170" s="142"/>
-      <c r="G170" s="126"/>
+      <c r="C170" s="161" t="s">
+        <v>705</v>
+      </c>
+      <c r="D170" s="162" t="s">
+        <v>661</v>
+      </c>
+      <c r="E170" s="161" t="s">
+        <v>706</v>
+      </c>
+      <c r="F170" s="163" t="s">
+        <v>707</v>
+      </c>
+      <c r="G170" s="164" t="s">
+        <v>708</v>
+      </c>
       <c r="H170" s="126"/>
       <c r="I170" s="126"/>
       <c r="J170" s="51"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loite\Documents\GridaBoard2\src\GridaBoard\language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A7FE41-A13F-4F05-8D02-D5D2F6F98D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A80694E-88CE-4EA6-A3A8-F1A02A7E928B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22740" yWindow="4620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="5355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="724">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -2129,9 +2129,6 @@
     <t>Do you really want to log out?</t>
   </si>
   <si>
-    <t>deleteBoard_title</t>
-  </si>
-  <si>
     <t>선택한 %d개의 보드를 제거합니다.</t>
   </si>
   <si>
@@ -2175,17 +2172,216 @@
     <t>snackbar</t>
   </si>
   <si>
-    <t>선택한 파일을 삭제했습니다</t>
-  </si>
-  <si>
-    <t>Selected board(s) sucessfully removed</t>
+    <t>The selected boards have been deleted from the Trash.</t>
+  </si>
+  <si>
+    <t>%d files have been moved. %s</t>
+  </si>
+  <si>
+    <t>copyDoc_msg</t>
+  </si>
+  <si>
+    <t>A copy has been created.</t>
+  </si>
+  <si>
+    <t>moveDoc_msg</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>%d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동되었습니다.</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제했습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사본이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성되었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteBoard_title</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteForeverBtn</t>
+  </si>
+  <si>
+    <t>완전 삭제</t>
+  </si>
+  <si>
+    <t>Delete Completely</t>
+  </si>
+  <si>
+    <t>restoreBtn</t>
+  </si>
+  <si>
+    <t>복원</t>
+  </si>
+  <si>
+    <t>Restore</t>
+  </si>
+  <si>
+    <t>휴지통</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trash</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>trash</t>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2432,6 +2628,20 @@
       <color rgb="FF24292E"/>
       <name val="Noto Sans KR"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2794,7 +3004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3185,6 +3395,9 @@
     <xf numFmtId="0" fontId="43" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3403,13 +3616,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1058"/>
+  <dimension ref="A1:Z1057"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C173" sqref="C173"/>
+      <selection pane="bottomRight" activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9810,7 +10023,7 @@
         <v>684</v>
       </c>
       <c r="G163" s="164" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H163" s="126"/>
       <c r="I163" s="126"/>
@@ -9884,7 +10097,7 @@
         <v>689</v>
       </c>
       <c r="G165" s="164" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H165" s="126"/>
       <c r="I165" s="126"/>
@@ -9944,17 +10157,17 @@
       <c r="A167" s="41"/>
       <c r="B167" s="112"/>
       <c r="C167" s="161" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
       <c r="D167" s="166"/>
       <c r="E167" s="161" t="s">
         <v>683</v>
       </c>
       <c r="F167" s="163" t="s">
+        <v>693</v>
+      </c>
+      <c r="G167" s="164" t="s">
         <v>694</v>
-      </c>
-      <c r="G167" s="164" t="s">
-        <v>695</v>
       </c>
       <c r="H167" s="126"/>
       <c r="I167" s="126"/>
@@ -9980,7 +10193,7 @@
       <c r="A168" s="41"/>
       <c r="B168" s="112"/>
       <c r="C168" s="161" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D168" s="162" t="s">
         <v>661</v>
@@ -9989,10 +10202,10 @@
         <v>683</v>
       </c>
       <c r="F168" s="163" t="s">
+        <v>696</v>
+      </c>
+      <c r="G168" s="164" t="s">
         <v>697</v>
-      </c>
-      <c r="G168" s="164" t="s">
-        <v>698</v>
       </c>
       <c r="H168" s="126"/>
       <c r="I168" s="126"/>
@@ -10018,19 +10231,19 @@
       <c r="A169" s="41"/>
       <c r="B169" s="112"/>
       <c r="C169" s="161" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D169" s="162" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E169" s="161" t="s">
         <v>683</v>
       </c>
       <c r="F169" s="167" t="s">
+        <v>701</v>
+      </c>
+      <c r="G169" s="164" t="s">
         <v>702</v>
-      </c>
-      <c r="G169" s="164" t="s">
-        <v>703</v>
       </c>
       <c r="H169" s="126"/>
       <c r="I169" s="126"/>
@@ -10052,23 +10265,23 @@
       <c r="Y169" s="51"/>
       <c r="Z169" s="51"/>
     </row>
-    <row r="170" spans="1:26" ht="15" thickBot="1">
+    <row r="170" spans="1:26" ht="17.25" thickBot="1">
       <c r="A170" s="41"/>
       <c r="B170" s="112"/>
       <c r="C170" s="161" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D170" s="162" t="s">
         <v>661</v>
       </c>
       <c r="E170" s="161" t="s">
+        <v>705</v>
+      </c>
+      <c r="F170" s="168" t="s">
+        <v>712</v>
+      </c>
+      <c r="G170" s="164" t="s">
         <v>706</v>
-      </c>
-      <c r="F170" s="163" t="s">
-        <v>707</v>
-      </c>
-      <c r="G170" s="164" t="s">
-        <v>708</v>
       </c>
       <c r="H170" s="126"/>
       <c r="I170" s="126"/>
@@ -10090,14 +10303,24 @@
       <c r="Y170" s="51"/>
       <c r="Z170" s="51"/>
     </row>
-    <row r="171" spans="1:26" ht="14.25">
+    <row r="171" spans="1:26" ht="17.25" thickBot="1">
       <c r="A171" s="41"/>
       <c r="B171" s="112"/>
-      <c r="C171" s="111"/>
-      <c r="D171" s="110"/>
-      <c r="E171" s="111"/>
-      <c r="F171" s="142"/>
-      <c r="G171" s="126"/>
+      <c r="C171" s="161" t="s">
+        <v>710</v>
+      </c>
+      <c r="D171" s="162" t="s">
+        <v>661</v>
+      </c>
+      <c r="E171" s="161" t="s">
+        <v>705</v>
+      </c>
+      <c r="F171" s="163" t="s">
+        <v>711</v>
+      </c>
+      <c r="G171" s="164" t="s">
+        <v>707</v>
+      </c>
       <c r="H171" s="126"/>
       <c r="I171" s="126"/>
       <c r="J171" s="51"/>
@@ -10118,14 +10341,24 @@
       <c r="Y171" s="51"/>
       <c r="Z171" s="51"/>
     </row>
-    <row r="172" spans="1:26" ht="14.25">
+    <row r="172" spans="1:26" ht="17.25" thickBot="1">
       <c r="A172" s="41"/>
       <c r="B172" s="112"/>
-      <c r="C172" s="111"/>
-      <c r="D172" s="110"/>
-      <c r="E172" s="111"/>
-      <c r="F172" s="142"/>
-      <c r="G172" s="126"/>
+      <c r="C172" s="161" t="s">
+        <v>708</v>
+      </c>
+      <c r="D172" s="162" t="s">
+        <v>661</v>
+      </c>
+      <c r="E172" s="161" t="s">
+        <v>705</v>
+      </c>
+      <c r="F172" s="168" t="s">
+        <v>713</v>
+      </c>
+      <c r="G172" s="164" t="s">
+        <v>709</v>
+      </c>
       <c r="H172" s="126"/>
       <c r="I172" s="126"/>
       <c r="J172" s="51"/>
@@ -10146,14 +10379,20 @@
       <c r="Y172" s="51"/>
       <c r="Z172" s="51"/>
     </row>
-    <row r="173" spans="1:26" ht="14.25">
+    <row r="173" spans="1:26" ht="15" thickBot="1">
       <c r="A173" s="41"/>
       <c r="B173" s="112"/>
-      <c r="C173" s="111"/>
-      <c r="D173" s="110"/>
-      <c r="E173" s="111"/>
-      <c r="F173" s="142"/>
-      <c r="G173" s="126"/>
+      <c r="C173" s="161" t="s">
+        <v>715</v>
+      </c>
+      <c r="D173" s="166"/>
+      <c r="E173" s="160"/>
+      <c r="F173" s="163" t="s">
+        <v>716</v>
+      </c>
+      <c r="G173" s="164" t="s">
+        <v>717</v>
+      </c>
       <c r="H173" s="126"/>
       <c r="I173" s="126"/>
       <c r="J173" s="51"/>
@@ -10174,14 +10413,20 @@
       <c r="Y173" s="51"/>
       <c r="Z173" s="51"/>
     </row>
-    <row r="174" spans="1:26" ht="14.25">
+    <row r="174" spans="1:26" ht="15" thickBot="1">
       <c r="A174" s="41"/>
       <c r="B174" s="112"/>
-      <c r="C174" s="111"/>
-      <c r="D174" s="110"/>
-      <c r="E174" s="111"/>
-      <c r="F174" s="142"/>
-      <c r="G174" s="126"/>
+      <c r="C174" s="161" t="s">
+        <v>718</v>
+      </c>
+      <c r="D174" s="166"/>
+      <c r="E174" s="160"/>
+      <c r="F174" s="163" t="s">
+        <v>719</v>
+      </c>
+      <c r="G174" s="164" t="s">
+        <v>720</v>
+      </c>
       <c r="H174" s="126"/>
       <c r="I174" s="126"/>
       <c r="J174" s="51"/>
@@ -10202,14 +10447,22 @@
       <c r="Y174" s="51"/>
       <c r="Z174" s="51"/>
     </row>
-    <row r="175" spans="1:26" ht="14.25">
+    <row r="175" spans="1:26" ht="15" thickBot="1">
       <c r="A175" s="41"/>
       <c r="B175" s="112"/>
-      <c r="C175" s="111"/>
-      <c r="D175" s="110"/>
+      <c r="C175" s="111" t="s">
+        <v>723</v>
+      </c>
+      <c r="D175" s="162" t="s">
+        <v>661</v>
+      </c>
       <c r="E175" s="111"/>
-      <c r="F175" s="142"/>
-      <c r="G175" s="126"/>
+      <c r="F175" s="142" t="s">
+        <v>721</v>
+      </c>
+      <c r="G175" s="126" t="s">
+        <v>722</v>
+      </c>
       <c r="H175" s="126"/>
       <c r="I175" s="126"/>
       <c r="J175" s="51"/>
@@ -34899,7 +35152,7 @@
       <c r="Z1056" s="51"/>
     </row>
     <row r="1057" spans="1:26" ht="14.25">
-      <c r="A1057" s="41"/>
+      <c r="A1057" s="143"/>
       <c r="B1057" s="112"/>
       <c r="C1057" s="111"/>
       <c r="D1057" s="110"/>
@@ -34925,34 +35178,6 @@
       <c r="X1057" s="51"/>
       <c r="Y1057" s="51"/>
       <c r="Z1057" s="51"/>
-    </row>
-    <row r="1058" spans="1:26" ht="14.25">
-      <c r="A1058" s="143"/>
-      <c r="B1058" s="112"/>
-      <c r="C1058" s="111"/>
-      <c r="D1058" s="110"/>
-      <c r="E1058" s="111"/>
-      <c r="F1058" s="142"/>
-      <c r="G1058" s="126"/>
-      <c r="H1058" s="126"/>
-      <c r="I1058" s="126"/>
-      <c r="J1058" s="51"/>
-      <c r="K1058" s="51"/>
-      <c r="L1058" s="51"/>
-      <c r="M1058" s="51"/>
-      <c r="N1058" s="51"/>
-      <c r="O1058" s="51"/>
-      <c r="P1058" s="51"/>
-      <c r="Q1058" s="51"/>
-      <c r="R1058" s="51"/>
-      <c r="S1058" s="51"/>
-      <c r="T1058" s="51"/>
-      <c r="U1058" s="51"/>
-      <c r="V1058" s="51"/>
-      <c r="W1058" s="51"/>
-      <c r="X1058" s="51"/>
-      <c r="Y1058" s="51"/>
-      <c r="Z1058" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="40" type="noConversion"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loite\Documents\GridaBoard2\src\GridaBoard\language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A80694E-88CE-4EA6-A3A8-F1A02A7E928B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A99DCF-3689-46C3-9A76-DC82D19A86EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="5355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2040" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="739">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -2369,19 +2369,113 @@
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
-    <t>Trash</t>
+    <t>categoryMenu_changeName</t>
+  </si>
+  <si>
+    <t>보드리스트 &gt; 카테고리 메뉴</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>categoryMenu_moveUp</t>
+  </si>
+  <si>
+    <t>위로</t>
+  </si>
+  <si>
+    <t>Move Up</t>
+  </si>
+  <si>
+    <t>categoryMenu_moveDown</t>
+  </si>
+  <si>
+    <t>아래로</t>
+  </si>
+  <si>
+    <t>Move Down</t>
+  </si>
+  <si>
+    <t>categoryMenu_delete</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보드리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
-    <t>trash</t>
+    <t>boardList_trashBin</t>
     <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trash Bin</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>보드리스트 &gt; 휴지통</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46">
+  <fonts count="49">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2638,6 +2732,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans KR"/>
       <family val="3"/>
@@ -3004,7 +3119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3398,6 +3513,12 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3619,10 +3740,10 @@
   <dimension ref="A1:Z1057"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F179" sqref="F179"/>
+      <selection pane="bottomRight" activeCell="G178" sqref="G178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10385,8 +10506,12 @@
       <c r="C173" s="161" t="s">
         <v>715</v>
       </c>
-      <c r="D173" s="166"/>
-      <c r="E173" s="160"/>
+      <c r="D173" s="162" t="s">
+        <v>738</v>
+      </c>
+      <c r="E173" s="111" t="s">
+        <v>737</v>
+      </c>
       <c r="F173" s="163" t="s">
         <v>716</v>
       </c>
@@ -10419,8 +10544,12 @@
       <c r="C174" s="161" t="s">
         <v>718</v>
       </c>
-      <c r="D174" s="166"/>
-      <c r="E174" s="160"/>
+      <c r="D174" s="162" t="s">
+        <v>738</v>
+      </c>
+      <c r="E174" s="111" t="s">
+        <v>737</v>
+      </c>
       <c r="F174" s="163" t="s">
         <v>719</v>
       </c>
@@ -10447,21 +10576,23 @@
       <c r="Y174" s="51"/>
       <c r="Z174" s="51"/>
     </row>
-    <row r="175" spans="1:26" ht="15" thickBot="1">
+    <row r="175" spans="1:26" ht="16.5" thickBot="1">
       <c r="A175" s="41"/>
       <c r="B175" s="112"/>
       <c r="C175" s="111" t="s">
-        <v>723</v>
-      </c>
-      <c r="D175" s="162" t="s">
-        <v>661</v>
-      </c>
-      <c r="E175" s="111"/>
+        <v>735</v>
+      </c>
+      <c r="D175" s="170" t="s">
+        <v>734</v>
+      </c>
+      <c r="E175" s="111" t="s">
+        <v>737</v>
+      </c>
       <c r="F175" s="142" t="s">
         <v>721</v>
       </c>
       <c r="G175" s="126" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="H175" s="126"/>
       <c r="I175" s="126"/>
@@ -10483,14 +10614,24 @@
       <c r="Y175" s="51"/>
       <c r="Z175" s="51"/>
     </row>
-    <row r="176" spans="1:26" ht="14.25">
+    <row r="176" spans="1:26" ht="15" thickBot="1">
       <c r="A176" s="41"/>
       <c r="B176" s="112"/>
-      <c r="C176" s="111"/>
-      <c r="D176" s="110"/>
-      <c r="E176" s="111"/>
-      <c r="F176" s="142"/>
-      <c r="G176" s="126"/>
+      <c r="C176" s="161" t="s">
+        <v>722</v>
+      </c>
+      <c r="D176" s="169" t="s">
+        <v>723</v>
+      </c>
+      <c r="E176" s="161" t="s">
+        <v>724</v>
+      </c>
+      <c r="F176" s="163" t="s">
+        <v>672</v>
+      </c>
+      <c r="G176" s="164" t="s">
+        <v>673</v>
+      </c>
       <c r="H176" s="126"/>
       <c r="I176" s="126"/>
       <c r="J176" s="51"/>
@@ -10511,14 +10652,24 @@
       <c r="Y176" s="51"/>
       <c r="Z176" s="51"/>
     </row>
-    <row r="177" spans="1:26" ht="14.25">
+    <row r="177" spans="1:26" ht="15" thickBot="1">
       <c r="A177" s="41"/>
       <c r="B177" s="112"/>
-      <c r="C177" s="111"/>
-      <c r="D177" s="110"/>
-      <c r="E177" s="111"/>
-      <c r="F177" s="142"/>
-      <c r="G177" s="126"/>
+      <c r="C177" s="161" t="s">
+        <v>725</v>
+      </c>
+      <c r="D177" s="169" t="s">
+        <v>723</v>
+      </c>
+      <c r="E177" s="161" t="s">
+        <v>724</v>
+      </c>
+      <c r="F177" s="163" t="s">
+        <v>726</v>
+      </c>
+      <c r="G177" s="164" t="s">
+        <v>727</v>
+      </c>
       <c r="H177" s="126"/>
       <c r="I177" s="126"/>
       <c r="J177" s="51"/>
@@ -10539,14 +10690,24 @@
       <c r="Y177" s="51"/>
       <c r="Z177" s="51"/>
     </row>
-    <row r="178" spans="1:26" ht="14.25">
+    <row r="178" spans="1:26" ht="15" thickBot="1">
       <c r="A178" s="41"/>
       <c r="B178" s="112"/>
-      <c r="C178" s="111"/>
-      <c r="D178" s="110"/>
-      <c r="E178" s="111"/>
-      <c r="F178" s="142"/>
-      <c r="G178" s="126"/>
+      <c r="C178" s="161" t="s">
+        <v>728</v>
+      </c>
+      <c r="D178" s="169" t="s">
+        <v>723</v>
+      </c>
+      <c r="E178" s="161" t="s">
+        <v>724</v>
+      </c>
+      <c r="F178" s="163" t="s">
+        <v>729</v>
+      </c>
+      <c r="G178" s="164" t="s">
+        <v>730</v>
+      </c>
       <c r="H178" s="126"/>
       <c r="I178" s="126"/>
       <c r="J178" s="51"/>
@@ -10567,14 +10728,24 @@
       <c r="Y178" s="51"/>
       <c r="Z178" s="51"/>
     </row>
-    <row r="179" spans="1:26" ht="14.25">
+    <row r="179" spans="1:26" ht="15" thickBot="1">
       <c r="A179" s="41"/>
       <c r="B179" s="112"/>
-      <c r="C179" s="111"/>
-      <c r="D179" s="110"/>
-      <c r="E179" s="111"/>
-      <c r="F179" s="142"/>
-      <c r="G179" s="126"/>
+      <c r="C179" s="161" t="s">
+        <v>731</v>
+      </c>
+      <c r="D179" s="169" t="s">
+        <v>723</v>
+      </c>
+      <c r="E179" s="161" t="s">
+        <v>724</v>
+      </c>
+      <c r="F179" s="163" t="s">
+        <v>732</v>
+      </c>
+      <c r="G179" s="164" t="s">
+        <v>733</v>
+      </c>
       <c r="H179" s="126"/>
       <c r="I179" s="126"/>
       <c r="J179" s="51"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loite\Documents\GridaBoard2\src\GridaBoard\language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A99DCF-3689-46C3-9A76-DC82D19A86EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472E78BE-1F93-4525-A0F2-2C80CF411CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2040" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="756">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -1813,13 +1813,7 @@
     <t>boardList_recent</t>
   </si>
   <si>
-    <t>Recent boards</t>
-  </si>
-  <si>
     <t>boardList_trash</t>
-  </si>
-  <si>
-    <t>Trash</t>
   </si>
   <si>
     <t>boardList_groupTitle</t>
@@ -2469,6 +2463,67 @@
   </si>
   <si>
     <t>보드리스트 &gt; 휴지통</t>
+  </si>
+  <si>
+    <t>최근 항목</t>
+  </si>
+  <si>
+    <t>Recent Boards</t>
+  </si>
+  <si>
+    <t>휴지통</t>
+  </si>
+  <si>
+    <t>Trash Bin</t>
+  </si>
+  <si>
+    <t>내보내기</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>Export</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>export_file</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>sideMenu_rotate</t>
+  </si>
+  <si>
+    <t>회전</t>
+  </si>
+  <si>
+    <t>Rotate</t>
+  </si>
+  <si>
+    <t>sideMenu_clearPage</t>
+  </si>
+  <si>
+    <t>내용 지우기</t>
+  </si>
+  <si>
+    <t>Clear Page</t>
+  </si>
+  <si>
+    <t>sideMenu_deletePage</t>
+  </si>
+  <si>
+    <t>페이지 삭제</t>
+  </si>
+  <si>
+    <t>Delete Page</t>
+  </si>
+  <si>
+    <t>그리다보드 홈</t>
+  </si>
+  <si>
+    <t>GridaBoard Home</t>
+  </si>
+  <si>
+    <t>gridaBoard_home</t>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3737,13 +3792,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1057"/>
+  <dimension ref="A1:Z1058"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G178" sqref="G178"/>
+      <selection pane="bottomRight" activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4519,30 +4574,26 @@
       <c r="Y19" s="73"/>
       <c r="Z19" s="73"/>
     </row>
-    <row r="20" spans="1:26" ht="14.25">
+    <row r="20" spans="1:26" s="153" customFormat="1" ht="14.25">
       <c r="A20" s="66"/>
       <c r="B20" s="67"/>
-      <c r="C20" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>22</v>
+      <c r="C20" s="70" t="s">
+        <v>743</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="70" t="s">
+        <v>17</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="60" t="s">
-        <v>73</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="G20" s="76" t="s">
+        <v>742</v>
+      </c>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
       <c r="J20" s="72"/>
       <c r="K20" s="72"/>
       <c r="L20" s="73"/>
@@ -4565,25 +4616,25 @@
       <c r="A21" s="66"/>
       <c r="B21" s="67"/>
       <c r="C21" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="74" t="s">
         <v>65</v>
       </c>
       <c r="E21" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="75" t="s">
-        <v>75</v>
+      <c r="F21" s="71" t="s">
+        <v>70</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="H21" s="64" t="s">
+        <v>72</v>
       </c>
       <c r="I21" s="60" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J21" s="72"/>
       <c r="K21" s="72"/>
@@ -4603,32 +4654,32 @@
       <c r="Y21" s="73"/>
       <c r="Z21" s="73"/>
     </row>
-    <row r="22" spans="1:26" ht="15">
+    <row r="22" spans="1:26" ht="14.25">
       <c r="A22" s="66"/>
       <c r="B22" s="67"/>
       <c r="C22" s="68" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="70" t="s">
-        <v>17</v>
+        <v>65</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>22</v>
       </c>
       <c r="F22" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="57" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>76</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I22" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
+        <v>78</v>
+      </c>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
       <c r="L22" s="73"/>
       <c r="M22" s="73"/>
       <c r="N22" s="73"/>
@@ -4645,32 +4696,32 @@
       <c r="Y22" s="73"/>
       <c r="Z22" s="73"/>
     </row>
-    <row r="23" spans="1:26" ht="14.25">
+    <row r="23" spans="1:26" ht="15">
       <c r="A23" s="66"/>
       <c r="B23" s="67"/>
       <c r="C23" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>86</v>
+      <c r="G23" s="57" t="s">
+        <v>81</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I23" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
+        <v>83</v>
+      </c>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
       <c r="L23" s="73"/>
       <c r="M23" s="73"/>
       <c r="N23" s="73"/>
@@ -4687,11 +4738,11 @@
       <c r="Y23" s="73"/>
       <c r="Z23" s="73"/>
     </row>
-    <row r="24" spans="1:26" ht="28.5">
+    <row r="24" spans="1:26" ht="14.25">
       <c r="A24" s="66"/>
       <c r="B24" s="67"/>
       <c r="C24" s="68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D24" s="74" t="s">
         <v>80</v>
@@ -4700,16 +4751,16 @@
         <v>29</v>
       </c>
       <c r="F24" s="75" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H24" s="48" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I24" s="60" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J24" s="72"/>
       <c r="K24" s="72"/>
@@ -4729,53 +4780,53 @@
       <c r="Y24" s="73"/>
       <c r="Z24" s="73"/>
     </row>
-    <row r="25" spans="1:26" ht="14.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43" t="s">
-        <v>94</v>
+    <row r="25" spans="1:26" ht="28.5">
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68" t="s">
+        <v>89</v>
       </c>
       <c r="D25" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="46" t="s">
-        <v>95</v>
+      <c r="F25" s="75" t="s">
+        <v>90</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H25" s="48" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I25" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
+        <v>93</v>
+      </c>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
     </row>
     <row r="26" spans="1:26" ht="14.25">
       <c r="A26" s="41"/>
       <c r="B26" s="42"/>
       <c r="C26" s="43" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D26" s="74" t="s">
         <v>80</v>
@@ -4784,16 +4835,16 @@
         <v>29</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H26" s="48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I26" s="60" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J26" s="61"/>
       <c r="K26" s="61"/>
@@ -4813,32 +4864,32 @@
       <c r="Y26" s="51"/>
       <c r="Z26" s="51"/>
     </row>
-    <row r="27" spans="1:26" ht="15">
+    <row r="27" spans="1:26" ht="14.25">
       <c r="A27" s="41"/>
       <c r="B27" s="42"/>
       <c r="C27" s="43" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D27" s="74" t="s">
         <v>80</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="58" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="I27" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
+        <v>103</v>
+      </c>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
       <c r="L27" s="51"/>
       <c r="M27" s="51"/>
       <c r="N27" s="51"/>
@@ -4855,11 +4906,11 @@
       <c r="Y27" s="51"/>
       <c r="Z27" s="51"/>
     </row>
-    <row r="28" spans="1:26" ht="42.75">
+    <row r="28" spans="1:26" ht="15">
       <c r="A28" s="41"/>
       <c r="B28" s="42"/>
       <c r="C28" s="43" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D28" s="74" t="s">
         <v>80</v>
@@ -4868,19 +4919,19 @@
         <v>105</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="H28" s="48" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="58" t="s">
+        <v>108</v>
       </c>
       <c r="I28" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+        <v>109</v>
+      </c>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="51"/>
       <c r="M28" s="51"/>
       <c r="N28" s="51"/>
@@ -4897,11 +4948,11 @@
       <c r="Y28" s="51"/>
       <c r="Z28" s="51"/>
     </row>
-    <row r="29" spans="1:26" ht="14.25">
+    <row r="29" spans="1:26" ht="42.75">
       <c r="A29" s="41"/>
       <c r="B29" s="42"/>
       <c r="C29" s="43" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D29" s="74" t="s">
         <v>80</v>
@@ -4910,16 +4961,16 @@
         <v>105</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" s="76" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>112</v>
       </c>
       <c r="H29" s="48" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I29" s="60" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J29" s="61"/>
       <c r="K29" s="61"/>
@@ -4943,25 +4994,25 @@
       <c r="A30" s="41"/>
       <c r="B30" s="42"/>
       <c r="C30" s="43" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D30" s="74" t="s">
         <v>80</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="47" t="s">
-        <v>122</v>
+        <v>116</v>
+      </c>
+      <c r="G30" s="76" t="s">
+        <v>117</v>
       </c>
       <c r="H30" s="48" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I30" s="60" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J30" s="61"/>
       <c r="K30" s="61"/>
@@ -4985,13 +5036,13 @@
       <c r="A31" s="41"/>
       <c r="B31" s="42"/>
       <c r="C31" s="43" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D31" s="74" t="s">
         <v>80</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="F31" s="46" t="s">
         <v>121</v>
@@ -5002,7 +5053,7 @@
       <c r="H31" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="77" t="s">
+      <c r="I31" s="60" t="s">
         <v>124</v>
       </c>
       <c r="J31" s="61"/>
@@ -5023,11 +5074,11 @@
       <c r="Y31" s="51"/>
       <c r="Z31" s="51"/>
     </row>
-    <row r="32" spans="1:26" ht="42.75">
+    <row r="32" spans="1:26" ht="14.25">
       <c r="A32" s="41"/>
       <c r="B32" s="42"/>
       <c r="C32" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32" s="74" t="s">
         <v>80</v>
@@ -5036,16 +5087,16 @@
         <v>105</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H32" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="I32" s="60" t="s">
-        <v>130</v>
+        <v>123</v>
+      </c>
+      <c r="I32" s="77" t="s">
+        <v>124</v>
       </c>
       <c r="J32" s="61"/>
       <c r="K32" s="61"/>
@@ -5065,11 +5116,11 @@
       <c r="Y32" s="51"/>
       <c r="Z32" s="51"/>
     </row>
-    <row r="33" spans="1:26" ht="14.25">
+    <row r="33" spans="1:26" ht="42.75">
       <c r="A33" s="41"/>
       <c r="B33" s="42"/>
       <c r="C33" s="43" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D33" s="74" t="s">
         <v>80</v>
@@ -5078,16 +5129,16 @@
         <v>105</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H33" s="48" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I33" s="60" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J33" s="61"/>
       <c r="K33" s="61"/>
@@ -5111,25 +5162,25 @@
       <c r="A34" s="41"/>
       <c r="B34" s="42"/>
       <c r="C34" s="43" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D34" s="74" t="s">
         <v>80</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H34" s="48" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I34" s="60" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J34" s="61"/>
       <c r="K34" s="61"/>
@@ -5153,25 +5204,25 @@
       <c r="A35" s="41"/>
       <c r="B35" s="42"/>
       <c r="C35" s="43" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D35" s="74" t="s">
         <v>80</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="F35" s="46" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H35" s="48" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I35" s="60" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J35" s="61"/>
       <c r="K35" s="61"/>
@@ -5191,11 +5242,11 @@
       <c r="Y35" s="51"/>
       <c r="Z35" s="51"/>
     </row>
-    <row r="36" spans="1:26" ht="42.75">
+    <row r="36" spans="1:26" ht="14.25">
       <c r="A36" s="41"/>
       <c r="B36" s="42"/>
       <c r="C36" s="43" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D36" s="74" t="s">
         <v>80</v>
@@ -5204,16 +5255,16 @@
         <v>105</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G36" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="H36" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="I36" s="78" t="s">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="H36" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="60" t="s">
+        <v>145</v>
       </c>
       <c r="J36" s="61"/>
       <c r="K36" s="61"/>
@@ -5233,11 +5284,11 @@
       <c r="Y36" s="51"/>
       <c r="Z36" s="51"/>
     </row>
-    <row r="37" spans="1:26" ht="28.5">
+    <row r="37" spans="1:26" ht="42.75">
       <c r="A37" s="41"/>
       <c r="B37" s="42"/>
       <c r="C37" s="43" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D37" s="74" t="s">
         <v>80</v>
@@ -5246,16 +5297,16 @@
         <v>105</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="H37" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="I37" s="60" t="s">
-        <v>155</v>
+        <v>148</v>
+      </c>
+      <c r="H37" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" s="78" t="s">
+        <v>150</v>
       </c>
       <c r="J37" s="61"/>
       <c r="K37" s="61"/>
@@ -5275,29 +5326,29 @@
       <c r="Y37" s="51"/>
       <c r="Z37" s="51"/>
     </row>
-    <row r="38" spans="1:26" ht="14.25">
+    <row r="38" spans="1:26" ht="28.5">
       <c r="A38" s="41"/>
       <c r="B38" s="42"/>
       <c r="C38" s="43" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D38" s="74" t="s">
         <v>80</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F38" s="46" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G38" s="47" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H38" s="48" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I38" s="60" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J38" s="61"/>
       <c r="K38" s="61"/>
@@ -5321,7 +5372,7 @@
       <c r="A39" s="41"/>
       <c r="B39" s="42"/>
       <c r="C39" s="43" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D39" s="74" t="s">
         <v>80</v>
@@ -5330,16 +5381,16 @@
         <v>29</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G39" s="47" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H39" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="I39" s="79" t="s">
-        <v>165</v>
+        <v>159</v>
+      </c>
+      <c r="I39" s="60" t="s">
+        <v>160</v>
       </c>
       <c r="J39" s="61"/>
       <c r="K39" s="61"/>
@@ -5359,32 +5410,32 @@
       <c r="Y39" s="51"/>
       <c r="Z39" s="51"/>
     </row>
-    <row r="40" spans="1:26" ht="18">
+    <row r="40" spans="1:26" ht="14.25">
       <c r="A40" s="41"/>
       <c r="B40" s="42"/>
       <c r="C40" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D40" s="74" t="s">
         <v>80</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G40" s="47" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H40" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="I40" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
+        <v>164</v>
+      </c>
+      <c r="I40" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
       <c r="L40" s="51"/>
       <c r="M40" s="51"/>
       <c r="N40" s="51"/>
@@ -5401,11 +5452,11 @@
       <c r="Y40" s="51"/>
       <c r="Z40" s="51"/>
     </row>
-    <row r="41" spans="1:26" ht="28.5">
+    <row r="41" spans="1:26" ht="18">
       <c r="A41" s="41"/>
       <c r="B41" s="42"/>
       <c r="C41" s="43" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D41" s="74" t="s">
         <v>80</v>
@@ -5414,19 +5465,19 @@
         <v>105</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H41" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="I41" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
+        <v>169</v>
+      </c>
+      <c r="I41" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
       <c r="L41" s="51"/>
       <c r="M41" s="51"/>
       <c r="N41" s="51"/>
@@ -5443,11 +5494,11 @@
       <c r="Y41" s="51"/>
       <c r="Z41" s="51"/>
     </row>
-    <row r="42" spans="1:26" ht="14.25">
+    <row r="42" spans="1:26" ht="28.5">
       <c r="A42" s="41"/>
       <c r="B42" s="42"/>
-      <c r="C42" s="52" t="s">
-        <v>176</v>
+      <c r="C42" s="43" t="s">
+        <v>171</v>
       </c>
       <c r="D42" s="74" t="s">
         <v>80</v>
@@ -5456,16 +5507,16 @@
         <v>105</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G42" s="47" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H42" s="48" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I42" s="60" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J42" s="61"/>
       <c r="K42" s="61"/>
@@ -5488,26 +5539,26 @@
     <row r="43" spans="1:26" ht="14.25">
       <c r="A43" s="41"/>
       <c r="B43" s="42"/>
-      <c r="C43" s="43" t="s">
-        <v>181</v>
+      <c r="C43" s="52" t="s">
+        <v>176</v>
       </c>
       <c r="D43" s="74" t="s">
         <v>80</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F43" s="46" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G43" s="47" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H43" s="48" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I43" s="60" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J43" s="61"/>
       <c r="K43" s="61"/>
@@ -5527,11 +5578,11 @@
       <c r="Y43" s="51"/>
       <c r="Z43" s="51"/>
     </row>
-    <row r="44" spans="1:26" ht="18">
+    <row r="44" spans="1:26" ht="14.25">
       <c r="A44" s="41"/>
       <c r="B44" s="42"/>
       <c r="C44" s="43" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D44" s="74" t="s">
         <v>80</v>
@@ -5540,19 +5591,19 @@
         <v>29</v>
       </c>
       <c r="F44" s="46" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G44" s="47" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H44" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="I44" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
+        <v>184</v>
+      </c>
+      <c r="I44" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
       <c r="L44" s="51"/>
       <c r="M44" s="51"/>
       <c r="N44" s="51"/>
@@ -5573,28 +5624,28 @@
       <c r="A45" s="41"/>
       <c r="B45" s="42"/>
       <c r="C45" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D45" s="44" t="s">
-        <v>192</v>
+        <v>186</v>
+      </c>
+      <c r="D45" s="74" t="s">
+        <v>80</v>
       </c>
       <c r="E45" s="45" t="s">
         <v>29</v>
       </c>
       <c r="F45" s="46" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G45" s="47" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H45" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="I45" s="82" t="s">
-        <v>196</v>
-      </c>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
+        <v>189</v>
+      </c>
+      <c r="I45" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
       <c r="L45" s="51"/>
       <c r="M45" s="51"/>
       <c r="N45" s="51"/>
@@ -5615,7 +5666,7 @@
       <c r="A46" s="41"/>
       <c r="B46" s="42"/>
       <c r="C46" s="43" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D46" s="44" t="s">
         <v>192</v>
@@ -5624,16 +5675,16 @@
         <v>29</v>
       </c>
       <c r="F46" s="46" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G46" s="47" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H46" s="48" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I46" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J46" s="83"/>
       <c r="K46" s="83"/>
@@ -5653,32 +5704,32 @@
       <c r="Y46" s="51"/>
       <c r="Z46" s="51"/>
     </row>
-    <row r="47" spans="1:26" ht="14.25">
+    <row r="47" spans="1:26" ht="18">
       <c r="A47" s="41"/>
       <c r="B47" s="42"/>
       <c r="C47" s="43" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D47" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="46" t="s">
         <v>198</v>
       </c>
       <c r="G47" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="H47" s="64" t="s">
+      <c r="H47" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="I47" s="60" t="s">
+      <c r="I47" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
       <c r="L47" s="51"/>
       <c r="M47" s="51"/>
       <c r="N47" s="51"/>
@@ -5699,7 +5750,7 @@
       <c r="A48" s="41"/>
       <c r="B48" s="42"/>
       <c r="C48" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D48" s="44" t="s">
         <v>192</v>
@@ -5708,16 +5759,16 @@
         <v>105</v>
       </c>
       <c r="F48" s="84" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G48" s="47" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H48" s="64" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I48" s="60" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J48" s="61"/>
       <c r="K48" s="61"/>
@@ -5737,11 +5788,11 @@
       <c r="Y48" s="51"/>
       <c r="Z48" s="51"/>
     </row>
-    <row r="49" spans="1:26" ht="28.5">
+    <row r="49" spans="1:26" ht="14.25">
       <c r="A49" s="41"/>
       <c r="B49" s="42"/>
       <c r="C49" s="43" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D49" s="44" t="s">
         <v>192</v>
@@ -5750,16 +5801,16 @@
         <v>105</v>
       </c>
       <c r="F49" s="84" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G49" s="47" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H49" s="64" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I49" s="60" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J49" s="61"/>
       <c r="K49" s="61"/>
@@ -5779,32 +5830,32 @@
       <c r="Y49" s="51"/>
       <c r="Z49" s="51"/>
     </row>
-    <row r="50" spans="1:26" ht="18">
+    <row r="50" spans="1:26" ht="28.5">
       <c r="A50" s="41"/>
       <c r="B50" s="42"/>
       <c r="C50" s="43" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D50" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F50" s="84" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G50" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="H50" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="I50" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="J50" s="81"/>
-      <c r="K50" s="81"/>
+        <v>210</v>
+      </c>
+      <c r="H50" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="I50" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
       <c r="L50" s="51"/>
       <c r="M50" s="51"/>
       <c r="N50" s="51"/>
@@ -5825,28 +5876,28 @@
       <c r="A51" s="41"/>
       <c r="B51" s="42"/>
       <c r="C51" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D51" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="F51" s="84" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G51" s="47" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H51" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="I51" s="82" t="s">
-        <v>222</v>
-      </c>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
+        <v>216</v>
+      </c>
+      <c r="I51" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
       <c r="L51" s="51"/>
       <c r="M51" s="51"/>
       <c r="N51" s="51"/>
@@ -5863,11 +5914,11 @@
       <c r="Y51" s="51"/>
       <c r="Z51" s="51"/>
     </row>
-    <row r="52" spans="1:26" ht="54">
+    <row r="52" spans="1:26" ht="18">
       <c r="A52" s="41"/>
       <c r="B52" s="42"/>
       <c r="C52" s="43" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D52" s="44" t="s">
         <v>192</v>
@@ -5876,16 +5927,16 @@
         <v>105</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G52" s="47" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H52" s="48" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I52" s="82" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J52" s="83"/>
       <c r="K52" s="83"/>
@@ -5905,11 +5956,11 @@
       <c r="Y52" s="51"/>
       <c r="Z52" s="51"/>
     </row>
-    <row r="53" spans="1:26" ht="28.5">
+    <row r="53" spans="1:26" ht="54">
       <c r="A53" s="41"/>
       <c r="B53" s="42"/>
       <c r="C53" s="43" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D53" s="44" t="s">
         <v>192</v>
@@ -5918,19 +5969,19 @@
         <v>105</v>
       </c>
       <c r="F53" s="84" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G53" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H53" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="I53" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="J53" s="61"/>
-      <c r="K53" s="61"/>
+        <v>225</v>
+      </c>
+      <c r="H53" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="I53" s="82" t="s">
+        <v>227</v>
+      </c>
+      <c r="J53" s="83"/>
+      <c r="K53" s="83"/>
       <c r="L53" s="51"/>
       <c r="M53" s="51"/>
       <c r="N53" s="51"/>
@@ -5947,29 +5998,29 @@
       <c r="Y53" s="51"/>
       <c r="Z53" s="51"/>
     </row>
-    <row r="54" spans="1:26" ht="14.25">
+    <row r="54" spans="1:26" ht="28.5">
       <c r="A54" s="41"/>
       <c r="B54" s="42"/>
       <c r="C54" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D54" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E54" s="45" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F54" s="84" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G54" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="H54" s="48" t="s">
-        <v>236</v>
+        <v>230</v>
+      </c>
+      <c r="H54" s="64" t="s">
+        <v>231</v>
       </c>
       <c r="I54" s="60" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J54" s="61"/>
       <c r="K54" s="61"/>
@@ -5993,7 +6044,7 @@
       <c r="A55" s="41"/>
       <c r="B55" s="42"/>
       <c r="C55" s="43" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D55" s="44" t="s">
         <v>192</v>
@@ -6001,17 +6052,17 @@
       <c r="E55" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="46" t="s">
-        <v>239</v>
+      <c r="F55" s="84" t="s">
+        <v>234</v>
       </c>
       <c r="G55" s="47" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H55" s="48" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I55" s="60" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J55" s="61"/>
       <c r="K55" s="61"/>
@@ -6035,7 +6086,7 @@
       <c r="A56" s="41"/>
       <c r="B56" s="42"/>
       <c r="C56" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D56" s="44" t="s">
         <v>192</v>
@@ -6043,17 +6094,17 @@
       <c r="E56" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="84" t="s">
-        <v>244</v>
+      <c r="F56" s="46" t="s">
+        <v>239</v>
       </c>
       <c r="G56" s="47" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H56" s="48" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I56" s="60" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="J56" s="61"/>
       <c r="K56" s="61"/>
@@ -6077,7 +6128,7 @@
       <c r="A57" s="41"/>
       <c r="B57" s="42"/>
       <c r="C57" s="43" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D57" s="44" t="s">
         <v>192</v>
@@ -6085,17 +6136,17 @@
       <c r="E57" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="46" t="s">
-        <v>249</v>
+      <c r="F57" s="84" t="s">
+        <v>244</v>
       </c>
       <c r="G57" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="H57" s="64" t="s">
-        <v>251</v>
+        <v>245</v>
+      </c>
+      <c r="H57" s="48" t="s">
+        <v>246</v>
       </c>
       <c r="I57" s="60" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="J57" s="61"/>
       <c r="K57" s="61"/>
@@ -6115,32 +6166,32 @@
       <c r="Y57" s="51"/>
       <c r="Z57" s="51"/>
     </row>
-    <row r="58" spans="1:26" ht="18">
+    <row r="58" spans="1:26" ht="14.25">
       <c r="A58" s="41"/>
       <c r="B58" s="42"/>
       <c r="C58" s="43" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D58" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E58" s="45" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="F58" s="46" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G58" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="H58" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="I58" s="80" t="s">
-        <v>257</v>
-      </c>
-      <c r="J58" s="81"/>
-      <c r="K58" s="81"/>
+        <v>250</v>
+      </c>
+      <c r="H58" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="I58" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="J58" s="61"/>
+      <c r="K58" s="61"/>
       <c r="L58" s="51"/>
       <c r="M58" s="51"/>
       <c r="N58" s="51"/>
@@ -6157,11 +6208,11 @@
       <c r="Y58" s="51"/>
       <c r="Z58" s="51"/>
     </row>
-    <row r="59" spans="1:26" ht="36">
+    <row r="59" spans="1:26" ht="18">
       <c r="A59" s="41"/>
       <c r="B59" s="42"/>
       <c r="C59" s="43" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D59" s="44" t="s">
         <v>192</v>
@@ -6169,20 +6220,20 @@
       <c r="E59" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="F59" s="84" t="s">
-        <v>259</v>
+      <c r="F59" s="46" t="s">
+        <v>254</v>
       </c>
       <c r="G59" s="47" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H59" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="I59" s="82" t="s">
-        <v>262</v>
-      </c>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
+        <v>256</v>
+      </c>
+      <c r="I59" s="80" t="s">
+        <v>257</v>
+      </c>
+      <c r="J59" s="81"/>
+      <c r="K59" s="81"/>
       <c r="L59" s="51"/>
       <c r="M59" s="51"/>
       <c r="N59" s="51"/>
@@ -6199,11 +6250,11 @@
       <c r="Y59" s="51"/>
       <c r="Z59" s="51"/>
     </row>
-    <row r="60" spans="1:26" ht="18">
+    <row r="60" spans="1:26" ht="36">
       <c r="A60" s="41"/>
       <c r="B60" s="42"/>
       <c r="C60" s="43" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D60" s="44" t="s">
         <v>192</v>
@@ -6212,16 +6263,16 @@
         <v>105</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G60" s="47" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H60" s="48" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I60" s="82" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J60" s="83"/>
       <c r="K60" s="83"/>
@@ -6241,32 +6292,32 @@
       <c r="Y60" s="51"/>
       <c r="Z60" s="51"/>
     </row>
-    <row r="61" spans="1:26" ht="14.25">
+    <row r="61" spans="1:26" ht="18">
       <c r="A61" s="41"/>
       <c r="B61" s="42"/>
       <c r="C61" s="43" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D61" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E61" s="45" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F61" s="84" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G61" s="47" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H61" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="I61" s="60" t="s">
-        <v>272</v>
-      </c>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
+        <v>266</v>
+      </c>
+      <c r="I61" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
       <c r="L61" s="51"/>
       <c r="M61" s="51"/>
       <c r="N61" s="51"/>
@@ -6283,32 +6334,32 @@
       <c r="Y61" s="51"/>
       <c r="Z61" s="51"/>
     </row>
-    <row r="62" spans="1:26" ht="18">
+    <row r="62" spans="1:26" ht="14.25">
       <c r="A62" s="41"/>
       <c r="B62" s="42"/>
       <c r="C62" s="43" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="E62" s="45" t="s">
         <v>29</v>
       </c>
       <c r="F62" s="84" t="s">
-        <v>274</v>
-      </c>
-      <c r="G62" s="85" t="s">
-        <v>275</v>
+        <v>269</v>
+      </c>
+      <c r="G62" s="47" t="s">
+        <v>270</v>
       </c>
       <c r="H62" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="I62" s="80" t="s">
-        <v>276</v>
-      </c>
-      <c r="J62" s="86"/>
-      <c r="K62" s="86"/>
+        <v>271</v>
+      </c>
+      <c r="I62" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="J62" s="61"/>
+      <c r="K62" s="61"/>
       <c r="L62" s="51"/>
       <c r="M62" s="51"/>
       <c r="N62" s="51"/>
@@ -6325,11 +6376,11 @@
       <c r="Y62" s="51"/>
       <c r="Z62" s="51"/>
     </row>
-    <row r="63" spans="1:26" ht="15">
+    <row r="63" spans="1:26" ht="18">
       <c r="A63" s="41"/>
       <c r="B63" s="42"/>
       <c r="C63" s="43" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D63" s="44" t="s">
         <v>80</v>
@@ -6337,20 +6388,20 @@
       <c r="E63" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F63" s="46" t="s">
-        <v>46</v>
+      <c r="F63" s="84" t="s">
+        <v>274</v>
       </c>
       <c r="G63" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="H63" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="I63" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="H63" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="I63" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="J63" s="86"/>
+      <c r="K63" s="86"/>
       <c r="L63" s="51"/>
       <c r="M63" s="51"/>
       <c r="N63" s="51"/>
@@ -6367,29 +6418,29 @@
       <c r="Y63" s="51"/>
       <c r="Z63" s="51"/>
     </row>
-    <row r="64" spans="1:26" ht="14.25">
+    <row r="64" spans="1:26" ht="15">
       <c r="A64" s="41"/>
       <c r="B64" s="42"/>
       <c r="C64" s="43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D64" s="44" t="s">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="E64" s="45" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="F64" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="G64" s="47" t="s">
-        <v>282</v>
+        <v>46</v>
+      </c>
+      <c r="G64" s="85" t="s">
+        <v>47</v>
       </c>
       <c r="H64" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="I64" s="60" t="s">
-        <v>284</v>
+        <v>48</v>
+      </c>
+      <c r="I64" s="87" t="s">
+        <v>49</v>
       </c>
       <c r="J64" s="61"/>
       <c r="K64" s="61"/>
@@ -6409,29 +6460,29 @@
       <c r="Y64" s="51"/>
       <c r="Z64" s="51"/>
     </row>
-    <row r="65" spans="1:26" ht="15">
+    <row r="65" spans="1:26" ht="14.25">
       <c r="A65" s="41"/>
       <c r="B65" s="42"/>
       <c r="C65" s="43" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D65" s="44" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E65" s="45" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F65" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="G65" s="85" t="s">
-        <v>289</v>
+        <v>281</v>
+      </c>
+      <c r="G65" s="47" t="s">
+        <v>282</v>
       </c>
       <c r="H65" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="I65" s="87" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="I65" s="60" t="s">
+        <v>284</v>
       </c>
       <c r="J65" s="61"/>
       <c r="K65" s="61"/>
@@ -6451,11 +6502,11 @@
       <c r="Y65" s="51"/>
       <c r="Z65" s="51"/>
     </row>
-    <row r="66" spans="1:26" ht="14.25">
+    <row r="66" spans="1:26" ht="15">
       <c r="A66" s="41"/>
       <c r="B66" s="42"/>
       <c r="C66" s="43" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D66" s="44" t="s">
         <v>286</v>
@@ -6464,16 +6515,16 @@
         <v>287</v>
       </c>
       <c r="F66" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G66" s="47" t="s">
-        <v>47</v>
+        <v>288</v>
+      </c>
+      <c r="G66" s="85" t="s">
+        <v>289</v>
       </c>
       <c r="H66" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="I66" s="60" t="s">
-        <v>49</v>
+        <v>289</v>
+      </c>
+      <c r="I66" s="87" t="s">
+        <v>290</v>
       </c>
       <c r="J66" s="61"/>
       <c r="K66" s="61"/>
@@ -6493,29 +6544,29 @@
       <c r="Y66" s="51"/>
       <c r="Z66" s="51"/>
     </row>
-    <row r="67" spans="1:26" ht="15">
+    <row r="67" spans="1:26" ht="14.25">
       <c r="A67" s="41"/>
       <c r="B67" s="42"/>
       <c r="C67" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E67" s="45" t="s">
         <v>287</v>
       </c>
       <c r="F67" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="G67" s="85" t="s">
-        <v>295</v>
+        <v>47</v>
+      </c>
+      <c r="G67" s="47" t="s">
+        <v>47</v>
       </c>
       <c r="H67" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="I67" s="87" t="s">
-        <v>297</v>
+        <v>48</v>
+      </c>
+      <c r="I67" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="J67" s="61"/>
       <c r="K67" s="61"/>
@@ -6535,11 +6586,11 @@
       <c r="Y67" s="51"/>
       <c r="Z67" s="51"/>
     </row>
-    <row r="68" spans="1:26" ht="28.5">
+    <row r="68" spans="1:26" ht="15">
       <c r="A68" s="41"/>
       <c r="B68" s="42"/>
       <c r="C68" s="43" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D68" s="44" t="s">
         <v>293</v>
@@ -6547,17 +6598,17 @@
       <c r="E68" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="F68" s="62" t="s">
-        <v>299</v>
-      </c>
-      <c r="G68" s="47" t="s">
-        <v>300</v>
+      <c r="F68" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G68" s="85" t="s">
+        <v>295</v>
       </c>
       <c r="H68" s="64" t="s">
-        <v>301</v>
-      </c>
-      <c r="I68" s="60" t="s">
-        <v>302</v>
+        <v>296</v>
+      </c>
+      <c r="I68" s="87" t="s">
+        <v>297</v>
       </c>
       <c r="J68" s="61"/>
       <c r="K68" s="61"/>
@@ -6577,11 +6628,11 @@
       <c r="Y68" s="51"/>
       <c r="Z68" s="51"/>
     </row>
-    <row r="69" spans="1:26" ht="14.25">
+    <row r="69" spans="1:26" ht="28.5">
       <c r="A69" s="41"/>
       <c r="B69" s="42"/>
       <c r="C69" s="43" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D69" s="44" t="s">
         <v>293</v>
@@ -6589,17 +6640,17 @@
       <c r="E69" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="F69" s="46" t="s">
-        <v>304</v>
+      <c r="F69" s="62" t="s">
+        <v>299</v>
       </c>
       <c r="G69" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="H69" s="48" t="s">
-        <v>306</v>
+        <v>300</v>
+      </c>
+      <c r="H69" s="64" t="s">
+        <v>301</v>
       </c>
       <c r="I69" s="60" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J69" s="61"/>
       <c r="K69" s="61"/>
@@ -6623,25 +6674,25 @@
       <c r="A70" s="41"/>
       <c r="B70" s="42"/>
       <c r="C70" s="43" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E70" s="45" t="s">
         <v>287</v>
       </c>
       <c r="F70" s="46" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G70" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="H70" s="64" t="s">
-        <v>312</v>
+        <v>305</v>
+      </c>
+      <c r="H70" s="48" t="s">
+        <v>306</v>
       </c>
       <c r="I70" s="60" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J70" s="61"/>
       <c r="K70" s="61"/>
@@ -6663,9 +6714,9 @@
     </row>
     <row r="71" spans="1:26" ht="14.25">
       <c r="A71" s="41"/>
-      <c r="B71" s="88"/>
+      <c r="B71" s="42"/>
       <c r="C71" s="43" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D71" s="44" t="s">
         <v>309</v>
@@ -6674,16 +6725,16 @@
         <v>287</v>
       </c>
       <c r="F71" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="G71" s="89" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="G71" s="47" t="s">
+        <v>311</v>
       </c>
       <c r="H71" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="I71" s="90" t="s">
-        <v>318</v>
+        <v>312</v>
+      </c>
+      <c r="I71" s="60" t="s">
+        <v>313</v>
       </c>
       <c r="J71" s="61"/>
       <c r="K71" s="61"/>
@@ -6707,25 +6758,25 @@
       <c r="A72" s="41"/>
       <c r="B72" s="88"/>
       <c r="C72" s="43" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>16</v>
+        <v>309</v>
       </c>
       <c r="E72" s="45" t="s">
-        <v>17</v>
+        <v>287</v>
       </c>
       <c r="F72" s="46" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G72" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H72" s="64" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I72" s="90" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J72" s="61"/>
       <c r="K72" s="61"/>
@@ -6749,25 +6800,25 @@
       <c r="A73" s="41"/>
       <c r="B73" s="88"/>
       <c r="C73" s="43" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D73" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="E73" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="46" t="s">
-        <v>325</v>
-      </c>
       <c r="G73" s="89" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H73" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="I73" s="91" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I73" s="90" t="s">
+        <v>323</v>
       </c>
       <c r="J73" s="61"/>
       <c r="K73" s="61"/>
@@ -6787,11 +6838,11 @@
       <c r="Y73" s="51"/>
       <c r="Z73" s="51"/>
     </row>
-    <row r="74" spans="1:26" ht="42.75">
+    <row r="74" spans="1:26" ht="14.25">
       <c r="A74" s="41"/>
       <c r="B74" s="88"/>
       <c r="C74" s="43" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D74" s="44" t="s">
         <v>320</v>
@@ -6800,16 +6851,16 @@
         <v>29</v>
       </c>
       <c r="F74" s="46" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G74" s="89" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H74" s="64" t="s">
-        <v>332</v>
-      </c>
-      <c r="I74" s="90" t="s">
-        <v>333</v>
+        <v>327</v>
+      </c>
+      <c r="I74" s="91" t="s">
+        <v>328</v>
       </c>
       <c r="J74" s="61"/>
       <c r="K74" s="61"/>
@@ -6829,29 +6880,29 @@
       <c r="Y74" s="51"/>
       <c r="Z74" s="51"/>
     </row>
-    <row r="75" spans="1:26" ht="28.5">
+    <row r="75" spans="1:26" ht="42.75">
       <c r="A75" s="41"/>
       <c r="B75" s="88"/>
       <c r="C75" s="43" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="E75" s="45" t="s">
         <v>29</v>
       </c>
       <c r="F75" s="46" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G75" s="89" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H75" s="64" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I75" s="90" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="J75" s="61"/>
       <c r="K75" s="61"/>
@@ -6871,29 +6922,29 @@
       <c r="Y75" s="51"/>
       <c r="Z75" s="51"/>
     </row>
-    <row r="76" spans="1:26" ht="14.25">
+    <row r="76" spans="1:26" ht="28.5">
       <c r="A76" s="41"/>
       <c r="B76" s="88"/>
       <c r="C76" s="43" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D76" s="44" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E76" s="45" t="s">
         <v>29</v>
       </c>
       <c r="F76" s="46" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G76" s="89" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H76" s="64" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="I76" s="90" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J76" s="61"/>
       <c r="K76" s="61"/>
@@ -6917,25 +6968,25 @@
       <c r="A77" s="41"/>
       <c r="B77" s="88"/>
       <c r="C77" s="43" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E77" s="45" t="s">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="F77" s="46" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G77" s="89" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H77" s="64" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="I77" s="90" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="J77" s="61"/>
       <c r="K77" s="61"/>
@@ -6955,11 +7006,11 @@
       <c r="Y77" s="51"/>
       <c r="Z77" s="51"/>
     </row>
-    <row r="78" spans="1:26" ht="28.5">
+    <row r="78" spans="1:26" ht="14.25">
       <c r="A78" s="41"/>
       <c r="B78" s="88"/>
       <c r="C78" s="43" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D78" s="44" t="s">
         <v>347</v>
@@ -6968,16 +7019,16 @@
         <v>287</v>
       </c>
       <c r="F78" s="46" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G78" s="89" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H78" s="64" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="I78" s="90" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J78" s="61"/>
       <c r="K78" s="61"/>
@@ -6997,29 +7048,29 @@
       <c r="Y78" s="51"/>
       <c r="Z78" s="51"/>
     </row>
-    <row r="79" spans="1:26" ht="14.25">
+    <row r="79" spans="1:26" ht="28.5">
       <c r="A79" s="41"/>
       <c r="B79" s="88"/>
       <c r="C79" s="43" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D79" s="44" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="E79" s="45" t="s">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="F79" s="46" t="s">
-        <v>358</v>
-      </c>
-      <c r="G79" s="92" t="s">
-        <v>359</v>
+        <v>353</v>
+      </c>
+      <c r="G79" s="89" t="s">
+        <v>354</v>
       </c>
       <c r="H79" s="64" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="I79" s="90" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="J79" s="61"/>
       <c r="K79" s="61"/>
@@ -7043,7 +7094,7 @@
       <c r="A80" s="41"/>
       <c r="B80" s="88"/>
       <c r="C80" s="43" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D80" s="44" t="s">
         <v>320</v>
@@ -7052,16 +7103,16 @@
         <v>29</v>
       </c>
       <c r="F80" s="46" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G80" s="92" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H80" s="64" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I80" s="90" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="J80" s="61"/>
       <c r="K80" s="61"/>
@@ -7085,28 +7136,28 @@
       <c r="A81" s="41"/>
       <c r="B81" s="88"/>
       <c r="C81" s="43" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>16</v>
+        <v>320</v>
       </c>
       <c r="E81" s="45" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F81" s="46" t="s">
-        <v>368</v>
-      </c>
-      <c r="G81" s="93" t="s">
-        <v>369</v>
+        <v>363</v>
+      </c>
+      <c r="G81" s="92" t="s">
+        <v>364</v>
       </c>
       <c r="H81" s="64" t="s">
-        <v>370</v>
-      </c>
-      <c r="I81" s="94" t="s">
-        <v>371</v>
-      </c>
-      <c r="J81" s="95"/>
-      <c r="K81" s="95"/>
+        <v>365</v>
+      </c>
+      <c r="I81" s="90" t="s">
+        <v>366</v>
+      </c>
+      <c r="J81" s="61"/>
+      <c r="K81" s="61"/>
       <c r="L81" s="51"/>
       <c r="M81" s="51"/>
       <c r="N81" s="51"/>
@@ -7127,7 +7178,7 @@
       <c r="A82" s="41"/>
       <c r="B82" s="88"/>
       <c r="C82" s="43" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D82" s="44" t="s">
         <v>16</v>
@@ -7135,17 +7186,17 @@
       <c r="E82" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="84" t="s">
-        <v>373</v>
+      <c r="F82" s="46" t="s">
+        <v>368</v>
       </c>
       <c r="G82" s="93" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H82" s="64" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="I82" s="94" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="J82" s="95"/>
       <c r="K82" s="95"/>
@@ -7169,25 +7220,25 @@
       <c r="A83" s="41"/>
       <c r="B83" s="88"/>
       <c r="C83" s="43" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D83" s="44" t="s">
         <v>16</v>
       </c>
       <c r="E83" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="F83" s="46" t="s">
-        <v>379</v>
+        <v>17</v>
+      </c>
+      <c r="F83" s="84" t="s">
+        <v>373</v>
       </c>
       <c r="G83" s="93" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H83" s="64" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="I83" s="94" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="J83" s="95"/>
       <c r="K83" s="95"/>
@@ -7211,7 +7262,7 @@
       <c r="A84" s="41"/>
       <c r="B84" s="88"/>
       <c r="C84" s="43" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D84" s="44" t="s">
         <v>16</v>
@@ -7220,16 +7271,16 @@
         <v>378</v>
       </c>
       <c r="F84" s="46" t="s">
-        <v>384</v>
-      </c>
-      <c r="G84" s="96" t="s">
-        <v>385</v>
+        <v>379</v>
+      </c>
+      <c r="G84" s="93" t="s">
+        <v>380</v>
       </c>
       <c r="H84" s="64" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I84" s="94" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="J84" s="95"/>
       <c r="K84" s="95"/>
@@ -7253,7 +7304,7 @@
       <c r="A85" s="41"/>
       <c r="B85" s="88"/>
       <c r="C85" s="43" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D85" s="44" t="s">
         <v>16</v>
@@ -7261,17 +7312,17 @@
       <c r="E85" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="F85" s="97" t="s">
-        <v>389</v>
+      <c r="F85" s="46" t="s">
+        <v>384</v>
       </c>
       <c r="G85" s="96" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H85" s="64" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="I85" s="94" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="J85" s="95"/>
       <c r="K85" s="95"/>
@@ -7294,8 +7345,8 @@
     <row r="86" spans="1:26" ht="14.25">
       <c r="A86" s="41"/>
       <c r="B86" s="88"/>
-      <c r="C86" s="98" t="s">
-        <v>393</v>
+      <c r="C86" s="43" t="s">
+        <v>388</v>
       </c>
       <c r="D86" s="44" t="s">
         <v>16</v>
@@ -7304,16 +7355,16 @@
         <v>378</v>
       </c>
       <c r="F86" s="97" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G86" s="96" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H86" s="64" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I86" s="94" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="J86" s="95"/>
       <c r="K86" s="95"/>
@@ -7337,7 +7388,7 @@
       <c r="A87" s="41"/>
       <c r="B87" s="88"/>
       <c r="C87" s="98" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D87" s="44" t="s">
         <v>16</v>
@@ -7346,16 +7397,16 @@
         <v>378</v>
       </c>
       <c r="F87" s="97" t="s">
-        <v>399</v>
-      </c>
-      <c r="G87" s="99" t="s">
-        <v>400</v>
-      </c>
-      <c r="H87" s="100" t="s">
-        <v>401</v>
-      </c>
-      <c r="I87" s="101" t="s">
-        <v>402</v>
+        <v>394</v>
+      </c>
+      <c r="G87" s="96" t="s">
+        <v>395</v>
+      </c>
+      <c r="H87" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="I87" s="94" t="s">
+        <v>397</v>
       </c>
       <c r="J87" s="95"/>
       <c r="K87" s="95"/>
@@ -7379,7 +7430,7 @@
       <c r="A88" s="41"/>
       <c r="B88" s="88"/>
       <c r="C88" s="98" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D88" s="44" t="s">
         <v>16</v>
@@ -7388,16 +7439,16 @@
         <v>378</v>
       </c>
       <c r="F88" s="97" t="s">
-        <v>404</v>
-      </c>
-      <c r="G88" s="96" t="s">
-        <v>405</v>
-      </c>
-      <c r="H88" s="64" t="s">
-        <v>406</v>
-      </c>
-      <c r="I88" s="94" t="s">
-        <v>407</v>
+        <v>399</v>
+      </c>
+      <c r="G88" s="99" t="s">
+        <v>400</v>
+      </c>
+      <c r="H88" s="100" t="s">
+        <v>401</v>
+      </c>
+      <c r="I88" s="101" t="s">
+        <v>402</v>
       </c>
       <c r="J88" s="95"/>
       <c r="K88" s="95"/>
@@ -7421,7 +7472,7 @@
       <c r="A89" s="41"/>
       <c r="B89" s="88"/>
       <c r="C89" s="98" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D89" s="44" t="s">
         <v>16</v>
@@ -7429,17 +7480,17 @@
       <c r="E89" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="F89" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="G89" s="93" t="s">
-        <v>410</v>
+      <c r="F89" s="97" t="s">
+        <v>404</v>
+      </c>
+      <c r="G89" s="96" t="s">
+        <v>405</v>
       </c>
       <c r="H89" s="64" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="I89" s="94" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J89" s="95"/>
       <c r="K89" s="95"/>
@@ -7463,7 +7514,7 @@
       <c r="A90" s="41"/>
       <c r="B90" s="88"/>
       <c r="C90" s="98" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D90" s="44" t="s">
         <v>16</v>
@@ -7472,16 +7523,16 @@
         <v>378</v>
       </c>
       <c r="F90" s="46" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G90" s="93" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H90" s="64" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="I90" s="94" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J90" s="95"/>
       <c r="K90" s="95"/>
@@ -7505,28 +7556,28 @@
       <c r="A91" s="41"/>
       <c r="B91" s="88"/>
       <c r="C91" s="98" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D91" s="44" t="s">
-        <v>419</v>
+        <v>16</v>
       </c>
       <c r="E91" s="45" t="s">
-        <v>22</v>
+        <v>378</v>
       </c>
       <c r="F91" s="46" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G91" s="93" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H91" s="64" t="s">
-        <v>420</v>
-      </c>
-      <c r="I91" s="102" t="s">
-        <v>421</v>
-      </c>
-      <c r="J91" s="51"/>
-      <c r="K91" s="51"/>
+        <v>416</v>
+      </c>
+      <c r="I91" s="94" t="s">
+        <v>417</v>
+      </c>
+      <c r="J91" s="95"/>
+      <c r="K91" s="95"/>
       <c r="L91" s="51"/>
       <c r="M91" s="51"/>
       <c r="N91" s="51"/>
@@ -7547,7 +7598,7 @@
       <c r="A92" s="41"/>
       <c r="B92" s="88"/>
       <c r="C92" s="98" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D92" s="44" t="s">
         <v>419</v>
@@ -7556,16 +7607,16 @@
         <v>22</v>
       </c>
       <c r="F92" s="46" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G92" s="93" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H92" s="64" t="s">
-        <v>423</v>
-      </c>
-      <c r="I92" s="93" t="s">
-        <v>423</v>
+        <v>420</v>
+      </c>
+      <c r="I92" s="102" t="s">
+        <v>421</v>
       </c>
       <c r="J92" s="51"/>
       <c r="K92" s="51"/>
@@ -7589,7 +7640,7 @@
       <c r="A93" s="41"/>
       <c r="B93" s="88"/>
       <c r="C93" s="98" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D93" s="44" t="s">
         <v>419</v>
@@ -7597,17 +7648,17 @@
       <c r="E93" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F93" s="103" t="s">
-        <v>425</v>
+      <c r="F93" s="46" t="s">
+        <v>423</v>
       </c>
       <c r="G93" s="93" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H93" s="64" t="s">
-        <v>427</v>
-      </c>
-      <c r="I93" s="102" t="s">
-        <v>428</v>
+        <v>423</v>
+      </c>
+      <c r="I93" s="93" t="s">
+        <v>423</v>
       </c>
       <c r="J93" s="51"/>
       <c r="K93" s="51"/>
@@ -7631,7 +7682,7 @@
       <c r="A94" s="41"/>
       <c r="B94" s="88"/>
       <c r="C94" s="98" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D94" s="44" t="s">
         <v>419</v>
@@ -7640,16 +7691,16 @@
         <v>22</v>
       </c>
       <c r="F94" s="103" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G94" s="93" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H94" s="64" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="I94" s="102" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="J94" s="51"/>
       <c r="K94" s="51"/>
@@ -7673,7 +7724,7 @@
       <c r="A95" s="41"/>
       <c r="B95" s="88"/>
       <c r="C95" s="98" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D95" s="44" t="s">
         <v>419</v>
@@ -7682,16 +7733,16 @@
         <v>22</v>
       </c>
       <c r="F95" s="103" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G95" s="93" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H95" s="64" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="I95" s="102" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J95" s="51"/>
       <c r="K95" s="51"/>
@@ -7713,9 +7764,9 @@
     </row>
     <row r="96" spans="1:26" ht="14.25">
       <c r="A96" s="41"/>
-      <c r="B96" s="104"/>
-      <c r="C96" s="43" t="s">
-        <v>439</v>
+      <c r="B96" s="88"/>
+      <c r="C96" s="98" t="s">
+        <v>434</v>
       </c>
       <c r="D96" s="44" t="s">
         <v>419</v>
@@ -7724,16 +7775,16 @@
         <v>22</v>
       </c>
       <c r="F96" s="103" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G96" s="93" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H96" s="64" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="I96" s="102" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J96" s="51"/>
       <c r="K96" s="51"/>
@@ -7757,25 +7808,25 @@
       <c r="A97" s="41"/>
       <c r="B97" s="104"/>
       <c r="C97" s="43" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D97" s="44" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F97" s="103" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G97" s="93" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H97" s="64" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="I97" s="102" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="J97" s="51"/>
       <c r="K97" s="51"/>
@@ -7795,29 +7846,29 @@
       <c r="Y97" s="51"/>
       <c r="Z97" s="51"/>
     </row>
-    <row r="98" spans="1:26" ht="28.5">
+    <row r="98" spans="1:26" ht="14.25">
       <c r="A98" s="41"/>
       <c r="B98" s="104"/>
       <c r="C98" s="43" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D98" s="44" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E98" s="45" t="s">
         <v>29</v>
       </c>
       <c r="F98" s="103" t="s">
-        <v>452</v>
-      </c>
-      <c r="G98" s="92" t="s">
-        <v>453</v>
+        <v>446</v>
+      </c>
+      <c r="G98" s="93" t="s">
+        <v>447</v>
       </c>
       <c r="H98" s="64" t="s">
-        <v>454</v>
-      </c>
-      <c r="I98" s="105" t="s">
-        <v>455</v>
+        <v>448</v>
+      </c>
+      <c r="I98" s="102" t="s">
+        <v>449</v>
       </c>
       <c r="J98" s="51"/>
       <c r="K98" s="51"/>
@@ -7837,25 +7888,29 @@
       <c r="Y98" s="51"/>
       <c r="Z98" s="51"/>
     </row>
-    <row r="99" spans="1:26" ht="14.25">
+    <row r="99" spans="1:26" ht="28.5">
       <c r="A99" s="41"/>
       <c r="B99" s="104"/>
-      <c r="C99" s="52" t="s">
-        <v>456</v>
-      </c>
-      <c r="D99" s="106"/>
-      <c r="E99" s="107"/>
-      <c r="F99" s="108" t="s">
-        <v>457</v>
-      </c>
-      <c r="G99" s="93" t="s">
-        <v>458</v>
+      <c r="C99" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="D99" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="E99" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="103" t="s">
+        <v>452</v>
+      </c>
+      <c r="G99" s="92" t="s">
+        <v>453</v>
       </c>
       <c r="H99" s="64" t="s">
-        <v>459</v>
-      </c>
-      <c r="I99" s="102" t="s">
-        <v>460</v>
+        <v>454</v>
+      </c>
+      <c r="I99" s="105" t="s">
+        <v>455</v>
       </c>
       <c r="J99" s="51"/>
       <c r="K99" s="51"/>
@@ -7879,21 +7934,21 @@
       <c r="A100" s="41"/>
       <c r="B100" s="104"/>
       <c r="C100" s="52" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D100" s="106"/>
       <c r="E100" s="107"/>
       <c r="F100" s="108" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G100" s="93" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H100" s="64" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I100" s="102" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J100" s="51"/>
       <c r="K100" s="51"/>
@@ -7916,22 +7971,22 @@
     <row r="101" spans="1:26" ht="14.25">
       <c r="A101" s="41"/>
       <c r="B101" s="104"/>
-      <c r="C101" s="109" t="s">
-        <v>466</v>
-      </c>
-      <c r="D101" s="110"/>
-      <c r="E101" s="111"/>
+      <c r="C101" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="D101" s="106"/>
+      <c r="E101" s="107"/>
       <c r="F101" s="108" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G101" s="93" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H101" s="64" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I101" s="102" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="J101" s="51"/>
       <c r="K101" s="51"/>
@@ -7955,21 +8010,21 @@
       <c r="A102" s="41"/>
       <c r="B102" s="104"/>
       <c r="C102" s="109" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D102" s="110"/>
       <c r="E102" s="111"/>
       <c r="F102" s="108" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G102" s="93" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H102" s="64" t="s">
-        <v>317</v>
+        <v>469</v>
       </c>
       <c r="I102" s="102" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J102" s="51"/>
       <c r="K102" s="51"/>
@@ -7993,21 +8048,21 @@
       <c r="A103" s="41"/>
       <c r="B103" s="104"/>
       <c r="C103" s="109" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D103" s="110"/>
       <c r="E103" s="111"/>
       <c r="F103" s="108" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G103" s="93" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H103" s="64" t="s">
-        <v>478</v>
+        <v>317</v>
       </c>
       <c r="I103" s="102" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="J103" s="51"/>
       <c r="K103" s="51"/>
@@ -8029,23 +8084,23 @@
     </row>
     <row r="104" spans="1:26" ht="14.25">
       <c r="A104" s="41"/>
-      <c r="B104" s="112"/>
-      <c r="C104" s="113" t="s">
-        <v>480</v>
+      <c r="B104" s="104"/>
+      <c r="C104" s="109" t="s">
+        <v>475</v>
       </c>
       <c r="D104" s="110"/>
       <c r="E104" s="111"/>
       <c r="F104" s="108" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G104" s="93" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H104" s="64" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="I104" s="102" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="J104" s="51"/>
       <c r="K104" s="51"/>
@@ -8065,34 +8120,32 @@
       <c r="Y104" s="51"/>
       <c r="Z104" s="51"/>
     </row>
-    <row r="105" spans="1:26" ht="42.75">
+    <row r="105" spans="1:26" ht="14.25">
       <c r="A105" s="41"/>
       <c r="B105" s="112"/>
-      <c r="C105" s="109" t="s">
-        <v>485</v>
+      <c r="C105" s="113" t="s">
+        <v>480</v>
       </c>
       <c r="D105" s="110"/>
       <c r="E105" s="111"/>
-      <c r="F105" s="114" t="s">
-        <v>486</v>
-      </c>
-      <c r="G105" s="92" t="s">
-        <v>487</v>
-      </c>
-      <c r="H105" s="115" t="s">
-        <v>488</v>
+      <c r="F105" s="108" t="s">
+        <v>481</v>
+      </c>
+      <c r="G105" s="93" t="s">
+        <v>482</v>
+      </c>
+      <c r="H105" s="64" t="s">
+        <v>483</v>
       </c>
       <c r="I105" s="102" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="J105" s="51"/>
       <c r="K105" s="51"/>
       <c r="L105" s="51"/>
       <c r="M105" s="51"/>
       <c r="N105" s="51"/>
-      <c r="O105" s="116" t="s">
-        <v>490</v>
-      </c>
+      <c r="O105" s="51"/>
       <c r="P105" s="51"/>
       <c r="Q105" s="51"/>
       <c r="R105" s="51"/>
@@ -8105,32 +8158,34 @@
       <c r="Y105" s="51"/>
       <c r="Z105" s="51"/>
     </row>
-    <row r="106" spans="1:26" ht="14.25">
+    <row r="106" spans="1:26" ht="42.75">
       <c r="A106" s="41"/>
       <c r="B106" s="112"/>
       <c r="C106" s="109" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D106" s="110"/>
       <c r="E106" s="111"/>
-      <c r="F106" s="46" t="s">
-        <v>492</v>
+      <c r="F106" s="114" t="s">
+        <v>486</v>
       </c>
       <c r="G106" s="92" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H106" s="115" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I106" s="102" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="J106" s="51"/>
       <c r="K106" s="51"/>
       <c r="L106" s="51"/>
       <c r="M106" s="51"/>
       <c r="N106" s="51"/>
-      <c r="O106" s="51"/>
+      <c r="O106" s="116" t="s">
+        <v>490</v>
+      </c>
       <c r="P106" s="51"/>
       <c r="Q106" s="51"/>
       <c r="R106" s="51"/>
@@ -8147,21 +8202,21 @@
       <c r="A107" s="41"/>
       <c r="B107" s="112"/>
       <c r="C107" s="109" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D107" s="110"/>
       <c r="E107" s="111"/>
       <c r="F107" s="46" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G107" s="92" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H107" s="115" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="I107" s="102" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="J107" s="51"/>
       <c r="K107" s="51"/>
@@ -8185,21 +8240,21 @@
       <c r="A108" s="41"/>
       <c r="B108" s="112"/>
       <c r="C108" s="109" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D108" s="110"/>
       <c r="E108" s="111"/>
       <c r="F108" s="46" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G108" s="92" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H108" s="115" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="I108" s="102" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="J108" s="51"/>
       <c r="K108" s="51"/>
@@ -8223,21 +8278,21 @@
       <c r="A109" s="41"/>
       <c r="B109" s="112"/>
       <c r="C109" s="109" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D109" s="110"/>
       <c r="E109" s="111"/>
       <c r="F109" s="46" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G109" s="92" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H109" s="115" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="I109" s="102" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="J109" s="51"/>
       <c r="K109" s="51"/>
@@ -8261,32 +8316,28 @@
       <c r="A110" s="41"/>
       <c r="B110" s="112"/>
       <c r="C110" s="109" t="s">
-        <v>511</v>
-      </c>
-      <c r="D110" s="117" t="s">
-        <v>512</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="D110" s="110"/>
       <c r="E110" s="111"/>
       <c r="F110" s="46" t="s">
-        <v>513</v>
-      </c>
-      <c r="G110" s="63" t="s">
-        <v>514</v>
-      </c>
-      <c r="H110" s="118" t="s">
-        <v>515</v>
-      </c>
-      <c r="I110" s="105" t="s">
-        <v>516</v>
+        <v>507</v>
+      </c>
+      <c r="G110" s="92" t="s">
+        <v>508</v>
+      </c>
+      <c r="H110" s="115" t="s">
+        <v>509</v>
+      </c>
+      <c r="I110" s="102" t="s">
+        <v>510</v>
       </c>
       <c r="J110" s="51"/>
       <c r="K110" s="51"/>
       <c r="L110" s="51"/>
       <c r="M110" s="51"/>
       <c r="N110" s="51"/>
-      <c r="O110" s="119" t="s">
-        <v>517</v>
-      </c>
+      <c r="O110" s="51"/>
       <c r="P110" s="51"/>
       <c r="Q110" s="51"/>
       <c r="R110" s="51"/>
@@ -8303,28 +8354,32 @@
       <c r="A111" s="41"/>
       <c r="B111" s="112"/>
       <c r="C111" s="109" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D111" s="117" t="s">
         <v>512</v>
       </c>
       <c r="E111" s="111"/>
       <c r="F111" s="46" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G111" s="63" t="s">
-        <v>520</v>
-      </c>
-      <c r="H111" s="63" t="s">
-        <v>521</v>
-      </c>
-      <c r="I111" s="120"/>
+        <v>514</v>
+      </c>
+      <c r="H111" s="118" t="s">
+        <v>515</v>
+      </c>
+      <c r="I111" s="105" t="s">
+        <v>516</v>
+      </c>
       <c r="J111" s="51"/>
       <c r="K111" s="51"/>
       <c r="L111" s="51"/>
       <c r="M111" s="51"/>
       <c r="N111" s="51"/>
-      <c r="O111" s="51"/>
+      <c r="O111" s="119" t="s">
+        <v>517</v>
+      </c>
       <c r="P111" s="51"/>
       <c r="Q111" s="51"/>
       <c r="R111" s="51"/>
@@ -8337,22 +8392,24 @@
       <c r="Y111" s="51"/>
       <c r="Z111" s="51"/>
     </row>
-    <row r="112" spans="1:26" ht="15">
+    <row r="112" spans="1:26" ht="14.25">
       <c r="A112" s="41"/>
       <c r="B112" s="112"/>
-      <c r="C112" s="109"/>
-      <c r="D112" s="121" t="s">
-        <v>522</v>
+      <c r="C112" s="109" t="s">
+        <v>518</v>
+      </c>
+      <c r="D112" s="117" t="s">
+        <v>512</v>
       </c>
       <c r="E112" s="111"/>
-      <c r="F112" s="122" t="s">
-        <v>523</v>
+      <c r="F112" s="46" t="s">
+        <v>519</v>
       </c>
       <c r="G112" s="63" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H112" s="63" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I112" s="120"/>
       <c r="J112" s="51"/>
@@ -8373,22 +8430,22 @@
       <c r="Y112" s="51"/>
       <c r="Z112" s="51"/>
     </row>
-    <row r="113" spans="1:26" ht="14.25">
+    <row r="113" spans="1:26" ht="15">
       <c r="A113" s="41"/>
       <c r="B113" s="112"/>
-      <c r="C113" s="111"/>
+      <c r="C113" s="109"/>
       <c r="D113" s="121" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E113" s="111"/>
-      <c r="F113" s="46" t="s">
-        <v>527</v>
+      <c r="F113" s="122" t="s">
+        <v>523</v>
       </c>
       <c r="G113" s="63" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H113" s="63" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I113" s="120"/>
       <c r="J113" s="51"/>
@@ -8413,18 +8470,18 @@
       <c r="A114" s="41"/>
       <c r="B114" s="112"/>
       <c r="C114" s="111"/>
-      <c r="D114" s="117" t="s">
-        <v>512</v>
+      <c r="D114" s="121" t="s">
+        <v>526</v>
       </c>
       <c r="E114" s="111"/>
       <c r="F114" s="46" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G114" s="63" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H114" s="63" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I114" s="120"/>
       <c r="J114" s="51"/>
@@ -8454,13 +8511,13 @@
       </c>
       <c r="E115" s="111"/>
       <c r="F115" s="46" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G115" s="63" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H115" s="63" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="I115" s="120"/>
       <c r="J115" s="51"/>
@@ -8481,7 +8538,7 @@
       <c r="Y115" s="51"/>
       <c r="Z115" s="51"/>
     </row>
-    <row r="116" spans="1:26" ht="28.5">
+    <row r="116" spans="1:26" ht="14.25">
       <c r="A116" s="41"/>
       <c r="B116" s="112"/>
       <c r="C116" s="111"/>
@@ -8490,13 +8547,13 @@
       </c>
       <c r="E116" s="111"/>
       <c r="F116" s="46" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G116" s="63" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H116" s="63" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I116" s="120"/>
       <c r="J116" s="51"/>
@@ -8517,7 +8574,7 @@
       <c r="Y116" s="51"/>
       <c r="Z116" s="51"/>
     </row>
-    <row r="117" spans="1:26" ht="14.25">
+    <row r="117" spans="1:26" ht="28.5">
       <c r="A117" s="41"/>
       <c r="B117" s="112"/>
       <c r="C117" s="111"/>
@@ -8526,13 +8583,13 @@
       </c>
       <c r="E117" s="111"/>
       <c r="F117" s="46" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G117" s="63" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H117" s="63" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="I117" s="120"/>
       <c r="J117" s="51"/>
@@ -8556,21 +8613,19 @@
     <row r="118" spans="1:26" ht="14.25">
       <c r="A118" s="41"/>
       <c r="B118" s="112"/>
-      <c r="C118" s="109" t="s">
-        <v>542</v>
-      </c>
+      <c r="C118" s="111"/>
       <c r="D118" s="117" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="E118" s="111"/>
       <c r="F118" s="46" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G118" s="63" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H118" s="63" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="I118" s="120"/>
       <c r="J118" s="51"/>
@@ -8595,22 +8650,22 @@
       <c r="A119" s="41"/>
       <c r="B119" s="112"/>
       <c r="C119" s="109" t="s">
-        <v>547</v>
-      </c>
-      <c r="D119" s="110"/>
+        <v>542</v>
+      </c>
+      <c r="D119" s="117" t="s">
+        <v>543</v>
+      </c>
       <c r="E119" s="111"/>
-      <c r="F119" s="123" t="s">
-        <v>548</v>
-      </c>
-      <c r="G119" s="124" t="s">
-        <v>549</v>
-      </c>
-      <c r="H119" s="124" t="s">
-        <v>549</v>
-      </c>
-      <c r="I119" s="125" t="s">
-        <v>549</v>
-      </c>
+      <c r="F119" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="G119" s="63" t="s">
+        <v>545</v>
+      </c>
+      <c r="H119" s="63" t="s">
+        <v>546</v>
+      </c>
+      <c r="I119" s="120"/>
       <c r="J119" s="51"/>
       <c r="K119" s="51"/>
       <c r="L119" s="51"/>
@@ -8633,21 +8688,21 @@
       <c r="A120" s="41"/>
       <c r="B120" s="112"/>
       <c r="C120" s="109" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D120" s="110"/>
       <c r="E120" s="111"/>
       <c r="F120" s="123" t="s">
-        <v>551</v>
-      </c>
-      <c r="G120" s="125" t="s">
-        <v>552</v>
-      </c>
-      <c r="H120" s="125" t="s">
-        <v>552</v>
+        <v>548</v>
+      </c>
+      <c r="G120" s="124" t="s">
+        <v>549</v>
+      </c>
+      <c r="H120" s="124" t="s">
+        <v>549</v>
       </c>
       <c r="I120" s="125" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J120" s="51"/>
       <c r="K120" s="51"/>
@@ -8671,21 +8726,21 @@
       <c r="A121" s="41"/>
       <c r="B121" s="112"/>
       <c r="C121" s="109" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D121" s="110"/>
       <c r="E121" s="111"/>
-      <c r="F121" s="103" t="s">
-        <v>554</v>
+      <c r="F121" s="123" t="s">
+        <v>551</v>
       </c>
       <c r="G121" s="125" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H121" s="125" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="I121" s="125" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="J121" s="51"/>
       <c r="K121" s="51"/>
@@ -8709,21 +8764,21 @@
       <c r="A122" s="41"/>
       <c r="B122" s="112"/>
       <c r="C122" s="109" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D122" s="110"/>
       <c r="E122" s="111"/>
       <c r="F122" s="103" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G122" s="125" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H122" s="125" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="I122" s="125" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="J122" s="51"/>
       <c r="K122" s="51"/>
@@ -8747,16 +8802,22 @@
       <c r="A123" s="41"/>
       <c r="B123" s="112"/>
       <c r="C123" s="109" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D123" s="110"/>
       <c r="E123" s="111"/>
-      <c r="F123" s="46" t="s">
-        <v>564</v>
-      </c>
-      <c r="G123" s="126"/>
-      <c r="H123" s="126"/>
-      <c r="I123" s="126"/>
+      <c r="F123" s="103" t="s">
+        <v>559</v>
+      </c>
+      <c r="G123" s="125" t="s">
+        <v>560</v>
+      </c>
+      <c r="H123" s="125" t="s">
+        <v>561</v>
+      </c>
+      <c r="I123" s="125" t="s">
+        <v>562</v>
+      </c>
       <c r="J123" s="51"/>
       <c r="K123" s="51"/>
       <c r="L123" s="51"/>
@@ -8779,12 +8840,12 @@
       <c r="A124" s="41"/>
       <c r="B124" s="112"/>
       <c r="C124" s="109" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D124" s="110"/>
       <c r="E124" s="111"/>
       <c r="F124" s="46" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G124" s="126"/>
       <c r="H124" s="126"/>
@@ -8811,12 +8872,12 @@
       <c r="A125" s="41"/>
       <c r="B125" s="112"/>
       <c r="C125" s="109" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D125" s="110"/>
       <c r="E125" s="111"/>
       <c r="F125" s="46" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G125" s="126"/>
       <c r="H125" s="126"/>
@@ -8843,12 +8904,12 @@
       <c r="A126" s="41"/>
       <c r="B126" s="112"/>
       <c r="C126" s="109" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D126" s="110"/>
       <c r="E126" s="111"/>
       <c r="F126" s="46" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G126" s="126"/>
       <c r="H126" s="126"/>
@@ -8875,12 +8936,12 @@
       <c r="A127" s="41"/>
       <c r="B127" s="112"/>
       <c r="C127" s="109" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D127" s="110"/>
       <c r="E127" s="111"/>
       <c r="F127" s="46" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G127" s="126"/>
       <c r="H127" s="126"/>
@@ -8907,12 +8968,12 @@
       <c r="A128" s="41"/>
       <c r="B128" s="112"/>
       <c r="C128" s="109" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D128" s="110"/>
       <c r="E128" s="111"/>
-      <c r="F128" s="75" t="s">
-        <v>574</v>
+      <c r="F128" s="46" t="s">
+        <v>572</v>
       </c>
       <c r="G128" s="126"/>
       <c r="H128" s="126"/>
@@ -8939,12 +9000,12 @@
       <c r="A129" s="41"/>
       <c r="B129" s="112"/>
       <c r="C129" s="109" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D129" s="110"/>
       <c r="E129" s="111"/>
-      <c r="F129" s="46" t="s">
-        <v>576</v>
+      <c r="F129" s="75" t="s">
+        <v>574</v>
       </c>
       <c r="G129" s="126"/>
       <c r="H129" s="126"/>
@@ -8971,12 +9032,12 @@
       <c r="A130" s="41"/>
       <c r="B130" s="112"/>
       <c r="C130" s="109" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D130" s="110"/>
       <c r="E130" s="111"/>
       <c r="F130" s="46" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G130" s="126"/>
       <c r="H130" s="126"/>
@@ -9003,12 +9064,12 @@
       <c r="A131" s="41"/>
       <c r="B131" s="112"/>
       <c r="C131" s="109" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D131" s="110"/>
       <c r="E131" s="111"/>
       <c r="F131" s="46" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G131" s="126"/>
       <c r="H131" s="126"/>
@@ -9035,12 +9096,12 @@
       <c r="A132" s="41"/>
       <c r="B132" s="112"/>
       <c r="C132" s="109" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D132" s="110"/>
       <c r="E132" s="111"/>
-      <c r="F132" s="75" t="s">
-        <v>582</v>
+      <c r="F132" s="46" t="s">
+        <v>580</v>
       </c>
       <c r="G132" s="126"/>
       <c r="H132" s="126"/>
@@ -9067,12 +9128,12 @@
       <c r="A133" s="41"/>
       <c r="B133" s="112"/>
       <c r="C133" s="109" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D133" s="110"/>
       <c r="E133" s="111"/>
-      <c r="F133" s="46" t="s">
-        <v>584</v>
+      <c r="F133" s="75" t="s">
+        <v>582</v>
       </c>
       <c r="G133" s="126"/>
       <c r="H133" s="126"/>
@@ -9099,12 +9160,12 @@
       <c r="A134" s="41"/>
       <c r="B134" s="112"/>
       <c r="C134" s="109" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D134" s="110"/>
       <c r="E134" s="111"/>
       <c r="F134" s="46" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G134" s="126"/>
       <c r="H134" s="126"/>
@@ -9127,16 +9188,16 @@
       <c r="Y134" s="51"/>
       <c r="Z134" s="51"/>
     </row>
-    <row r="135" spans="1:26" ht="14.25">
+    <row r="135" spans="1:26" ht="15" thickBot="1">
       <c r="A135" s="41"/>
       <c r="B135" s="112"/>
       <c r="C135" s="109" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D135" s="110"/>
       <c r="E135" s="111"/>
       <c r="F135" s="46" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G135" s="126"/>
       <c r="H135" s="126"/>
@@ -9159,18 +9220,20 @@
       <c r="Y135" s="51"/>
       <c r="Z135" s="51"/>
     </row>
-    <row r="136" spans="1:26" ht="14.25">
+    <row r="136" spans="1:26" ht="15" thickBot="1">
       <c r="A136" s="41"/>
       <c r="B136" s="112"/>
       <c r="C136" s="109" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D136" s="110"/>
       <c r="E136" s="111"/>
-      <c r="F136" s="46" t="s">
-        <v>590</v>
-      </c>
-      <c r="G136" s="126"/>
+      <c r="F136" s="163" t="s">
+        <v>737</v>
+      </c>
+      <c r="G136" s="163" t="s">
+        <v>738</v>
+      </c>
       <c r="H136" s="126"/>
       <c r="I136" s="126"/>
       <c r="J136" s="51"/>
@@ -9191,18 +9254,20 @@
       <c r="Y136" s="51"/>
       <c r="Z136" s="51"/>
     </row>
-    <row r="137" spans="1:26" ht="14.25">
+    <row r="137" spans="1:26" ht="15" thickBot="1">
       <c r="A137" s="41"/>
       <c r="B137" s="112"/>
       <c r="C137" s="109" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D137" s="110"/>
       <c r="E137" s="111"/>
-      <c r="F137" s="46" t="s">
-        <v>592</v>
-      </c>
-      <c r="G137" s="126"/>
+      <c r="F137" s="163" t="s">
+        <v>739</v>
+      </c>
+      <c r="G137" s="163" t="s">
+        <v>740</v>
+      </c>
       <c r="H137" s="126"/>
       <c r="I137" s="126"/>
       <c r="J137" s="51"/>
@@ -9223,18 +9288,20 @@
       <c r="Y137" s="51"/>
       <c r="Z137" s="51"/>
     </row>
-    <row r="138" spans="1:26" ht="14.25">
+    <row r="138" spans="1:26" ht="15" thickBot="1">
       <c r="A138" s="41"/>
       <c r="B138" s="112"/>
       <c r="C138" s="109" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D138" s="110"/>
       <c r="E138" s="111"/>
-      <c r="F138" s="46" t="s">
-        <v>594</v>
-      </c>
-      <c r="G138" s="126"/>
+      <c r="F138" s="163" t="s">
+        <v>590</v>
+      </c>
+      <c r="G138" s="163" t="s">
+        <v>590</v>
+      </c>
       <c r="H138" s="126"/>
       <c r="I138" s="126"/>
       <c r="J138" s="51"/>
@@ -9255,18 +9322,20 @@
       <c r="Y138" s="51"/>
       <c r="Z138" s="51"/>
     </row>
-    <row r="139" spans="1:26" ht="14.25">
+    <row r="139" spans="1:26" ht="15" thickBot="1">
       <c r="A139" s="41"/>
       <c r="B139" s="112"/>
       <c r="C139" s="109" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D139" s="110"/>
       <c r="E139" s="111"/>
-      <c r="F139" s="46" t="s">
-        <v>596</v>
-      </c>
-      <c r="G139" s="126"/>
+      <c r="F139" s="163" t="s">
+        <v>592</v>
+      </c>
+      <c r="G139" s="163" t="s">
+        <v>592</v>
+      </c>
       <c r="H139" s="126"/>
       <c r="I139" s="126"/>
       <c r="J139" s="51"/>
@@ -9287,18 +9356,20 @@
       <c r="Y139" s="51"/>
       <c r="Z139" s="51"/>
     </row>
-    <row r="140" spans="1:26" ht="14.25">
+    <row r="140" spans="1:26" ht="15" thickBot="1">
       <c r="A140" s="41"/>
       <c r="B140" s="112"/>
       <c r="C140" s="109" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D140" s="110"/>
       <c r="E140" s="111"/>
-      <c r="F140" s="46" t="s">
-        <v>598</v>
-      </c>
-      <c r="G140" s="126"/>
+      <c r="F140" s="163" t="s">
+        <v>594</v>
+      </c>
+      <c r="G140" s="163" t="s">
+        <v>594</v>
+      </c>
       <c r="H140" s="126"/>
       <c r="I140" s="126"/>
       <c r="J140" s="51"/>
@@ -9319,18 +9390,20 @@
       <c r="Y140" s="51"/>
       <c r="Z140" s="51"/>
     </row>
-    <row r="141" spans="1:26" ht="14.25">
+    <row r="141" spans="1:26" ht="15" thickBot="1">
       <c r="A141" s="41"/>
       <c r="B141" s="112"/>
       <c r="C141" s="109" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D141" s="110"/>
       <c r="E141" s="111"/>
-      <c r="F141" s="46" t="s">
-        <v>600</v>
-      </c>
-      <c r="G141" s="126"/>
+      <c r="F141" s="163" t="s">
+        <v>596</v>
+      </c>
+      <c r="G141" s="163" t="s">
+        <v>596</v>
+      </c>
       <c r="H141" s="126"/>
       <c r="I141" s="126"/>
       <c r="J141" s="51"/>
@@ -9351,19 +9424,22 @@
       <c r="Y141" s="51"/>
       <c r="Z141" s="51"/>
     </row>
-    <row r="142" spans="1:26" ht="14.25">
+    <row r="142" spans="1:26" ht="15" thickBot="1">
       <c r="A142" s="41"/>
       <c r="B142" s="112"/>
       <c r="C142" s="109" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D142" s="110"/>
       <c r="E142" s="111"/>
-      <c r="F142" s="46" t="s">
-        <v>602</v>
-      </c>
-      <c r="G142" s="126"/>
+      <c r="F142" s="163" t="s">
+        <v>598</v>
+      </c>
+      <c r="G142" s="163" t="s">
+        <v>598</v>
+      </c>
       <c r="H142" s="126"/>
+      <c r="I142" s="126"/>
       <c r="J142" s="51"/>
       <c r="K142" s="51"/>
       <c r="L142" s="51"/>
@@ -9383,60 +9459,53 @@
       <c r="Z142" s="51"/>
     </row>
     <row r="143" spans="1:26" ht="14.25">
-      <c r="A143" s="127"/>
-      <c r="B143" s="128"/>
-      <c r="C143" s="129" t="s">
-        <v>603</v>
-      </c>
-      <c r="D143" s="130" t="s">
-        <v>18</v>
-      </c>
-      <c r="E143" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="F143" s="132" t="s">
-        <v>604</v>
-      </c>
-      <c r="G143" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="H143" s="64"/>
-      <c r="I143" s="64"/>
-      <c r="J143" s="133"/>
-      <c r="K143" s="133"/>
-      <c r="L143" s="134"/>
-      <c r="M143" s="134"/>
-      <c r="N143" s="134"/>
-      <c r="O143" s="134"/>
-      <c r="P143" s="134"/>
-      <c r="Q143" s="134"/>
-      <c r="R143" s="134"/>
-      <c r="S143" s="134"/>
-      <c r="T143" s="134"/>
-      <c r="U143" s="134"/>
-      <c r="V143" s="134"/>
-      <c r="W143" s="134"/>
-      <c r="X143" s="134"/>
-      <c r="Y143" s="134"/>
-      <c r="Z143" s="134"/>
+      <c r="A143" s="41"/>
+      <c r="B143" s="112"/>
+      <c r="C143" s="109" t="s">
+        <v>599</v>
+      </c>
+      <c r="D143" s="110"/>
+      <c r="E143" s="111"/>
+      <c r="F143" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="G143" s="126"/>
+      <c r="H143" s="126"/>
+      <c r="J143" s="51"/>
+      <c r="K143" s="51"/>
+      <c r="L143" s="51"/>
+      <c r="M143" s="51"/>
+      <c r="N143" s="51"/>
+      <c r="O143" s="51"/>
+      <c r="P143" s="51"/>
+      <c r="Q143" s="51"/>
+      <c r="R143" s="51"/>
+      <c r="S143" s="51"/>
+      <c r="T143" s="51"/>
+      <c r="U143" s="51"/>
+      <c r="V143" s="51"/>
+      <c r="W143" s="51"/>
+      <c r="X143" s="51"/>
+      <c r="Y143" s="51"/>
+      <c r="Z143" s="51"/>
     </row>
     <row r="144" spans="1:26" ht="14.25">
-      <c r="A144" s="135"/>
+      <c r="A144" s="127"/>
       <c r="B144" s="128"/>
       <c r="C144" s="129" t="s">
-        <v>605</v>
-      </c>
-      <c r="D144" s="136" t="s">
-        <v>606</v>
-      </c>
-      <c r="E144" s="137" t="s">
-        <v>29</v>
+        <v>601</v>
+      </c>
+      <c r="D144" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="131" t="s">
+        <v>22</v>
       </c>
       <c r="F144" s="132" t="s">
-        <v>604</v>
-      </c>
-      <c r="G144" s="134" t="s">
-        <v>58</v>
+        <v>602</v>
+      </c>
+      <c r="G144" s="76" t="s">
+        <v>52</v>
       </c>
       <c r="H144" s="64"/>
       <c r="I144" s="64"/>
@@ -9462,19 +9531,19 @@
       <c r="A145" s="135"/>
       <c r="B145" s="128"/>
       <c r="C145" s="129" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D145" s="136" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E145" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F145" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="G145" s="76" t="s">
-        <v>35</v>
+      <c r="F145" s="132" t="s">
+        <v>602</v>
+      </c>
+      <c r="G145" s="134" t="s">
+        <v>58</v>
       </c>
       <c r="H145" s="64"/>
       <c r="I145" s="64"/>
@@ -9500,19 +9569,19 @@
       <c r="A146" s="135"/>
       <c r="B146" s="128"/>
       <c r="C146" s="129" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D146" s="136" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E146" s="137" t="s">
         <v>29</v>
       </c>
       <c r="F146" s="138" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G146" s="76" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H146" s="64"/>
       <c r="I146" s="64"/>
@@ -9538,19 +9607,19 @@
       <c r="A147" s="135"/>
       <c r="B147" s="128"/>
       <c r="C147" s="129" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D147" s="136" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E147" s="137" t="s">
         <v>29</v>
       </c>
       <c r="F147" s="138" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G147" s="76" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H147" s="64"/>
       <c r="I147" s="64"/>
@@ -9576,19 +9645,19 @@
       <c r="A148" s="135"/>
       <c r="B148" s="128"/>
       <c r="C148" s="129" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D148" s="136" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E148" s="137" t="s">
         <v>29</v>
       </c>
       <c r="F148" s="138" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G148" s="76" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H148" s="64"/>
       <c r="I148" s="64"/>
@@ -9611,22 +9680,22 @@
       <c r="Z148" s="134"/>
     </row>
     <row r="149" spans="1:26" ht="14.25">
-      <c r="A149" s="127"/>
+      <c r="A149" s="135"/>
       <c r="B149" s="128"/>
       <c r="C149" s="129" t="s">
-        <v>611</v>
-      </c>
-      <c r="D149" s="130" t="s">
-        <v>18</v>
-      </c>
-      <c r="E149" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="F149" s="132" t="s">
-        <v>612</v>
-      </c>
-      <c r="G149" s="139" t="s">
-        <v>19</v>
+        <v>608</v>
+      </c>
+      <c r="D149" s="136" t="s">
+        <v>604</v>
+      </c>
+      <c r="E149" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" s="138" t="s">
+        <v>46</v>
+      </c>
+      <c r="G149" s="76" t="s">
+        <v>47</v>
       </c>
       <c r="H149" s="64"/>
       <c r="I149" s="64"/>
@@ -9649,19 +9718,19 @@
       <c r="Z149" s="134"/>
     </row>
     <row r="150" spans="1:26" ht="14.25">
-      <c r="A150" s="135"/>
+      <c r="A150" s="127"/>
       <c r="B150" s="128"/>
       <c r="C150" s="129" t="s">
-        <v>613</v>
-      </c>
-      <c r="D150" s="136" t="s">
-        <v>614</v>
-      </c>
-      <c r="E150" s="137" t="s">
-        <v>29</v>
+        <v>609</v>
+      </c>
+      <c r="D150" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E150" s="131" t="s">
+        <v>22</v>
       </c>
       <c r="F150" s="132" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G150" s="139" t="s">
         <v>19</v>
@@ -9690,19 +9759,19 @@
       <c r="A151" s="135"/>
       <c r="B151" s="128"/>
       <c r="C151" s="129" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D151" s="136" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E151" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F151" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="G151" s="76" t="s">
-        <v>35</v>
+      <c r="F151" s="132" t="s">
+        <v>610</v>
+      </c>
+      <c r="G151" s="139" t="s">
+        <v>19</v>
       </c>
       <c r="H151" s="64"/>
       <c r="I151" s="64"/>
@@ -9728,19 +9797,19 @@
       <c r="A152" s="135"/>
       <c r="B152" s="128"/>
       <c r="C152" s="129" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D152" s="136" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E152" s="137" t="s">
         <v>29</v>
       </c>
       <c r="F152" s="138" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G152" s="76" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H152" s="64"/>
       <c r="I152" s="64"/>
@@ -9766,19 +9835,19 @@
       <c r="A153" s="135"/>
       <c r="B153" s="128"/>
       <c r="C153" s="129" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D153" s="136" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E153" s="137" t="s">
         <v>29</v>
       </c>
       <c r="F153" s="138" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G153" s="76" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H153" s="64"/>
       <c r="I153" s="64"/>
@@ -9804,19 +9873,19 @@
       <c r="A154" s="135"/>
       <c r="B154" s="128"/>
       <c r="C154" s="129" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D154" s="136" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E154" s="137" t="s">
         <v>29</v>
       </c>
       <c r="F154" s="138" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G154" s="76" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H154" s="64"/>
       <c r="I154" s="64"/>
@@ -9839,56 +9908,58 @@
       <c r="Z154" s="134"/>
     </row>
     <row r="155" spans="1:26" ht="14.25">
-      <c r="A155" s="41"/>
-      <c r="B155" s="112"/>
-      <c r="C155" s="140" t="s">
-        <v>619</v>
-      </c>
-      <c r="D155" s="141" t="s">
-        <v>598</v>
-      </c>
-      <c r="E155" s="111"/>
-      <c r="F155" s="75" t="s">
-        <v>620</v>
-      </c>
-      <c r="G155" s="139" t="s">
-        <v>621</v>
-      </c>
-      <c r="H155" s="126"/>
-      <c r="I155" s="126"/>
-      <c r="J155" s="51"/>
-      <c r="K155" s="51"/>
-      <c r="L155" s="51"/>
-      <c r="M155" s="51"/>
-      <c r="N155" s="51"/>
-      <c r="O155" s="51"/>
-      <c r="P155" s="51"/>
-      <c r="Q155" s="51"/>
-      <c r="R155" s="51"/>
-      <c r="S155" s="51"/>
-      <c r="T155" s="51"/>
-      <c r="U155" s="51"/>
-      <c r="V155" s="51"/>
-      <c r="W155" s="51"/>
-      <c r="X155" s="51"/>
-      <c r="Y155" s="51"/>
-      <c r="Z155" s="51"/>
-    </row>
-    <row r="156" spans="1:26" ht="15" thickBot="1">
+      <c r="A155" s="135"/>
+      <c r="B155" s="128"/>
+      <c r="C155" s="129" t="s">
+        <v>616</v>
+      </c>
+      <c r="D155" s="136" t="s">
+        <v>612</v>
+      </c>
+      <c r="E155" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="F155" s="138" t="s">
+        <v>46</v>
+      </c>
+      <c r="G155" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H155" s="64"/>
+      <c r="I155" s="64"/>
+      <c r="J155" s="133"/>
+      <c r="K155" s="133"/>
+      <c r="L155" s="134"/>
+      <c r="M155" s="134"/>
+      <c r="N155" s="134"/>
+      <c r="O155" s="134"/>
+      <c r="P155" s="134"/>
+      <c r="Q155" s="134"/>
+      <c r="R155" s="134"/>
+      <c r="S155" s="134"/>
+      <c r="T155" s="134"/>
+      <c r="U155" s="134"/>
+      <c r="V155" s="134"/>
+      <c r="W155" s="134"/>
+      <c r="X155" s="134"/>
+      <c r="Y155" s="134"/>
+      <c r="Z155" s="134"/>
+    </row>
+    <row r="156" spans="1:26" ht="14.25">
       <c r="A156" s="41"/>
       <c r="B156" s="112"/>
       <c r="C156" s="140" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D156" s="141" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E156" s="111"/>
       <c r="F156" s="75" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G156" s="139" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="H156" s="126"/>
       <c r="I156" s="126"/>
@@ -9911,56 +9982,56 @@
       <c r="Z156" s="51"/>
     </row>
     <row r="157" spans="1:26" ht="15" thickBot="1">
-      <c r="A157" s="159"/>
-      <c r="B157" s="160"/>
-      <c r="C157" s="161" t="s">
-        <v>660</v>
-      </c>
-      <c r="D157" s="162" t="s">
-        <v>661</v>
-      </c>
-      <c r="E157" s="160"/>
-      <c r="F157" s="163" t="s">
-        <v>662</v>
-      </c>
-      <c r="G157" s="164" t="s">
-        <v>663</v>
-      </c>
-      <c r="H157" s="164"/>
-      <c r="I157" s="164"/>
-      <c r="J157" s="164"/>
-      <c r="K157" s="164"/>
-      <c r="L157" s="164"/>
-      <c r="M157" s="164"/>
-      <c r="N157" s="164"/>
-      <c r="O157" s="164"/>
-      <c r="P157" s="164"/>
-      <c r="Q157" s="164"/>
-      <c r="R157" s="164"/>
-      <c r="S157" s="164"/>
-      <c r="T157" s="164"/>
-      <c r="U157" s="164"/>
-      <c r="V157" s="164"/>
-      <c r="W157" s="164"/>
-      <c r="X157" s="164"/>
-      <c r="Y157" s="164"/>
-      <c r="Z157" s="164"/>
+      <c r="A157" s="41"/>
+      <c r="B157" s="112"/>
+      <c r="C157" s="140" t="s">
+        <v>620</v>
+      </c>
+      <c r="D157" s="141" t="s">
+        <v>596</v>
+      </c>
+      <c r="E157" s="111"/>
+      <c r="F157" s="75" t="s">
+        <v>621</v>
+      </c>
+      <c r="G157" s="139" t="s">
+        <v>622</v>
+      </c>
+      <c r="H157" s="126"/>
+      <c r="I157" s="126"/>
+      <c r="J157" s="51"/>
+      <c r="K157" s="51"/>
+      <c r="L157" s="51"/>
+      <c r="M157" s="51"/>
+      <c r="N157" s="51"/>
+      <c r="O157" s="51"/>
+      <c r="P157" s="51"/>
+      <c r="Q157" s="51"/>
+      <c r="R157" s="51"/>
+      <c r="S157" s="51"/>
+      <c r="T157" s="51"/>
+      <c r="U157" s="51"/>
+      <c r="V157" s="51"/>
+      <c r="W157" s="51"/>
+      <c r="X157" s="51"/>
+      <c r="Y157" s="51"/>
+      <c r="Z157" s="51"/>
     </row>
     <row r="158" spans="1:26" ht="15" thickBot="1">
-      <c r="A158" s="165"/>
+      <c r="A158" s="159"/>
       <c r="B158" s="160"/>
       <c r="C158" s="161" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D158" s="162" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E158" s="160"/>
       <c r="F158" s="163" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="G158" s="164" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="H158" s="164"/>
       <c r="I158" s="164"/>
@@ -9983,56 +10054,56 @@
       <c r="Z158" s="164"/>
     </row>
     <row r="159" spans="1:26" ht="15" thickBot="1">
-      <c r="A159" s="41"/>
-      <c r="B159" s="112"/>
+      <c r="A159" s="165"/>
+      <c r="B159" s="160"/>
       <c r="C159" s="161" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D159" s="162" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="E159" s="160"/>
       <c r="F159" s="163" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="G159" s="164" t="s">
-        <v>670</v>
-      </c>
-      <c r="H159" s="126"/>
-      <c r="I159" s="126"/>
-      <c r="J159" s="51"/>
-      <c r="K159" s="51"/>
-      <c r="L159" s="51"/>
-      <c r="M159" s="51"/>
-      <c r="N159" s="51"/>
-      <c r="O159" s="51"/>
-      <c r="P159" s="51"/>
-      <c r="Q159" s="51"/>
-      <c r="R159" s="51"/>
-      <c r="S159" s="51"/>
-      <c r="T159" s="51"/>
-      <c r="U159" s="51"/>
-      <c r="V159" s="51"/>
-      <c r="W159" s="51"/>
-      <c r="X159" s="51"/>
-      <c r="Y159" s="51"/>
-      <c r="Z159" s="51"/>
+        <v>664</v>
+      </c>
+      <c r="H159" s="164"/>
+      <c r="I159" s="164"/>
+      <c r="J159" s="164"/>
+      <c r="K159" s="164"/>
+      <c r="L159" s="164"/>
+      <c r="M159" s="164"/>
+      <c r="N159" s="164"/>
+      <c r="O159" s="164"/>
+      <c r="P159" s="164"/>
+      <c r="Q159" s="164"/>
+      <c r="R159" s="164"/>
+      <c r="S159" s="164"/>
+      <c r="T159" s="164"/>
+      <c r="U159" s="164"/>
+      <c r="V159" s="164"/>
+      <c r="W159" s="164"/>
+      <c r="X159" s="164"/>
+      <c r="Y159" s="164"/>
+      <c r="Z159" s="164"/>
     </row>
     <row r="160" spans="1:26" ht="15" thickBot="1">
       <c r="A160" s="41"/>
       <c r="B160" s="112"/>
       <c r="C160" s="161" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D160" s="162" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E160" s="160"/>
       <c r="F160" s="163" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G160" s="164" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H160" s="126"/>
       <c r="I160" s="126"/>
@@ -10058,17 +10129,17 @@
       <c r="A161" s="41"/>
       <c r="B161" s="112"/>
       <c r="C161" s="161" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D161" s="162" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E161" s="160"/>
       <c r="F161" s="163" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="G161" s="164" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H161" s="126"/>
       <c r="I161" s="126"/>
@@ -10094,19 +10165,17 @@
       <c r="A162" s="41"/>
       <c r="B162" s="112"/>
       <c r="C162" s="161" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D162" s="162" t="s">
-        <v>678</v>
-      </c>
-      <c r="E162" s="161" t="s">
-        <v>22</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="E162" s="160"/>
       <c r="F162" s="163" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="G162" s="164" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="H162" s="126"/>
       <c r="I162" s="126"/>
@@ -10132,19 +10201,19 @@
       <c r="A163" s="41"/>
       <c r="B163" s="112"/>
       <c r="C163" s="161" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D163" s="162" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E163" s="161" t="s">
-        <v>683</v>
+        <v>22</v>
       </c>
       <c r="F163" s="163" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="G163" s="164" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="H163" s="126"/>
       <c r="I163" s="126"/>
@@ -10170,19 +10239,19 @@
       <c r="A164" s="41"/>
       <c r="B164" s="112"/>
       <c r="C164" s="161" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D164" s="162" t="s">
+        <v>680</v>
+      </c>
+      <c r="E164" s="161" t="s">
+        <v>681</v>
+      </c>
+      <c r="F164" s="163" t="s">
         <v>682</v>
       </c>
-      <c r="E164" s="161" t="s">
-        <v>683</v>
-      </c>
-      <c r="F164" s="163" t="s">
-        <v>686</v>
-      </c>
       <c r="G164" s="164" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="H164" s="126"/>
       <c r="I164" s="126"/>
@@ -10208,17 +10277,19 @@
       <c r="A165" s="41"/>
       <c r="B165" s="112"/>
       <c r="C165" s="161" t="s">
-        <v>688</v>
-      </c>
-      <c r="D165" s="166"/>
+        <v>683</v>
+      </c>
+      <c r="D165" s="162" t="s">
+        <v>680</v>
+      </c>
       <c r="E165" s="161" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F165" s="163" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G165" s="164" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="H165" s="126"/>
       <c r="I165" s="126"/>
@@ -10244,15 +10315,17 @@
       <c r="A166" s="41"/>
       <c r="B166" s="112"/>
       <c r="C166" s="161" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D166" s="166"/>
-      <c r="E166" s="160"/>
+      <c r="E166" s="161" t="s">
+        <v>681</v>
+      </c>
       <c r="F166" s="163" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G166" s="164" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="H166" s="126"/>
       <c r="I166" s="126"/>
@@ -10278,17 +10351,15 @@
       <c r="A167" s="41"/>
       <c r="B167" s="112"/>
       <c r="C167" s="161" t="s">
-        <v>714</v>
+        <v>688</v>
       </c>
       <c r="D167" s="166"/>
-      <c r="E167" s="161" t="s">
-        <v>683</v>
-      </c>
+      <c r="E167" s="160"/>
       <c r="F167" s="163" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="G167" s="164" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H167" s="126"/>
       <c r="I167" s="126"/>
@@ -10314,19 +10385,17 @@
       <c r="A168" s="41"/>
       <c r="B168" s="112"/>
       <c r="C168" s="161" t="s">
-        <v>695</v>
-      </c>
-      <c r="D168" s="162" t="s">
-        <v>661</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="D168" s="166"/>
       <c r="E168" s="161" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F168" s="163" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G168" s="164" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="H168" s="126"/>
       <c r="I168" s="126"/>
@@ -10352,19 +10421,19 @@
       <c r="A169" s="41"/>
       <c r="B169" s="112"/>
       <c r="C169" s="161" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="D169" s="162" t="s">
-        <v>700</v>
+        <v>659</v>
       </c>
       <c r="E169" s="161" t="s">
-        <v>683</v>
-      </c>
-      <c r="F169" s="167" t="s">
-        <v>701</v>
+        <v>681</v>
+      </c>
+      <c r="F169" s="163" t="s">
+        <v>694</v>
       </c>
       <c r="G169" s="164" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="H169" s="126"/>
       <c r="I169" s="126"/>
@@ -10386,23 +10455,23 @@
       <c r="Y169" s="51"/>
       <c r="Z169" s="51"/>
     </row>
-    <row r="170" spans="1:26" ht="17.25" thickBot="1">
+    <row r="170" spans="1:26" ht="15" thickBot="1">
       <c r="A170" s="41"/>
       <c r="B170" s="112"/>
       <c r="C170" s="161" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D170" s="162" t="s">
-        <v>661</v>
+        <v>698</v>
       </c>
       <c r="E170" s="161" t="s">
-        <v>705</v>
-      </c>
-      <c r="F170" s="168" t="s">
-        <v>712</v>
+        <v>681</v>
+      </c>
+      <c r="F170" s="167" t="s">
+        <v>699</v>
       </c>
       <c r="G170" s="164" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="H170" s="126"/>
       <c r="I170" s="126"/>
@@ -10428,19 +10497,19 @@
       <c r="A171" s="41"/>
       <c r="B171" s="112"/>
       <c r="C171" s="161" t="s">
+        <v>702</v>
+      </c>
+      <c r="D171" s="162" t="s">
+        <v>659</v>
+      </c>
+      <c r="E171" s="161" t="s">
+        <v>703</v>
+      </c>
+      <c r="F171" s="168" t="s">
         <v>710</v>
       </c>
-      <c r="D171" s="162" t="s">
-        <v>661</v>
-      </c>
-      <c r="E171" s="161" t="s">
-        <v>705</v>
-      </c>
-      <c r="F171" s="163" t="s">
-        <v>711</v>
-      </c>
       <c r="G171" s="164" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H171" s="126"/>
       <c r="I171" s="126"/>
@@ -10469,16 +10538,16 @@
         <v>708</v>
       </c>
       <c r="D172" s="162" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E172" s="161" t="s">
+        <v>703</v>
+      </c>
+      <c r="F172" s="163" t="s">
+        <v>709</v>
+      </c>
+      <c r="G172" s="164" t="s">
         <v>705</v>
-      </c>
-      <c r="F172" s="168" t="s">
-        <v>713</v>
-      </c>
-      <c r="G172" s="164" t="s">
-        <v>709</v>
       </c>
       <c r="H172" s="126"/>
       <c r="I172" s="126"/>
@@ -10500,23 +10569,23 @@
       <c r="Y172" s="51"/>
       <c r="Z172" s="51"/>
     </row>
-    <row r="173" spans="1:26" ht="15" thickBot="1">
+    <row r="173" spans="1:26" ht="17.25" thickBot="1">
       <c r="A173" s="41"/>
       <c r="B173" s="112"/>
       <c r="C173" s="161" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D173" s="162" t="s">
-        <v>738</v>
-      </c>
-      <c r="E173" s="111" t="s">
-        <v>737</v>
-      </c>
-      <c r="F173" s="163" t="s">
-        <v>716</v>
+        <v>659</v>
+      </c>
+      <c r="E173" s="161" t="s">
+        <v>703</v>
+      </c>
+      <c r="F173" s="168" t="s">
+        <v>711</v>
       </c>
       <c r="G173" s="164" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="H173" s="126"/>
       <c r="I173" s="126"/>
@@ -10542,19 +10611,19 @@
       <c r="A174" s="41"/>
       <c r="B174" s="112"/>
       <c r="C174" s="161" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D174" s="162" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E174" s="111" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F174" s="163" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G174" s="164" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="H174" s="126"/>
       <c r="I174" s="126"/>
@@ -10576,23 +10645,23 @@
       <c r="Y174" s="51"/>
       <c r="Z174" s="51"/>
     </row>
-    <row r="175" spans="1:26" ht="16.5" thickBot="1">
+    <row r="175" spans="1:26" ht="15" thickBot="1">
       <c r="A175" s="41"/>
       <c r="B175" s="112"/>
-      <c r="C175" s="111" t="s">
+      <c r="C175" s="161" t="s">
+        <v>716</v>
+      </c>
+      <c r="D175" s="162" t="s">
+        <v>736</v>
+      </c>
+      <c r="E175" s="111" t="s">
         <v>735</v>
       </c>
-      <c r="D175" s="170" t="s">
-        <v>734</v>
-      </c>
-      <c r="E175" s="111" t="s">
-        <v>737</v>
-      </c>
-      <c r="F175" s="142" t="s">
-        <v>721</v>
-      </c>
-      <c r="G175" s="126" t="s">
-        <v>736</v>
+      <c r="F175" s="163" t="s">
+        <v>717</v>
+      </c>
+      <c r="G175" s="164" t="s">
+        <v>718</v>
       </c>
       <c r="H175" s="126"/>
       <c r="I175" s="126"/>
@@ -10614,23 +10683,23 @@
       <c r="Y175" s="51"/>
       <c r="Z175" s="51"/>
     </row>
-    <row r="176" spans="1:26" ht="15" thickBot="1">
+    <row r="176" spans="1:26" ht="16.5" thickBot="1">
       <c r="A176" s="41"/>
       <c r="B176" s="112"/>
-      <c r="C176" s="161" t="s">
-        <v>722</v>
-      </c>
-      <c r="D176" s="169" t="s">
-        <v>723</v>
-      </c>
-      <c r="E176" s="161" t="s">
-        <v>724</v>
-      </c>
-      <c r="F176" s="163" t="s">
-        <v>672</v>
-      </c>
-      <c r="G176" s="164" t="s">
-        <v>673</v>
+      <c r="C176" s="111" t="s">
+        <v>733</v>
+      </c>
+      <c r="D176" s="170" t="s">
+        <v>732</v>
+      </c>
+      <c r="E176" s="111" t="s">
+        <v>735</v>
+      </c>
+      <c r="F176" s="142" t="s">
+        <v>719</v>
+      </c>
+      <c r="G176" s="126" t="s">
+        <v>734</v>
       </c>
       <c r="H176" s="126"/>
       <c r="I176" s="126"/>
@@ -10656,19 +10725,19 @@
       <c r="A177" s="41"/>
       <c r="B177" s="112"/>
       <c r="C177" s="161" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D177" s="169" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E177" s="161" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F177" s="163" t="s">
-        <v>726</v>
+        <v>670</v>
       </c>
       <c r="G177" s="164" t="s">
-        <v>727</v>
+        <v>671</v>
       </c>
       <c r="H177" s="126"/>
       <c r="I177" s="126"/>
@@ -10694,19 +10763,19 @@
       <c r="A178" s="41"/>
       <c r="B178" s="112"/>
       <c r="C178" s="161" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D178" s="169" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E178" s="161" t="s">
+        <v>722</v>
+      </c>
+      <c r="F178" s="163" t="s">
         <v>724</v>
       </c>
-      <c r="F178" s="163" t="s">
-        <v>729</v>
-      </c>
       <c r="G178" s="164" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="H178" s="126"/>
       <c r="I178" s="126"/>
@@ -10732,19 +10801,19 @@
       <c r="A179" s="41"/>
       <c r="B179" s="112"/>
       <c r="C179" s="161" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D179" s="169" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E179" s="161" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F179" s="163" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G179" s="164" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H179" s="126"/>
       <c r="I179" s="126"/>
@@ -10766,14 +10835,24 @@
       <c r="Y179" s="51"/>
       <c r="Z179" s="51"/>
     </row>
-    <row r="180" spans="1:26" ht="14.25">
+    <row r="180" spans="1:26" ht="15" thickBot="1">
       <c r="A180" s="41"/>
       <c r="B180" s="112"/>
-      <c r="C180" s="111"/>
-      <c r="D180" s="110"/>
-      <c r="E180" s="111"/>
-      <c r="F180" s="142"/>
-      <c r="G180" s="126"/>
+      <c r="C180" s="161" t="s">
+        <v>729</v>
+      </c>
+      <c r="D180" s="169" t="s">
+        <v>721</v>
+      </c>
+      <c r="E180" s="161" t="s">
+        <v>722</v>
+      </c>
+      <c r="F180" s="163" t="s">
+        <v>730</v>
+      </c>
+      <c r="G180" s="164" t="s">
+        <v>731</v>
+      </c>
       <c r="H180" s="126"/>
       <c r="I180" s="126"/>
       <c r="J180" s="51"/>
@@ -10794,14 +10873,20 @@
       <c r="Y180" s="51"/>
       <c r="Z180" s="51"/>
     </row>
-    <row r="181" spans="1:26" ht="14.25">
+    <row r="181" spans="1:26" ht="15" thickBot="1">
       <c r="A181" s="41"/>
       <c r="B181" s="112"/>
-      <c r="C181" s="111"/>
-      <c r="D181" s="110"/>
-      <c r="E181" s="111"/>
-      <c r="F181" s="142"/>
-      <c r="G181" s="126"/>
+      <c r="C181" s="161" t="s">
+        <v>744</v>
+      </c>
+      <c r="D181" s="160"/>
+      <c r="E181" s="160"/>
+      <c r="F181" s="163" t="s">
+        <v>745</v>
+      </c>
+      <c r="G181" s="164" t="s">
+        <v>746</v>
+      </c>
       <c r="H181" s="126"/>
       <c r="I181" s="126"/>
       <c r="J181" s="51"/>
@@ -10822,14 +10907,20 @@
       <c r="Y181" s="51"/>
       <c r="Z181" s="51"/>
     </row>
-    <row r="182" spans="1:26" ht="14.25">
+    <row r="182" spans="1:26" ht="15" thickBot="1">
       <c r="A182" s="41"/>
       <c r="B182" s="112"/>
-      <c r="C182" s="111"/>
-      <c r="D182" s="110"/>
-      <c r="E182" s="111"/>
-      <c r="F182" s="142"/>
-      <c r="G182" s="126"/>
+      <c r="C182" s="161" t="s">
+        <v>747</v>
+      </c>
+      <c r="D182" s="160"/>
+      <c r="E182" s="161"/>
+      <c r="F182" s="163" t="s">
+        <v>748</v>
+      </c>
+      <c r="G182" s="164" t="s">
+        <v>749</v>
+      </c>
       <c r="H182" s="126"/>
       <c r="I182" s="126"/>
       <c r="J182" s="51"/>
@@ -10850,14 +10941,20 @@
       <c r="Y182" s="51"/>
       <c r="Z182" s="51"/>
     </row>
-    <row r="183" spans="1:26" ht="14.25">
+    <row r="183" spans="1:26" ht="15" thickBot="1">
       <c r="A183" s="41"/>
       <c r="B183" s="112"/>
-      <c r="C183" s="111"/>
-      <c r="D183" s="110"/>
-      <c r="E183" s="111"/>
-      <c r="F183" s="142"/>
-      <c r="G183" s="126"/>
+      <c r="C183" s="161" t="s">
+        <v>750</v>
+      </c>
+      <c r="D183" s="160"/>
+      <c r="E183" s="161"/>
+      <c r="F183" s="163" t="s">
+        <v>751</v>
+      </c>
+      <c r="G183" s="164" t="s">
+        <v>752</v>
+      </c>
       <c r="H183" s="126"/>
       <c r="I183" s="126"/>
       <c r="J183" s="51"/>
@@ -10878,14 +10975,20 @@
       <c r="Y183" s="51"/>
       <c r="Z183" s="51"/>
     </row>
-    <row r="184" spans="1:26" ht="14.25">
+    <row r="184" spans="1:26" ht="15" thickBot="1">
       <c r="A184" s="41"/>
       <c r="B184" s="112"/>
-      <c r="C184" s="111"/>
-      <c r="D184" s="110"/>
-      <c r="E184" s="111"/>
-      <c r="F184" s="142"/>
-      <c r="G184" s="126"/>
+      <c r="C184" s="161" t="s">
+        <v>755</v>
+      </c>
+      <c r="D184" s="166"/>
+      <c r="E184" s="160"/>
+      <c r="F184" s="163" t="s">
+        <v>753</v>
+      </c>
+      <c r="G184" s="164" t="s">
+        <v>754</v>
+      </c>
       <c r="H184" s="126"/>
       <c r="I184" s="126"/>
       <c r="J184" s="51"/>
@@ -35323,7 +35426,7 @@
       <c r="Z1056" s="51"/>
     </row>
     <row r="1057" spans="1:26" ht="14.25">
-      <c r="A1057" s="143"/>
+      <c r="A1057" s="41"/>
       <c r="B1057" s="112"/>
       <c r="C1057" s="111"/>
       <c r="D1057" s="110"/>
@@ -35349,6 +35452,34 @@
       <c r="X1057" s="51"/>
       <c r="Y1057" s="51"/>
       <c r="Z1057" s="51"/>
+    </row>
+    <row r="1058" spans="1:26" ht="14.25">
+      <c r="A1058" s="143"/>
+      <c r="B1058" s="112"/>
+      <c r="C1058" s="111"/>
+      <c r="D1058" s="110"/>
+      <c r="E1058" s="111"/>
+      <c r="F1058" s="142"/>
+      <c r="G1058" s="126"/>
+      <c r="H1058" s="126"/>
+      <c r="I1058" s="126"/>
+      <c r="J1058" s="51"/>
+      <c r="K1058" s="51"/>
+      <c r="L1058" s="51"/>
+      <c r="M1058" s="51"/>
+      <c r="N1058" s="51"/>
+      <c r="O1058" s="51"/>
+      <c r="P1058" s="51"/>
+      <c r="Q1058" s="51"/>
+      <c r="R1058" s="51"/>
+      <c r="S1058" s="51"/>
+      <c r="T1058" s="51"/>
+      <c r="U1058" s="51"/>
+      <c r="V1058" s="51"/>
+      <c r="W1058" s="51"/>
+      <c r="X1058" s="51"/>
+      <c r="Y1058" s="51"/>
+      <c r="Z1058" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="40" type="noConversion"/>
@@ -35382,22 +35513,22 @@
         <v>14</v>
       </c>
       <c r="B1" s="144" t="s">
+        <v>623</v>
+      </c>
+      <c r="C1" s="144" t="s">
+        <v>624</v>
+      </c>
+      <c r="D1" s="144" t="s">
         <v>625</v>
       </c>
-      <c r="C1" s="144" t="s">
+      <c r="E1" s="144" t="s">
         <v>626</v>
       </c>
-      <c r="D1" s="144" t="s">
+      <c r="F1" s="144" t="s">
         <v>627</v>
       </c>
-      <c r="E1" s="144" t="s">
+      <c r="G1" s="145" t="s">
         <v>628</v>
-      </c>
-      <c r="F1" s="144" t="s">
-        <v>629</v>
-      </c>
-      <c r="G1" s="145" t="s">
-        <v>630</v>
       </c>
       <c r="H1" s="146"/>
       <c r="I1" s="146"/>
@@ -35421,18 +35552,18 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="146" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B2" s="146"/>
       <c r="C2" s="146"/>
       <c r="D2" s="118" t="s">
+        <v>630</v>
+      </c>
+      <c r="E2" s="147" t="s">
+        <v>631</v>
+      </c>
+      <c r="F2" s="148" t="s">
         <v>632</v>
-      </c>
-      <c r="E2" s="147" t="s">
-        <v>633</v>
-      </c>
-      <c r="F2" s="148" t="s">
-        <v>634</v>
       </c>
       <c r="G2" s="146"/>
       <c r="H2" s="146"/>
@@ -35461,10 +35592,10 @@
       <c r="C3" s="146"/>
       <c r="D3" s="146"/>
       <c r="E3" s="147" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F3" s="148" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G3" s="149"/>
       <c r="H3" s="146"/>
@@ -35496,7 +35627,7 @@
         <v>519</v>
       </c>
       <c r="F4" s="148" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G4" s="149"/>
       <c r="H4" s="146"/>
@@ -35528,7 +35659,7 @@
         <v>519</v>
       </c>
       <c r="F5" s="150" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H5" s="146"/>
       <c r="I5" s="146"/>
@@ -35559,7 +35690,7 @@
         <v>519</v>
       </c>
       <c r="F6" s="150" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G6" s="118"/>
       <c r="H6" s="146"/>
@@ -35588,13 +35719,13 @@
       <c r="C7" s="146"/>
       <c r="D7" s="146"/>
       <c r="E7" s="151" t="s">
+        <v>638</v>
+      </c>
+      <c r="F7" s="152" t="s">
+        <v>639</v>
+      </c>
+      <c r="G7" s="118" t="s">
         <v>640</v>
-      </c>
-      <c r="F7" s="152" t="s">
-        <v>641</v>
-      </c>
-      <c r="G7" s="118" t="s">
-        <v>642</v>
       </c>
       <c r="H7" s="146"/>
       <c r="I7" s="146"/>
@@ -35622,10 +35753,10 @@
       <c r="C8" s="146"/>
       <c r="D8" s="146"/>
       <c r="E8" s="153" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F8" s="153" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G8" s="126"/>
       <c r="H8" s="146"/>
@@ -35654,10 +35785,10 @@
       <c r="C9" s="146"/>
       <c r="D9" s="146"/>
       <c r="E9" s="153" t="s">
+        <v>641</v>
+      </c>
+      <c r="F9" s="153" t="s">
         <v>643</v>
-      </c>
-      <c r="F9" s="153" t="s">
-        <v>645</v>
       </c>
       <c r="G9" s="126"/>
       <c r="H9" s="146"/>
@@ -35686,10 +35817,10 @@
       <c r="C10" s="146"/>
       <c r="D10" s="146"/>
       <c r="E10" s="154" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F10" s="155" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G10" s="126"/>
       <c r="H10" s="146"/>
@@ -35718,10 +35849,10 @@
       <c r="C11" s="146"/>
       <c r="D11" s="146"/>
       <c r="E11" s="155" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F11" s="153" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G11" s="126"/>
       <c r="H11" s="146"/>
@@ -35750,10 +35881,10 @@
       <c r="C12" s="146"/>
       <c r="D12" s="146"/>
       <c r="E12" s="155" t="s">
+        <v>645</v>
+      </c>
+      <c r="F12" s="156" t="s">
         <v>647</v>
-      </c>
-      <c r="F12" s="156" t="s">
-        <v>649</v>
       </c>
       <c r="G12" s="126"/>
       <c r="H12" s="146"/>
@@ -35782,10 +35913,10 @@
       <c r="C13" s="146"/>
       <c r="D13" s="146"/>
       <c r="E13" s="153" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F13" s="153" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G13" s="126"/>
       <c r="H13" s="146"/>
@@ -35814,10 +35945,10 @@
       <c r="C14" s="146"/>
       <c r="D14" s="146"/>
       <c r="E14" s="153" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F14" s="153" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G14" s="126"/>
       <c r="H14" s="146"/>
@@ -35846,10 +35977,10 @@
       <c r="C15" s="146"/>
       <c r="D15" s="146"/>
       <c r="E15" s="153" t="s">
+        <v>650</v>
+      </c>
+      <c r="F15" s="153" t="s">
         <v>652</v>
-      </c>
-      <c r="F15" s="153" t="s">
-        <v>654</v>
       </c>
       <c r="G15" s="126"/>
       <c r="H15" s="146"/>
@@ -35881,7 +36012,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="153" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G16" s="126"/>
       <c r="H16" s="146"/>
@@ -35913,7 +36044,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="153" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G17" s="126"/>
       <c r="H17" s="146"/>
@@ -35945,7 +36076,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="153" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G18" s="126"/>
       <c r="H18" s="146"/>
@@ -35974,10 +36105,10 @@
       <c r="C19" s="146"/>
       <c r="D19" s="146"/>
       <c r="E19" s="153" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F19" s="155" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G19" s="126"/>
       <c r="H19" s="146"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">그리다보드 샘플 영문 명언으로 수정 예정/ 수정 후 링크 등 변경 예정(남)
 =&gt;0525 하기 링크로 변경
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="801">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -2448,6 +2449,15 @@
   <si>
     <t>Start GridaBoard</t>
     <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardList_copied</t>
+  </si>
+  <si>
+    <t>_사본</t>
+  </si>
+  <si>
+    <t>_Copied</t>
   </si>
 </sst>
 </file>
@@ -3590,10 +3600,10 @@
   <dimension ref="A1:Z1057"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G182" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G143" sqref="G143"/>
+      <selection pane="bottomRight" activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3611,7 +3621,7 @@
     <col min="15" max="15" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3669,7 +3679,7 @@
       <c r="Y2" s="14"/>
       <c r="Z2" s="15"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="14.25">
       <c r="A3" s="8"/>
       <c r="B3" s="16"/>
       <c r="C3" s="10"/>
@@ -3697,7 +3707,7 @@
       <c r="Y3" s="20"/>
       <c r="Z3" s="21"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="15">
       <c r="A4" s="22"/>
       <c r="B4" s="23" t="s">
         <v>1</v>
@@ -3779,7 +3789,7 @@
       <c r="Y5" s="40"/>
       <c r="Z5" s="40"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="14.25">
       <c r="A6" s="41"/>
       <c r="B6" s="42" t="s">
         <v>14</v>
@@ -3865,7 +3875,7 @@
       <c r="Y7" s="51"/>
       <c r="Z7" s="51"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="14.25">
       <c r="A8" s="41"/>
       <c r="B8" s="42"/>
       <c r="C8" s="43" t="s">
@@ -3907,7 +3917,7 @@
       <c r="Y8" s="51"/>
       <c r="Z8" s="51"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="14.25">
       <c r="A9" s="41"/>
       <c r="B9" s="42"/>
       <c r="C9" s="52" t="s">
@@ -3949,7 +3959,7 @@
       <c r="Y9" s="51"/>
       <c r="Z9" s="51"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="14.25">
       <c r="A10" s="41"/>
       <c r="B10" s="42"/>
       <c r="C10" s="52" t="s">
@@ -3991,7 +4001,7 @@
       <c r="Y10" s="51"/>
       <c r="Z10" s="51"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="14.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42"/>
       <c r="C11" s="43" t="s">
@@ -4033,7 +4043,7 @@
       <c r="Y11" s="51"/>
       <c r="Z11" s="51"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="14.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42"/>
       <c r="C12" s="43" t="s">
@@ -4075,7 +4085,7 @@
       <c r="Y12" s="51"/>
       <c r="Z12" s="51"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42"/>
       <c r="C13" s="43" t="s">
@@ -4117,7 +4127,7 @@
       <c r="Y13" s="51"/>
       <c r="Z13" s="51"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="14.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42"/>
       <c r="C14" s="43" t="s">
@@ -4159,7 +4169,7 @@
       <c r="Y14" s="51"/>
       <c r="Z14" s="51"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="14.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42"/>
       <c r="C15" s="43" t="s">
@@ -4201,7 +4211,7 @@
       <c r="Y15" s="51"/>
       <c r="Z15" s="51"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="14.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42"/>
       <c r="C16" s="43" t="s">
@@ -4243,7 +4253,7 @@
       <c r="Y16" s="51"/>
       <c r="Z16" s="51"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="15">
       <c r="A17" s="41"/>
       <c r="B17" s="42"/>
       <c r="C17" s="43" t="s">
@@ -4285,7 +4295,7 @@
       <c r="Y17" s="51"/>
       <c r="Z17" s="51"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="15">
       <c r="A18" s="41"/>
       <c r="B18" s="42"/>
       <c r="C18" s="43" t="s">
@@ -4411,7 +4421,7 @@
       <c r="Y20" s="51"/>
       <c r="Z20" s="51"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="14.25">
       <c r="A21" s="41"/>
       <c r="B21" s="42"/>
       <c r="C21" s="43" t="s">
@@ -4453,7 +4463,7 @@
       <c r="Y21" s="51"/>
       <c r="Z21" s="51"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="15">
       <c r="A22" s="41"/>
       <c r="B22" s="42"/>
       <c r="C22" s="43" t="s">
@@ -4495,7 +4505,7 @@
       <c r="Y22" s="51"/>
       <c r="Z22" s="51"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="14.25">
       <c r="A23" s="41"/>
       <c r="B23" s="42"/>
       <c r="C23" s="43" t="s">
@@ -4537,7 +4547,7 @@
       <c r="Y23" s="51"/>
       <c r="Z23" s="51"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="28.5">
       <c r="A24" s="41"/>
       <c r="B24" s="42"/>
       <c r="C24" s="43" t="s">
@@ -4579,7 +4589,7 @@
       <c r="Y24" s="51"/>
       <c r="Z24" s="51"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="14.25">
       <c r="A25" s="41"/>
       <c r="B25" s="42"/>
       <c r="C25" s="43" t="s">
@@ -4621,7 +4631,7 @@
       <c r="Y25" s="51"/>
       <c r="Z25" s="51"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="14.25">
       <c r="A26" s="41"/>
       <c r="B26" s="42"/>
       <c r="C26" s="43" t="s">
@@ -4663,7 +4673,7 @@
       <c r="Y26" s="51"/>
       <c r="Z26" s="51"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="15">
       <c r="A27" s="41"/>
       <c r="B27" s="42"/>
       <c r="C27" s="43" t="s">
@@ -4705,7 +4715,7 @@
       <c r="Y27" s="51"/>
       <c r="Z27" s="51"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="42.75">
       <c r="A28" s="41"/>
       <c r="B28" s="42"/>
       <c r="C28" s="43" t="s">
@@ -4747,7 +4757,7 @@
       <c r="Y28" s="51"/>
       <c r="Z28" s="51"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" ht="14.25">
       <c r="A29" s="41"/>
       <c r="B29" s="42"/>
       <c r="C29" s="43" t="s">
@@ -4789,7 +4799,7 @@
       <c r="Y29" s="51"/>
       <c r="Z29" s="51"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" ht="14.25">
       <c r="A30" s="41"/>
       <c r="B30" s="42"/>
       <c r="C30" s="43" t="s">
@@ -4831,7 +4841,7 @@
       <c r="Y30" s="51"/>
       <c r="Z30" s="51"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="14.25">
       <c r="A31" s="41"/>
       <c r="B31" s="42"/>
       <c r="C31" s="43" t="s">
@@ -4873,7 +4883,7 @@
       <c r="Y31" s="51"/>
       <c r="Z31" s="51"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="42.75">
       <c r="A32" s="41"/>
       <c r="B32" s="42"/>
       <c r="C32" s="43" t="s">
@@ -4915,7 +4925,7 @@
       <c r="Y32" s="51"/>
       <c r="Z32" s="51"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" ht="14.25">
       <c r="A33" s="41"/>
       <c r="B33" s="42"/>
       <c r="C33" s="43" t="s">
@@ -4957,7 +4967,7 @@
       <c r="Y33" s="51"/>
       <c r="Z33" s="51"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" ht="14.25">
       <c r="A34" s="41"/>
       <c r="B34" s="42"/>
       <c r="C34" s="43" t="s">
@@ -4999,7 +5009,7 @@
       <c r="Y34" s="51"/>
       <c r="Z34" s="51"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" ht="14.25">
       <c r="A35" s="41"/>
       <c r="B35" s="42"/>
       <c r="C35" s="43" t="s">
@@ -11457,14 +11467,20 @@
       <c r="Y204" s="51"/>
       <c r="Z204" s="51"/>
     </row>
-    <row r="205" spans="1:26" ht="14.25">
+    <row r="205" spans="1:26" ht="15" thickBot="1">
       <c r="A205" s="41"/>
       <c r="B205" s="104"/>
-      <c r="C205" s="103"/>
-      <c r="D205" s="102"/>
-      <c r="E205" s="103"/>
-      <c r="F205" s="123"/>
-      <c r="G205" s="118"/>
+      <c r="C205" s="140" t="s">
+        <v>798</v>
+      </c>
+      <c r="D205" s="141"/>
+      <c r="E205" s="142"/>
+      <c r="F205" s="143" t="s">
+        <v>799</v>
+      </c>
+      <c r="G205" s="146" t="s">
+        <v>800</v>
+      </c>
       <c r="H205" s="118"/>
       <c r="I205" s="118"/>
       <c r="J205" s="51"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="804">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -2458,6 +2458,15 @@
   </si>
   <si>
     <t>_Copied</t>
+  </si>
+  <si>
+    <t>pen_disconnected_alert</t>
+  </si>
+  <si>
+    <t>펜 연결이 끊어졌습니다. \n펜 확인 후 다시 연결해주세요.</t>
+  </si>
+  <si>
+    <t>The pen is disconnected. \nPlease check and connect again.</t>
   </si>
 </sst>
 </file>
@@ -3603,7 +3612,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G182" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F207" sqref="F207"/>
+      <selection pane="bottomRight" activeCell="F203" sqref="F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11501,14 +11510,22 @@
       <c r="Y205" s="51"/>
       <c r="Z205" s="51"/>
     </row>
-    <row r="206" spans="1:26" ht="14.25">
+    <row r="206" spans="1:26" ht="15" thickBot="1">
       <c r="A206" s="41"/>
       <c r="B206" s="104"/>
-      <c r="C206" s="103"/>
-      <c r="D206" s="102"/>
-      <c r="E206" s="103"/>
-      <c r="F206" s="123"/>
-      <c r="G206" s="118"/>
+      <c r="C206" s="140" t="s">
+        <v>801</v>
+      </c>
+      <c r="D206" s="141"/>
+      <c r="E206" s="140" t="s">
+        <v>290</v>
+      </c>
+      <c r="F206" s="143" t="s">
+        <v>802</v>
+      </c>
+      <c r="G206" s="146" t="s">
+        <v>803</v>
+      </c>
       <c r="H206" s="118"/>
       <c r="I206" s="118"/>
       <c r="J206" s="51"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="813">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -2340,6 +2340,30 @@
   </si>
   <si>
     <t>선택한 보드가 복원 되었습니다.</t>
+  </si>
+  <si>
+    <t>boardList_filemove_title</t>
+  </si>
+  <si>
+    <t>파일 이동</t>
+  </si>
+  <si>
+    <t>boardList_filemove_subTitle</t>
+  </si>
+  <si>
+    <t>파일을 이동시킬 그룹을 선택해 주세요.</t>
+  </si>
+  <si>
+    <t>boardList_filemove_warn</t>
+  </si>
+  <si>
+    <t>특수문자는 + - _ . 만 입력 가능합니다</t>
+  </si>
+  <si>
+    <t>boardList_filemove_add</t>
+  </si>
+  <si>
+    <t>그룹 추가하기</t>
   </si>
   <si>
     <t>title</t>
@@ -11587,10 +11611,14 @@
     <row r="208">
       <c r="A208" s="41"/>
       <c r="B208" s="104"/>
-      <c r="C208" s="103"/>
+      <c r="C208" s="147" t="s">
+        <v>770</v>
+      </c>
       <c r="D208" s="102"/>
       <c r="E208" s="103"/>
-      <c r="F208" s="149"/>
+      <c r="F208" s="110" t="s">
+        <v>771</v>
+      </c>
       <c r="G208" s="130"/>
       <c r="H208" s="130"/>
       <c r="I208" s="130"/>
@@ -11615,10 +11643,14 @@
     <row r="209">
       <c r="A209" s="41"/>
       <c r="B209" s="104"/>
-      <c r="C209" s="103"/>
+      <c r="C209" s="147" t="s">
+        <v>772</v>
+      </c>
       <c r="D209" s="102"/>
       <c r="E209" s="103"/>
-      <c r="F209" s="149"/>
+      <c r="F209" s="121" t="s">
+        <v>773</v>
+      </c>
       <c r="G209" s="130"/>
       <c r="H209" s="130"/>
       <c r="I209" s="130"/>
@@ -11643,10 +11675,14 @@
     <row r="210">
       <c r="A210" s="41"/>
       <c r="B210" s="104"/>
-      <c r="C210" s="103"/>
+      <c r="C210" s="147" t="s">
+        <v>774</v>
+      </c>
       <c r="D210" s="102"/>
       <c r="E210" s="103"/>
-      <c r="F210" s="149"/>
+      <c r="F210" s="121" t="s">
+        <v>775</v>
+      </c>
       <c r="G210" s="130"/>
       <c r="H210" s="130"/>
       <c r="I210" s="130"/>
@@ -11671,10 +11707,14 @@
     <row r="211">
       <c r="A211" s="41"/>
       <c r="B211" s="104"/>
-      <c r="C211" s="103"/>
+      <c r="C211" s="147" t="s">
+        <v>776</v>
+      </c>
       <c r="D211" s="102"/>
       <c r="E211" s="103"/>
-      <c r="F211" s="149"/>
+      <c r="F211" s="121" t="s">
+        <v>777</v>
+      </c>
       <c r="G211" s="130"/>
       <c r="H211" s="130"/>
       <c r="I211" s="130"/>
@@ -35413,22 +35453,22 @@
         <v>14</v>
       </c>
       <c r="B1" s="160" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="C1" s="160" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="D1" s="160" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="E1" s="160" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="F1" s="160" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="G1" s="161" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="H1" s="162"/>
       <c r="I1" s="162"/>
@@ -35452,18 +35492,18 @@
     </row>
     <row r="2">
       <c r="A2" s="162" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="B2" s="162"/>
       <c r="C2" s="162"/>
       <c r="D2" s="110" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="E2" s="163" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="F2" s="164" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="G2" s="162"/>
       <c r="H2" s="162"/>
@@ -35492,10 +35532,10 @@
       <c r="C3" s="162"/>
       <c r="D3" s="162"/>
       <c r="E3" s="163" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="F3" s="164" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="G3" s="165"/>
       <c r="H3" s="162"/>
@@ -35527,7 +35567,7 @@
         <v>519</v>
       </c>
       <c r="F4" s="164" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="G4" s="165"/>
       <c r="H4" s="162"/>
@@ -35559,7 +35599,7 @@
         <v>519</v>
       </c>
       <c r="F5" s="166" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="H5" s="162"/>
       <c r="I5" s="162"/>
@@ -35590,7 +35630,7 @@
         <v>519</v>
       </c>
       <c r="F6" s="166" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="G6" s="110"/>
       <c r="H6" s="162"/>
@@ -35619,13 +35659,13 @@
       <c r="C7" s="162"/>
       <c r="D7" s="162"/>
       <c r="E7" s="167" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="F7" s="168" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="G7" s="110" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="H7" s="162"/>
       <c r="I7" s="162"/>
@@ -35653,10 +35693,10 @@
       <c r="C8" s="162"/>
       <c r="D8" s="162"/>
       <c r="E8" s="169" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="F8" s="169" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="G8" s="130"/>
       <c r="H8" s="162"/>
@@ -35685,10 +35725,10 @@
       <c r="C9" s="162"/>
       <c r="D9" s="162"/>
       <c r="E9" s="169" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="F9" s="169" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="G9" s="130"/>
       <c r="H9" s="162"/>
@@ -35717,10 +35757,10 @@
       <c r="C10" s="162"/>
       <c r="D10" s="162"/>
       <c r="E10" s="170" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="F10" s="171" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="G10" s="130"/>
       <c r="H10" s="162"/>
@@ -35749,10 +35789,10 @@
       <c r="C11" s="162"/>
       <c r="D11" s="162"/>
       <c r="E11" s="171" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="F11" s="169" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="G11" s="130"/>
       <c r="H11" s="162"/>
@@ -35781,10 +35821,10 @@
       <c r="C12" s="162"/>
       <c r="D12" s="162"/>
       <c r="E12" s="171" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="F12" s="172" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="G12" s="130"/>
       <c r="H12" s="162"/>
@@ -35813,10 +35853,10 @@
       <c r="C13" s="162"/>
       <c r="D13" s="162"/>
       <c r="E13" s="169" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="F13" s="169" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="G13" s="130"/>
       <c r="H13" s="162"/>
@@ -35845,10 +35885,10 @@
       <c r="C14" s="162"/>
       <c r="D14" s="162"/>
       <c r="E14" s="169" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="F14" s="169" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="G14" s="130"/>
       <c r="H14" s="162"/>
@@ -35877,10 +35917,10 @@
       <c r="C15" s="162"/>
       <c r="D15" s="162"/>
       <c r="E15" s="169" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="F15" s="169" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="G15" s="130"/>
       <c r="H15" s="162"/>
@@ -35912,7 +35952,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="169" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="G16" s="130"/>
       <c r="H16" s="162"/>
@@ -35944,7 +35984,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="169" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="G17" s="130"/>
       <c r="H17" s="162"/>
@@ -35976,7 +36016,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="169" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="G18" s="130"/>
       <c r="H18" s="162"/>
@@ -36005,10 +36045,10 @@
       <c r="C19" s="162"/>
       <c r="D19" s="162"/>
       <c r="E19" s="169" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="F19" s="171" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="G19" s="130"/>
       <c r="H19" s="162"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="817">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -2369,7 +2369,13 @@
     <t>boardList_emptyContent</t>
   </si>
   <si>
-    <t>등록된 페이지가 없습니다.</t>
+    <t>등록된 보드가 없습니다.</t>
+  </si>
+  <si>
+    <t>boardList_emptyTrash</t>
+  </si>
+  <si>
+    <t>휴지통에 보드가 없습니다.</t>
   </si>
   <si>
     <t>title</t>
@@ -11746,10 +11752,14 @@
     <row r="213">
       <c r="A213" s="41"/>
       <c r="B213" s="104"/>
-      <c r="C213" s="103"/>
+      <c r="C213" s="149" t="s">
+        <v>780</v>
+      </c>
       <c r="D213" s="102"/>
       <c r="E213" s="103"/>
-      <c r="F213" s="146"/>
+      <c r="F213" s="150" t="s">
+        <v>781</v>
+      </c>
       <c r="G213" s="129"/>
       <c r="H213" s="129"/>
       <c r="I213" s="129"/>
@@ -35432,22 +35442,22 @@
         <v>14</v>
       </c>
       <c r="B1" s="152" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C1" s="152" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D1" s="152" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E1" s="152" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F1" s="152" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G1" s="153" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H1" s="154"/>
       <c r="I1" s="154"/>
@@ -35471,18 +35481,18 @@
     </row>
     <row r="2">
       <c r="A2" s="154" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B2" s="154"/>
       <c r="C2" s="154"/>
       <c r="D2" s="110" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E2" s="155" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="F2" s="156" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="G2" s="154"/>
       <c r="H2" s="154"/>
@@ -35511,10 +35521,10 @@
       <c r="C3" s="154"/>
       <c r="D3" s="154"/>
       <c r="E3" s="155" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F3" s="156" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="G3" s="157"/>
       <c r="H3" s="154"/>
@@ -35546,7 +35556,7 @@
         <v>519</v>
       </c>
       <c r="F4" s="156" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G4" s="157"/>
       <c r="H4" s="154"/>
@@ -35578,7 +35588,7 @@
         <v>519</v>
       </c>
       <c r="F5" s="158" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="H5" s="154"/>
       <c r="I5" s="154"/>
@@ -35609,7 +35619,7 @@
         <v>519</v>
       </c>
       <c r="F6" s="158" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G6" s="110"/>
       <c r="H6" s="154"/>
@@ -35638,13 +35648,13 @@
       <c r="C7" s="154"/>
       <c r="D7" s="154"/>
       <c r="E7" s="159" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="F7" s="160" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G7" s="110" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="H7" s="154"/>
       <c r="I7" s="154"/>
@@ -35672,10 +35682,10 @@
       <c r="C8" s="154"/>
       <c r="D8" s="154"/>
       <c r="E8" s="161" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F8" s="161" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="G8" s="129"/>
       <c r="H8" s="154"/>
@@ -35704,10 +35714,10 @@
       <c r="C9" s="154"/>
       <c r="D9" s="154"/>
       <c r="E9" s="161" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F9" s="161" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G9" s="129"/>
       <c r="H9" s="154"/>
@@ -35736,10 +35746,10 @@
       <c r="C10" s="154"/>
       <c r="D10" s="154"/>
       <c r="E10" s="162" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F10" s="163" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="G10" s="129"/>
       <c r="H10" s="154"/>
@@ -35768,10 +35778,10 @@
       <c r="C11" s="154"/>
       <c r="D11" s="154"/>
       <c r="E11" s="163" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F11" s="161" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="G11" s="129"/>
       <c r="H11" s="154"/>
@@ -35800,10 +35810,10 @@
       <c r="C12" s="154"/>
       <c r="D12" s="154"/>
       <c r="E12" s="163" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F12" s="164" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G12" s="129"/>
       <c r="H12" s="154"/>
@@ -35832,10 +35842,10 @@
       <c r="C13" s="154"/>
       <c r="D13" s="154"/>
       <c r="E13" s="161" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F13" s="161" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G13" s="129"/>
       <c r="H13" s="154"/>
@@ -35864,10 +35874,10 @@
       <c r="C14" s="154"/>
       <c r="D14" s="154"/>
       <c r="E14" s="161" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F14" s="161" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G14" s="129"/>
       <c r="H14" s="154"/>
@@ -35896,10 +35906,10 @@
       <c r="C15" s="154"/>
       <c r="D15" s="154"/>
       <c r="E15" s="161" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F15" s="161" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="G15" s="129"/>
       <c r="H15" s="154"/>
@@ -35931,7 +35941,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="161" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G16" s="129"/>
       <c r="H16" s="154"/>
@@ -35963,7 +35973,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="161" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G17" s="129"/>
       <c r="H17" s="154"/>
@@ -35995,7 +36005,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="161" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G18" s="129"/>
       <c r="H18" s="154"/>
@@ -36024,10 +36034,10 @@
       <c r="C19" s="154"/>
       <c r="D19" s="154"/>
       <c r="E19" s="161" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F19" s="163" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G19" s="129"/>
       <c r="H19" s="154"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">그리다보드 샘플 영문 명언으로 수정 예정/ 수정 후 링크 등 변경 예정(남)
 =&gt;0525 하기 링크로 변경
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="820">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -737,9 +738,6 @@
     <t>print_popup_detail_outline_dialog_explain</t>
   </si>
   <si>
-    <t>분할 인쇄를 하는 경우 각 페이지의 경계 표시가 필요한 경우가 있습니다. 이 때를 위해 문서 페이지의 경계를 표시해서 인쇄합니다.</t>
-  </si>
-  <si>
     <t>It may be necessary to mark the boundaries of each page when split print. For this purpose, the borders of the document pages are marked when printing.</t>
   </si>
   <si>
@@ -752,9 +750,6 @@
     <t>print_popup_detail_outline_dialog_warn</t>
   </si>
   <si>
-    <t>기본값으로는 윤곽 표시를 하지 않습니다.</t>
-  </si>
-  <si>
     <t>Page outline is not showed by default.</t>
   </si>
   <si>
@@ -2102,9 +2097,6 @@
     <t>boardList_dialog_newGroup_placeHolder</t>
   </si>
   <si>
-    <t>그룹 이름</t>
-  </si>
-  <si>
     <t>boardList_dialog_newGroup_mainWarn</t>
   </si>
   <si>
@@ -2123,9 +2115,6 @@
     <t>boardList_dialog_changeDocName_title</t>
   </si>
   <si>
-    <t>보드 이름 변경</t>
-  </si>
-  <si>
     <t>boardList_dialog_changeDocName_placeHolder</t>
   </si>
   <si>
@@ -2174,13 +2163,7 @@
     <t>boardList_filemove_title</t>
   </si>
   <si>
-    <t>파일 이동</t>
-  </si>
-  <si>
     <t>boardList_filemove_subTitle</t>
-  </si>
-  <si>
-    <t>파일을 이동시킬 그룹을 선택해 주세요.</t>
   </si>
   <si>
     <t>boardList_filemove_warn</t>
@@ -2313,9 +2296,6 @@
     <t>빠르게 그리다보드를 사용해보았습니다.\n\n이제 본인의 자료를 활용하여 그리다보드를 사용해보세요.</t>
   </si>
   <si>
-    <t>* UPDATE : 2021.07.21</t>
-  </si>
-  <si>
     <t>PDF 파일로 저장</t>
   </si>
   <si>
@@ -2325,12 +2305,6 @@
     <t>파일명</t>
   </si>
   <si>
-    <t>저장할 파일의 이름을 입력하세요.</t>
-  </si>
-  <si>
-    <t>GRIDA 파일로 저장 (필기 수정 가능)</t>
-  </si>
-  <si>
     <t>내보내기&gt;데이터 저장(.GRIDA)</t>
   </si>
   <si>
@@ -2343,15 +2317,9 @@
     <t>인쇄 용지</t>
   </si>
   <si>
-    <t>일반 용지에 해당 보드의 내용과 NCODE™를 함께 인쇄합니다. \n칼라프린터가 필요하며 프린터 기종에 따라 지원되지 않을 수도 있습니다.</t>
-  </si>
-  <si>
     <t>Ncode A4 용지에 인쇄</t>
   </si>
   <si>
-    <t>별도로 구매한 Ncode A4 용지에 인쇄합니다. \n칼라 프린터가 필요하며, 인쇄된 후에는 인쇄된 페이지를 수동 등록해야 합니다. 화면 오른쪽 아래에 등록 버튼이 있습니다.</t>
-  </si>
-  <si>
     <t>프린터에 Ncode A4 용지를 준비하세요.</t>
   </si>
   <si>
@@ -2373,15 +2341,9 @@
     <t>별도의 설정이 없는 경우 전체 페이지를 인쇄합니다.</t>
   </si>
   <si>
-    <t>참고) 빈칸=전체, 페이지 설정 - "1, 2, 4", "1-3, 5"</t>
-  </si>
-  <si>
     <t>고급 설정 보기</t>
   </si>
   <si>
-    <t>여기서 설정된 인쇄 용지의 크기와 연결된 프린터의 용지크기가 다른 경우, Ncode가 제대로 인쇄되지 않을 수 있습니다.</t>
-  </si>
-  <si>
     <t>Ncode 인쇄 농도</t>
   </si>
   <si>
@@ -2415,9 +2377,6 @@
     <t>인쇄된 문서의 중간 부분을 스마트펜으로 살짝 찍어보세요.</t>
   </si>
   <si>
-    <t>이전에 등록한 페이지와 겹치는 페이지입니다.\n인쇄된 용지를 확인해 주십시오.</t>
-  </si>
-  <si>
     <t>페이지 등록이 완료되면 팝업이 자동으로 종료됩니다.</t>
   </si>
   <si>
@@ -2442,9 +2401,6 @@
     <t>이 기기에 블루투스 기능이 없어, 네오스마트펜을 연결할 수 없습니다. \n블루투스 동글을 장착하신 후 다시 시도해주세요.</t>
   </si>
   <si>
-    <t>이미 등록된 PDF가 존재합니다.</t>
-  </si>
-  <si>
     <t>읽을 수 없는 타입의 파일입니다.</t>
   </si>
   <si>
@@ -2478,9 +2434,6 @@
     <t>저장할 보드의 이름을 입력하세요.</t>
   </si>
   <si>
-    <t>파일로 보드 생성 (pdf, pptx..)</t>
-  </si>
-  <si>
     <t>선택한 %d개의 보드를 삭제합니다.</t>
   </si>
   <si>
@@ -2493,10 +2446,68 @@
     <t>보드가 복제되었습니다.</t>
   </si>
   <si>
-    <t>새로운 그룹 이름을 입력해주세요.</t>
-  </si>
-  <si>
-    <t>새로운 보드 이름을 입력해주세요.</t>
+    <t>* UPDATE : 2021.07.23</t>
+  </si>
+  <si>
+    <t>저장할 파일명을 입력하세요.</t>
+  </si>
+  <si>
+    <t>일반 용지에 해당 보드의 내용과 Ncode를 함께 인쇄합니다. \n칼라프린터가 필요하며 프린터 기종에 따라 지원되지 않을 수도 있습니다.</t>
+  </si>
+  <si>
+    <t>별도로 구매한 Ncode A4 용지에 인쇄합니다. \n칼라 프린터가 필요하며, 인쇄된 후에는 페이지 상단의 [인쇄 페이지 순서 등록] 버튼을 클릭하여 인쇄된 페이지를 수동 등록해야 합니다.</t>
+  </si>
+  <si>
+    <t>예) 페이지 설정 - "1-3, 5" / 전체 - 빈칸</t>
+  </si>
+  <si>
+    <t>여기서 설정된 인쇄 용지의 크기와 연결된 프린터의 용지크기가 다른 경우, 제대로 인쇄되지 않을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>페이지에 윤곽선을 표시해서 인쇄합니다.
+분할 인쇄를 위해 페이지 윤곽선을 표시해야 하는 경우 선택하세요.</t>
+  </si>
+  <si>
+    <t>선택하지 않을 시, 윤곽 표시 없이 인쇄됩니다.</t>
+  </si>
+  <si>
+    <t>이전에 등록한 페이지와 중복되는 페이지입니다.\n인쇄된 페이지를 확신 후 등록하십시오.</t>
+  </si>
+  <si>
+    <t>해당 보드에 이미 등록된 PDF파일입니다.</t>
+  </si>
+  <si>
+    <t>파일로 보드 생성 (PDF 등)</t>
+  </si>
+  <si>
+    <t>사용할 그룹 이름을 입력하세요.</t>
+  </si>
+  <si>
+    <t>그룹 이름을 입력해주세요.</t>
+  </si>
+  <si>
+    <t>보드명 변경</t>
+  </si>
+  <si>
+    <t>사용할 보드명을 입력해주세요.</t>
+  </si>
+  <si>
+    <t>보드 이동</t>
+  </si>
+  <si>
+    <t>보드를 이동할 그룹을 선택해 주세요.</t>
+  </si>
+  <si>
+    <t>page_deleted</t>
+  </si>
+  <si>
+    <t>페이지가 삭제되었습니다.</t>
+  </si>
+  <si>
+    <t>add_pdf_pptx</t>
+  </si>
+  <si>
+    <t>파일로 페이지 추가 (PDF 등)</t>
   </si>
 </sst>
 </file>
@@ -2670,7 +2681,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2758,6 +2769,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3075,7 +3092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3194,9 +3211,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3225,9 +3239,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3235,9 +3246,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3250,9 +3258,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3302,9 +3307,6 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3330,6 +3332,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3553,10 +3576,10 @@
   <dimension ref="A1:Z1057"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G194" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3574,7 +3597,7 @@
     <col min="15" max="15" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3663,7 +3686,7 @@
     <row r="4" spans="1:26" ht="13.5" thickBot="1">
       <c r="A4" s="22"/>
       <c r="B4" s="57" t="s">
-        <v>755</v>
+        <v>799</v>
       </c>
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
@@ -3704,22 +3727,22 @@
       <c r="E5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="66" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="28"/>
@@ -3744,32 +3767,32 @@
     </row>
     <row r="6" spans="1:26" ht="15" thickBot="1">
       <c r="A6" s="29"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
@@ -3788,30 +3811,30 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A7" s="29"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="67"/>
+      <c r="C7" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="76" t="s">
-        <v>756</v>
-      </c>
-      <c r="G7" s="71" t="s">
+      <c r="F7" s="107" t="s">
+        <v>749</v>
+      </c>
+      <c r="G7" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
@@ -3830,30 +3853,30 @@
     </row>
     <row r="8" spans="1:26" ht="15" thickBot="1">
       <c r="A8" s="29"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="78" t="s">
-        <v>757</v>
-      </c>
-      <c r="E8" s="75" t="s">
+      <c r="D8" s="107" t="s">
+        <v>750</v>
+      </c>
+      <c r="E8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="76" t="s">
-        <v>756</v>
-      </c>
-      <c r="G8" s="71" t="s">
+      <c r="F8" s="107" t="s">
+        <v>749</v>
+      </c>
+      <c r="G8" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
@@ -3872,30 +3895,30 @@
     </row>
     <row r="9" spans="1:26" ht="15" thickBot="1">
       <c r="A9" s="29"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="78" t="s">
-        <v>757</v>
-      </c>
-      <c r="E9" s="75" t="s">
+      <c r="D9" s="107" t="s">
+        <v>750</v>
+      </c>
+      <c r="E9" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="76" t="s">
-        <v>758</v>
-      </c>
-      <c r="G9" s="71" t="s">
+      <c r="F9" s="107" t="s">
+        <v>751</v>
+      </c>
+      <c r="G9" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="70" t="s">
+      <c r="I9" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
@@ -3914,30 +3937,30 @@
     </row>
     <row r="10" spans="1:26" ht="15" thickBot="1">
       <c r="A10" s="29"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="78" t="s">
-        <v>757</v>
-      </c>
-      <c r="E10" s="75" t="s">
+      <c r="D10" s="107" t="s">
+        <v>750</v>
+      </c>
+      <c r="E10" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="76" t="s">
-        <v>759</v>
-      </c>
-      <c r="G10" s="71" t="s">
+      <c r="F10" s="108" t="s">
+        <v>800</v>
+      </c>
+      <c r="G10" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
@@ -3956,30 +3979,30 @@
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1">
       <c r="A11" s="29"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="78" t="s">
-        <v>757</v>
-      </c>
-      <c r="E11" s="75" t="s">
+      <c r="D11" s="107" t="s">
+        <v>750</v>
+      </c>
+      <c r="E11" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="72" t="s">
+      <c r="H11" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="72" t="s">
+      <c r="I11" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
@@ -3998,30 +4021,30 @@
     </row>
     <row r="12" spans="1:26" ht="15" thickBot="1">
       <c r="A12" s="29"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="78" t="s">
-        <v>757</v>
-      </c>
-      <c r="E12" s="75" t="s">
+      <c r="D12" s="107" t="s">
+        <v>750</v>
+      </c>
+      <c r="E12" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="79" t="s">
+      <c r="F12" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
@@ -4040,30 +4063,30 @@
     </row>
     <row r="13" spans="1:26" ht="15" thickBot="1">
       <c r="A13" s="29"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="67"/>
+      <c r="C13" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="76" t="s">
-        <v>760</v>
-      </c>
-      <c r="G13" s="71" t="s">
+      <c r="F13" s="108" t="s">
+        <v>753</v>
+      </c>
+      <c r="G13" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="72" t="s">
+      <c r="I13" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
@@ -4082,30 +4105,30 @@
     </row>
     <row r="14" spans="1:26" ht="15" thickBot="1">
       <c r="A14" s="29"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="78" t="s">
-        <v>761</v>
-      </c>
-      <c r="E14" s="75" t="s">
+      <c r="D14" s="107" t="s">
+        <v>752</v>
+      </c>
+      <c r="E14" s="73" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="76" t="s">
-        <v>762</v>
-      </c>
-      <c r="G14" s="71" t="s">
+        <v>753</v>
+      </c>
+      <c r="G14" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="72" t="s">
+      <c r="H14" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="I14" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
       <c r="N14" s="30"/>
@@ -4124,30 +4147,30 @@
     </row>
     <row r="15" spans="1:26" ht="15" thickBot="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68" t="s">
+      <c r="B15" s="67"/>
+      <c r="C15" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="78" t="s">
-        <v>761</v>
-      </c>
-      <c r="E15" s="75" t="s">
+      <c r="D15" s="107" t="s">
+        <v>752</v>
+      </c>
+      <c r="E15" s="73" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="76" t="s">
-        <v>758</v>
-      </c>
-      <c r="G15" s="71" t="s">
+        <v>751</v>
+      </c>
+      <c r="G15" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="72" t="s">
+      <c r="I15" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
@@ -4166,30 +4189,30 @@
     </row>
     <row r="16" spans="1:26" ht="15" thickBot="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="78" t="s">
-        <v>761</v>
-      </c>
-      <c r="E16" s="75" t="s">
+      <c r="D16" s="107" t="s">
+        <v>752</v>
+      </c>
+      <c r="E16" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="76" t="s">
-        <v>759</v>
-      </c>
-      <c r="G16" s="71" t="s">
+      <c r="F16" s="108" t="s">
+        <v>800</v>
+      </c>
+      <c r="G16" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="H16" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="72" t="s">
+      <c r="I16" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
@@ -4208,30 +4231,30 @@
     </row>
     <row r="17" spans="1:26" ht="15" thickBot="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="78" t="s">
-        <v>761</v>
-      </c>
-      <c r="E17" s="75" t="s">
+      <c r="D17" s="107" t="s">
+        <v>752</v>
+      </c>
+      <c r="E17" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="79" t="s">
+      <c r="F17" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="71" t="s">
+      <c r="G17" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="72" t="s">
+      <c r="I17" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
@@ -4250,30 +4273,30 @@
     </row>
     <row r="18" spans="1:26" ht="15" thickBot="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="78" t="s">
-        <v>761</v>
-      </c>
-      <c r="E18" s="68" t="s">
+      <c r="D18" s="107" t="s">
+        <v>752</v>
+      </c>
+      <c r="E18" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="70" t="s">
+      <c r="F18" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="71" t="s">
+      <c r="G18" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="72" t="s">
+      <c r="I18" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
@@ -4292,30 +4315,30 @@
     </row>
     <row r="19" spans="1:26" ht="15" thickBot="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="E19" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="71" t="s">
+      <c r="G19" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="72" t="s">
+      <c r="H19" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="72" t="s">
+      <c r="I19" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
       <c r="N19" s="30"/>
@@ -4334,30 +4357,30 @@
     </row>
     <row r="20" spans="1:26" ht="15" thickBot="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68" t="s">
+      <c r="B20" s="67"/>
+      <c r="C20" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="80" t="s">
+      <c r="F20" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="71" t="s">
+      <c r="G20" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
@@ -4376,30 +4399,30 @@
     </row>
     <row r="21" spans="1:26" ht="15" thickBot="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68" t="s">
+      <c r="B21" s="67"/>
+      <c r="C21" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="68" t="s">
+      <c r="E21" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="80" t="s">
+      <c r="F21" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="72" t="s">
+      <c r="I21" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
@@ -4418,30 +4441,30 @@
     </row>
     <row r="22" spans="1:26" ht="15" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="70" t="s">
+      <c r="F22" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="71" t="s">
+      <c r="G22" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="72" t="s">
+      <c r="H22" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="72" t="s">
+      <c r="I22" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
@@ -4460,30 +4483,30 @@
     </row>
     <row r="23" spans="1:26" ht="15" thickBot="1">
       <c r="A23" s="29"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="68" t="s">
+      <c r="E23" s="67" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="76" t="s">
-        <v>763</v>
-      </c>
-      <c r="G23" s="71" t="s">
+        <v>754</v>
+      </c>
+      <c r="G23" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="72" t="s">
+      <c r="H23" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="72" t="s">
+      <c r="I23" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
       <c r="N23" s="30"/>
@@ -4502,30 +4525,30 @@
     </row>
     <row r="24" spans="1:26" ht="29.25" thickBot="1">
       <c r="A24" s="29"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68" t="s">
+      <c r="B24" s="67"/>
+      <c r="C24" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="79" t="s">
+      <c r="F24" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="71" t="s">
+      <c r="G24" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="72" t="s">
+      <c r="H24" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="72" t="s">
+      <c r="I24" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
       <c r="N24" s="30"/>
@@ -4544,30 +4567,30 @@
     </row>
     <row r="25" spans="1:26" ht="15" thickBot="1">
       <c r="A25" s="29"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="E25" s="67" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="76" t="s">
-        <v>764</v>
-      </c>
-      <c r="G25" s="71" t="s">
+        <v>755</v>
+      </c>
+      <c r="G25" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="72" t="s">
+      <c r="H25" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="I25" s="72" t="s">
+      <c r="I25" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
@@ -4586,30 +4609,30 @@
     </row>
     <row r="26" spans="1:26" ht="15" thickBot="1">
       <c r="A26" s="29"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68" t="s">
+      <c r="B26" s="67"/>
+      <c r="C26" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="79" t="s">
+      <c r="F26" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="71" t="s">
+      <c r="G26" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="72" t="s">
+      <c r="H26" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="72" t="s">
+      <c r="I26" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
       <c r="N26" s="30"/>
@@ -4628,30 +4651,30 @@
     </row>
     <row r="27" spans="1:26" ht="15" thickBot="1">
       <c r="A27" s="29"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68" t="s">
+      <c r="B27" s="67"/>
+      <c r="C27" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="67" t="s">
         <v>94</v>
       </c>
       <c r="F27" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="71" t="s">
+      <c r="G27" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="72" t="s">
+      <c r="H27" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="I27" s="72" t="s">
+      <c r="I27" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
@@ -4670,30 +4693,30 @@
     </row>
     <row r="28" spans="1:26" ht="43.5" thickBot="1">
       <c r="A28" s="29"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68" t="s">
+      <c r="B28" s="67"/>
+      <c r="C28" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="76" t="s">
-        <v>765</v>
-      </c>
-      <c r="G28" s="71" t="s">
+      <c r="F28" s="108" t="s">
+        <v>801</v>
+      </c>
+      <c r="G28" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="72" t="s">
+      <c r="H28" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="72" t="s">
+      <c r="I28" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
       <c r="N28" s="30"/>
@@ -4712,30 +4735,30 @@
     </row>
     <row r="29" spans="1:26" ht="15" thickBot="1">
       <c r="A29" s="29"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68" t="s">
+      <c r="B29" s="67"/>
+      <c r="C29" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="E29" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="H29" s="72" t="s">
+      <c r="H29" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="72" t="s">
+      <c r="I29" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
@@ -4754,30 +4777,30 @@
     </row>
     <row r="30" spans="1:26" ht="15" thickBot="1">
       <c r="A30" s="29"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68" t="s">
+      <c r="B30" s="67"/>
+      <c r="C30" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="68" t="s">
+      <c r="E30" s="67" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="76" t="s">
-        <v>766</v>
-      </c>
-      <c r="G30" s="71" t="s">
+        <v>756</v>
+      </c>
+      <c r="G30" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="H30" s="72" t="s">
+      <c r="H30" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="I30" s="72" t="s">
+      <c r="I30" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
       <c r="N30" s="30"/>
@@ -4796,30 +4819,30 @@
     </row>
     <row r="31" spans="1:26" ht="15" thickBot="1">
       <c r="A31" s="29"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68" t="s">
+      <c r="B31" s="67"/>
+      <c r="C31" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="68" t="s">
+      <c r="E31" s="67" t="s">
         <v>94</v>
       </c>
       <c r="F31" s="76" t="s">
-        <v>766</v>
-      </c>
-      <c r="G31" s="71" t="s">
+        <v>756</v>
+      </c>
+      <c r="G31" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="H31" s="72" t="s">
+      <c r="H31" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="72" t="s">
+      <c r="I31" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
       <c r="N31" s="30"/>
@@ -4838,30 +4861,30 @@
     </row>
     <row r="32" spans="1:26" ht="43.5" thickBot="1">
       <c r="A32" s="29"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="68" t="s">
+      <c r="E32" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="76" t="s">
-        <v>767</v>
-      </c>
-      <c r="G32" s="71" t="s">
+      <c r="F32" s="108" t="s">
+        <v>802</v>
+      </c>
+      <c r="G32" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="H32" s="72" t="s">
+      <c r="H32" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="I32" s="72" t="s">
+      <c r="I32" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
       <c r="N32" s="30"/>
@@ -4880,30 +4903,30 @@
     </row>
     <row r="33" spans="1:26" ht="15" thickBot="1">
       <c r="A33" s="29"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68" t="s">
+      <c r="B33" s="67"/>
+      <c r="C33" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="68" t="s">
+      <c r="E33" s="67" t="s">
         <v>94</v>
       </c>
       <c r="F33" s="76" t="s">
-        <v>768</v>
-      </c>
-      <c r="G33" s="71" t="s">
+        <v>757</v>
+      </c>
+      <c r="G33" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="H33" s="72" t="s">
+      <c r="H33" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="I33" s="72" t="s">
+      <c r="I33" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
       <c r="N33" s="30"/>
@@ -4922,30 +4945,30 @@
     </row>
     <row r="34" spans="1:26" ht="15" thickBot="1">
       <c r="A34" s="29"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68" t="s">
+      <c r="B34" s="67"/>
+      <c r="C34" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="69" t="s">
+      <c r="D34" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="68" t="s">
+      <c r="E34" s="67" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="76" t="s">
-        <v>769</v>
-      </c>
-      <c r="G34" s="71" t="s">
+        <v>758</v>
+      </c>
+      <c r="G34" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="H34" s="72" t="s">
+      <c r="H34" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="I34" s="72" t="s">
+      <c r="I34" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
       <c r="L34" s="30"/>
       <c r="M34" s="30"/>
       <c r="N34" s="30"/>
@@ -4964,30 +4987,30 @@
     </row>
     <row r="35" spans="1:26" ht="15" thickBot="1">
       <c r="A35" s="29"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68" t="s">
+      <c r="B35" s="67"/>
+      <c r="C35" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="69" t="s">
+      <c r="D35" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="68" t="s">
+      <c r="E35" s="67" t="s">
         <v>94</v>
       </c>
       <c r="F35" s="76" t="s">
-        <v>769</v>
-      </c>
-      <c r="G35" s="71" t="s">
+        <v>758</v>
+      </c>
+      <c r="G35" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="H35" s="72" t="s">
+      <c r="H35" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="I35" s="72" t="s">
+      <c r="I35" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
       <c r="L35" s="30"/>
       <c r="M35" s="30"/>
       <c r="N35" s="30"/>
@@ -5006,30 +5029,30 @@
     </row>
     <row r="36" spans="1:26" ht="43.5" thickBot="1">
       <c r="A36" s="29"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68" t="s">
+      <c r="B36" s="67"/>
+      <c r="C36" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D36" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="68" t="s">
+      <c r="E36" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="78" t="s">
-        <v>770</v>
-      </c>
-      <c r="G36" s="71" t="s">
+      <c r="F36" s="76" t="s">
+        <v>759</v>
+      </c>
+      <c r="G36" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="H36" s="72" t="s">
+      <c r="H36" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="I36" s="72" t="s">
+      <c r="I36" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
       <c r="N36" s="30"/>
@@ -5048,30 +5071,30 @@
     </row>
     <row r="37" spans="1:26" ht="29.25" thickBot="1">
       <c r="A37" s="29"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68" t="s">
+      <c r="B37" s="67"/>
+      <c r="C37" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="68" t="s">
+      <c r="E37" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F37" s="78" t="s">
-        <v>771</v>
-      </c>
-      <c r="G37" s="71" t="s">
+      <c r="F37" s="76" t="s">
+        <v>760</v>
+      </c>
+      <c r="G37" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="H37" s="72" t="s">
+      <c r="H37" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="I37" s="72" t="s">
+      <c r="I37" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
       <c r="L37" s="30"/>
       <c r="M37" s="30"/>
       <c r="N37" s="30"/>
@@ -5090,30 +5113,30 @@
     </row>
     <row r="38" spans="1:26" ht="15" thickBot="1">
       <c r="A38" s="29"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68" t="s">
+      <c r="B38" s="67"/>
+      <c r="C38" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="68" t="s">
+      <c r="E38" s="67" t="s">
         <v>26</v>
       </c>
       <c r="F38" s="76" t="s">
-        <v>772</v>
-      </c>
-      <c r="G38" s="71" t="s">
+        <v>761</v>
+      </c>
+      <c r="G38" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="H38" s="72" t="s">
+      <c r="H38" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="I38" s="72" t="s">
+      <c r="I38" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
       <c r="L38" s="30"/>
       <c r="M38" s="30"/>
       <c r="N38" s="30"/>
@@ -5132,30 +5155,30 @@
     </row>
     <row r="39" spans="1:26" ht="15" thickBot="1">
       <c r="A39" s="29"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68" t="s">
+      <c r="B39" s="67"/>
+      <c r="C39" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="68" t="s">
+      <c r="E39" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="79" t="s">
+      <c r="F39" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="G39" s="71" t="s">
+      <c r="G39" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="H39" s="72" t="s">
+      <c r="H39" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="I39" s="72" t="s">
+      <c r="I39" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
       <c r="L39" s="30"/>
       <c r="M39" s="30"/>
       <c r="N39" s="30"/>
@@ -5174,30 +5197,30 @@
     </row>
     <row r="40" spans="1:26" ht="18.75" thickBot="1">
       <c r="A40" s="29"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68" t="s">
+      <c r="B40" s="67"/>
+      <c r="C40" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="69" t="s">
+      <c r="D40" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="68" t="s">
+      <c r="E40" s="67" t="s">
         <v>94</v>
       </c>
       <c r="F40" s="76" t="s">
-        <v>773</v>
-      </c>
-      <c r="G40" s="71" t="s">
+        <v>762</v>
+      </c>
+      <c r="G40" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="H40" s="72" t="s">
+      <c r="H40" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="I40" s="77" t="s">
+      <c r="I40" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="J40" s="73"/>
-      <c r="K40" s="73"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
       <c r="L40" s="30"/>
       <c r="M40" s="30"/>
       <c r="N40" s="30"/>
@@ -5216,30 +5239,30 @@
     </row>
     <row r="41" spans="1:26" ht="29.25" thickBot="1">
       <c r="A41" s="29"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68" t="s">
+      <c r="B41" s="67"/>
+      <c r="C41" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="69" t="s">
+      <c r="D41" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="68" t="s">
+      <c r="E41" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F41" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="71" t="s">
+      <c r="G41" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="H41" s="72" t="s">
+      <c r="H41" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="I41" s="72" t="s">
+      <c r="I41" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="J41" s="73"/>
-      <c r="K41" s="73"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
       <c r="L41" s="30"/>
       <c r="M41" s="30"/>
       <c r="N41" s="30"/>
@@ -5258,30 +5281,30 @@
     </row>
     <row r="42" spans="1:26" ht="15" thickBot="1">
       <c r="A42" s="29"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68" t="s">
+      <c r="B42" s="67"/>
+      <c r="C42" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="69" t="s">
+      <c r="D42" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="68" t="s">
+      <c r="E42" s="67" t="s">
         <v>94</v>
       </c>
       <c r="F42" s="76" t="s">
-        <v>774</v>
-      </c>
-      <c r="G42" s="71" t="s">
+        <v>763</v>
+      </c>
+      <c r="G42" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="H42" s="72" t="s">
+      <c r="H42" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="I42" s="72" t="s">
+      <c r="I42" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
       <c r="L42" s="30"/>
       <c r="M42" s="30"/>
       <c r="N42" s="30"/>
@@ -5300,30 +5323,30 @@
     </row>
     <row r="43" spans="1:26" ht="15" thickBot="1">
       <c r="A43" s="29"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68" t="s">
+      <c r="B43" s="67"/>
+      <c r="C43" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E43" s="68" t="s">
+      <c r="E43" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="76" t="s">
-        <v>775</v>
-      </c>
-      <c r="G43" s="71" t="s">
+      <c r="F43" s="108" t="s">
+        <v>803</v>
+      </c>
+      <c r="G43" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="H43" s="72" t="s">
+      <c r="H43" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="I43" s="72" t="s">
+      <c r="I43" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="J43" s="73"/>
-      <c r="K43" s="73"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
       <c r="L43" s="30"/>
       <c r="M43" s="30"/>
       <c r="N43" s="30"/>
@@ -5342,30 +5365,30 @@
     </row>
     <row r="44" spans="1:26" ht="18.75" thickBot="1">
       <c r="A44" s="29"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68" t="s">
+      <c r="B44" s="67"/>
+      <c r="C44" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="D44" s="69" t="s">
+      <c r="D44" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="68" t="s">
+      <c r="E44" s="67" t="s">
         <v>26</v>
       </c>
       <c r="F44" s="76" t="s">
-        <v>776</v>
-      </c>
-      <c r="G44" s="71" t="s">
+        <v>764</v>
+      </c>
+      <c r="G44" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="H44" s="72" t="s">
+      <c r="H44" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="I44" s="77" t="s">
+      <c r="I44" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="J44" s="73"/>
-      <c r="K44" s="73"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
       <c r="L44" s="30"/>
       <c r="M44" s="30"/>
       <c r="N44" s="30"/>
@@ -5384,30 +5407,30 @@
     </row>
     <row r="45" spans="1:26" ht="18.75" thickBot="1">
       <c r="A45" s="29"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68" t="s">
+      <c r="B45" s="67"/>
+      <c r="C45" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="D45" s="69" t="s">
+      <c r="D45" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E45" s="68" t="s">
+      <c r="E45" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="79" t="s">
+      <c r="F45" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="G45" s="71" t="s">
+      <c r="G45" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="H45" s="72" t="s">
+      <c r="H45" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="I45" s="81" t="s">
+      <c r="I45" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
       <c r="L45" s="30"/>
       <c r="M45" s="30"/>
       <c r="N45" s="30"/>
@@ -5426,30 +5449,30 @@
     </row>
     <row r="46" spans="1:26" ht="18.75" thickBot="1">
       <c r="A46" s="29"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68" t="s">
+      <c r="B46" s="67"/>
+      <c r="C46" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="D46" s="69" t="s">
+      <c r="D46" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E46" s="68" t="s">
+      <c r="E46" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="79" t="s">
+      <c r="F46" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="G46" s="71" t="s">
+      <c r="G46" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="H46" s="72" t="s">
+      <c r="H46" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="I46" s="81" t="s">
+      <c r="I46" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
       <c r="L46" s="30"/>
       <c r="M46" s="30"/>
       <c r="N46" s="30"/>
@@ -5468,30 +5491,30 @@
     </row>
     <row r="47" spans="1:26" ht="15" thickBot="1">
       <c r="A47" s="29"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68" t="s">
+      <c r="B47" s="67"/>
+      <c r="C47" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="69" t="s">
+      <c r="D47" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E47" s="68" t="s">
+      <c r="E47" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F47" s="79" t="s">
+      <c r="F47" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="G47" s="71" t="s">
+      <c r="G47" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="H47" s="72" t="s">
+      <c r="H47" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="I47" s="72" t="s">
+      <c r="I47" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="J47" s="73"/>
-      <c r="K47" s="73"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
       <c r="L47" s="30"/>
       <c r="M47" s="30"/>
       <c r="N47" s="30"/>
@@ -5510,30 +5533,30 @@
     </row>
     <row r="48" spans="1:26" ht="15" thickBot="1">
       <c r="A48" s="29"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="82" t="s">
+      <c r="B48" s="67"/>
+      <c r="C48" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="69" t="s">
+      <c r="D48" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E48" s="68" t="s">
+      <c r="E48" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="79" t="s">
+      <c r="F48" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="G48" s="71" t="s">
+      <c r="G48" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="H48" s="72" t="s">
+      <c r="H48" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="I48" s="72" t="s">
+      <c r="I48" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
       <c r="L48" s="30"/>
       <c r="M48" s="30"/>
       <c r="N48" s="30"/>
@@ -5552,30 +5575,30 @@
     </row>
     <row r="49" spans="1:26" ht="29.25" thickBot="1">
       <c r="A49" s="29"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68" t="s">
+      <c r="B49" s="67"/>
+      <c r="C49" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="D49" s="69" t="s">
+      <c r="D49" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E49" s="68" t="s">
+      <c r="E49" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="76" t="s">
-        <v>777</v>
-      </c>
-      <c r="G49" s="71" t="s">
+      <c r="F49" s="108" t="s">
+        <v>804</v>
+      </c>
+      <c r="G49" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="H49" s="72" t="s">
+      <c r="H49" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="I49" s="72" t="s">
+      <c r="I49" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
       <c r="L49" s="30"/>
       <c r="M49" s="30"/>
       <c r="N49" s="30"/>
@@ -5594,30 +5617,30 @@
     </row>
     <row r="50" spans="1:26" ht="18.75" thickBot="1">
       <c r="A50" s="29"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68" t="s">
+      <c r="B50" s="67"/>
+      <c r="C50" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="D50" s="69" t="s">
+      <c r="D50" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="68" t="s">
+      <c r="E50" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="79" t="s">
+      <c r="F50" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="G50" s="71" t="s">
+      <c r="G50" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="H50" s="72" t="s">
+      <c r="H50" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="I50" s="77" t="s">
+      <c r="I50" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="J50" s="73"/>
-      <c r="K50" s="73"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
       <c r="L50" s="30"/>
       <c r="M50" s="30"/>
       <c r="N50" s="30"/>
@@ -5636,30 +5659,30 @@
     </row>
     <row r="51" spans="1:26" ht="18.75" thickBot="1">
       <c r="A51" s="29"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68" t="s">
+      <c r="B51" s="67"/>
+      <c r="C51" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="D51" s="69" t="s">
+      <c r="D51" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="68" t="s">
+      <c r="E51" s="67" t="s">
         <v>94</v>
       </c>
       <c r="F51" s="76" t="s">
-        <v>778</v>
-      </c>
-      <c r="G51" s="71" t="s">
+        <v>765</v>
+      </c>
+      <c r="G51" s="70" t="s">
         <v>193</v>
       </c>
-      <c r="H51" s="72" t="s">
+      <c r="H51" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="I51" s="81" t="s">
+      <c r="I51" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
       <c r="L51" s="30"/>
       <c r="M51" s="30"/>
       <c r="N51" s="30"/>
@@ -5678,30 +5701,30 @@
     </row>
     <row r="52" spans="1:26" ht="54.75" thickBot="1">
       <c r="A52" s="29"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="82" t="s">
+      <c r="B52" s="67"/>
+      <c r="C52" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="D52" s="69" t="s">
+      <c r="D52" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E52" s="68" t="s">
+      <c r="E52" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F52" s="78" t="s">
-        <v>779</v>
-      </c>
-      <c r="G52" s="71" t="s">
+      <c r="F52" s="76" t="s">
+        <v>766</v>
+      </c>
+      <c r="G52" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="H52" s="72" t="s">
+      <c r="H52" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="I52" s="81" t="s">
+      <c r="I52" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
       <c r="L52" s="30"/>
       <c r="M52" s="30"/>
       <c r="N52" s="30"/>
@@ -5720,30 +5743,30 @@
     </row>
     <row r="53" spans="1:26" ht="29.25" thickBot="1">
       <c r="A53" s="29"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="82" t="s">
+      <c r="B53" s="67"/>
+      <c r="C53" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="D53" s="69" t="s">
+      <c r="D53" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="68" t="s">
+      <c r="E53" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="78" t="s">
-        <v>780</v>
-      </c>
-      <c r="G53" s="71" t="s">
+      <c r="F53" s="76" t="s">
+        <v>767</v>
+      </c>
+      <c r="G53" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="H53" s="72" t="s">
+      <c r="H53" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="I53" s="72" t="s">
+      <c r="I53" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="J53" s="73"/>
-      <c r="K53" s="73"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
       <c r="L53" s="30"/>
       <c r="M53" s="30"/>
       <c r="N53" s="30"/>
@@ -5762,30 +5785,30 @@
     </row>
     <row r="54" spans="1:26" ht="15" thickBot="1">
       <c r="A54" s="29"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68" t="s">
+      <c r="B54" s="67"/>
+      <c r="C54" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="D54" s="69" t="s">
+      <c r="D54" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E54" s="68" t="s">
+      <c r="E54" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="70" t="s">
+      <c r="F54" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="G54" s="71" t="s">
+      <c r="G54" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="H54" s="72" t="s">
+      <c r="H54" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="I54" s="72" t="s">
+      <c r="I54" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="J54" s="73"/>
-      <c r="K54" s="73"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
       <c r="L54" s="30"/>
       <c r="M54" s="30"/>
       <c r="N54" s="30"/>
@@ -5804,30 +5827,30 @@
     </row>
     <row r="55" spans="1:26" ht="15" thickBot="1">
       <c r="A55" s="29"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68" t="s">
+      <c r="B55" s="67"/>
+      <c r="C55" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="D55" s="69" t="s">
+      <c r="D55" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="68" t="s">
+      <c r="E55" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="70" t="s">
+      <c r="F55" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="G55" s="71" t="s">
+      <c r="G55" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="H55" s="72" t="s">
+      <c r="H55" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="I55" s="72" t="s">
+      <c r="I55" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="J55" s="73"/>
-      <c r="K55" s="73"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
       <c r="L55" s="30"/>
       <c r="M55" s="30"/>
       <c r="N55" s="30"/>
@@ -5846,30 +5869,30 @@
     </row>
     <row r="56" spans="1:26" ht="15" thickBot="1">
       <c r="A56" s="29"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68" t="s">
+      <c r="B56" s="67"/>
+      <c r="C56" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="D56" s="69" t="s">
+      <c r="D56" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="68" t="s">
+      <c r="E56" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="70" t="s">
+      <c r="F56" s="76" t="s">
         <v>215</v>
       </c>
-      <c r="G56" s="71" t="s">
+      <c r="G56" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="H56" s="72" t="s">
+      <c r="H56" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="I56" s="72" t="s">
+      <c r="I56" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="72"/>
       <c r="L56" s="30"/>
       <c r="M56" s="30"/>
       <c r="N56" s="30"/>
@@ -5888,30 +5911,30 @@
     </row>
     <row r="57" spans="1:26" ht="15" thickBot="1">
       <c r="A57" s="29"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68" t="s">
+      <c r="B57" s="67"/>
+      <c r="C57" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="D57" s="69" t="s">
+      <c r="D57" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E57" s="68" t="s">
+      <c r="E57" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="83" t="s">
+      <c r="F57" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="G57" s="84" t="s">
+      <c r="G57" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="H57" s="85" t="s">
+      <c r="H57" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="I57" s="85" t="s">
+      <c r="I57" s="81" t="s">
         <v>223</v>
       </c>
-      <c r="J57" s="86"/>
-      <c r="K57" s="86"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
       <c r="L57" s="30"/>
       <c r="M57" s="30"/>
       <c r="N57" s="30"/>
@@ -5930,30 +5953,30 @@
     </row>
     <row r="58" spans="1:26" ht="18.75" thickBot="1">
       <c r="A58" s="29"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="68" t="s">
+      <c r="B58" s="67"/>
+      <c r="C58" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="D58" s="69" t="s">
+      <c r="D58" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E58" s="68" t="s">
+      <c r="E58" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F58" s="83" t="s">
+      <c r="F58" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="G58" s="84" t="s">
+      <c r="G58" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="H58" s="85" t="s">
+      <c r="H58" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="I58" s="87" t="s">
+      <c r="I58" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="J58" s="86"/>
-      <c r="K58" s="86"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="82"/>
       <c r="L58" s="30"/>
       <c r="M58" s="30"/>
       <c r="N58" s="30"/>
@@ -5972,30 +5995,30 @@
     </row>
     <row r="59" spans="1:26" ht="36.75" thickBot="1">
       <c r="A59" s="29"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68" t="s">
+      <c r="B59" s="67"/>
+      <c r="C59" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="D59" s="69" t="s">
+      <c r="D59" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E59" s="68" t="s">
+      <c r="E59" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F59" s="83" t="s">
+      <c r="F59" s="77" t="s">
+        <v>805</v>
+      </c>
+      <c r="G59" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="G59" s="84" t="s">
+      <c r="H59" s="81" t="s">
         <v>231</v>
       </c>
-      <c r="H59" s="85" t="s">
+      <c r="I59" s="84" t="s">
         <v>232</v>
       </c>
-      <c r="I59" s="88" t="s">
-        <v>233</v>
-      </c>
-      <c r="J59" s="86"/>
-      <c r="K59" s="86"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="82"/>
       <c r="L59" s="30"/>
       <c r="M59" s="30"/>
       <c r="N59" s="30"/>
@@ -6014,30 +6037,30 @@
     </row>
     <row r="60" spans="1:26" ht="18.75" thickBot="1">
       <c r="A60" s="29"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="68" t="s">
+      <c r="B60" s="67"/>
+      <c r="C60" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="D60" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="E60" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="77" t="s">
+        <v>806</v>
+      </c>
+      <c r="G60" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="D60" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="E60" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="F60" s="83" t="s">
+      <c r="H60" s="81" t="s">
         <v>235</v>
       </c>
-      <c r="G60" s="84" t="s">
+      <c r="I60" s="84" t="s">
         <v>236</v>
       </c>
-      <c r="H60" s="85" t="s">
-        <v>237</v>
-      </c>
-      <c r="I60" s="88" t="s">
-        <v>238</v>
-      </c>
-      <c r="J60" s="86"/>
-      <c r="K60" s="86"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="82"/>
       <c r="L60" s="30"/>
       <c r="M60" s="30"/>
       <c r="N60" s="30"/>
@@ -6056,30 +6079,30 @@
     </row>
     <row r="61" spans="1:26" ht="15" thickBot="1">
       <c r="A61" s="29"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="68" t="s">
+      <c r="B61" s="67"/>
+      <c r="C61" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="D61" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="76" t="s">
+        <v>768</v>
+      </c>
+      <c r="G61" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="H61" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="D61" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="E61" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="F61" s="76" t="s">
-        <v>781</v>
-      </c>
-      <c r="G61" s="71" t="s">
+      <c r="I61" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="H61" s="72" t="s">
-        <v>241</v>
-      </c>
-      <c r="I61" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="J61" s="73"/>
-      <c r="K61" s="73"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
       <c r="L61" s="30"/>
       <c r="M61" s="30"/>
       <c r="N61" s="30"/>
@@ -6098,30 +6121,30 @@
     </row>
     <row r="62" spans="1:26" ht="18.75" thickBot="1">
       <c r="A62" s="29"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="68" t="s">
+      <c r="B62" s="67"/>
+      <c r="C62" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="G62" s="85" t="s">
         <v>243</v>
       </c>
-      <c r="D62" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="E62" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="70" t="s">
+      <c r="H62" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="G62" s="89" t="s">
-        <v>245</v>
-      </c>
-      <c r="H62" s="72" t="s">
-        <v>246</v>
-      </c>
-      <c r="I62" s="77" t="s">
-        <v>246</v>
-      </c>
-      <c r="J62" s="73"/>
-      <c r="K62" s="73"/>
+      <c r="I62" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
       <c r="L62" s="30"/>
       <c r="M62" s="30"/>
       <c r="N62" s="30"/>
@@ -6140,30 +6163,30 @@
     </row>
     <row r="63" spans="1:26" thickBot="1">
       <c r="A63" s="29"/>
-      <c r="B63" s="68"/>
-      <c r="C63" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="D63" s="69" t="s">
+      <c r="B63" s="67"/>
+      <c r="C63" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D63" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="E63" s="68" t="s">
+      <c r="E63" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="70" t="s">
+      <c r="F63" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G63" s="89" t="s">
+      <c r="G63" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="72" t="s">
+      <c r="H63" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I63" s="90" t="s">
+      <c r="I63" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="J63" s="73"/>
-      <c r="K63" s="73"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
       <c r="L63" s="30"/>
       <c r="M63" s="30"/>
       <c r="N63" s="30"/>
@@ -6182,30 +6205,30 @@
     </row>
     <row r="64" spans="1:26" ht="15" thickBot="1">
       <c r="A64" s="29"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="68" t="s">
+      <c r="B64" s="67"/>
+      <c r="C64" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="D64" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="E64" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="D64" s="69" t="s">
+      <c r="F64" s="76" t="s">
         <v>249</v>
       </c>
-      <c r="E64" s="68" t="s">
+      <c r="G64" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="F64" s="70" t="s">
+      <c r="H64" s="71" t="s">
         <v>251</v>
       </c>
-      <c r="G64" s="71" t="s">
+      <c r="I64" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="H64" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="I64" s="72" t="s">
-        <v>254</v>
-      </c>
-      <c r="J64" s="73"/>
-      <c r="K64" s="73"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
       <c r="L64" s="30"/>
       <c r="M64" s="30"/>
       <c r="N64" s="30"/>
@@ -6224,30 +6247,30 @@
     </row>
     <row r="65" spans="1:26" thickBot="1">
       <c r="A65" s="29"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="68" t="s">
+      <c r="B65" s="67"/>
+      <c r="C65" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="D65" s="68" t="s">
+        <v>254</v>
+      </c>
+      <c r="E65" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="D65" s="69" t="s">
+      <c r="F65" s="76" t="s">
         <v>256</v>
       </c>
-      <c r="E65" s="68" t="s">
+      <c r="G65" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="F65" s="70" t="s">
+      <c r="H65" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="I65" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="G65" s="89" t="s">
-        <v>259</v>
-      </c>
-      <c r="H65" s="72" t="s">
-        <v>259</v>
-      </c>
-      <c r="I65" s="90" t="s">
-        <v>260</v>
-      </c>
-      <c r="J65" s="73"/>
-      <c r="K65" s="73"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="72"/>
       <c r="L65" s="30"/>
       <c r="M65" s="30"/>
       <c r="N65" s="30"/>
@@ -6266,30 +6289,30 @@
     </row>
     <row r="66" spans="1:26" ht="15" thickBot="1">
       <c r="A66" s="29"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="68" t="s">
-        <v>261</v>
-      </c>
-      <c r="D66" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="E66" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="F66" s="70" t="s">
+      <c r="B66" s="67"/>
+      <c r="C66" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" s="68" t="s">
+        <v>254</v>
+      </c>
+      <c r="E66" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="F66" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="G66" s="71" t="s">
+      <c r="G66" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H66" s="72" t="s">
+      <c r="H66" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I66" s="72" t="s">
+      <c r="I66" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="J66" s="73"/>
-      <c r="K66" s="73"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="72"/>
       <c r="L66" s="30"/>
       <c r="M66" s="30"/>
       <c r="N66" s="30"/>
@@ -6308,30 +6331,30 @@
     </row>
     <row r="67" spans="1:26" thickBot="1">
       <c r="A67" s="29"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="68" t="s">
+      <c r="B67" s="67"/>
+      <c r="C67" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="D67" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="E67" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="F67" s="76" t="s">
+        <v>769</v>
+      </c>
+      <c r="G67" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="D67" s="69" t="s">
+      <c r="H67" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="E67" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="F67" s="78" t="s">
-        <v>782</v>
-      </c>
-      <c r="G67" s="89" t="s">
+      <c r="I67" s="86" t="s">
         <v>264</v>
       </c>
-      <c r="H67" s="72" t="s">
-        <v>265</v>
-      </c>
-      <c r="I67" s="90" t="s">
-        <v>266</v>
-      </c>
-      <c r="J67" s="73"/>
-      <c r="K67" s="73"/>
+      <c r="J67" s="72"/>
+      <c r="K67" s="72"/>
       <c r="L67" s="30"/>
       <c r="M67" s="30"/>
       <c r="N67" s="30"/>
@@ -6350,30 +6373,30 @@
     </row>
     <row r="68" spans="1:26" ht="29.25" thickBot="1">
       <c r="A68" s="29"/>
-      <c r="B68" s="68"/>
-      <c r="C68" s="68" t="s">
+      <c r="B68" s="67"/>
+      <c r="C68" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="D68" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="E68" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="F68" s="76" t="s">
+        <v>770</v>
+      </c>
+      <c r="G68" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="H68" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="D68" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="E68" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="F68" s="78" t="s">
-        <v>783</v>
-      </c>
-      <c r="G68" s="71" t="s">
+      <c r="I68" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="H68" s="72" t="s">
-        <v>269</v>
-      </c>
-      <c r="I68" s="72" t="s">
-        <v>270</v>
-      </c>
-      <c r="J68" s="73"/>
-      <c r="K68" s="73"/>
+      <c r="J68" s="72"/>
+      <c r="K68" s="72"/>
       <c r="L68" s="30"/>
       <c r="M68" s="30"/>
       <c r="N68" s="30"/>
@@ -6392,30 +6415,30 @@
     </row>
     <row r="69" spans="1:26" ht="15" thickBot="1">
       <c r="A69" s="29"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="68" t="s">
+      <c r="B69" s="67"/>
+      <c r="C69" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="E69" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="F69" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="G69" s="70" t="s">
+        <v>270</v>
+      </c>
+      <c r="H69" s="71" t="s">
         <v>271</v>
       </c>
-      <c r="D69" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="E69" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="F69" s="78" t="s">
-        <v>244</v>
-      </c>
-      <c r="G69" s="71" t="s">
+      <c r="I69" s="71" t="s">
         <v>272</v>
       </c>
-      <c r="H69" s="72" t="s">
-        <v>273</v>
-      </c>
-      <c r="I69" s="72" t="s">
-        <v>274</v>
-      </c>
-      <c r="J69" s="73"/>
-      <c r="K69" s="73"/>
+      <c r="J69" s="72"/>
+      <c r="K69" s="72"/>
       <c r="L69" s="30"/>
       <c r="M69" s="30"/>
       <c r="N69" s="30"/>
@@ -6434,30 +6457,30 @@
     </row>
     <row r="70" spans="1:26" ht="15" thickBot="1">
       <c r="A70" s="29"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="68" t="s">
+      <c r="B70" s="67"/>
+      <c r="C70" s="67" t="s">
+        <v>273</v>
+      </c>
+      <c r="D70" s="68" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="F70" s="76" t="s">
+        <v>771</v>
+      </c>
+      <c r="G70" s="70" t="s">
         <v>275</v>
       </c>
-      <c r="D70" s="69" t="s">
+      <c r="H70" s="71" t="s">
         <v>276</v>
       </c>
-      <c r="E70" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="F70" s="78" t="s">
-        <v>784</v>
-      </c>
-      <c r="G70" s="71" t="s">
+      <c r="I70" s="71" t="s">
         <v>277</v>
       </c>
-      <c r="H70" s="72" t="s">
-        <v>278</v>
-      </c>
-      <c r="I70" s="72" t="s">
-        <v>279</v>
-      </c>
-      <c r="J70" s="73"/>
-      <c r="K70" s="73"/>
+      <c r="J70" s="72"/>
+      <c r="K70" s="72"/>
       <c r="L70" s="30"/>
       <c r="M70" s="30"/>
       <c r="N70" s="30"/>
@@ -6476,30 +6499,30 @@
     </row>
     <row r="71" spans="1:26" ht="15" thickBot="1">
       <c r="A71" s="29"/>
-      <c r="B71" s="91"/>
-      <c r="C71" s="68" t="s">
+      <c r="B71" s="87"/>
+      <c r="C71" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="D71" s="68" t="s">
+        <v>274</v>
+      </c>
+      <c r="E71" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="F71" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="G71" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="H71" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="D71" s="69" t="s">
-        <v>276</v>
-      </c>
-      <c r="E71" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="F71" s="78" t="s">
-        <v>785</v>
-      </c>
-      <c r="G71" s="92" t="s">
+      <c r="I71" s="69" t="s">
         <v>281</v>
       </c>
-      <c r="H71" s="72" t="s">
-        <v>282</v>
-      </c>
-      <c r="I71" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="J71" s="73"/>
-      <c r="K71" s="73"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="72"/>
       <c r="L71" s="30"/>
       <c r="M71" s="30"/>
       <c r="N71" s="30"/>
@@ -6518,30 +6541,30 @@
     </row>
     <row r="72" spans="1:26" ht="15" thickBot="1">
       <c r="A72" s="29"/>
-      <c r="B72" s="91"/>
-      <c r="C72" s="68" t="s">
+      <c r="B72" s="87"/>
+      <c r="C72" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="G72" s="88" t="s">
         <v>284</v>
       </c>
-      <c r="D72" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="70" t="s">
+      <c r="H72" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="G72" s="92" t="s">
+      <c r="I72" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="H72" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="I72" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="J72" s="73"/>
-      <c r="K72" s="73"/>
+      <c r="J72" s="72"/>
+      <c r="K72" s="72"/>
       <c r="L72" s="30"/>
       <c r="M72" s="30"/>
       <c r="N72" s="30"/>
@@ -6560,30 +6583,30 @@
     </row>
     <row r="73" spans="1:26" ht="15" thickBot="1">
       <c r="A73" s="29"/>
-      <c r="B73" s="91"/>
-      <c r="C73" s="68" t="s">
+      <c r="B73" s="87"/>
+      <c r="C73" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="D73" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="E73" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="G73" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="D73" s="69" t="s">
-        <v>285</v>
-      </c>
-      <c r="E73" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" s="70" t="s">
+      <c r="H73" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="G73" s="92" t="s">
+      <c r="I73" s="69" t="s">
         <v>291</v>
       </c>
-      <c r="H73" s="72" t="s">
-        <v>292</v>
-      </c>
-      <c r="I73" s="70" t="s">
-        <v>293</v>
-      </c>
-      <c r="J73" s="73"/>
-      <c r="K73" s="73"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="72"/>
       <c r="L73" s="30"/>
       <c r="M73" s="30"/>
       <c r="N73" s="30"/>
@@ -6602,30 +6625,30 @@
     </row>
     <row r="74" spans="1:26" ht="29.25" thickBot="1">
       <c r="A74" s="29"/>
-      <c r="B74" s="91"/>
-      <c r="C74" s="68" t="s">
+      <c r="B74" s="87"/>
+      <c r="C74" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="D74" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="E74" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="G74" s="88" t="s">
+        <v>293</v>
+      </c>
+      <c r="H74" s="71" t="s">
         <v>294</v>
       </c>
-      <c r="D74" s="69" t="s">
-        <v>285</v>
-      </c>
-      <c r="E74" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="F74" s="76" t="s">
-        <v>786</v>
-      </c>
-      <c r="G74" s="92" t="s">
+      <c r="I74" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="H74" s="72" t="s">
-        <v>296</v>
-      </c>
-      <c r="I74" s="70" t="s">
-        <v>297</v>
-      </c>
-      <c r="J74" s="73"/>
-      <c r="K74" s="73"/>
+      <c r="J74" s="72"/>
+      <c r="K74" s="72"/>
       <c r="L74" s="30"/>
       <c r="M74" s="30"/>
       <c r="N74" s="30"/>
@@ -6644,30 +6667,30 @@
     </row>
     <row r="75" spans="1:26" ht="29.25" thickBot="1">
       <c r="A75" s="29"/>
-      <c r="B75" s="91"/>
-      <c r="C75" s="68" t="s">
+      <c r="B75" s="87"/>
+      <c r="C75" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="D75" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="E75" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="76" t="s">
+        <v>774</v>
+      </c>
+      <c r="G75" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="D75" s="69" t="s">
+      <c r="H75" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="E75" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" s="76" t="s">
-        <v>787</v>
-      </c>
-      <c r="G75" s="92" t="s">
+      <c r="I75" s="69" t="s">
         <v>300</v>
       </c>
-      <c r="H75" s="72" t="s">
-        <v>301</v>
-      </c>
-      <c r="I75" s="70" t="s">
-        <v>302</v>
-      </c>
-      <c r="J75" s="73"/>
-      <c r="K75" s="73"/>
+      <c r="J75" s="72"/>
+      <c r="K75" s="72"/>
       <c r="L75" s="30"/>
       <c r="M75" s="30"/>
       <c r="N75" s="30"/>
@@ -6686,30 +6709,30 @@
     </row>
     <row r="76" spans="1:26" ht="15" thickBot="1">
       <c r="A76" s="29"/>
-      <c r="B76" s="91"/>
-      <c r="C76" s="68" t="s">
+      <c r="B76" s="87"/>
+      <c r="C76" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="D76" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="E76" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="76" t="s">
+        <v>775</v>
+      </c>
+      <c r="G76" s="88" t="s">
         <v>303</v>
       </c>
-      <c r="D76" s="69" t="s">
+      <c r="H76" s="71" t="s">
         <v>304</v>
       </c>
-      <c r="E76" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" s="76" t="s">
-        <v>788</v>
-      </c>
-      <c r="G76" s="92" t="s">
+      <c r="I76" s="69" t="s">
         <v>305</v>
       </c>
-      <c r="H76" s="72" t="s">
-        <v>306</v>
-      </c>
-      <c r="I76" s="70" t="s">
-        <v>307</v>
-      </c>
-      <c r="J76" s="73"/>
-      <c r="K76" s="73"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="72"/>
       <c r="L76" s="30"/>
       <c r="M76" s="30"/>
       <c r="N76" s="30"/>
@@ -6728,30 +6751,30 @@
     </row>
     <row r="77" spans="1:26" ht="29.25" thickBot="1">
       <c r="A77" s="29"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="68" t="s">
+      <c r="B77" s="87"/>
+      <c r="C77" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="D77" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="E77" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="F77" s="76" t="s">
         <v>308</v>
       </c>
-      <c r="D77" s="69" t="s">
+      <c r="G77" s="88" t="s">
         <v>309</v>
       </c>
-      <c r="E77" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="F77" s="70" t="s">
+      <c r="H77" s="71" t="s">
         <v>310</v>
       </c>
-      <c r="G77" s="92" t="s">
+      <c r="I77" s="69" t="s">
         <v>311</v>
       </c>
-      <c r="H77" s="72" t="s">
-        <v>312</v>
-      </c>
-      <c r="I77" s="70" t="s">
-        <v>313</v>
-      </c>
-      <c r="J77" s="73"/>
-      <c r="K77" s="73"/>
+      <c r="J77" s="72"/>
+      <c r="K77" s="72"/>
       <c r="L77" s="30"/>
       <c r="M77" s="30"/>
       <c r="N77" s="30"/>
@@ -6770,30 +6793,30 @@
     </row>
     <row r="78" spans="1:26" ht="29.25" thickBot="1">
       <c r="A78" s="29"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="68" t="s">
+      <c r="B78" s="87"/>
+      <c r="C78" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="D78" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="E78" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="F78" s="108" t="s">
+        <v>807</v>
+      </c>
+      <c r="G78" s="88" t="s">
+        <v>313</v>
+      </c>
+      <c r="H78" s="71" t="s">
         <v>314</v>
       </c>
-      <c r="D78" s="69" t="s">
-        <v>309</v>
-      </c>
-      <c r="E78" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="F78" s="76" t="s">
-        <v>789</v>
-      </c>
-      <c r="G78" s="92" t="s">
+      <c r="I78" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="H78" s="72" t="s">
-        <v>316</v>
-      </c>
-      <c r="I78" s="70" t="s">
-        <v>317</v>
-      </c>
-      <c r="J78" s="73"/>
-      <c r="K78" s="73"/>
+      <c r="J78" s="72"/>
+      <c r="K78" s="72"/>
       <c r="L78" s="30"/>
       <c r="M78" s="30"/>
       <c r="N78" s="30"/>
@@ -6812,30 +6835,30 @@
     </row>
     <row r="79" spans="1:26" ht="15" thickBot="1">
       <c r="A79" s="29"/>
-      <c r="B79" s="91"/>
-      <c r="C79" s="68" t="s">
+      <c r="B79" s="87"/>
+      <c r="C79" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="D79" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="E79" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="76" t="s">
+        <v>776</v>
+      </c>
+      <c r="G79" s="88" t="s">
+        <v>317</v>
+      </c>
+      <c r="H79" s="71" t="s">
         <v>318</v>
       </c>
-      <c r="D79" s="69" t="s">
-        <v>285</v>
-      </c>
-      <c r="E79" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="F79" s="76" t="s">
-        <v>790</v>
-      </c>
-      <c r="G79" s="92" t="s">
+      <c r="I79" s="69" t="s">
         <v>319</v>
       </c>
-      <c r="H79" s="72" t="s">
-        <v>320</v>
-      </c>
-      <c r="I79" s="70" t="s">
-        <v>321</v>
-      </c>
-      <c r="J79" s="73"/>
-      <c r="K79" s="73"/>
+      <c r="J79" s="72"/>
+      <c r="K79" s="72"/>
       <c r="L79" s="30"/>
       <c r="M79" s="30"/>
       <c r="N79" s="30"/>
@@ -6854,30 +6877,30 @@
     </row>
     <row r="80" spans="1:26" ht="15" thickBot="1">
       <c r="A80" s="29"/>
-      <c r="B80" s="91"/>
-      <c r="C80" s="68" t="s">
+      <c r="B80" s="87"/>
+      <c r="C80" s="67" t="s">
+        <v>320</v>
+      </c>
+      <c r="D80" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="E80" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="G80" s="88" t="s">
         <v>322</v>
       </c>
-      <c r="D80" s="69" t="s">
-        <v>285</v>
-      </c>
-      <c r="E80" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="F80" s="79" t="s">
+      <c r="H80" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="G80" s="92" t="s">
+      <c r="I80" s="69" t="s">
         <v>324</v>
       </c>
-      <c r="H80" s="72" t="s">
-        <v>325</v>
-      </c>
-      <c r="I80" s="70" t="s">
-        <v>326</v>
-      </c>
-      <c r="J80" s="73"/>
-      <c r="K80" s="73"/>
+      <c r="J80" s="72"/>
+      <c r="K80" s="72"/>
       <c r="L80" s="30"/>
       <c r="M80" s="30"/>
       <c r="N80" s="30"/>
@@ -6896,30 +6919,30 @@
     </row>
     <row r="81" spans="1:26" ht="15" thickBot="1">
       <c r="A81" s="29"/>
-      <c r="B81" s="91"/>
-      <c r="C81" s="68" t="s">
+      <c r="B81" s="87"/>
+      <c r="C81" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="D81" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="74" t="s">
+        <v>777</v>
+      </c>
+      <c r="G81" s="88" t="s">
+        <v>326</v>
+      </c>
+      <c r="H81" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="D81" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" s="76" t="s">
-        <v>791</v>
-      </c>
-      <c r="G81" s="92" t="s">
+      <c r="I81" s="88" t="s">
         <v>328</v>
       </c>
-      <c r="H81" s="72" t="s">
-        <v>329</v>
-      </c>
-      <c r="I81" s="92" t="s">
-        <v>330</v>
-      </c>
-      <c r="J81" s="73"/>
-      <c r="K81" s="73"/>
+      <c r="J81" s="72"/>
+      <c r="K81" s="72"/>
       <c r="L81" s="30"/>
       <c r="M81" s="30"/>
       <c r="N81" s="30"/>
@@ -6938,30 +6961,30 @@
     </row>
     <row r="82" spans="1:26" ht="15" thickBot="1">
       <c r="A82" s="29"/>
-      <c r="B82" s="91"/>
-      <c r="C82" s="68" t="s">
+      <c r="B82" s="87"/>
+      <c r="C82" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="D82" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="76" t="s">
+        <v>778</v>
+      </c>
+      <c r="G82" s="88" t="s">
+        <v>330</v>
+      </c>
+      <c r="H82" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="D82" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="76" t="s">
-        <v>792</v>
-      </c>
-      <c r="G82" s="92" t="s">
+      <c r="I82" s="88" t="s">
         <v>332</v>
       </c>
-      <c r="H82" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="I82" s="92" t="s">
-        <v>334</v>
-      </c>
-      <c r="J82" s="73"/>
-      <c r="K82" s="73"/>
+      <c r="J82" s="72"/>
+      <c r="K82" s="72"/>
       <c r="L82" s="30"/>
       <c r="M82" s="30"/>
       <c r="N82" s="30"/>
@@ -6980,30 +7003,30 @@
     </row>
     <row r="83" spans="1:26" ht="15" thickBot="1">
       <c r="A83" s="29"/>
-      <c r="B83" s="91"/>
-      <c r="C83" s="68" t="s">
+      <c r="B83" s="87"/>
+      <c r="C83" s="67" t="s">
+        <v>333</v>
+      </c>
+      <c r="D83" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="F83" s="76" t="s">
         <v>335</v>
       </c>
-      <c r="D83" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="68" t="s">
+      <c r="G83" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="F83" s="70" t="s">
+      <c r="H83" s="71" t="s">
         <v>337</v>
       </c>
-      <c r="G83" s="92" t="s">
+      <c r="I83" s="88" t="s">
         <v>338</v>
       </c>
-      <c r="H83" s="72" t="s">
-        <v>339</v>
-      </c>
-      <c r="I83" s="92" t="s">
-        <v>340</v>
-      </c>
-      <c r="J83" s="73"/>
-      <c r="K83" s="73"/>
+      <c r="J83" s="72"/>
+      <c r="K83" s="72"/>
       <c r="L83" s="30"/>
       <c r="M83" s="30"/>
       <c r="N83" s="30"/>
@@ -7022,30 +7045,30 @@
     </row>
     <row r="84" spans="1:26" ht="15" thickBot="1">
       <c r="A84" s="29"/>
-      <c r="B84" s="91"/>
-      <c r="C84" s="68" t="s">
+      <c r="B84" s="87"/>
+      <c r="C84" s="67" t="s">
+        <v>339</v>
+      </c>
+      <c r="D84" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="F84" s="76" t="s">
+        <v>340</v>
+      </c>
+      <c r="G84" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="D84" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="68" t="s">
-        <v>336</v>
-      </c>
-      <c r="F84" s="70" t="s">
+      <c r="H84" s="71" t="s">
         <v>342</v>
       </c>
-      <c r="G84" s="71" t="s">
+      <c r="I84" s="88" t="s">
         <v>343</v>
       </c>
-      <c r="H84" s="72" t="s">
-        <v>344</v>
-      </c>
-      <c r="I84" s="92" t="s">
-        <v>345</v>
-      </c>
-      <c r="J84" s="73"/>
-      <c r="K84" s="73"/>
+      <c r="J84" s="72"/>
+      <c r="K84" s="72"/>
       <c r="L84" s="30"/>
       <c r="M84" s="30"/>
       <c r="N84" s="30"/>
@@ -7064,30 +7087,30 @@
     </row>
     <row r="85" spans="1:26" ht="15" thickBot="1">
       <c r="A85" s="29"/>
-      <c r="B85" s="91"/>
-      <c r="C85" s="68" t="s">
+      <c r="B85" s="87"/>
+      <c r="C85" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="D85" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="F85" s="107" t="s">
+        <v>345</v>
+      </c>
+      <c r="G85" s="70" t="s">
         <v>346</v>
       </c>
-      <c r="D85" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="68" t="s">
-        <v>336</v>
-      </c>
-      <c r="F85" s="93" t="s">
+      <c r="H85" s="71" t="s">
         <v>347</v>
       </c>
-      <c r="G85" s="71" t="s">
+      <c r="I85" s="88" t="s">
         <v>348</v>
       </c>
-      <c r="H85" s="72" t="s">
-        <v>349</v>
-      </c>
-      <c r="I85" s="92" t="s">
-        <v>350</v>
-      </c>
-      <c r="J85" s="73"/>
-      <c r="K85" s="73"/>
+      <c r="J85" s="72"/>
+      <c r="K85" s="72"/>
       <c r="L85" s="30"/>
       <c r="M85" s="30"/>
       <c r="N85" s="30"/>
@@ -7106,30 +7129,30 @@
     </row>
     <row r="86" spans="1:26" ht="15" thickBot="1">
       <c r="A86" s="29"/>
-      <c r="B86" s="91"/>
-      <c r="C86" s="94" t="s">
+      <c r="B86" s="87"/>
+      <c r="C86" s="90" t="s">
+        <v>349</v>
+      </c>
+      <c r="D86" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="F86" s="107" t="s">
+        <v>350</v>
+      </c>
+      <c r="G86" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="D86" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="68" t="s">
-        <v>336</v>
-      </c>
-      <c r="F86" s="93" t="s">
+      <c r="H86" s="71" t="s">
         <v>352</v>
       </c>
-      <c r="G86" s="71" t="s">
+      <c r="I86" s="88" t="s">
         <v>353</v>
       </c>
-      <c r="H86" s="72" t="s">
-        <v>354</v>
-      </c>
-      <c r="I86" s="92" t="s">
-        <v>355</v>
-      </c>
-      <c r="J86" s="73"/>
-      <c r="K86" s="73"/>
+      <c r="J86" s="72"/>
+      <c r="K86" s="72"/>
       <c r="L86" s="30"/>
       <c r="M86" s="30"/>
       <c r="N86" s="30"/>
@@ -7148,30 +7171,30 @@
     </row>
     <row r="87" spans="1:26" ht="15" thickBot="1">
       <c r="A87" s="29"/>
-      <c r="B87" s="91"/>
-      <c r="C87" s="94" t="s">
+      <c r="B87" s="87"/>
+      <c r="C87" s="90" t="s">
+        <v>354</v>
+      </c>
+      <c r="D87" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="F87" s="107" t="s">
+        <v>355</v>
+      </c>
+      <c r="G87" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="D87" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="68" t="s">
-        <v>336</v>
-      </c>
-      <c r="F87" s="93" t="s">
+      <c r="H87" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="G87" s="71" t="s">
+      <c r="I87" s="88" t="s">
         <v>358</v>
       </c>
-      <c r="H87" s="72" t="s">
-        <v>359</v>
-      </c>
-      <c r="I87" s="92" t="s">
-        <v>360</v>
-      </c>
-      <c r="J87" s="73"/>
-      <c r="K87" s="73"/>
+      <c r="J87" s="72"/>
+      <c r="K87" s="72"/>
       <c r="L87" s="30"/>
       <c r="M87" s="30"/>
       <c r="N87" s="30"/>
@@ -7190,30 +7213,30 @@
     </row>
     <row r="88" spans="1:26" ht="15" thickBot="1">
       <c r="A88" s="29"/>
-      <c r="B88" s="91"/>
-      <c r="C88" s="94" t="s">
+      <c r="B88" s="87"/>
+      <c r="C88" s="90" t="s">
+        <v>359</v>
+      </c>
+      <c r="D88" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="F88" s="107" t="s">
+        <v>360</v>
+      </c>
+      <c r="G88" s="70" t="s">
         <v>361</v>
       </c>
-      <c r="D88" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88" s="68" t="s">
-        <v>336</v>
-      </c>
-      <c r="F88" s="93" t="s">
+      <c r="H88" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="G88" s="71" t="s">
+      <c r="I88" s="88" t="s">
         <v>363</v>
       </c>
-      <c r="H88" s="72" t="s">
-        <v>364</v>
-      </c>
-      <c r="I88" s="92" t="s">
-        <v>365</v>
-      </c>
-      <c r="J88" s="73"/>
-      <c r="K88" s="73"/>
+      <c r="J88" s="72"/>
+      <c r="K88" s="72"/>
       <c r="L88" s="30"/>
       <c r="M88" s="30"/>
       <c r="N88" s="30"/>
@@ -7232,30 +7255,30 @@
     </row>
     <row r="89" spans="1:26" ht="15" thickBot="1">
       <c r="A89" s="29"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="94" t="s">
+      <c r="B89" s="87"/>
+      <c r="C89" s="90" t="s">
+        <v>364</v>
+      </c>
+      <c r="D89" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="F89" s="76" t="s">
+        <v>365</v>
+      </c>
+      <c r="G89" s="88" t="s">
         <v>366</v>
       </c>
-      <c r="D89" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="68" t="s">
-        <v>336</v>
-      </c>
-      <c r="F89" s="70" t="s">
+      <c r="H89" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="G89" s="92" t="s">
+      <c r="I89" s="88" t="s">
         <v>368</v>
       </c>
-      <c r="H89" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="I89" s="92" t="s">
-        <v>370</v>
-      </c>
-      <c r="J89" s="73"/>
-      <c r="K89" s="73"/>
+      <c r="J89" s="72"/>
+      <c r="K89" s="72"/>
       <c r="L89" s="30"/>
       <c r="M89" s="30"/>
       <c r="N89" s="30"/>
@@ -7274,30 +7297,30 @@
     </row>
     <row r="90" spans="1:26" ht="15" thickBot="1">
       <c r="A90" s="29"/>
-      <c r="B90" s="91"/>
-      <c r="C90" s="94" t="s">
+      <c r="B90" s="87"/>
+      <c r="C90" s="90" t="s">
+        <v>369</v>
+      </c>
+      <c r="D90" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="F90" s="76" t="s">
+        <v>370</v>
+      </c>
+      <c r="G90" s="88" t="s">
         <v>371</v>
       </c>
-      <c r="D90" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" s="68" t="s">
-        <v>336</v>
-      </c>
-      <c r="F90" s="70" t="s">
+      <c r="H90" s="71" t="s">
         <v>372</v>
       </c>
-      <c r="G90" s="92" t="s">
+      <c r="I90" s="88" t="s">
         <v>373</v>
       </c>
-      <c r="H90" s="72" t="s">
-        <v>374</v>
-      </c>
-      <c r="I90" s="92" t="s">
-        <v>375</v>
-      </c>
-      <c r="J90" s="73"/>
-      <c r="K90" s="73"/>
+      <c r="J90" s="72"/>
+      <c r="K90" s="72"/>
       <c r="L90" s="30"/>
       <c r="M90" s="30"/>
       <c r="N90" s="30"/>
@@ -7316,30 +7339,30 @@
     </row>
     <row r="91" spans="1:26" ht="15" thickBot="1">
       <c r="A91" s="29"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="94" t="s">
+      <c r="B91" s="87"/>
+      <c r="C91" s="90" t="s">
+        <v>374</v>
+      </c>
+      <c r="D91" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="E91" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" s="76" t="s">
         <v>376</v>
       </c>
-      <c r="D91" s="69" t="s">
+      <c r="G91" s="88" t="s">
+        <v>376</v>
+      </c>
+      <c r="H91" s="71" t="s">
+        <v>376</v>
+      </c>
+      <c r="I91" s="88" t="s">
         <v>377</v>
       </c>
-      <c r="E91" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F91" s="70" t="s">
-        <v>378</v>
-      </c>
-      <c r="G91" s="92" t="s">
-        <v>378</v>
-      </c>
-      <c r="H91" s="72" t="s">
-        <v>378</v>
-      </c>
-      <c r="I91" s="92" t="s">
-        <v>379</v>
-      </c>
-      <c r="J91" s="71"/>
-      <c r="K91" s="71"/>
+      <c r="J91" s="70"/>
+      <c r="K91" s="70"/>
       <c r="L91" s="30"/>
       <c r="M91" s="30"/>
       <c r="N91" s="30"/>
@@ -7358,30 +7381,30 @@
     </row>
     <row r="92" spans="1:26" ht="15" thickBot="1">
       <c r="A92" s="29"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="94" t="s">
-        <v>380</v>
-      </c>
-      <c r="D92" s="69" t="s">
-        <v>377</v>
-      </c>
-      <c r="E92" s="68" t="s">
+      <c r="B92" s="87"/>
+      <c r="C92" s="90" t="s">
+        <v>378</v>
+      </c>
+      <c r="D92" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="E92" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F92" s="70" t="s">
-        <v>381</v>
-      </c>
-      <c r="G92" s="92" t="s">
-        <v>381</v>
-      </c>
-      <c r="H92" s="72" t="s">
-        <v>381</v>
-      </c>
-      <c r="I92" s="92" t="s">
-        <v>381</v>
-      </c>
-      <c r="J92" s="71"/>
-      <c r="K92" s="71"/>
+      <c r="F92" s="76" t="s">
+        <v>379</v>
+      </c>
+      <c r="G92" s="88" t="s">
+        <v>379</v>
+      </c>
+      <c r="H92" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="I92" s="88" t="s">
+        <v>379</v>
+      </c>
+      <c r="J92" s="70"/>
+      <c r="K92" s="70"/>
       <c r="L92" s="30"/>
       <c r="M92" s="30"/>
       <c r="N92" s="30"/>
@@ -7400,30 +7423,30 @@
     </row>
     <row r="93" spans="1:26" ht="15" thickBot="1">
       <c r="A93" s="29"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="94" t="s">
+      <c r="B93" s="87"/>
+      <c r="C93" s="90" t="s">
+        <v>380</v>
+      </c>
+      <c r="D93" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="E93" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" s="107" t="s">
+        <v>381</v>
+      </c>
+      <c r="G93" s="88" t="s">
         <v>382</v>
       </c>
-      <c r="D93" s="69" t="s">
-        <v>377</v>
-      </c>
-      <c r="E93" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F93" s="93" t="s">
+      <c r="H93" s="71" t="s">
         <v>383</v>
       </c>
-      <c r="G93" s="92" t="s">
+      <c r="I93" s="88" t="s">
         <v>384</v>
       </c>
-      <c r="H93" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="I93" s="92" t="s">
-        <v>386</v>
-      </c>
-      <c r="J93" s="71"/>
-      <c r="K93" s="71"/>
+      <c r="J93" s="70"/>
+      <c r="K93" s="70"/>
       <c r="L93" s="30"/>
       <c r="M93" s="30"/>
       <c r="N93" s="30"/>
@@ -7442,30 +7465,30 @@
     </row>
     <row r="94" spans="1:26" ht="15" thickBot="1">
       <c r="A94" s="29"/>
-      <c r="B94" s="91"/>
-      <c r="C94" s="94" t="s">
+      <c r="B94" s="87"/>
+      <c r="C94" s="90" t="s">
+        <v>385</v>
+      </c>
+      <c r="D94" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="E94" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" s="107" t="s">
+        <v>386</v>
+      </c>
+      <c r="G94" s="88" t="s">
         <v>387</v>
       </c>
-      <c r="D94" s="69" t="s">
-        <v>377</v>
-      </c>
-      <c r="E94" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F94" s="93" t="s">
+      <c r="H94" s="71" t="s">
         <v>388</v>
       </c>
-      <c r="G94" s="92" t="s">
+      <c r="I94" s="88" t="s">
         <v>389</v>
       </c>
-      <c r="H94" s="72" t="s">
-        <v>390</v>
-      </c>
-      <c r="I94" s="92" t="s">
-        <v>391</v>
-      </c>
-      <c r="J94" s="71"/>
-      <c r="K94" s="71"/>
+      <c r="J94" s="70"/>
+      <c r="K94" s="70"/>
       <c r="L94" s="30"/>
       <c r="M94" s="30"/>
       <c r="N94" s="30"/>
@@ -7484,30 +7507,30 @@
     </row>
     <row r="95" spans="1:26" ht="15" thickBot="1">
       <c r="A95" s="29"/>
-      <c r="B95" s="91"/>
-      <c r="C95" s="94" t="s">
+      <c r="B95" s="87"/>
+      <c r="C95" s="90" t="s">
+        <v>390</v>
+      </c>
+      <c r="D95" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="E95" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" s="107" t="s">
+        <v>391</v>
+      </c>
+      <c r="G95" s="88" t="s">
         <v>392</v>
       </c>
-      <c r="D95" s="69" t="s">
-        <v>377</v>
-      </c>
-      <c r="E95" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F95" s="93" t="s">
+      <c r="H95" s="71" t="s">
         <v>393</v>
       </c>
-      <c r="G95" s="92" t="s">
+      <c r="I95" s="88" t="s">
         <v>394</v>
       </c>
-      <c r="H95" s="72" t="s">
-        <v>395</v>
-      </c>
-      <c r="I95" s="92" t="s">
-        <v>396</v>
-      </c>
-      <c r="J95" s="71"/>
-      <c r="K95" s="71"/>
+      <c r="J95" s="70"/>
+      <c r="K95" s="70"/>
       <c r="L95" s="30"/>
       <c r="M95" s="30"/>
       <c r="N95" s="30"/>
@@ -7526,30 +7549,30 @@
     </row>
     <row r="96" spans="1:26" ht="15" thickBot="1">
       <c r="A96" s="29"/>
-      <c r="B96" s="95"/>
-      <c r="C96" s="68" t="s">
+      <c r="B96" s="91"/>
+      <c r="C96" s="67" t="s">
+        <v>395</v>
+      </c>
+      <c r="D96" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="E96" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" s="107" t="s">
+        <v>396</v>
+      </c>
+      <c r="G96" s="88" t="s">
         <v>397</v>
       </c>
-      <c r="D96" s="69" t="s">
-        <v>377</v>
-      </c>
-      <c r="E96" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F96" s="93" t="s">
+      <c r="H96" s="71" t="s">
         <v>398</v>
       </c>
-      <c r="G96" s="92" t="s">
+      <c r="I96" s="88" t="s">
         <v>399</v>
       </c>
-      <c r="H96" s="72" t="s">
-        <v>400</v>
-      </c>
-      <c r="I96" s="92" t="s">
-        <v>401</v>
-      </c>
-      <c r="J96" s="71"/>
-      <c r="K96" s="71"/>
+      <c r="J96" s="70"/>
+      <c r="K96" s="70"/>
       <c r="L96" s="30"/>
       <c r="M96" s="30"/>
       <c r="N96" s="30"/>
@@ -7568,30 +7591,30 @@
     </row>
     <row r="97" spans="1:26" ht="15" thickBot="1">
       <c r="A97" s="29"/>
-      <c r="B97" s="95"/>
-      <c r="C97" s="68" t="s">
+      <c r="B97" s="91"/>
+      <c r="C97" s="67" t="s">
+        <v>400</v>
+      </c>
+      <c r="D97" s="68" t="s">
+        <v>401</v>
+      </c>
+      <c r="E97" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97" s="107" t="s">
+        <v>779</v>
+      </c>
+      <c r="G97" s="88" t="s">
         <v>402</v>
       </c>
-      <c r="D97" s="69" t="s">
+      <c r="H97" s="71" t="s">
         <v>403</v>
       </c>
-      <c r="E97" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="F97" s="76" t="s">
-        <v>793</v>
-      </c>
-      <c r="G97" s="92" t="s">
+      <c r="I97" s="88" t="s">
         <v>404</v>
       </c>
-      <c r="H97" s="72" t="s">
-        <v>405</v>
-      </c>
-      <c r="I97" s="92" t="s">
-        <v>406</v>
-      </c>
-      <c r="J97" s="71"/>
-      <c r="K97" s="71"/>
+      <c r="J97" s="70"/>
+      <c r="K97" s="70"/>
       <c r="L97" s="30"/>
       <c r="M97" s="30"/>
       <c r="N97" s="30"/>
@@ -7610,30 +7633,30 @@
     </row>
     <row r="98" spans="1:26" ht="29.25" thickBot="1">
       <c r="A98" s="29"/>
-      <c r="B98" s="95"/>
-      <c r="C98" s="68" t="s">
+      <c r="B98" s="91"/>
+      <c r="C98" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="D98" s="68" t="s">
+        <v>406</v>
+      </c>
+      <c r="E98" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F98" s="107" t="s">
+        <v>780</v>
+      </c>
+      <c r="G98" s="88" t="s">
         <v>407</v>
       </c>
-      <c r="D98" s="69" t="s">
+      <c r="H98" s="71" t="s">
         <v>408</v>
       </c>
-      <c r="E98" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="F98" s="76" t="s">
-        <v>794</v>
-      </c>
-      <c r="G98" s="92" t="s">
+      <c r="I98" s="88" t="s">
         <v>409</v>
       </c>
-      <c r="H98" s="72" t="s">
-        <v>410</v>
-      </c>
-      <c r="I98" s="92" t="s">
-        <v>411</v>
-      </c>
-      <c r="J98" s="71"/>
-      <c r="K98" s="71"/>
+      <c r="J98" s="70"/>
+      <c r="K98" s="70"/>
       <c r="L98" s="30"/>
       <c r="M98" s="30"/>
       <c r="N98" s="30"/>
@@ -7652,26 +7675,26 @@
     </row>
     <row r="99" spans="1:26" ht="15" thickBot="1">
       <c r="A99" s="29"/>
-      <c r="B99" s="95"/>
-      <c r="C99" s="68" t="s">
+      <c r="B99" s="91"/>
+      <c r="C99" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="D99" s="91"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="76" t="s">
+        <v>411</v>
+      </c>
+      <c r="G99" s="88" t="s">
         <v>412</v>
       </c>
-      <c r="D99" s="95"/>
-      <c r="E99" s="95"/>
-      <c r="F99" s="70" t="s">
+      <c r="H99" s="71" t="s">
         <v>413</v>
       </c>
-      <c r="G99" s="92" t="s">
+      <c r="I99" s="88" t="s">
         <v>414</v>
       </c>
-      <c r="H99" s="72" t="s">
-        <v>415</v>
-      </c>
-      <c r="I99" s="92" t="s">
-        <v>416</v>
-      </c>
-      <c r="J99" s="71"/>
-      <c r="K99" s="71"/>
+      <c r="J99" s="70"/>
+      <c r="K99" s="70"/>
       <c r="L99" s="30"/>
       <c r="M99" s="30"/>
       <c r="N99" s="30"/>
@@ -7690,26 +7713,26 @@
     </row>
     <row r="100" spans="1:26" ht="15" thickBot="1">
       <c r="A100" s="29"/>
-      <c r="B100" s="95"/>
-      <c r="C100" s="68" t="s">
+      <c r="B100" s="91"/>
+      <c r="C100" s="67" t="s">
+        <v>415</v>
+      </c>
+      <c r="D100" s="91"/>
+      <c r="E100" s="91"/>
+      <c r="F100" s="76" t="s">
+        <v>416</v>
+      </c>
+      <c r="G100" s="88" t="s">
         <v>417</v>
       </c>
-      <c r="D100" s="95"/>
-      <c r="E100" s="95"/>
-      <c r="F100" s="70" t="s">
+      <c r="H100" s="71" t="s">
         <v>418</v>
       </c>
-      <c r="G100" s="92" t="s">
+      <c r="I100" s="88" t="s">
         <v>419</v>
       </c>
-      <c r="H100" s="72" t="s">
-        <v>420</v>
-      </c>
-      <c r="I100" s="92" t="s">
-        <v>421</v>
-      </c>
-      <c r="J100" s="71"/>
-      <c r="K100" s="71"/>
+      <c r="J100" s="70"/>
+      <c r="K100" s="70"/>
       <c r="L100" s="30"/>
       <c r="M100" s="30"/>
       <c r="N100" s="30"/>
@@ -7728,26 +7751,26 @@
     </row>
     <row r="101" spans="1:26" ht="15" thickBot="1">
       <c r="A101" s="29"/>
-      <c r="B101" s="95"/>
-      <c r="C101" s="96" t="s">
+      <c r="B101" s="91"/>
+      <c r="C101" s="92" t="s">
+        <v>420</v>
+      </c>
+      <c r="D101" s="93"/>
+      <c r="E101" s="91"/>
+      <c r="F101" s="76" t="s">
+        <v>781</v>
+      </c>
+      <c r="G101" s="88" t="s">
+        <v>421</v>
+      </c>
+      <c r="H101" s="71" t="s">
         <v>422</v>
       </c>
-      <c r="D101" s="97"/>
-      <c r="E101" s="95"/>
-      <c r="F101" s="76" t="s">
-        <v>795</v>
-      </c>
-      <c r="G101" s="92" t="s">
+      <c r="I101" s="88" t="s">
         <v>423</v>
       </c>
-      <c r="H101" s="72" t="s">
-        <v>424</v>
-      </c>
-      <c r="I101" s="92" t="s">
-        <v>425</v>
-      </c>
-      <c r="J101" s="71"/>
-      <c r="K101" s="71"/>
+      <c r="J101" s="70"/>
+      <c r="K101" s="70"/>
       <c r="L101" s="30"/>
       <c r="M101" s="30"/>
       <c r="N101" s="30"/>
@@ -7766,26 +7789,26 @@
     </row>
     <row r="102" spans="1:26" ht="15" thickBot="1">
       <c r="A102" s="29"/>
-      <c r="B102" s="95"/>
-      <c r="C102" s="96" t="s">
+      <c r="B102" s="91"/>
+      <c r="C102" s="92" t="s">
+        <v>424</v>
+      </c>
+      <c r="D102" s="93"/>
+      <c r="E102" s="91"/>
+      <c r="F102" s="76" t="s">
+        <v>782</v>
+      </c>
+      <c r="G102" s="88" t="s">
+        <v>425</v>
+      </c>
+      <c r="H102" s="71" t="s">
+        <v>280</v>
+      </c>
+      <c r="I102" s="88" t="s">
         <v>426</v>
       </c>
-      <c r="D102" s="97"/>
-      <c r="E102" s="95"/>
-      <c r="F102" s="76" t="s">
-        <v>796</v>
-      </c>
-      <c r="G102" s="92" t="s">
-        <v>427</v>
-      </c>
-      <c r="H102" s="72" t="s">
-        <v>282</v>
-      </c>
-      <c r="I102" s="92" t="s">
-        <v>428</v>
-      </c>
-      <c r="J102" s="71"/>
-      <c r="K102" s="71"/>
+      <c r="J102" s="70"/>
+      <c r="K102" s="70"/>
       <c r="L102" s="30"/>
       <c r="M102" s="30"/>
       <c r="N102" s="30"/>
@@ -7804,26 +7827,26 @@
     </row>
     <row r="103" spans="1:26" ht="15" thickBot="1">
       <c r="A103" s="29"/>
-      <c r="B103" s="95"/>
-      <c r="C103" s="96" t="s">
+      <c r="B103" s="91"/>
+      <c r="C103" s="92" t="s">
+        <v>427</v>
+      </c>
+      <c r="D103" s="93"/>
+      <c r="E103" s="91"/>
+      <c r="F103" s="76" t="s">
+        <v>428</v>
+      </c>
+      <c r="G103" s="88" t="s">
         <v>429</v>
       </c>
-      <c r="D103" s="97"/>
-      <c r="E103" s="95"/>
-      <c r="F103" s="70" t="s">
+      <c r="H103" s="71" t="s">
         <v>430</v>
       </c>
-      <c r="G103" s="92" t="s">
+      <c r="I103" s="88" t="s">
         <v>431</v>
       </c>
-      <c r="H103" s="72" t="s">
-        <v>432</v>
-      </c>
-      <c r="I103" s="92" t="s">
-        <v>433</v>
-      </c>
-      <c r="J103" s="71"/>
-      <c r="K103" s="71"/>
+      <c r="J103" s="70"/>
+      <c r="K103" s="70"/>
       <c r="L103" s="30"/>
       <c r="M103" s="30"/>
       <c r="N103" s="30"/>
@@ -7842,26 +7865,26 @@
     </row>
     <row r="104" spans="1:26" ht="15" thickBot="1">
       <c r="A104" s="29"/>
-      <c r="B104" s="95"/>
-      <c r="C104" s="96" t="s">
+      <c r="B104" s="91"/>
+      <c r="C104" s="92" t="s">
+        <v>432</v>
+      </c>
+      <c r="D104" s="93"/>
+      <c r="E104" s="91"/>
+      <c r="F104" s="76" t="s">
+        <v>433</v>
+      </c>
+      <c r="G104" s="88" t="s">
         <v>434</v>
       </c>
-      <c r="D104" s="97"/>
-      <c r="E104" s="95"/>
-      <c r="F104" s="70" t="s">
+      <c r="H104" s="71" t="s">
         <v>435</v>
       </c>
-      <c r="G104" s="92" t="s">
+      <c r="I104" s="88" t="s">
         <v>436</v>
       </c>
-      <c r="H104" s="72" t="s">
-        <v>437</v>
-      </c>
-      <c r="I104" s="92" t="s">
-        <v>438</v>
-      </c>
-      <c r="J104" s="71"/>
-      <c r="K104" s="71"/>
+      <c r="J104" s="70"/>
+      <c r="K104" s="70"/>
       <c r="L104" s="30"/>
       <c r="M104" s="30"/>
       <c r="N104" s="30"/>
@@ -7880,31 +7903,31 @@
     </row>
     <row r="105" spans="1:26" ht="43.5" thickBot="1">
       <c r="A105" s="29"/>
-      <c r="B105" s="95"/>
-      <c r="C105" s="96" t="s">
+      <c r="B105" s="91"/>
+      <c r="C105" s="92" t="s">
+        <v>437</v>
+      </c>
+      <c r="D105" s="93"/>
+      <c r="E105" s="91"/>
+      <c r="F105" s="107" t="s">
+        <v>783</v>
+      </c>
+      <c r="G105" s="88" t="s">
+        <v>438</v>
+      </c>
+      <c r="H105" s="71" t="s">
         <v>439</v>
       </c>
-      <c r="D105" s="97"/>
-      <c r="E105" s="95"/>
-      <c r="F105" s="70" t="s">
-        <v>797</v>
-      </c>
-      <c r="G105" s="92" t="s">
+      <c r="I105" s="88" t="s">
         <v>440</v>
       </c>
-      <c r="H105" s="72" t="s">
-        <v>441</v>
-      </c>
-      <c r="I105" s="92" t="s">
-        <v>442</v>
-      </c>
-      <c r="J105" s="71"/>
-      <c r="K105" s="71"/>
+      <c r="J105" s="70"/>
+      <c r="K105" s="70"/>
       <c r="L105" s="30"/>
       <c r="M105" s="30"/>
       <c r="N105" s="30"/>
       <c r="O105" s="34" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P105" s="30"/>
       <c r="Q105" s="30"/>
@@ -7918,28 +7941,28 @@
       <c r="Y105" s="30"/>
       <c r="Z105" s="30"/>
     </row>
-    <row r="106" spans="1:26" ht="15" thickBot="1">
+    <row r="106" spans="1:26" thickBot="1">
       <c r="A106" s="29"/>
-      <c r="B106" s="95"/>
-      <c r="C106" s="96" t="s">
+      <c r="B106" s="91"/>
+      <c r="C106" s="92" t="s">
+        <v>442</v>
+      </c>
+      <c r="D106" s="93"/>
+      <c r="E106" s="91"/>
+      <c r="F106" s="109" t="s">
+        <v>808</v>
+      </c>
+      <c r="G106" s="88" t="s">
+        <v>443</v>
+      </c>
+      <c r="H106" s="71" t="s">
         <v>444</v>
       </c>
-      <c r="D106" s="97"/>
-      <c r="E106" s="95"/>
-      <c r="F106" s="76" t="s">
-        <v>798</v>
-      </c>
-      <c r="G106" s="92" t="s">
+      <c r="I106" s="88" t="s">
         <v>445</v>
       </c>
-      <c r="H106" s="72" t="s">
-        <v>446</v>
-      </c>
-      <c r="I106" s="92" t="s">
-        <v>447</v>
-      </c>
-      <c r="J106" s="71"/>
-      <c r="K106" s="71"/>
+      <c r="J106" s="70"/>
+      <c r="K106" s="70"/>
       <c r="L106" s="30"/>
       <c r="M106" s="30"/>
       <c r="N106" s="30"/>
@@ -7958,26 +7981,26 @@
     </row>
     <row r="107" spans="1:26" ht="15" thickBot="1">
       <c r="A107" s="29"/>
-      <c r="B107" s="95"/>
-      <c r="C107" s="96" t="s">
+      <c r="B107" s="91"/>
+      <c r="C107" s="92" t="s">
+        <v>446</v>
+      </c>
+      <c r="D107" s="93"/>
+      <c r="E107" s="91"/>
+      <c r="F107" s="107" t="s">
+        <v>784</v>
+      </c>
+      <c r="G107" s="88" t="s">
+        <v>447</v>
+      </c>
+      <c r="H107" s="71" t="s">
         <v>448</v>
       </c>
-      <c r="D107" s="97"/>
-      <c r="E107" s="95"/>
-      <c r="F107" s="76" t="s">
-        <v>799</v>
-      </c>
-      <c r="G107" s="92" t="s">
+      <c r="I107" s="88" t="s">
         <v>449</v>
       </c>
-      <c r="H107" s="72" t="s">
-        <v>450</v>
-      </c>
-      <c r="I107" s="92" t="s">
-        <v>451</v>
-      </c>
-      <c r="J107" s="71"/>
-      <c r="K107" s="71"/>
+      <c r="J107" s="70"/>
+      <c r="K107" s="70"/>
       <c r="L107" s="30"/>
       <c r="M107" s="30"/>
       <c r="N107" s="30"/>
@@ -7996,26 +8019,26 @@
     </row>
     <row r="108" spans="1:26" ht="15" thickBot="1">
       <c r="A108" s="29"/>
-      <c r="B108" s="95"/>
-      <c r="C108" s="96" t="s">
+      <c r="B108" s="91"/>
+      <c r="C108" s="92" t="s">
+        <v>450</v>
+      </c>
+      <c r="D108" s="93"/>
+      <c r="E108" s="91"/>
+      <c r="F108" s="76" t="s">
+        <v>785</v>
+      </c>
+      <c r="G108" s="88" t="s">
+        <v>451</v>
+      </c>
+      <c r="H108" s="71" t="s">
         <v>452</v>
       </c>
-      <c r="D108" s="97"/>
-      <c r="E108" s="95"/>
-      <c r="F108" s="76" t="s">
-        <v>800</v>
-      </c>
-      <c r="G108" s="92" t="s">
+      <c r="I108" s="88" t="s">
         <v>453</v>
       </c>
-      <c r="H108" s="72" t="s">
-        <v>454</v>
-      </c>
-      <c r="I108" s="92" t="s">
-        <v>455</v>
-      </c>
-      <c r="J108" s="71"/>
-      <c r="K108" s="71"/>
+      <c r="J108" s="70"/>
+      <c r="K108" s="70"/>
       <c r="L108" s="30"/>
       <c r="M108" s="30"/>
       <c r="N108" s="30"/>
@@ -8034,26 +8057,26 @@
     </row>
     <row r="109" spans="1:26" ht="15" thickBot="1">
       <c r="A109" s="29"/>
-      <c r="B109" s="95"/>
-      <c r="C109" s="96" t="s">
+      <c r="B109" s="91"/>
+      <c r="C109" s="92" t="s">
+        <v>454</v>
+      </c>
+      <c r="D109" s="93"/>
+      <c r="E109" s="91"/>
+      <c r="F109" s="76" t="s">
+        <v>455</v>
+      </c>
+      <c r="G109" s="88" t="s">
         <v>456</v>
       </c>
-      <c r="D109" s="97"/>
-      <c r="E109" s="95"/>
-      <c r="F109" s="70" t="s">
+      <c r="H109" s="71" t="s">
         <v>457</v>
       </c>
-      <c r="G109" s="92" t="s">
+      <c r="I109" s="88" t="s">
         <v>458</v>
       </c>
-      <c r="H109" s="72" t="s">
-        <v>459</v>
-      </c>
-      <c r="I109" s="92" t="s">
-        <v>460</v>
-      </c>
-      <c r="J109" s="71"/>
-      <c r="K109" s="71"/>
+      <c r="J109" s="70"/>
+      <c r="K109" s="70"/>
       <c r="L109" s="30"/>
       <c r="M109" s="30"/>
       <c r="N109" s="30"/>
@@ -8072,33 +8095,33 @@
     </row>
     <row r="110" spans="1:26" ht="15" thickBot="1">
       <c r="A110" s="29"/>
-      <c r="B110" s="95"/>
-      <c r="C110" s="96" t="s">
+      <c r="B110" s="91"/>
+      <c r="C110" s="92" t="s">
+        <v>459</v>
+      </c>
+      <c r="D110" s="91" t="s">
+        <v>460</v>
+      </c>
+      <c r="E110" s="91"/>
+      <c r="F110" s="76" t="s">
         <v>461</v>
       </c>
-      <c r="D110" s="95" t="s">
+      <c r="G110" s="70" t="s">
         <v>462</v>
       </c>
-      <c r="E110" s="95"/>
-      <c r="F110" s="70" t="s">
+      <c r="H110" s="70" t="s">
         <v>463</v>
       </c>
-      <c r="G110" s="71" t="s">
+      <c r="I110" s="88" t="s">
         <v>464</v>
       </c>
-      <c r="H110" s="71" t="s">
-        <v>465</v>
-      </c>
-      <c r="I110" s="92" t="s">
-        <v>466</v>
-      </c>
-      <c r="J110" s="71"/>
-      <c r="K110" s="71"/>
+      <c r="J110" s="70"/>
+      <c r="K110" s="70"/>
       <c r="L110" s="30"/>
       <c r="M110" s="30"/>
       <c r="N110" s="30"/>
       <c r="O110" s="36" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P110" s="30"/>
       <c r="Q110" s="30"/>
@@ -8114,26 +8137,26 @@
     </row>
     <row r="111" spans="1:26" ht="15" thickBot="1">
       <c r="A111" s="29"/>
-      <c r="B111" s="95"/>
-      <c r="C111" s="96" t="s">
+      <c r="B111" s="91"/>
+      <c r="C111" s="92" t="s">
+        <v>466</v>
+      </c>
+      <c r="D111" s="91" t="s">
+        <v>460</v>
+      </c>
+      <c r="E111" s="91"/>
+      <c r="F111" s="76" t="s">
+        <v>467</v>
+      </c>
+      <c r="G111" s="70" t="s">
         <v>468</v>
       </c>
-      <c r="D111" s="95" t="s">
-        <v>462</v>
-      </c>
-      <c r="E111" s="95"/>
-      <c r="F111" s="70" t="s">
+      <c r="H111" s="70" t="s">
         <v>469</v>
       </c>
-      <c r="G111" s="71" t="s">
-        <v>470</v>
-      </c>
-      <c r="H111" s="71" t="s">
-        <v>471</v>
-      </c>
-      <c r="I111" s="98"/>
-      <c r="J111" s="71"/>
-      <c r="K111" s="71"/>
+      <c r="I111" s="94"/>
+      <c r="J111" s="70"/>
+      <c r="K111" s="70"/>
       <c r="L111" s="30"/>
       <c r="M111" s="30"/>
       <c r="N111" s="30"/>
@@ -8152,24 +8175,24 @@
     </row>
     <row r="112" spans="1:26" thickBot="1">
       <c r="A112" s="29"/>
-      <c r="B112" s="95"/>
-      <c r="C112" s="96"/>
-      <c r="D112" s="99" t="s">
+      <c r="B112" s="91"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="95" t="s">
+        <v>470</v>
+      </c>
+      <c r="E112" s="91"/>
+      <c r="F112" s="110" t="s">
+        <v>471</v>
+      </c>
+      <c r="G112" s="70" t="s">
         <v>472</v>
       </c>
-      <c r="E112" s="95"/>
-      <c r="F112" s="100" t="s">
+      <c r="H112" s="70" t="s">
         <v>473</v>
       </c>
-      <c r="G112" s="71" t="s">
-        <v>474</v>
-      </c>
-      <c r="H112" s="71" t="s">
-        <v>475</v>
-      </c>
-      <c r="I112" s="98"/>
-      <c r="J112" s="71"/>
-      <c r="K112" s="71"/>
+      <c r="I112" s="94"/>
+      <c r="J112" s="70"/>
+      <c r="K112" s="70"/>
       <c r="L112" s="30"/>
       <c r="M112" s="30"/>
       <c r="N112" s="30"/>
@@ -8188,24 +8211,24 @@
     </row>
     <row r="113" spans="1:26" ht="15" thickBot="1">
       <c r="A113" s="29"/>
-      <c r="B113" s="95"/>
-      <c r="C113" s="95"/>
-      <c r="D113" s="99" t="s">
+      <c r="B113" s="91"/>
+      <c r="C113" s="91"/>
+      <c r="D113" s="95" t="s">
+        <v>474</v>
+      </c>
+      <c r="E113" s="91"/>
+      <c r="F113" s="76" t="s">
+        <v>475</v>
+      </c>
+      <c r="G113" s="70" t="s">
         <v>476</v>
       </c>
-      <c r="E113" s="95"/>
-      <c r="F113" s="70" t="s">
+      <c r="H113" s="70" t="s">
         <v>477</v>
       </c>
-      <c r="G113" s="71" t="s">
-        <v>478</v>
-      </c>
-      <c r="H113" s="71" t="s">
-        <v>479</v>
-      </c>
-      <c r="I113" s="98"/>
-      <c r="J113" s="71"/>
-      <c r="K113" s="71"/>
+      <c r="I113" s="94"/>
+      <c r="J113" s="70"/>
+      <c r="K113" s="70"/>
       <c r="L113" s="30"/>
       <c r="M113" s="30"/>
       <c r="N113" s="30"/>
@@ -8224,24 +8247,24 @@
     </row>
     <row r="114" spans="1:26" ht="15" thickBot="1">
       <c r="A114" s="29"/>
-      <c r="B114" s="95"/>
-      <c r="C114" s="95"/>
-      <c r="D114" s="95" t="s">
-        <v>462</v>
-      </c>
-      <c r="E114" s="95"/>
-      <c r="F114" s="70" t="s">
+      <c r="B114" s="91"/>
+      <c r="C114" s="91"/>
+      <c r="D114" s="91" t="s">
+        <v>460</v>
+      </c>
+      <c r="E114" s="91"/>
+      <c r="F114" s="76" t="s">
+        <v>478</v>
+      </c>
+      <c r="G114" s="70" t="s">
+        <v>479</v>
+      </c>
+      <c r="H114" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="G114" s="71" t="s">
-        <v>481</v>
-      </c>
-      <c r="H114" s="71" t="s">
-        <v>482</v>
-      </c>
-      <c r="I114" s="98"/>
-      <c r="J114" s="71"/>
-      <c r="K114" s="71"/>
+      <c r="I114" s="94"/>
+      <c r="J114" s="70"/>
+      <c r="K114" s="70"/>
       <c r="L114" s="30"/>
       <c r="M114" s="30"/>
       <c r="N114" s="30"/>
@@ -8260,24 +8283,24 @@
     </row>
     <row r="115" spans="1:26" ht="15" thickBot="1">
       <c r="A115" s="29"/>
-      <c r="B115" s="95"/>
-      <c r="C115" s="95"/>
-      <c r="D115" s="95" t="s">
-        <v>462</v>
-      </c>
-      <c r="E115" s="95"/>
-      <c r="F115" s="70" t="s">
-        <v>801</v>
-      </c>
-      <c r="G115" s="71" t="s">
-        <v>483</v>
-      </c>
-      <c r="H115" s="71" t="s">
-        <v>484</v>
-      </c>
-      <c r="I115" s="98"/>
-      <c r="J115" s="71"/>
-      <c r="K115" s="71"/>
+      <c r="B115" s="91"/>
+      <c r="C115" s="91"/>
+      <c r="D115" s="91" t="s">
+        <v>460</v>
+      </c>
+      <c r="E115" s="91"/>
+      <c r="F115" s="76" t="s">
+        <v>786</v>
+      </c>
+      <c r="G115" s="70" t="s">
+        <v>481</v>
+      </c>
+      <c r="H115" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="I115" s="94"/>
+      <c r="J115" s="70"/>
+      <c r="K115" s="70"/>
       <c r="L115" s="30"/>
       <c r="M115" s="30"/>
       <c r="N115" s="30"/>
@@ -8296,24 +8319,24 @@
     </row>
     <row r="116" spans="1:26" ht="29.25" thickBot="1">
       <c r="A116" s="29"/>
-      <c r="B116" s="95"/>
-      <c r="C116" s="95"/>
-      <c r="D116" s="95" t="s">
-        <v>462</v>
-      </c>
-      <c r="E116" s="95"/>
-      <c r="F116" s="70" t="s">
-        <v>802</v>
-      </c>
-      <c r="G116" s="71" t="s">
-        <v>485</v>
-      </c>
-      <c r="H116" s="101" t="s">
-        <v>486</v>
-      </c>
-      <c r="I116" s="98"/>
-      <c r="J116" s="71"/>
-      <c r="K116" s="71"/>
+      <c r="B116" s="91"/>
+      <c r="C116" s="91"/>
+      <c r="D116" s="91" t="s">
+        <v>460</v>
+      </c>
+      <c r="E116" s="91"/>
+      <c r="F116" s="76" t="s">
+        <v>787</v>
+      </c>
+      <c r="G116" s="70" t="s">
+        <v>483</v>
+      </c>
+      <c r="H116" s="96" t="s">
+        <v>484</v>
+      </c>
+      <c r="I116" s="94"/>
+      <c r="J116" s="70"/>
+      <c r="K116" s="70"/>
       <c r="L116" s="30"/>
       <c r="M116" s="30"/>
       <c r="N116" s="30"/>
@@ -8332,24 +8355,24 @@
     </row>
     <row r="117" spans="1:26" ht="15" thickBot="1">
       <c r="A117" s="29"/>
-      <c r="B117" s="95"/>
-      <c r="C117" s="95"/>
-      <c r="D117" s="95" t="s">
-        <v>462</v>
-      </c>
-      <c r="E117" s="95"/>
-      <c r="F117" s="70" t="s">
+      <c r="B117" s="91"/>
+      <c r="C117" s="91"/>
+      <c r="D117" s="91" t="s">
+        <v>460</v>
+      </c>
+      <c r="E117" s="91"/>
+      <c r="F117" s="76" t="s">
+        <v>485</v>
+      </c>
+      <c r="G117" s="70" t="s">
+        <v>486</v>
+      </c>
+      <c r="H117" s="70" t="s">
         <v>487</v>
       </c>
-      <c r="G117" s="71" t="s">
-        <v>488</v>
-      </c>
-      <c r="H117" s="71" t="s">
-        <v>489</v>
-      </c>
-      <c r="I117" s="98"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
+      <c r="I117" s="94"/>
+      <c r="J117" s="70"/>
+      <c r="K117" s="70"/>
       <c r="L117" s="30"/>
       <c r="M117" s="30"/>
       <c r="N117" s="30"/>
@@ -8368,26 +8391,26 @@
     </row>
     <row r="118" spans="1:26" ht="15" thickBot="1">
       <c r="A118" s="29"/>
-      <c r="B118" s="95"/>
-      <c r="C118" s="96" t="s">
+      <c r="B118" s="91"/>
+      <c r="C118" s="92" t="s">
+        <v>488</v>
+      </c>
+      <c r="D118" s="91" t="s">
+        <v>489</v>
+      </c>
+      <c r="E118" s="91"/>
+      <c r="F118" s="76" t="s">
         <v>490</v>
       </c>
-      <c r="D118" s="95" t="s">
+      <c r="G118" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="E118" s="95"/>
-      <c r="F118" s="70" t="s">
+      <c r="H118" s="70" t="s">
         <v>492</v>
       </c>
-      <c r="G118" s="71" t="s">
-        <v>493</v>
-      </c>
-      <c r="H118" s="71" t="s">
-        <v>494</v>
-      </c>
-      <c r="I118" s="98"/>
-      <c r="J118" s="71"/>
-      <c r="K118" s="71"/>
+      <c r="I118" s="94"/>
+      <c r="J118" s="70"/>
+      <c r="K118" s="70"/>
       <c r="L118" s="30"/>
       <c r="M118" s="30"/>
       <c r="N118" s="30"/>
@@ -8406,26 +8429,26 @@
     </row>
     <row r="119" spans="1:26" ht="15" thickBot="1">
       <c r="A119" s="29"/>
-      <c r="B119" s="95"/>
-      <c r="C119" s="96" t="s">
+      <c r="B119" s="91"/>
+      <c r="C119" s="92" t="s">
+        <v>493</v>
+      </c>
+      <c r="D119" s="93"/>
+      <c r="E119" s="91"/>
+      <c r="F119" s="107" t="s">
+        <v>494</v>
+      </c>
+      <c r="G119" s="97" t="s">
         <v>495</v>
       </c>
-      <c r="D119" s="97"/>
-      <c r="E119" s="95"/>
-      <c r="F119" s="93" t="s">
-        <v>496</v>
-      </c>
-      <c r="G119" s="102" t="s">
-        <v>497</v>
-      </c>
-      <c r="H119" s="102" t="s">
-        <v>497</v>
-      </c>
-      <c r="I119" s="102" t="s">
-        <v>497</v>
-      </c>
-      <c r="J119" s="71"/>
-      <c r="K119" s="71"/>
+      <c r="H119" s="97" t="s">
+        <v>495</v>
+      </c>
+      <c r="I119" s="97" t="s">
+        <v>495</v>
+      </c>
+      <c r="J119" s="70"/>
+      <c r="K119" s="70"/>
       <c r="L119" s="30"/>
       <c r="M119" s="30"/>
       <c r="N119" s="30"/>
@@ -8444,26 +8467,26 @@
     </row>
     <row r="120" spans="1:26" ht="15" thickBot="1">
       <c r="A120" s="29"/>
-      <c r="B120" s="95"/>
-      <c r="C120" s="96" t="s">
+      <c r="B120" s="91"/>
+      <c r="C120" s="92" t="s">
+        <v>496</v>
+      </c>
+      <c r="D120" s="93"/>
+      <c r="E120" s="91"/>
+      <c r="F120" s="107" t="s">
+        <v>497</v>
+      </c>
+      <c r="G120" s="97" t="s">
         <v>498</v>
       </c>
-      <c r="D120" s="97"/>
-      <c r="E120" s="95"/>
-      <c r="F120" s="93" t="s">
-        <v>499</v>
-      </c>
-      <c r="G120" s="102" t="s">
-        <v>500</v>
-      </c>
-      <c r="H120" s="102" t="s">
-        <v>500</v>
-      </c>
-      <c r="I120" s="102" t="s">
-        <v>500</v>
-      </c>
-      <c r="J120" s="71"/>
-      <c r="K120" s="71"/>
+      <c r="H120" s="97" t="s">
+        <v>498</v>
+      </c>
+      <c r="I120" s="97" t="s">
+        <v>498</v>
+      </c>
+      <c r="J120" s="70"/>
+      <c r="K120" s="70"/>
       <c r="L120" s="30"/>
       <c r="M120" s="30"/>
       <c r="N120" s="30"/>
@@ -8482,26 +8505,26 @@
     </row>
     <row r="121" spans="1:26" ht="15" thickBot="1">
       <c r="A121" s="29"/>
-      <c r="B121" s="95"/>
-      <c r="C121" s="96" t="s">
+      <c r="B121" s="91"/>
+      <c r="C121" s="92" t="s">
+        <v>499</v>
+      </c>
+      <c r="D121" s="93"/>
+      <c r="E121" s="91"/>
+      <c r="F121" s="107" t="s">
+        <v>500</v>
+      </c>
+      <c r="G121" s="97" t="s">
         <v>501</v>
       </c>
-      <c r="D121" s="97"/>
-      <c r="E121" s="95"/>
-      <c r="F121" s="93" t="s">
+      <c r="H121" s="97" t="s">
         <v>502</v>
       </c>
-      <c r="G121" s="102" t="s">
+      <c r="I121" s="97" t="s">
         <v>503</v>
       </c>
-      <c r="H121" s="102" t="s">
-        <v>504</v>
-      </c>
-      <c r="I121" s="102" t="s">
-        <v>505</v>
-      </c>
-      <c r="J121" s="71"/>
-      <c r="K121" s="71"/>
+      <c r="J121" s="70"/>
+      <c r="K121" s="70"/>
       <c r="L121" s="30"/>
       <c r="M121" s="30"/>
       <c r="N121" s="30"/>
@@ -8520,26 +8543,26 @@
     </row>
     <row r="122" spans="1:26" ht="15" thickBot="1">
       <c r="A122" s="29"/>
-      <c r="B122" s="95"/>
-      <c r="C122" s="96" t="s">
+      <c r="B122" s="91"/>
+      <c r="C122" s="92" t="s">
+        <v>504</v>
+      </c>
+      <c r="D122" s="93"/>
+      <c r="E122" s="91"/>
+      <c r="F122" s="107" t="s">
+        <v>505</v>
+      </c>
+      <c r="G122" s="97" t="s">
         <v>506</v>
       </c>
-      <c r="D122" s="97"/>
-      <c r="E122" s="95"/>
-      <c r="F122" s="93" t="s">
+      <c r="H122" s="97" t="s">
         <v>507</v>
       </c>
-      <c r="G122" s="102" t="s">
+      <c r="I122" s="97" t="s">
         <v>508</v>
       </c>
-      <c r="H122" s="102" t="s">
-        <v>509</v>
-      </c>
-      <c r="I122" s="102" t="s">
-        <v>510</v>
-      </c>
-      <c r="J122" s="71"/>
-      <c r="K122" s="71"/>
+      <c r="J122" s="70"/>
+      <c r="K122" s="70"/>
       <c r="L122" s="30"/>
       <c r="M122" s="30"/>
       <c r="N122" s="30"/>
@@ -8558,20 +8581,20 @@
     </row>
     <row r="123" spans="1:26" ht="15" thickBot="1">
       <c r="A123" s="29"/>
-      <c r="B123" s="95"/>
-      <c r="C123" s="96" t="s">
-        <v>511</v>
-      </c>
-      <c r="D123" s="97"/>
-      <c r="E123" s="95"/>
-      <c r="F123" s="78" t="s">
-        <v>803</v>
-      </c>
-      <c r="G123" s="103"/>
-      <c r="H123" s="103"/>
-      <c r="I123" s="103"/>
-      <c r="J123" s="71"/>
-      <c r="K123" s="71"/>
+      <c r="B123" s="91"/>
+      <c r="C123" s="92" t="s">
+        <v>509</v>
+      </c>
+      <c r="D123" s="93"/>
+      <c r="E123" s="91"/>
+      <c r="F123" s="107" t="s">
+        <v>788</v>
+      </c>
+      <c r="G123" s="98"/>
+      <c r="H123" s="98"/>
+      <c r="I123" s="98"/>
+      <c r="J123" s="70"/>
+      <c r="K123" s="70"/>
       <c r="L123" s="30"/>
       <c r="M123" s="30"/>
       <c r="N123" s="30"/>
@@ -8590,20 +8613,20 @@
     </row>
     <row r="124" spans="1:26" ht="15" thickBot="1">
       <c r="A124" s="29"/>
-      <c r="B124" s="95"/>
-      <c r="C124" s="96" t="s">
-        <v>512</v>
-      </c>
-      <c r="D124" s="97"/>
-      <c r="E124" s="95"/>
-      <c r="F124" s="70" t="s">
-        <v>513</v>
-      </c>
-      <c r="G124" s="103"/>
-      <c r="H124" s="103"/>
-      <c r="I124" s="103"/>
-      <c r="J124" s="71"/>
-      <c r="K124" s="71"/>
+      <c r="B124" s="91"/>
+      <c r="C124" s="92" t="s">
+        <v>510</v>
+      </c>
+      <c r="D124" s="93"/>
+      <c r="E124" s="91"/>
+      <c r="F124" s="76" t="s">
+        <v>511</v>
+      </c>
+      <c r="G124" s="98"/>
+      <c r="H124" s="98"/>
+      <c r="I124" s="98"/>
+      <c r="J124" s="70"/>
+      <c r="K124" s="70"/>
       <c r="L124" s="30"/>
       <c r="M124" s="30"/>
       <c r="N124" s="30"/>
@@ -8622,20 +8645,20 @@
     </row>
     <row r="125" spans="1:26" ht="15" thickBot="1">
       <c r="A125" s="29"/>
-      <c r="B125" s="95"/>
-      <c r="C125" s="96" t="s">
-        <v>514</v>
-      </c>
-      <c r="D125" s="97"/>
-      <c r="E125" s="95"/>
-      <c r="F125" s="70" t="s">
-        <v>515</v>
-      </c>
-      <c r="G125" s="103"/>
-      <c r="H125" s="103"/>
-      <c r="I125" s="103"/>
-      <c r="J125" s="71"/>
-      <c r="K125" s="71"/>
+      <c r="B125" s="91"/>
+      <c r="C125" s="92" t="s">
+        <v>512</v>
+      </c>
+      <c r="D125" s="93"/>
+      <c r="E125" s="91"/>
+      <c r="F125" s="76" t="s">
+        <v>513</v>
+      </c>
+      <c r="G125" s="98"/>
+      <c r="H125" s="98"/>
+      <c r="I125" s="98"/>
+      <c r="J125" s="70"/>
+      <c r="K125" s="70"/>
       <c r="L125" s="30"/>
       <c r="M125" s="30"/>
       <c r="N125" s="30"/>
@@ -8654,20 +8677,20 @@
     </row>
     <row r="126" spans="1:26" ht="15" thickBot="1">
       <c r="A126" s="29"/>
-      <c r="B126" s="95"/>
-      <c r="C126" s="96" t="s">
-        <v>516</v>
-      </c>
-      <c r="D126" s="97"/>
-      <c r="E126" s="95"/>
-      <c r="F126" s="70" t="s">
-        <v>517</v>
-      </c>
-      <c r="G126" s="103"/>
-      <c r="H126" s="103"/>
-      <c r="I126" s="103"/>
-      <c r="J126" s="71"/>
-      <c r="K126" s="71"/>
+      <c r="B126" s="91"/>
+      <c r="C126" s="92" t="s">
+        <v>514</v>
+      </c>
+      <c r="D126" s="93"/>
+      <c r="E126" s="91"/>
+      <c r="F126" s="111" t="s">
+        <v>515</v>
+      </c>
+      <c r="G126" s="98"/>
+      <c r="H126" s="98"/>
+      <c r="I126" s="98"/>
+      <c r="J126" s="70"/>
+      <c r="K126" s="70"/>
       <c r="L126" s="30"/>
       <c r="M126" s="30"/>
       <c r="N126" s="30"/>
@@ -8686,22 +8709,22 @@
     </row>
     <row r="127" spans="1:26" ht="15" thickBot="1">
       <c r="A127" s="29"/>
-      <c r="B127" s="95"/>
-      <c r="C127" s="96" t="s">
+      <c r="B127" s="91"/>
+      <c r="C127" s="92" t="s">
+        <v>516</v>
+      </c>
+      <c r="D127" s="93"/>
+      <c r="E127" s="91"/>
+      <c r="F127" s="76" t="s">
+        <v>517</v>
+      </c>
+      <c r="G127" s="70" t="s">
         <v>518</v>
       </c>
-      <c r="D127" s="97"/>
-      <c r="E127" s="95"/>
-      <c r="F127" s="70" t="s">
-        <v>519</v>
-      </c>
-      <c r="G127" s="71" t="s">
-        <v>520</v>
-      </c>
-      <c r="H127" s="103"/>
-      <c r="I127" s="103"/>
-      <c r="J127" s="71"/>
-      <c r="K127" s="71"/>
+      <c r="H127" s="98"/>
+      <c r="I127" s="98"/>
+      <c r="J127" s="70"/>
+      <c r="K127" s="70"/>
       <c r="L127" s="30"/>
       <c r="M127" s="30"/>
       <c r="N127" s="30"/>
@@ -8720,22 +8743,22 @@
     </row>
     <row r="128" spans="1:26" ht="15" thickBot="1">
       <c r="A128" s="29"/>
-      <c r="B128" s="95"/>
-      <c r="C128" s="96" t="s">
+      <c r="B128" s="91"/>
+      <c r="C128" s="92" t="s">
+        <v>519</v>
+      </c>
+      <c r="D128" s="93"/>
+      <c r="E128" s="91"/>
+      <c r="F128" s="76" t="s">
+        <v>520</v>
+      </c>
+      <c r="G128" s="70" t="s">
         <v>521</v>
       </c>
-      <c r="D128" s="97"/>
-      <c r="E128" s="95"/>
-      <c r="F128" s="70" t="s">
-        <v>522</v>
-      </c>
-      <c r="G128" s="71" t="s">
-        <v>523</v>
-      </c>
-      <c r="H128" s="103"/>
-      <c r="I128" s="103"/>
-      <c r="J128" s="71"/>
-      <c r="K128" s="71"/>
+      <c r="H128" s="98"/>
+      <c r="I128" s="98"/>
+      <c r="J128" s="70"/>
+      <c r="K128" s="70"/>
       <c r="L128" s="30"/>
       <c r="M128" s="30"/>
       <c r="N128" s="30"/>
@@ -8754,22 +8777,22 @@
     </row>
     <row r="129" spans="1:26" ht="15" thickBot="1">
       <c r="A129" s="29"/>
-      <c r="B129" s="95"/>
-      <c r="C129" s="96" t="s">
+      <c r="B129" s="91"/>
+      <c r="C129" s="92" t="s">
+        <v>522</v>
+      </c>
+      <c r="D129" s="93"/>
+      <c r="E129" s="91"/>
+      <c r="F129" s="76" t="s">
+        <v>523</v>
+      </c>
+      <c r="G129" s="70" t="s">
         <v>524</v>
       </c>
-      <c r="D129" s="97"/>
-      <c r="E129" s="95"/>
-      <c r="F129" s="70" t="s">
-        <v>525</v>
-      </c>
-      <c r="G129" s="71" t="s">
-        <v>526</v>
-      </c>
-      <c r="H129" s="103"/>
-      <c r="I129" s="103"/>
-      <c r="J129" s="71"/>
-      <c r="K129" s="71"/>
+      <c r="H129" s="98"/>
+      <c r="I129" s="98"/>
+      <c r="J129" s="70"/>
+      <c r="K129" s="70"/>
       <c r="L129" s="30"/>
       <c r="M129" s="30"/>
       <c r="N129" s="30"/>
@@ -8788,22 +8811,22 @@
     </row>
     <row r="130" spans="1:26" ht="15" thickBot="1">
       <c r="A130" s="29"/>
-      <c r="B130" s="95"/>
-      <c r="C130" s="96" t="s">
+      <c r="B130" s="91"/>
+      <c r="C130" s="92" t="s">
+        <v>525</v>
+      </c>
+      <c r="D130" s="93"/>
+      <c r="E130" s="91"/>
+      <c r="F130" s="76" t="s">
+        <v>526</v>
+      </c>
+      <c r="G130" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="D130" s="97"/>
-      <c r="E130" s="95"/>
-      <c r="F130" s="70" t="s">
-        <v>528</v>
-      </c>
-      <c r="G130" s="71" t="s">
-        <v>529</v>
-      </c>
-      <c r="H130" s="103"/>
-      <c r="I130" s="103"/>
-      <c r="J130" s="71"/>
-      <c r="K130" s="71"/>
+      <c r="H130" s="98"/>
+      <c r="I130" s="98"/>
+      <c r="J130" s="70"/>
+      <c r="K130" s="70"/>
       <c r="L130" s="30"/>
       <c r="M130" s="30"/>
       <c r="N130" s="30"/>
@@ -8822,22 +8845,22 @@
     </row>
     <row r="131" spans="1:26" ht="15" thickBot="1">
       <c r="A131" s="29"/>
-      <c r="B131" s="95"/>
-      <c r="C131" s="96" t="s">
+      <c r="B131" s="91"/>
+      <c r="C131" s="92" t="s">
+        <v>528</v>
+      </c>
+      <c r="D131" s="93"/>
+      <c r="E131" s="91"/>
+      <c r="F131" s="76" t="s">
+        <v>529</v>
+      </c>
+      <c r="G131" s="70" t="s">
         <v>530</v>
       </c>
-      <c r="D131" s="97"/>
-      <c r="E131" s="95"/>
-      <c r="F131" s="70" t="s">
-        <v>531</v>
-      </c>
-      <c r="G131" s="71" t="s">
-        <v>532</v>
-      </c>
-      <c r="H131" s="103"/>
-      <c r="I131" s="103"/>
-      <c r="J131" s="71"/>
-      <c r="K131" s="71"/>
+      <c r="H131" s="98"/>
+      <c r="I131" s="98"/>
+      <c r="J131" s="70"/>
+      <c r="K131" s="70"/>
       <c r="L131" s="30"/>
       <c r="M131" s="30"/>
       <c r="N131" s="30"/>
@@ -8856,22 +8879,22 @@
     </row>
     <row r="132" spans="1:26" ht="15" thickBot="1">
       <c r="A132" s="29"/>
-      <c r="B132" s="95"/>
-      <c r="C132" s="96" t="s">
-        <v>533</v>
-      </c>
-      <c r="D132" s="97"/>
-      <c r="E132" s="95"/>
-      <c r="F132" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="G132" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="H132" s="103"/>
-      <c r="I132" s="103"/>
-      <c r="J132" s="71"/>
-      <c r="K132" s="71"/>
+      <c r="B132" s="91"/>
+      <c r="C132" s="92" t="s">
+        <v>531</v>
+      </c>
+      <c r="D132" s="93"/>
+      <c r="E132" s="91"/>
+      <c r="F132" s="76" t="s">
+        <v>532</v>
+      </c>
+      <c r="G132" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="H132" s="98"/>
+      <c r="I132" s="98"/>
+      <c r="J132" s="70"/>
+      <c r="K132" s="70"/>
       <c r="L132" s="30"/>
       <c r="M132" s="30"/>
       <c r="N132" s="30"/>
@@ -8890,22 +8913,22 @@
     </row>
     <row r="133" spans="1:26" ht="15" thickBot="1">
       <c r="A133" s="29"/>
-      <c r="B133" s="95"/>
-      <c r="C133" s="96" t="s">
+      <c r="B133" s="91"/>
+      <c r="C133" s="92" t="s">
+        <v>533</v>
+      </c>
+      <c r="D133" s="93"/>
+      <c r="E133" s="91"/>
+      <c r="F133" s="76" t="s">
+        <v>534</v>
+      </c>
+      <c r="G133" s="70" t="s">
         <v>535</v>
       </c>
-      <c r="D133" s="97"/>
-      <c r="E133" s="95"/>
-      <c r="F133" s="70" t="s">
-        <v>536</v>
-      </c>
-      <c r="G133" s="71" t="s">
-        <v>537</v>
-      </c>
-      <c r="H133" s="103"/>
-      <c r="I133" s="103"/>
-      <c r="J133" s="71"/>
-      <c r="K133" s="71"/>
+      <c r="H133" s="98"/>
+      <c r="I133" s="98"/>
+      <c r="J133" s="70"/>
+      <c r="K133" s="70"/>
       <c r="L133" s="30"/>
       <c r="M133" s="30"/>
       <c r="N133" s="30"/>
@@ -8924,22 +8947,22 @@
     </row>
     <row r="134" spans="1:26" ht="15" thickBot="1">
       <c r="A134" s="29"/>
-      <c r="B134" s="95"/>
-      <c r="C134" s="96" t="s">
+      <c r="B134" s="91"/>
+      <c r="C134" s="92" t="s">
+        <v>536</v>
+      </c>
+      <c r="D134" s="93"/>
+      <c r="E134" s="91"/>
+      <c r="F134" s="76" t="s">
+        <v>537</v>
+      </c>
+      <c r="G134" s="70" t="s">
         <v>538</v>
       </c>
-      <c r="D134" s="97"/>
-      <c r="E134" s="95"/>
-      <c r="F134" s="70" t="s">
-        <v>539</v>
-      </c>
-      <c r="G134" s="71" t="s">
-        <v>540</v>
-      </c>
-      <c r="H134" s="103"/>
-      <c r="I134" s="103"/>
-      <c r="J134" s="71"/>
-      <c r="K134" s="71"/>
+      <c r="H134" s="98"/>
+      <c r="I134" s="98"/>
+      <c r="J134" s="70"/>
+      <c r="K134" s="70"/>
       <c r="L134" s="30"/>
       <c r="M134" s="30"/>
       <c r="N134" s="30"/>
@@ -8958,22 +8981,22 @@
     </row>
     <row r="135" spans="1:26" ht="15" thickBot="1">
       <c r="A135" s="29"/>
-      <c r="B135" s="95"/>
-      <c r="C135" s="96" t="s">
-        <v>541</v>
-      </c>
-      <c r="D135" s="97"/>
-      <c r="E135" s="95"/>
+      <c r="B135" s="91"/>
+      <c r="C135" s="92" t="s">
+        <v>539</v>
+      </c>
+      <c r="D135" s="93"/>
+      <c r="E135" s="91"/>
       <c r="F135" s="76" t="s">
-        <v>804</v>
-      </c>
-      <c r="G135" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="H135" s="103"/>
-      <c r="I135" s="103"/>
-      <c r="J135" s="71"/>
-      <c r="K135" s="71"/>
+        <v>789</v>
+      </c>
+      <c r="G135" s="69" t="s">
+        <v>540</v>
+      </c>
+      <c r="H135" s="98"/>
+      <c r="I135" s="98"/>
+      <c r="J135" s="70"/>
+      <c r="K135" s="70"/>
       <c r="L135" s="30"/>
       <c r="M135" s="30"/>
       <c r="N135" s="30"/>
@@ -8992,22 +9015,22 @@
     </row>
     <row r="136" spans="1:26" ht="15" thickBot="1">
       <c r="A136" s="29"/>
-      <c r="B136" s="95"/>
-      <c r="C136" s="96" t="s">
+      <c r="B136" s="91"/>
+      <c r="C136" s="92" t="s">
+        <v>541</v>
+      </c>
+      <c r="D136" s="93"/>
+      <c r="E136" s="91"/>
+      <c r="F136" s="76" t="s">
+        <v>542</v>
+      </c>
+      <c r="G136" s="69" t="s">
         <v>543</v>
       </c>
-      <c r="D136" s="97"/>
-      <c r="E136" s="95"/>
-      <c r="F136" s="79" t="s">
-        <v>544</v>
-      </c>
-      <c r="G136" s="70" t="s">
-        <v>545</v>
-      </c>
-      <c r="H136" s="103"/>
-      <c r="I136" s="103"/>
-      <c r="J136" s="71"/>
-      <c r="K136" s="71"/>
+      <c r="H136" s="98"/>
+      <c r="I136" s="98"/>
+      <c r="J136" s="70"/>
+      <c r="K136" s="70"/>
       <c r="L136" s="30"/>
       <c r="M136" s="30"/>
       <c r="N136" s="30"/>
@@ -9026,22 +9049,22 @@
     </row>
     <row r="137" spans="1:26" ht="15" thickBot="1">
       <c r="A137" s="29"/>
-      <c r="B137" s="95"/>
-      <c r="C137" s="96" t="s">
-        <v>546</v>
-      </c>
-      <c r="D137" s="97"/>
-      <c r="E137" s="95"/>
+      <c r="B137" s="91"/>
+      <c r="C137" s="92" t="s">
+        <v>544</v>
+      </c>
+      <c r="D137" s="93"/>
+      <c r="E137" s="91"/>
       <c r="F137" s="76" t="s">
-        <v>805</v>
-      </c>
-      <c r="G137" s="70" t="s">
-        <v>547</v>
-      </c>
-      <c r="H137" s="103"/>
-      <c r="I137" s="103"/>
-      <c r="J137" s="71"/>
-      <c r="K137" s="71"/>
+        <v>790</v>
+      </c>
+      <c r="G137" s="69" t="s">
+        <v>545</v>
+      </c>
+      <c r="H137" s="98"/>
+      <c r="I137" s="98"/>
+      <c r="J137" s="70"/>
+      <c r="K137" s="70"/>
       <c r="L137" s="30"/>
       <c r="M137" s="30"/>
       <c r="N137" s="30"/>
@@ -9060,22 +9083,22 @@
     </row>
     <row r="138" spans="1:26" ht="15" thickBot="1">
       <c r="A138" s="29"/>
-      <c r="B138" s="95"/>
-      <c r="C138" s="96" t="s">
-        <v>548</v>
-      </c>
-      <c r="D138" s="97"/>
-      <c r="E138" s="95"/>
+      <c r="B138" s="91"/>
+      <c r="C138" s="92" t="s">
+        <v>546</v>
+      </c>
+      <c r="D138" s="93"/>
+      <c r="E138" s="91"/>
       <c r="F138" s="76" t="s">
-        <v>806</v>
-      </c>
-      <c r="G138" s="70" t="s">
-        <v>549</v>
-      </c>
-      <c r="H138" s="103"/>
-      <c r="I138" s="103"/>
-      <c r="J138" s="71"/>
-      <c r="K138" s="71"/>
+        <v>791</v>
+      </c>
+      <c r="G138" s="69" t="s">
+        <v>547</v>
+      </c>
+      <c r="H138" s="98"/>
+      <c r="I138" s="98"/>
+      <c r="J138" s="70"/>
+      <c r="K138" s="70"/>
       <c r="L138" s="30"/>
       <c r="M138" s="30"/>
       <c r="N138" s="30"/>
@@ -9094,22 +9117,22 @@
     </row>
     <row r="139" spans="1:26" ht="15" thickBot="1">
       <c r="A139" s="29"/>
-      <c r="B139" s="95"/>
-      <c r="C139" s="96" t="s">
-        <v>550</v>
-      </c>
-      <c r="D139" s="97"/>
-      <c r="E139" s="95"/>
+      <c r="B139" s="91"/>
+      <c r="C139" s="92" t="s">
+        <v>548</v>
+      </c>
+      <c r="D139" s="93"/>
+      <c r="E139" s="91"/>
       <c r="F139" s="76" t="s">
-        <v>807</v>
-      </c>
-      <c r="G139" s="70" t="s">
-        <v>551</v>
-      </c>
-      <c r="H139" s="103"/>
-      <c r="I139" s="103"/>
-      <c r="J139" s="71"/>
-      <c r="K139" s="71"/>
+        <v>792</v>
+      </c>
+      <c r="G139" s="69" t="s">
+        <v>549</v>
+      </c>
+      <c r="H139" s="98"/>
+      <c r="I139" s="98"/>
+      <c r="J139" s="70"/>
+      <c r="K139" s="70"/>
       <c r="L139" s="30"/>
       <c r="M139" s="30"/>
       <c r="N139" s="30"/>
@@ -9128,22 +9151,22 @@
     </row>
     <row r="140" spans="1:26" ht="15" thickBot="1">
       <c r="A140" s="29"/>
-      <c r="B140" s="95"/>
-      <c r="C140" s="96" t="s">
-        <v>552</v>
-      </c>
-      <c r="D140" s="97"/>
-      <c r="E140" s="95"/>
-      <c r="F140" s="70" t="s">
-        <v>553</v>
-      </c>
-      <c r="G140" s="70" t="s">
-        <v>553</v>
-      </c>
-      <c r="H140" s="103"/>
-      <c r="I140" s="103"/>
-      <c r="J140" s="71"/>
-      <c r="K140" s="71"/>
+      <c r="B140" s="91"/>
+      <c r="C140" s="92" t="s">
+        <v>550</v>
+      </c>
+      <c r="D140" s="93"/>
+      <c r="E140" s="91"/>
+      <c r="F140" s="76" t="s">
+        <v>551</v>
+      </c>
+      <c r="G140" s="69" t="s">
+        <v>551</v>
+      </c>
+      <c r="H140" s="98"/>
+      <c r="I140" s="98"/>
+      <c r="J140" s="70"/>
+      <c r="K140" s="70"/>
       <c r="L140" s="30"/>
       <c r="M140" s="30"/>
       <c r="N140" s="30"/>
@@ -9162,22 +9185,22 @@
     </row>
     <row r="141" spans="1:26" ht="15" thickBot="1">
       <c r="A141" s="29"/>
-      <c r="B141" s="95"/>
-      <c r="C141" s="96" t="s">
-        <v>554</v>
-      </c>
-      <c r="D141" s="97"/>
-      <c r="E141" s="95"/>
-      <c r="F141" s="70" t="s">
-        <v>555</v>
-      </c>
-      <c r="G141" s="70" t="s">
-        <v>555</v>
-      </c>
-      <c r="H141" s="103"/>
-      <c r="I141" s="103"/>
-      <c r="J141" s="71"/>
-      <c r="K141" s="71"/>
+      <c r="B141" s="91"/>
+      <c r="C141" s="92" t="s">
+        <v>552</v>
+      </c>
+      <c r="D141" s="93"/>
+      <c r="E141" s="91"/>
+      <c r="F141" s="76" t="s">
+        <v>553</v>
+      </c>
+      <c r="G141" s="69" t="s">
+        <v>553</v>
+      </c>
+      <c r="H141" s="98"/>
+      <c r="I141" s="98"/>
+      <c r="J141" s="70"/>
+      <c r="K141" s="70"/>
       <c r="L141" s="30"/>
       <c r="M141" s="30"/>
       <c r="N141" s="30"/>
@@ -9196,26 +9219,26 @@
     </row>
     <row r="142" spans="1:26" ht="15" thickBot="1">
       <c r="A142" s="37"/>
-      <c r="B142" s="95"/>
-      <c r="C142" s="68" t="s">
-        <v>556</v>
-      </c>
-      <c r="D142" s="69" t="s">
+      <c r="B142" s="91"/>
+      <c r="C142" s="67" t="s">
+        <v>554</v>
+      </c>
+      <c r="D142" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E142" s="68" t="s">
+      <c r="E142" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F142" s="70" t="s">
-        <v>557</v>
-      </c>
-      <c r="G142" s="71" t="s">
+      <c r="F142" s="76" t="s">
+        <v>555</v>
+      </c>
+      <c r="G142" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="H142" s="103"/>
-      <c r="I142" s="103"/>
-      <c r="J142" s="71"/>
-      <c r="K142" s="71"/>
+      <c r="H142" s="98"/>
+      <c r="I142" s="98"/>
+      <c r="J142" s="70"/>
+      <c r="K142" s="70"/>
       <c r="L142" s="38"/>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
@@ -9234,26 +9257,26 @@
     </row>
     <row r="143" spans="1:26" ht="15" thickBot="1">
       <c r="A143" s="39"/>
-      <c r="B143" s="95"/>
-      <c r="C143" s="68" t="s">
-        <v>558</v>
-      </c>
-      <c r="D143" s="69" t="s">
-        <v>559</v>
-      </c>
-      <c r="E143" s="68" t="s">
+      <c r="B143" s="91"/>
+      <c r="C143" s="67" t="s">
+        <v>556</v>
+      </c>
+      <c r="D143" s="68" t="s">
+        <v>557</v>
+      </c>
+      <c r="E143" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F143" s="70" t="s">
-        <v>557</v>
-      </c>
-      <c r="G143" s="71" t="s">
+      <c r="F143" s="76" t="s">
+        <v>555</v>
+      </c>
+      <c r="G143" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H143" s="103"/>
-      <c r="I143" s="103"/>
-      <c r="J143" s="71"/>
-      <c r="K143" s="71"/>
+      <c r="H143" s="98"/>
+      <c r="I143" s="98"/>
+      <c r="J143" s="70"/>
+      <c r="K143" s="70"/>
       <c r="L143" s="38"/>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
@@ -9272,26 +9295,26 @@
     </row>
     <row r="144" spans="1:26" ht="15" thickBot="1">
       <c r="A144" s="39"/>
-      <c r="B144" s="95"/>
-      <c r="C144" s="68" t="s">
-        <v>560</v>
-      </c>
-      <c r="D144" s="69" t="s">
-        <v>559</v>
-      </c>
-      <c r="E144" s="68" t="s">
+      <c r="B144" s="91"/>
+      <c r="C144" s="67" t="s">
+        <v>558</v>
+      </c>
+      <c r="D144" s="68" t="s">
+        <v>557</v>
+      </c>
+      <c r="E144" s="67" t="s">
         <v>26</v>
       </c>
       <c r="F144" s="76" t="s">
-        <v>808</v>
-      </c>
-      <c r="G144" s="71" t="s">
+        <v>793</v>
+      </c>
+      <c r="G144" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H144" s="103"/>
-      <c r="I144" s="103"/>
-      <c r="J144" s="71"/>
-      <c r="K144" s="71"/>
+      <c r="H144" s="98"/>
+      <c r="I144" s="98"/>
+      <c r="J144" s="70"/>
+      <c r="K144" s="70"/>
       <c r="L144" s="38"/>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
@@ -9310,26 +9333,26 @@
     </row>
     <row r="145" spans="1:26" ht="15" thickBot="1">
       <c r="A145" s="39"/>
-      <c r="B145" s="95"/>
-      <c r="C145" s="68" t="s">
-        <v>561</v>
-      </c>
-      <c r="D145" s="69" t="s">
+      <c r="B145" s="91"/>
+      <c r="C145" s="67" t="s">
         <v>559</v>
       </c>
-      <c r="E145" s="68" t="s">
+      <c r="D145" s="68" t="s">
+        <v>557</v>
+      </c>
+      <c r="E145" s="67" t="s">
         <v>26</v>
       </c>
       <c r="F145" s="76" t="s">
-        <v>809</v>
-      </c>
-      <c r="G145" s="71" t="s">
+        <v>794</v>
+      </c>
+      <c r="G145" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="H145" s="103"/>
-      <c r="I145" s="103"/>
-      <c r="J145" s="71"/>
-      <c r="K145" s="71"/>
+      <c r="H145" s="98"/>
+      <c r="I145" s="98"/>
+      <c r="J145" s="70"/>
+      <c r="K145" s="70"/>
       <c r="L145" s="38"/>
       <c r="M145" s="38"/>
       <c r="N145" s="38"/>
@@ -9348,26 +9371,26 @@
     </row>
     <row r="146" spans="1:26" ht="15" thickBot="1">
       <c r="A146" s="39"/>
-      <c r="B146" s="95"/>
-      <c r="C146" s="68" t="s">
-        <v>562</v>
-      </c>
-      <c r="D146" s="69" t="s">
-        <v>559</v>
-      </c>
-      <c r="E146" s="68" t="s">
+      <c r="B146" s="91"/>
+      <c r="C146" s="67" t="s">
+        <v>560</v>
+      </c>
+      <c r="D146" s="68" t="s">
+        <v>557</v>
+      </c>
+      <c r="E146" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F146" s="79" t="s">
+      <c r="F146" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G146" s="71" t="s">
+      <c r="G146" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="H146" s="103"/>
-      <c r="I146" s="103"/>
-      <c r="J146" s="71"/>
-      <c r="K146" s="71"/>
+      <c r="H146" s="98"/>
+      <c r="I146" s="98"/>
+      <c r="J146" s="70"/>
+      <c r="K146" s="70"/>
       <c r="L146" s="38"/>
       <c r="M146" s="38"/>
       <c r="N146" s="38"/>
@@ -9386,26 +9409,26 @@
     </row>
     <row r="147" spans="1:26" ht="15" thickBot="1">
       <c r="A147" s="39"/>
-      <c r="B147" s="95"/>
-      <c r="C147" s="68" t="s">
-        <v>563</v>
-      </c>
-      <c r="D147" s="69" t="s">
-        <v>559</v>
-      </c>
-      <c r="E147" s="68" t="s">
+      <c r="B147" s="91"/>
+      <c r="C147" s="67" t="s">
+        <v>561</v>
+      </c>
+      <c r="D147" s="68" t="s">
+        <v>557</v>
+      </c>
+      <c r="E147" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F147" s="79" t="s">
+      <c r="F147" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G147" s="71" t="s">
+      <c r="G147" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H147" s="103"/>
-      <c r="I147" s="103"/>
-      <c r="J147" s="71"/>
-      <c r="K147" s="71"/>
+      <c r="H147" s="98"/>
+      <c r="I147" s="98"/>
+      <c r="J147" s="70"/>
+      <c r="K147" s="70"/>
       <c r="L147" s="38"/>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
@@ -9424,26 +9447,26 @@
     </row>
     <row r="148" spans="1:26" ht="15" thickBot="1">
       <c r="A148" s="37"/>
-      <c r="B148" s="95"/>
-      <c r="C148" s="68" t="s">
-        <v>564</v>
-      </c>
-      <c r="D148" s="69" t="s">
+      <c r="B148" s="91"/>
+      <c r="C148" s="67" t="s">
+        <v>562</v>
+      </c>
+      <c r="D148" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E148" s="68" t="s">
+      <c r="E148" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F148" s="104" t="s">
-        <v>565</v>
-      </c>
-      <c r="G148" s="71" t="s">
+      <c r="F148" s="99" t="s">
+        <v>563</v>
+      </c>
+      <c r="G148" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="H148" s="103"/>
-      <c r="I148" s="103"/>
-      <c r="J148" s="71"/>
-      <c r="K148" s="71"/>
+      <c r="H148" s="98"/>
+      <c r="I148" s="98"/>
+      <c r="J148" s="70"/>
+      <c r="K148" s="70"/>
       <c r="L148" s="38"/>
       <c r="M148" s="38"/>
       <c r="N148" s="38"/>
@@ -9462,26 +9485,26 @@
     </row>
     <row r="149" spans="1:26" ht="15" thickBot="1">
       <c r="A149" s="39"/>
-      <c r="B149" s="95"/>
-      <c r="C149" s="68" t="s">
-        <v>566</v>
-      </c>
-      <c r="D149" s="69" t="s">
-        <v>567</v>
-      </c>
-      <c r="E149" s="68" t="s">
+      <c r="B149" s="91"/>
+      <c r="C149" s="67" t="s">
+        <v>564</v>
+      </c>
+      <c r="D149" s="68" t="s">
+        <v>565</v>
+      </c>
+      <c r="E149" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F149" s="104" t="s">
-        <v>565</v>
-      </c>
-      <c r="G149" s="71" t="s">
+      <c r="F149" s="99" t="s">
+        <v>563</v>
+      </c>
+      <c r="G149" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="H149" s="103"/>
-      <c r="I149" s="103"/>
-      <c r="J149" s="71"/>
-      <c r="K149" s="71"/>
+      <c r="H149" s="98"/>
+      <c r="I149" s="98"/>
+      <c r="J149" s="70"/>
+      <c r="K149" s="70"/>
       <c r="L149" s="38"/>
       <c r="M149" s="38"/>
       <c r="N149" s="38"/>
@@ -9500,26 +9523,26 @@
     </row>
     <row r="150" spans="1:26" ht="15" thickBot="1">
       <c r="A150" s="39"/>
-      <c r="B150" s="95"/>
-      <c r="C150" s="68" t="s">
-        <v>568</v>
-      </c>
-      <c r="D150" s="69" t="s">
-        <v>567</v>
-      </c>
-      <c r="E150" s="68" t="s">
+      <c r="B150" s="91"/>
+      <c r="C150" s="67" t="s">
+        <v>566</v>
+      </c>
+      <c r="D150" s="68" t="s">
+        <v>565</v>
+      </c>
+      <c r="E150" s="67" t="s">
         <v>26</v>
       </c>
       <c r="F150" s="76" t="s">
-        <v>808</v>
-      </c>
-      <c r="G150" s="71" t="s">
+        <v>793</v>
+      </c>
+      <c r="G150" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H150" s="103"/>
-      <c r="I150" s="103"/>
-      <c r="J150" s="71"/>
-      <c r="K150" s="71"/>
+      <c r="H150" s="98"/>
+      <c r="I150" s="98"/>
+      <c r="J150" s="70"/>
+      <c r="K150" s="70"/>
       <c r="L150" s="38"/>
       <c r="M150" s="38"/>
       <c r="N150" s="38"/>
@@ -9538,26 +9561,26 @@
     </row>
     <row r="151" spans="1:26" ht="15" thickBot="1">
       <c r="A151" s="39"/>
-      <c r="B151" s="95"/>
-      <c r="C151" s="68" t="s">
-        <v>569</v>
-      </c>
-      <c r="D151" s="69" t="s">
+      <c r="B151" s="91"/>
+      <c r="C151" s="67" t="s">
         <v>567</v>
       </c>
-      <c r="E151" s="68" t="s">
+      <c r="D151" s="68" t="s">
+        <v>565</v>
+      </c>
+      <c r="E151" s="67" t="s">
         <v>26</v>
       </c>
       <c r="F151" s="76" t="s">
-        <v>809</v>
-      </c>
-      <c r="G151" s="71" t="s">
+        <v>794</v>
+      </c>
+      <c r="G151" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="H151" s="103"/>
-      <c r="I151" s="103"/>
-      <c r="J151" s="71"/>
-      <c r="K151" s="71"/>
+      <c r="H151" s="98"/>
+      <c r="I151" s="98"/>
+      <c r="J151" s="70"/>
+      <c r="K151" s="70"/>
       <c r="L151" s="38"/>
       <c r="M151" s="38"/>
       <c r="N151" s="38"/>
@@ -9576,26 +9599,26 @@
     </row>
     <row r="152" spans="1:26" ht="15" thickBot="1">
       <c r="A152" s="39"/>
-      <c r="B152" s="95"/>
-      <c r="C152" s="68" t="s">
-        <v>570</v>
-      </c>
-      <c r="D152" s="69" t="s">
-        <v>567</v>
-      </c>
-      <c r="E152" s="68" t="s">
+      <c r="B152" s="91"/>
+      <c r="C152" s="67" t="s">
+        <v>568</v>
+      </c>
+      <c r="D152" s="68" t="s">
+        <v>565</v>
+      </c>
+      <c r="E152" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F152" s="79" t="s">
+      <c r="F152" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G152" s="71" t="s">
+      <c r="G152" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="H152" s="103"/>
-      <c r="I152" s="103"/>
-      <c r="J152" s="71"/>
-      <c r="K152" s="71"/>
+      <c r="H152" s="98"/>
+      <c r="I152" s="98"/>
+      <c r="J152" s="70"/>
+      <c r="K152" s="70"/>
       <c r="L152" s="38"/>
       <c r="M152" s="38"/>
       <c r="N152" s="38"/>
@@ -9614,26 +9637,26 @@
     </row>
     <row r="153" spans="1:26" ht="15" thickBot="1">
       <c r="A153" s="39"/>
-      <c r="B153" s="95"/>
-      <c r="C153" s="68" t="s">
-        <v>571</v>
-      </c>
-      <c r="D153" s="69" t="s">
-        <v>567</v>
-      </c>
-      <c r="E153" s="68" t="s">
+      <c r="B153" s="91"/>
+      <c r="C153" s="67" t="s">
+        <v>569</v>
+      </c>
+      <c r="D153" s="68" t="s">
+        <v>565</v>
+      </c>
+      <c r="E153" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F153" s="79" t="s">
+      <c r="F153" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G153" s="71" t="s">
+      <c r="G153" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H153" s="103"/>
-      <c r="I153" s="103"/>
-      <c r="J153" s="71"/>
-      <c r="K153" s="71"/>
+      <c r="H153" s="98"/>
+      <c r="I153" s="98"/>
+      <c r="J153" s="70"/>
+      <c r="K153" s="70"/>
       <c r="L153" s="38"/>
       <c r="M153" s="38"/>
       <c r="N153" s="38"/>
@@ -9652,24 +9675,24 @@
     </row>
     <row r="154" spans="1:26" ht="15" thickBot="1">
       <c r="A154" s="29"/>
-      <c r="B154" s="95"/>
-      <c r="C154" s="96" t="s">
+      <c r="B154" s="91"/>
+      <c r="C154" s="92" t="s">
+        <v>570</v>
+      </c>
+      <c r="D154" s="95" t="s">
+        <v>551</v>
+      </c>
+      <c r="E154" s="91"/>
+      <c r="F154" s="76" t="s">
+        <v>571</v>
+      </c>
+      <c r="G154" s="70" t="s">
         <v>572</v>
       </c>
-      <c r="D154" s="99" t="s">
-        <v>553</v>
-      </c>
-      <c r="E154" s="95"/>
-      <c r="F154" s="79" t="s">
-        <v>573</v>
-      </c>
-      <c r="G154" s="71" t="s">
-        <v>574</v>
-      </c>
-      <c r="H154" s="103"/>
-      <c r="I154" s="103"/>
-      <c r="J154" s="71"/>
-      <c r="K154" s="71"/>
+      <c r="H154" s="98"/>
+      <c r="I154" s="98"/>
+      <c r="J154" s="70"/>
+      <c r="K154" s="70"/>
       <c r="L154" s="30"/>
       <c r="M154" s="30"/>
       <c r="N154" s="30"/>
@@ -9686,26 +9709,26 @@
       <c r="Y154" s="30"/>
       <c r="Z154" s="30"/>
     </row>
-    <row r="155" spans="1:26" ht="15" thickBot="1">
+    <row r="155" spans="1:26" thickBot="1">
       <c r="A155" s="29"/>
-      <c r="B155" s="95"/>
-      <c r="C155" s="96" t="s">
-        <v>575</v>
-      </c>
-      <c r="D155" s="99" t="s">
-        <v>553</v>
-      </c>
-      <c r="E155" s="95"/>
-      <c r="F155" s="76" t="s">
-        <v>810</v>
-      </c>
-      <c r="G155" s="71" t="s">
-        <v>576</v>
-      </c>
-      <c r="H155" s="103"/>
-      <c r="I155" s="103"/>
-      <c r="J155" s="71"/>
-      <c r="K155" s="71"/>
+      <c r="B155" s="91"/>
+      <c r="C155" s="92" t="s">
+        <v>573</v>
+      </c>
+      <c r="D155" s="95" t="s">
+        <v>551</v>
+      </c>
+      <c r="E155" s="91"/>
+      <c r="F155" s="109" t="s">
+        <v>809</v>
+      </c>
+      <c r="G155" s="70" t="s">
+        <v>574</v>
+      </c>
+      <c r="H155" s="98"/>
+      <c r="I155" s="98"/>
+      <c r="J155" s="70"/>
+      <c r="K155" s="70"/>
       <c r="L155" s="30"/>
       <c r="M155" s="30"/>
       <c r="N155" s="30"/>
@@ -9724,24 +9747,24 @@
     </row>
     <row r="156" spans="1:26" ht="15" thickBot="1">
       <c r="A156" s="29"/>
-      <c r="B156" s="95"/>
-      <c r="C156" s="96" t="s">
+      <c r="B156" s="91"/>
+      <c r="C156" s="92" t="s">
+        <v>575</v>
+      </c>
+      <c r="D156" s="95" t="s">
+        <v>576</v>
+      </c>
+      <c r="E156" s="91"/>
+      <c r="F156" s="76" t="s">
         <v>577</v>
       </c>
-      <c r="D156" s="99" t="s">
+      <c r="G156" s="70" t="s">
         <v>578</v>
       </c>
-      <c r="E156" s="95"/>
-      <c r="F156" s="70" t="s">
-        <v>579</v>
-      </c>
-      <c r="G156" s="71" t="s">
-        <v>580</v>
-      </c>
-      <c r="H156" s="103"/>
-      <c r="I156" s="103"/>
-      <c r="J156" s="71"/>
-      <c r="K156" s="71"/>
+      <c r="H156" s="98"/>
+      <c r="I156" s="98"/>
+      <c r="J156" s="70"/>
+      <c r="K156" s="70"/>
       <c r="L156" s="30"/>
       <c r="M156" s="30"/>
       <c r="N156" s="30"/>
@@ -9760,24 +9783,24 @@
     </row>
     <row r="157" spans="1:26" ht="15" thickBot="1">
       <c r="A157" s="29"/>
-      <c r="B157" s="95"/>
-      <c r="C157" s="96" t="s">
+      <c r="B157" s="91"/>
+      <c r="C157" s="92" t="s">
+        <v>579</v>
+      </c>
+      <c r="D157" s="95" t="s">
+        <v>576</v>
+      </c>
+      <c r="E157" s="91"/>
+      <c r="F157" s="76" t="s">
+        <v>580</v>
+      </c>
+      <c r="G157" s="70" t="s">
         <v>581</v>
       </c>
-      <c r="D157" s="99" t="s">
-        <v>578</v>
-      </c>
-      <c r="E157" s="95"/>
-      <c r="F157" s="70" t="s">
-        <v>582</v>
-      </c>
-      <c r="G157" s="71" t="s">
-        <v>583</v>
-      </c>
-      <c r="H157" s="103"/>
-      <c r="I157" s="103"/>
-      <c r="J157" s="71"/>
-      <c r="K157" s="71"/>
+      <c r="H157" s="98"/>
+      <c r="I157" s="98"/>
+      <c r="J157" s="70"/>
+      <c r="K157" s="70"/>
       <c r="L157" s="30"/>
       <c r="M157" s="30"/>
       <c r="N157" s="30"/>
@@ -9796,24 +9819,24 @@
     </row>
     <row r="158" spans="1:26" ht="15" thickBot="1">
       <c r="A158" s="29"/>
-      <c r="B158" s="95"/>
-      <c r="C158" s="96" t="s">
+      <c r="B158" s="91"/>
+      <c r="C158" s="92" t="s">
+        <v>582</v>
+      </c>
+      <c r="D158" s="95" t="s">
+        <v>583</v>
+      </c>
+      <c r="E158" s="91"/>
+      <c r="F158" s="76" t="s">
         <v>584</v>
       </c>
-      <c r="D158" s="99" t="s">
+      <c r="G158" s="70" t="s">
         <v>585</v>
       </c>
-      <c r="E158" s="95"/>
-      <c r="F158" s="70" t="s">
-        <v>586</v>
-      </c>
-      <c r="G158" s="71" t="s">
-        <v>587</v>
-      </c>
-      <c r="H158" s="103"/>
-      <c r="I158" s="103"/>
-      <c r="J158" s="71"/>
-      <c r="K158" s="71"/>
+      <c r="H158" s="98"/>
+      <c r="I158" s="98"/>
+      <c r="J158" s="70"/>
+      <c r="K158" s="70"/>
       <c r="L158" s="30"/>
       <c r="M158" s="30"/>
       <c r="N158" s="30"/>
@@ -9832,24 +9855,24 @@
     </row>
     <row r="159" spans="1:26" ht="15" thickBot="1">
       <c r="A159" s="29"/>
-      <c r="B159" s="95"/>
-      <c r="C159" s="96" t="s">
+      <c r="B159" s="91"/>
+      <c r="C159" s="92" t="s">
+        <v>586</v>
+      </c>
+      <c r="D159" s="95" t="s">
+        <v>583</v>
+      </c>
+      <c r="E159" s="91"/>
+      <c r="F159" s="76" t="s">
+        <v>587</v>
+      </c>
+      <c r="G159" s="70" t="s">
         <v>588</v>
       </c>
-      <c r="D159" s="99" t="s">
-        <v>585</v>
-      </c>
-      <c r="E159" s="95"/>
-      <c r="F159" s="70" t="s">
-        <v>589</v>
-      </c>
-      <c r="G159" s="71" t="s">
-        <v>590</v>
-      </c>
-      <c r="H159" s="103"/>
-      <c r="I159" s="103"/>
-      <c r="J159" s="71"/>
-      <c r="K159" s="71"/>
+      <c r="H159" s="98"/>
+      <c r="I159" s="98"/>
+      <c r="J159" s="70"/>
+      <c r="K159" s="70"/>
       <c r="L159" s="30"/>
       <c r="M159" s="30"/>
       <c r="N159" s="30"/>
@@ -9868,24 +9891,24 @@
     </row>
     <row r="160" spans="1:26" ht="15" thickBot="1">
       <c r="A160" s="29"/>
-      <c r="B160" s="95"/>
-      <c r="C160" s="96" t="s">
+      <c r="B160" s="91"/>
+      <c r="C160" s="92" t="s">
+        <v>589</v>
+      </c>
+      <c r="D160" s="95" t="s">
+        <v>583</v>
+      </c>
+      <c r="E160" s="91"/>
+      <c r="F160" s="76" t="s">
+        <v>590</v>
+      </c>
+      <c r="G160" s="70" t="s">
         <v>591</v>
       </c>
-      <c r="D160" s="99" t="s">
-        <v>585</v>
-      </c>
-      <c r="E160" s="95"/>
-      <c r="F160" s="70" t="s">
-        <v>592</v>
-      </c>
-      <c r="G160" s="71" t="s">
-        <v>593</v>
-      </c>
-      <c r="H160" s="103"/>
-      <c r="I160" s="103"/>
-      <c r="J160" s="71"/>
-      <c r="K160" s="71"/>
+      <c r="H160" s="98"/>
+      <c r="I160" s="98"/>
+      <c r="J160" s="70"/>
+      <c r="K160" s="70"/>
       <c r="L160" s="30"/>
       <c r="M160" s="30"/>
       <c r="N160" s="30"/>
@@ -9904,26 +9927,26 @@
     </row>
     <row r="161" spans="1:26" ht="15" thickBot="1">
       <c r="A161" s="29"/>
-      <c r="B161" s="95"/>
-      <c r="C161" s="96" t="s">
+      <c r="B161" s="91"/>
+      <c r="C161" s="92" t="s">
+        <v>592</v>
+      </c>
+      <c r="D161" s="95" t="s">
+        <v>593</v>
+      </c>
+      <c r="E161" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="F161" s="76" t="s">
         <v>594</v>
       </c>
-      <c r="D161" s="99" t="s">
+      <c r="G161" s="70" t="s">
         <v>595</v>
       </c>
-      <c r="E161" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="F161" s="70" t="s">
-        <v>596</v>
-      </c>
-      <c r="G161" s="71" t="s">
-        <v>597</v>
-      </c>
-      <c r="H161" s="103"/>
-      <c r="I161" s="103"/>
-      <c r="J161" s="71"/>
-      <c r="K161" s="71"/>
+      <c r="H161" s="98"/>
+      <c r="I161" s="98"/>
+      <c r="J161" s="70"/>
+      <c r="K161" s="70"/>
       <c r="L161" s="30"/>
       <c r="M161" s="30"/>
       <c r="N161" s="30"/>
@@ -9942,26 +9965,26 @@
     </row>
     <row r="162" spans="1:26" ht="15" thickBot="1">
       <c r="A162" s="29"/>
-      <c r="B162" s="95"/>
-      <c r="C162" s="96" t="s">
+      <c r="B162" s="91"/>
+      <c r="C162" s="92" t="s">
+        <v>596</v>
+      </c>
+      <c r="D162" s="95" t="s">
+        <v>597</v>
+      </c>
+      <c r="E162" s="92" t="s">
         <v>598</v>
       </c>
-      <c r="D162" s="99" t="s">
+      <c r="F162" s="76" t="s">
         <v>599</v>
       </c>
-      <c r="E162" s="96" t="s">
+      <c r="G162" s="70" t="s">
         <v>600</v>
       </c>
-      <c r="F162" s="70" t="s">
-        <v>601</v>
-      </c>
-      <c r="G162" s="71" t="s">
-        <v>602</v>
-      </c>
-      <c r="H162" s="103"/>
-      <c r="I162" s="103"/>
-      <c r="J162" s="71"/>
-      <c r="K162" s="71"/>
+      <c r="H162" s="98"/>
+      <c r="I162" s="98"/>
+      <c r="J162" s="70"/>
+      <c r="K162" s="70"/>
       <c r="L162" s="30"/>
       <c r="M162" s="30"/>
       <c r="N162" s="30"/>
@@ -9980,26 +10003,26 @@
     </row>
     <row r="163" spans="1:26" ht="15" thickBot="1">
       <c r="A163" s="29"/>
-      <c r="B163" s="95"/>
-      <c r="C163" s="96" t="s">
+      <c r="B163" s="91"/>
+      <c r="C163" s="92" t="s">
+        <v>601</v>
+      </c>
+      <c r="D163" s="95" t="s">
+        <v>597</v>
+      </c>
+      <c r="E163" s="92" t="s">
+        <v>598</v>
+      </c>
+      <c r="F163" s="76" t="s">
+        <v>602</v>
+      </c>
+      <c r="G163" s="70" t="s">
         <v>603</v>
       </c>
-      <c r="D163" s="99" t="s">
-        <v>599</v>
-      </c>
-      <c r="E163" s="96" t="s">
-        <v>600</v>
-      </c>
-      <c r="F163" s="70" t="s">
-        <v>604</v>
-      </c>
-      <c r="G163" s="71" t="s">
-        <v>605</v>
-      </c>
-      <c r="H163" s="103"/>
-      <c r="I163" s="103"/>
-      <c r="J163" s="71"/>
-      <c r="K163" s="71"/>
+      <c r="H163" s="98"/>
+      <c r="I163" s="98"/>
+      <c r="J163" s="70"/>
+      <c r="K163" s="70"/>
       <c r="L163" s="30"/>
       <c r="M163" s="30"/>
       <c r="N163" s="30"/>
@@ -10018,26 +10041,26 @@
     </row>
     <row r="164" spans="1:26" ht="15" thickBot="1">
       <c r="A164" s="29"/>
-      <c r="B164" s="95"/>
-      <c r="C164" s="96" t="s">
+      <c r="B164" s="91"/>
+      <c r="C164" s="92" t="s">
+        <v>604</v>
+      </c>
+      <c r="D164" s="95" t="s">
+        <v>605</v>
+      </c>
+      <c r="E164" s="92" t="s">
+        <v>598</v>
+      </c>
+      <c r="F164" s="76" t="s">
         <v>606</v>
       </c>
-      <c r="D164" s="99" t="s">
+      <c r="G164" s="70" t="s">
         <v>607</v>
       </c>
-      <c r="E164" s="96" t="s">
-        <v>600</v>
-      </c>
-      <c r="F164" s="70" t="s">
-        <v>608</v>
-      </c>
-      <c r="G164" s="71" t="s">
-        <v>609</v>
-      </c>
-      <c r="H164" s="103"/>
-      <c r="I164" s="103"/>
-      <c r="J164" s="71"/>
-      <c r="K164" s="71"/>
+      <c r="H164" s="98"/>
+      <c r="I164" s="98"/>
+      <c r="J164" s="70"/>
+      <c r="K164" s="70"/>
       <c r="L164" s="30"/>
       <c r="M164" s="30"/>
       <c r="N164" s="30"/>
@@ -10056,26 +10079,26 @@
     </row>
     <row r="165" spans="1:26" ht="15" thickBot="1">
       <c r="A165" s="29"/>
-      <c r="B165" s="95"/>
-      <c r="C165" s="96" t="s">
+      <c r="B165" s="91"/>
+      <c r="C165" s="92" t="s">
+        <v>608</v>
+      </c>
+      <c r="D165" s="95" t="s">
+        <v>593</v>
+      </c>
+      <c r="E165" s="92" t="s">
+        <v>598</v>
+      </c>
+      <c r="F165" s="76" t="s">
+        <v>609</v>
+      </c>
+      <c r="G165" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="D165" s="99" t="s">
-        <v>595</v>
-      </c>
-      <c r="E165" s="96" t="s">
-        <v>600</v>
-      </c>
-      <c r="F165" s="70" t="s">
-        <v>611</v>
-      </c>
-      <c r="G165" s="71" t="s">
-        <v>612</v>
-      </c>
-      <c r="H165" s="103"/>
-      <c r="I165" s="103"/>
-      <c r="J165" s="71"/>
-      <c r="K165" s="71"/>
+      <c r="H165" s="98"/>
+      <c r="I165" s="98"/>
+      <c r="J165" s="70"/>
+      <c r="K165" s="70"/>
       <c r="L165" s="30"/>
       <c r="M165" s="30"/>
       <c r="N165" s="30"/>
@@ -10094,24 +10117,24 @@
     </row>
     <row r="166" spans="1:26" ht="15" thickBot="1">
       <c r="A166" s="29"/>
-      <c r="B166" s="95"/>
-      <c r="C166" s="96" t="s">
-        <v>613</v>
-      </c>
-      <c r="D166" s="95"/>
-      <c r="E166" s="96" t="s">
-        <v>600</v>
+      <c r="B166" s="91"/>
+      <c r="C166" s="92" t="s">
+        <v>611</v>
+      </c>
+      <c r="D166" s="91"/>
+      <c r="E166" s="92" t="s">
+        <v>598</v>
       </c>
       <c r="F166" s="76" t="s">
-        <v>811</v>
-      </c>
-      <c r="G166" s="71" t="s">
-        <v>614</v>
-      </c>
-      <c r="H166" s="103"/>
-      <c r="I166" s="103"/>
-      <c r="J166" s="71"/>
-      <c r="K166" s="71"/>
+        <v>795</v>
+      </c>
+      <c r="G166" s="70" t="s">
+        <v>612</v>
+      </c>
+      <c r="H166" s="98"/>
+      <c r="I166" s="98"/>
+      <c r="J166" s="70"/>
+      <c r="K166" s="70"/>
       <c r="L166" s="30"/>
       <c r="M166" s="30"/>
       <c r="N166" s="30"/>
@@ -10130,26 +10153,26 @@
     </row>
     <row r="167" spans="1:26" ht="15" thickBot="1">
       <c r="A167" s="29"/>
-      <c r="B167" s="95"/>
-      <c r="C167" s="96" t="s">
-        <v>615</v>
-      </c>
-      <c r="D167" s="105" t="s">
-        <v>578</v>
-      </c>
-      <c r="E167" s="96" t="s">
-        <v>600</v>
+      <c r="B167" s="91"/>
+      <c r="C167" s="92" t="s">
+        <v>613</v>
+      </c>
+      <c r="D167" s="100" t="s">
+        <v>576</v>
+      </c>
+      <c r="E167" s="92" t="s">
+        <v>598</v>
       </c>
       <c r="F167" s="76" t="s">
-        <v>812</v>
-      </c>
-      <c r="G167" s="71" t="s">
-        <v>616</v>
-      </c>
-      <c r="H167" s="103"/>
-      <c r="I167" s="103"/>
-      <c r="J167" s="71"/>
-      <c r="K167" s="71"/>
+        <v>796</v>
+      </c>
+      <c r="G167" s="70" t="s">
+        <v>614</v>
+      </c>
+      <c r="H167" s="98"/>
+      <c r="I167" s="98"/>
+      <c r="J167" s="70"/>
+      <c r="K167" s="70"/>
       <c r="L167" s="30"/>
       <c r="M167" s="30"/>
       <c r="N167" s="30"/>
@@ -10168,26 +10191,26 @@
     </row>
     <row r="168" spans="1:26" ht="15" thickBot="1">
       <c r="A168" s="29"/>
-      <c r="B168" s="95"/>
-      <c r="C168" s="96" t="s">
+      <c r="B168" s="91"/>
+      <c r="C168" s="92" t="s">
+        <v>615</v>
+      </c>
+      <c r="D168" s="100" t="s">
+        <v>605</v>
+      </c>
+      <c r="E168" s="92" t="s">
+        <v>598</v>
+      </c>
+      <c r="F168" s="101" t="s">
+        <v>616</v>
+      </c>
+      <c r="G168" s="70" t="s">
         <v>617</v>
       </c>
-      <c r="D168" s="105" t="s">
-        <v>607</v>
-      </c>
-      <c r="E168" s="96" t="s">
-        <v>600</v>
-      </c>
-      <c r="F168" s="106" t="s">
-        <v>618</v>
-      </c>
-      <c r="G168" s="71" t="s">
-        <v>619</v>
-      </c>
-      <c r="H168" s="103"/>
-      <c r="I168" s="103"/>
-      <c r="J168" s="71"/>
-      <c r="K168" s="71"/>
+      <c r="H168" s="98"/>
+      <c r="I168" s="98"/>
+      <c r="J168" s="70"/>
+      <c r="K168" s="70"/>
       <c r="L168" s="30"/>
       <c r="M168" s="30"/>
       <c r="N168" s="30"/>
@@ -10206,26 +10229,26 @@
     </row>
     <row r="169" spans="1:26" ht="15" thickBot="1">
       <c r="A169" s="29"/>
-      <c r="B169" s="95"/>
-      <c r="C169" s="96" t="s">
+      <c r="B169" s="91"/>
+      <c r="C169" s="92" t="s">
+        <v>618</v>
+      </c>
+      <c r="D169" s="100" t="s">
+        <v>576</v>
+      </c>
+      <c r="E169" s="92" t="s">
+        <v>619</v>
+      </c>
+      <c r="F169" s="101" t="s">
+        <v>797</v>
+      </c>
+      <c r="G169" s="70" t="s">
         <v>620</v>
       </c>
-      <c r="D169" s="105" t="s">
-        <v>578</v>
-      </c>
-      <c r="E169" s="96" t="s">
-        <v>621</v>
-      </c>
-      <c r="F169" s="76" t="s">
-        <v>813</v>
-      </c>
-      <c r="G169" s="71" t="s">
-        <v>622</v>
-      </c>
-      <c r="H169" s="103"/>
-      <c r="I169" s="103"/>
-      <c r="J169" s="71"/>
-      <c r="K169" s="71"/>
+      <c r="H169" s="98"/>
+      <c r="I169" s="98"/>
+      <c r="J169" s="70"/>
+      <c r="K169" s="70"/>
       <c r="L169" s="30"/>
       <c r="M169" s="30"/>
       <c r="N169" s="30"/>
@@ -10244,26 +10267,26 @@
     </row>
     <row r="170" spans="1:26" ht="15" thickBot="1">
       <c r="A170" s="29"/>
-      <c r="B170" s="95"/>
-      <c r="C170" s="96" t="s">
+      <c r="B170" s="91"/>
+      <c r="C170" s="92" t="s">
+        <v>621</v>
+      </c>
+      <c r="D170" s="100" t="s">
+        <v>576</v>
+      </c>
+      <c r="E170" s="92" t="s">
+        <v>619</v>
+      </c>
+      <c r="F170" s="76" t="s">
+        <v>622</v>
+      </c>
+      <c r="G170" s="70" t="s">
         <v>623</v>
       </c>
-      <c r="D170" s="105" t="s">
-        <v>578</v>
-      </c>
-      <c r="E170" s="96" t="s">
-        <v>621</v>
-      </c>
-      <c r="F170" s="79" t="s">
-        <v>624</v>
-      </c>
-      <c r="G170" s="71" t="s">
-        <v>625</v>
-      </c>
-      <c r="H170" s="103"/>
-      <c r="I170" s="103"/>
-      <c r="J170" s="71"/>
-      <c r="K170" s="71"/>
+      <c r="H170" s="98"/>
+      <c r="I170" s="98"/>
+      <c r="J170" s="70"/>
+      <c r="K170" s="70"/>
       <c r="L170" s="30"/>
       <c r="M170" s="30"/>
       <c r="N170" s="30"/>
@@ -10282,26 +10305,26 @@
     </row>
     <row r="171" spans="1:26" ht="15" thickBot="1">
       <c r="A171" s="29"/>
-      <c r="B171" s="95"/>
-      <c r="C171" s="96" t="s">
-        <v>626</v>
-      </c>
-      <c r="D171" s="105" t="s">
-        <v>578</v>
-      </c>
-      <c r="E171" s="96" t="s">
-        <v>621</v>
+      <c r="B171" s="91"/>
+      <c r="C171" s="92" t="s">
+        <v>624</v>
+      </c>
+      <c r="D171" s="100" t="s">
+        <v>576</v>
+      </c>
+      <c r="E171" s="92" t="s">
+        <v>619</v>
       </c>
       <c r="F171" s="76" t="s">
-        <v>814</v>
-      </c>
-      <c r="G171" s="71" t="s">
-        <v>627</v>
-      </c>
-      <c r="H171" s="103"/>
-      <c r="I171" s="103"/>
-      <c r="J171" s="71"/>
-      <c r="K171" s="71"/>
+        <v>798</v>
+      </c>
+      <c r="G171" s="70" t="s">
+        <v>625</v>
+      </c>
+      <c r="H171" s="98"/>
+      <c r="I171" s="98"/>
+      <c r="J171" s="70"/>
+      <c r="K171" s="70"/>
       <c r="L171" s="30"/>
       <c r="M171" s="30"/>
       <c r="N171" s="30"/>
@@ -10320,24 +10343,24 @@
     </row>
     <row r="172" spans="1:26" ht="15" thickBot="1">
       <c r="A172" s="29"/>
-      <c r="B172" s="95"/>
-      <c r="C172" s="96" t="s">
+      <c r="B172" s="91"/>
+      <c r="C172" s="92" t="s">
+        <v>626</v>
+      </c>
+      <c r="D172" s="95" t="s">
+        <v>627</v>
+      </c>
+      <c r="E172" s="91"/>
+      <c r="F172" s="76" t="s">
         <v>628</v>
       </c>
-      <c r="D172" s="99" t="s">
+      <c r="G172" s="70" t="s">
         <v>629</v>
       </c>
-      <c r="E172" s="95"/>
-      <c r="F172" s="70" t="s">
-        <v>630</v>
-      </c>
-      <c r="G172" s="71" t="s">
-        <v>631</v>
-      </c>
-      <c r="H172" s="103"/>
-      <c r="I172" s="103"/>
-      <c r="J172" s="71"/>
-      <c r="K172" s="71"/>
+      <c r="H172" s="98"/>
+      <c r="I172" s="98"/>
+      <c r="J172" s="70"/>
+      <c r="K172" s="70"/>
       <c r="L172" s="30"/>
       <c r="M172" s="30"/>
       <c r="N172" s="30"/>
@@ -10356,24 +10379,24 @@
     </row>
     <row r="173" spans="1:26" ht="15" thickBot="1">
       <c r="A173" s="29"/>
-      <c r="B173" s="95"/>
-      <c r="C173" s="96" t="s">
+      <c r="B173" s="91"/>
+      <c r="C173" s="92" t="s">
+        <v>630</v>
+      </c>
+      <c r="D173" s="95" t="s">
+        <v>627</v>
+      </c>
+      <c r="E173" s="91"/>
+      <c r="F173" s="76" t="s">
+        <v>631</v>
+      </c>
+      <c r="G173" s="70" t="s">
         <v>632</v>
       </c>
-      <c r="D173" s="99" t="s">
-        <v>629</v>
-      </c>
-      <c r="E173" s="95"/>
-      <c r="F173" s="70" t="s">
-        <v>633</v>
-      </c>
-      <c r="G173" s="71" t="s">
-        <v>634</v>
-      </c>
-      <c r="H173" s="103"/>
-      <c r="I173" s="103"/>
-      <c r="J173" s="71"/>
-      <c r="K173" s="71"/>
+      <c r="H173" s="98"/>
+      <c r="I173" s="98"/>
+      <c r="J173" s="70"/>
+      <c r="K173" s="70"/>
       <c r="L173" s="30"/>
       <c r="M173" s="30"/>
       <c r="N173" s="30"/>
@@ -10392,24 +10415,24 @@
     </row>
     <row r="174" spans="1:26" ht="15" thickBot="1">
       <c r="A174" s="29"/>
-      <c r="B174" s="95"/>
-      <c r="C174" s="96" t="s">
-        <v>635</v>
-      </c>
-      <c r="D174" s="95" t="s">
-        <v>636</v>
-      </c>
-      <c r="E174" s="95"/>
-      <c r="F174" s="70" t="s">
-        <v>544</v>
-      </c>
-      <c r="G174" s="71" t="s">
-        <v>545</v>
-      </c>
-      <c r="H174" s="103"/>
-      <c r="I174" s="103"/>
-      <c r="J174" s="71"/>
-      <c r="K174" s="71"/>
+      <c r="B174" s="91"/>
+      <c r="C174" s="92" t="s">
+        <v>633</v>
+      </c>
+      <c r="D174" s="91" t="s">
+        <v>634</v>
+      </c>
+      <c r="E174" s="91"/>
+      <c r="F174" s="76" t="s">
+        <v>542</v>
+      </c>
+      <c r="G174" s="70" t="s">
+        <v>543</v>
+      </c>
+      <c r="H174" s="98"/>
+      <c r="I174" s="98"/>
+      <c r="J174" s="70"/>
+      <c r="K174" s="70"/>
       <c r="L174" s="30"/>
       <c r="M174" s="30"/>
       <c r="N174" s="30"/>
@@ -10428,26 +10451,26 @@
     </row>
     <row r="175" spans="1:26" ht="15" thickBot="1">
       <c r="A175" s="29"/>
-      <c r="B175" s="95"/>
-      <c r="C175" s="96" t="s">
+      <c r="B175" s="91"/>
+      <c r="C175" s="92" t="s">
+        <v>635</v>
+      </c>
+      <c r="D175" s="100" t="s">
+        <v>636</v>
+      </c>
+      <c r="E175" s="92" t="s">
         <v>637</v>
       </c>
-      <c r="D175" s="105" t="s">
-        <v>638</v>
-      </c>
-      <c r="E175" s="96" t="s">
-        <v>639</v>
-      </c>
-      <c r="F175" s="70" t="s">
-        <v>589</v>
-      </c>
-      <c r="G175" s="71" t="s">
-        <v>590</v>
-      </c>
-      <c r="H175" s="103"/>
-      <c r="I175" s="103"/>
-      <c r="J175" s="71"/>
-      <c r="K175" s="71"/>
+      <c r="F175" s="76" t="s">
+        <v>587</v>
+      </c>
+      <c r="G175" s="70" t="s">
+        <v>588</v>
+      </c>
+      <c r="H175" s="98"/>
+      <c r="I175" s="98"/>
+      <c r="J175" s="70"/>
+      <c r="K175" s="70"/>
       <c r="L175" s="30"/>
       <c r="M175" s="30"/>
       <c r="N175" s="30"/>
@@ -10466,26 +10489,26 @@
     </row>
     <row r="176" spans="1:26" ht="15" thickBot="1">
       <c r="A176" s="29"/>
-      <c r="B176" s="95"/>
-      <c r="C176" s="96" t="s">
+      <c r="B176" s="91"/>
+      <c r="C176" s="92" t="s">
+        <v>638</v>
+      </c>
+      <c r="D176" s="100" t="s">
+        <v>636</v>
+      </c>
+      <c r="E176" s="92" t="s">
+        <v>637</v>
+      </c>
+      <c r="F176" s="76" t="s">
+        <v>639</v>
+      </c>
+      <c r="G176" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="D176" s="105" t="s">
-        <v>638</v>
-      </c>
-      <c r="E176" s="96" t="s">
-        <v>639</v>
-      </c>
-      <c r="F176" s="70" t="s">
-        <v>641</v>
-      </c>
-      <c r="G176" s="71" t="s">
-        <v>642</v>
-      </c>
-      <c r="H176" s="103"/>
-      <c r="I176" s="103"/>
-      <c r="J176" s="71"/>
-      <c r="K176" s="71"/>
+      <c r="H176" s="98"/>
+      <c r="I176" s="98"/>
+      <c r="J176" s="70"/>
+      <c r="K176" s="70"/>
       <c r="L176" s="30"/>
       <c r="M176" s="30"/>
       <c r="N176" s="30"/>
@@ -10504,26 +10527,26 @@
     </row>
     <row r="177" spans="1:26" ht="15" thickBot="1">
       <c r="A177" s="29"/>
-      <c r="B177" s="95"/>
-      <c r="C177" s="96" t="s">
+      <c r="B177" s="91"/>
+      <c r="C177" s="92" t="s">
+        <v>641</v>
+      </c>
+      <c r="D177" s="100" t="s">
+        <v>636</v>
+      </c>
+      <c r="E177" s="92" t="s">
+        <v>637</v>
+      </c>
+      <c r="F177" s="76" t="s">
+        <v>642</v>
+      </c>
+      <c r="G177" s="70" t="s">
         <v>643</v>
       </c>
-      <c r="D177" s="105" t="s">
-        <v>638</v>
-      </c>
-      <c r="E177" s="96" t="s">
-        <v>639</v>
-      </c>
-      <c r="F177" s="70" t="s">
-        <v>644</v>
-      </c>
-      <c r="G177" s="71" t="s">
-        <v>645</v>
-      </c>
-      <c r="H177" s="103"/>
-      <c r="I177" s="103"/>
-      <c r="J177" s="71"/>
-      <c r="K177" s="71"/>
+      <c r="H177" s="98"/>
+      <c r="I177" s="98"/>
+      <c r="J177" s="70"/>
+      <c r="K177" s="70"/>
       <c r="L177" s="30"/>
       <c r="M177" s="30"/>
       <c r="N177" s="30"/>
@@ -10542,26 +10565,26 @@
     </row>
     <row r="178" spans="1:26" ht="15" thickBot="1">
       <c r="A178" s="29"/>
-      <c r="B178" s="95"/>
-      <c r="C178" s="96" t="s">
+      <c r="B178" s="91"/>
+      <c r="C178" s="92" t="s">
+        <v>644</v>
+      </c>
+      <c r="D178" s="100" t="s">
+        <v>636</v>
+      </c>
+      <c r="E178" s="92" t="s">
+        <v>637</v>
+      </c>
+      <c r="F178" s="76" t="s">
+        <v>645</v>
+      </c>
+      <c r="G178" s="70" t="s">
         <v>646</v>
       </c>
-      <c r="D178" s="105" t="s">
-        <v>638</v>
-      </c>
-      <c r="E178" s="96" t="s">
-        <v>639</v>
-      </c>
-      <c r="F178" s="70" t="s">
-        <v>647</v>
-      </c>
-      <c r="G178" s="71" t="s">
-        <v>648</v>
-      </c>
-      <c r="H178" s="103"/>
-      <c r="I178" s="103"/>
-      <c r="J178" s="71"/>
-      <c r="K178" s="71"/>
+      <c r="H178" s="98"/>
+      <c r="I178" s="98"/>
+      <c r="J178" s="70"/>
+      <c r="K178" s="70"/>
       <c r="L178" s="30"/>
       <c r="M178" s="30"/>
       <c r="N178" s="30"/>
@@ -10580,22 +10603,22 @@
     </row>
     <row r="179" spans="1:26" ht="15" thickBot="1">
       <c r="A179" s="29"/>
-      <c r="B179" s="95"/>
-      <c r="C179" s="96" t="s">
+      <c r="B179" s="91"/>
+      <c r="C179" s="92" t="s">
+        <v>647</v>
+      </c>
+      <c r="D179" s="91"/>
+      <c r="E179" s="91"/>
+      <c r="F179" s="76" t="s">
+        <v>648</v>
+      </c>
+      <c r="G179" s="70" t="s">
         <v>649</v>
       </c>
-      <c r="D179" s="95"/>
-      <c r="E179" s="95"/>
-      <c r="F179" s="70" t="s">
-        <v>650</v>
-      </c>
-      <c r="G179" s="71" t="s">
-        <v>651</v>
-      </c>
-      <c r="H179" s="103"/>
-      <c r="I179" s="103"/>
-      <c r="J179" s="71"/>
-      <c r="K179" s="71"/>
+      <c r="H179" s="98"/>
+      <c r="I179" s="98"/>
+      <c r="J179" s="70"/>
+      <c r="K179" s="70"/>
       <c r="L179" s="30"/>
       <c r="M179" s="30"/>
       <c r="N179" s="30"/>
@@ -10614,22 +10637,22 @@
     </row>
     <row r="180" spans="1:26" ht="15" thickBot="1">
       <c r="A180" s="29"/>
-      <c r="B180" s="95"/>
-      <c r="C180" s="96" t="s">
+      <c r="B180" s="91"/>
+      <c r="C180" s="92" t="s">
+        <v>650</v>
+      </c>
+      <c r="D180" s="100"/>
+      <c r="E180" s="92"/>
+      <c r="F180" s="76" t="s">
+        <v>651</v>
+      </c>
+      <c r="G180" s="70" t="s">
         <v>652</v>
       </c>
-      <c r="D180" s="105"/>
-      <c r="E180" s="96"/>
-      <c r="F180" s="70" t="s">
-        <v>653</v>
-      </c>
-      <c r="G180" s="71" t="s">
-        <v>654</v>
-      </c>
-      <c r="H180" s="103"/>
-      <c r="I180" s="103"/>
-      <c r="J180" s="71"/>
-      <c r="K180" s="71"/>
+      <c r="H180" s="98"/>
+      <c r="I180" s="98"/>
+      <c r="J180" s="70"/>
+      <c r="K180" s="70"/>
       <c r="L180" s="30"/>
       <c r="M180" s="30"/>
       <c r="N180" s="30"/>
@@ -10648,22 +10671,22 @@
     </row>
     <row r="181" spans="1:26" ht="15" thickBot="1">
       <c r="A181" s="29"/>
-      <c r="B181" s="95"/>
-      <c r="C181" s="96" t="s">
+      <c r="B181" s="91"/>
+      <c r="C181" s="92" t="s">
+        <v>653</v>
+      </c>
+      <c r="D181" s="100"/>
+      <c r="E181" s="92"/>
+      <c r="F181" s="76" t="s">
+        <v>654</v>
+      </c>
+      <c r="G181" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="D181" s="105"/>
-      <c r="E181" s="96"/>
-      <c r="F181" s="70" t="s">
-        <v>656</v>
-      </c>
-      <c r="G181" s="71" t="s">
-        <v>657</v>
-      </c>
-      <c r="H181" s="103"/>
-      <c r="I181" s="103"/>
-      <c r="J181" s="71"/>
-      <c r="K181" s="71"/>
+      <c r="H181" s="98"/>
+      <c r="I181" s="98"/>
+      <c r="J181" s="70"/>
+      <c r="K181" s="70"/>
       <c r="L181" s="30"/>
       <c r="M181" s="30"/>
       <c r="N181" s="30"/>
@@ -10682,22 +10705,22 @@
     </row>
     <row r="182" spans="1:26" ht="15" thickBot="1">
       <c r="A182" s="29"/>
-      <c r="B182" s="95"/>
-      <c r="C182" s="96" t="s">
+      <c r="B182" s="91"/>
+      <c r="C182" s="92" t="s">
+        <v>656</v>
+      </c>
+      <c r="D182" s="93"/>
+      <c r="E182" s="91"/>
+      <c r="F182" s="76" t="s">
+        <v>657</v>
+      </c>
+      <c r="G182" s="70" t="s">
         <v>658</v>
       </c>
-      <c r="D182" s="97"/>
-      <c r="E182" s="95"/>
-      <c r="F182" s="70" t="s">
-        <v>659</v>
-      </c>
-      <c r="G182" s="71" t="s">
-        <v>660</v>
-      </c>
-      <c r="H182" s="103"/>
-      <c r="I182" s="103"/>
-      <c r="J182" s="71"/>
-      <c r="K182" s="71"/>
+      <c r="H182" s="98"/>
+      <c r="I182" s="98"/>
+      <c r="J182" s="70"/>
+      <c r="K182" s="70"/>
       <c r="L182" s="30"/>
       <c r="M182" s="30"/>
       <c r="N182" s="30"/>
@@ -10716,20 +10739,20 @@
     </row>
     <row r="183" spans="1:26" ht="15" thickBot="1">
       <c r="A183" s="29"/>
-      <c r="B183" s="95"/>
-      <c r="C183" s="96" t="s">
-        <v>661</v>
-      </c>
-      <c r="D183" s="97"/>
-      <c r="E183" s="95"/>
-      <c r="F183" s="70" t="s">
-        <v>662</v>
-      </c>
-      <c r="G183" s="103"/>
-      <c r="H183" s="103"/>
-      <c r="I183" s="103"/>
-      <c r="J183" s="71"/>
-      <c r="K183" s="71"/>
+      <c r="B183" s="91"/>
+      <c r="C183" s="92" t="s">
+        <v>659</v>
+      </c>
+      <c r="D183" s="93"/>
+      <c r="E183" s="91"/>
+      <c r="F183" s="76" t="s">
+        <v>660</v>
+      </c>
+      <c r="G183" s="98"/>
+      <c r="H183" s="98"/>
+      <c r="I183" s="98"/>
+      <c r="J183" s="70"/>
+      <c r="K183" s="70"/>
       <c r="L183" s="30"/>
       <c r="M183" s="30"/>
       <c r="N183" s="30"/>
@@ -10748,20 +10771,20 @@
     </row>
     <row r="184" spans="1:26" ht="15" thickBot="1">
       <c r="A184" s="29"/>
-      <c r="B184" s="95"/>
-      <c r="C184" s="96" t="s">
-        <v>663</v>
-      </c>
-      <c r="D184" s="97"/>
-      <c r="E184" s="95"/>
-      <c r="F184" s="70" t="s">
-        <v>664</v>
-      </c>
-      <c r="G184" s="103"/>
-      <c r="H184" s="103"/>
-      <c r="I184" s="103"/>
-      <c r="J184" s="71"/>
-      <c r="K184" s="71"/>
+      <c r="B184" s="91"/>
+      <c r="C184" s="92" t="s">
+        <v>661</v>
+      </c>
+      <c r="D184" s="93"/>
+      <c r="E184" s="91"/>
+      <c r="F184" s="76" t="s">
+        <v>662</v>
+      </c>
+      <c r="G184" s="98"/>
+      <c r="H184" s="98"/>
+      <c r="I184" s="98"/>
+      <c r="J184" s="70"/>
+      <c r="K184" s="70"/>
       <c r="L184" s="30"/>
       <c r="M184" s="30"/>
       <c r="N184" s="30"/>
@@ -10780,20 +10803,20 @@
     </row>
     <row r="185" spans="1:26" ht="15" thickBot="1">
       <c r="A185" s="29"/>
-      <c r="B185" s="95"/>
-      <c r="C185" s="96" t="s">
-        <v>665</v>
-      </c>
-      <c r="D185" s="97"/>
-      <c r="E185" s="95"/>
-      <c r="F185" s="70" t="s">
-        <v>666</v>
-      </c>
-      <c r="G185" s="103"/>
-      <c r="H185" s="103"/>
-      <c r="I185" s="103"/>
-      <c r="J185" s="71"/>
-      <c r="K185" s="71"/>
+      <c r="B185" s="91"/>
+      <c r="C185" s="92" t="s">
+        <v>663</v>
+      </c>
+      <c r="D185" s="93"/>
+      <c r="E185" s="91"/>
+      <c r="F185" s="76" t="s">
+        <v>664</v>
+      </c>
+      <c r="G185" s="98"/>
+      <c r="H185" s="98"/>
+      <c r="I185" s="98"/>
+      <c r="J185" s="70"/>
+      <c r="K185" s="70"/>
       <c r="L185" s="30"/>
       <c r="M185" s="30"/>
       <c r="N185" s="30"/>
@@ -10812,20 +10835,20 @@
     </row>
     <row r="186" spans="1:26" ht="15" thickBot="1">
       <c r="A186" s="29"/>
-      <c r="B186" s="95"/>
-      <c r="C186" s="96" t="s">
-        <v>667</v>
-      </c>
-      <c r="D186" s="97"/>
-      <c r="E186" s="95"/>
-      <c r="F186" s="70" t="s">
-        <v>668</v>
-      </c>
-      <c r="G186" s="103"/>
-      <c r="H186" s="103"/>
-      <c r="I186" s="103"/>
-      <c r="J186" s="71"/>
-      <c r="K186" s="71"/>
+      <c r="B186" s="91"/>
+      <c r="C186" s="92" t="s">
+        <v>665</v>
+      </c>
+      <c r="D186" s="93"/>
+      <c r="E186" s="91"/>
+      <c r="F186" s="76" t="s">
+        <v>666</v>
+      </c>
+      <c r="G186" s="98"/>
+      <c r="H186" s="98"/>
+      <c r="I186" s="98"/>
+      <c r="J186" s="70"/>
+      <c r="K186" s="70"/>
       <c r="L186" s="30"/>
       <c r="M186" s="30"/>
       <c r="N186" s="30"/>
@@ -10844,20 +10867,20 @@
     </row>
     <row r="187" spans="1:26" ht="15" thickBot="1">
       <c r="A187" s="29"/>
-      <c r="B187" s="95"/>
-      <c r="C187" s="96" t="s">
-        <v>669</v>
-      </c>
-      <c r="D187" s="97"/>
-      <c r="E187" s="95"/>
-      <c r="F187" s="70" t="s">
-        <v>670</v>
-      </c>
-      <c r="G187" s="103"/>
-      <c r="H187" s="103"/>
-      <c r="I187" s="103"/>
-      <c r="J187" s="71"/>
-      <c r="K187" s="71"/>
+      <c r="B187" s="91"/>
+      <c r="C187" s="92" t="s">
+        <v>667</v>
+      </c>
+      <c r="D187" s="93"/>
+      <c r="E187" s="91"/>
+      <c r="F187" s="76" t="s">
+        <v>668</v>
+      </c>
+      <c r="G187" s="98"/>
+      <c r="H187" s="98"/>
+      <c r="I187" s="98"/>
+      <c r="J187" s="70"/>
+      <c r="K187" s="70"/>
       <c r="L187" s="30"/>
       <c r="M187" s="30"/>
       <c r="N187" s="30"/>
@@ -10876,20 +10899,20 @@
     </row>
     <row r="188" spans="1:26" ht="43.5" thickBot="1">
       <c r="A188" s="29"/>
-      <c r="B188" s="95"/>
-      <c r="C188" s="96" t="s">
-        <v>671</v>
-      </c>
-      <c r="D188" s="97"/>
-      <c r="E188" s="95"/>
-      <c r="F188" s="70" t="s">
-        <v>672</v>
-      </c>
-      <c r="G188" s="103"/>
-      <c r="H188" s="103"/>
-      <c r="I188" s="103"/>
-      <c r="J188" s="71"/>
-      <c r="K188" s="71"/>
+      <c r="B188" s="91"/>
+      <c r="C188" s="92" t="s">
+        <v>669</v>
+      </c>
+      <c r="D188" s="93"/>
+      <c r="E188" s="91"/>
+      <c r="F188" s="76" t="s">
+        <v>670</v>
+      </c>
+      <c r="G188" s="98"/>
+      <c r="H188" s="98"/>
+      <c r="I188" s="98"/>
+      <c r="J188" s="70"/>
+      <c r="K188" s="70"/>
       <c r="L188" s="30"/>
       <c r="M188" s="30"/>
       <c r="N188" s="30"/>
@@ -10908,20 +10931,20 @@
     </row>
     <row r="189" spans="1:26" ht="15" thickBot="1">
       <c r="A189" s="29"/>
-      <c r="B189" s="95"/>
-      <c r="C189" s="96" t="s">
-        <v>673</v>
-      </c>
-      <c r="D189" s="97"/>
-      <c r="E189" s="95"/>
-      <c r="F189" s="70" t="s">
-        <v>674</v>
-      </c>
-      <c r="G189" s="103"/>
-      <c r="H189" s="103"/>
-      <c r="I189" s="103"/>
-      <c r="J189" s="71"/>
-      <c r="K189" s="71"/>
+      <c r="B189" s="91"/>
+      <c r="C189" s="92" t="s">
+        <v>671</v>
+      </c>
+      <c r="D189" s="93"/>
+      <c r="E189" s="91"/>
+      <c r="F189" s="76" t="s">
+        <v>672</v>
+      </c>
+      <c r="G189" s="98"/>
+      <c r="H189" s="98"/>
+      <c r="I189" s="98"/>
+      <c r="J189" s="70"/>
+      <c r="K189" s="70"/>
       <c r="L189" s="30"/>
       <c r="M189" s="30"/>
       <c r="N189" s="30"/>
@@ -10940,20 +10963,20 @@
     </row>
     <row r="190" spans="1:26" ht="15" thickBot="1">
       <c r="A190" s="29"/>
-      <c r="B190" s="95"/>
-      <c r="C190" s="96" t="s">
-        <v>675</v>
-      </c>
-      <c r="D190" s="97"/>
-      <c r="E190" s="95"/>
-      <c r="F190" s="70" t="s">
-        <v>676</v>
-      </c>
-      <c r="G190" s="103"/>
-      <c r="H190" s="103"/>
-      <c r="I190" s="103"/>
-      <c r="J190" s="71"/>
-      <c r="K190" s="71"/>
+      <c r="B190" s="91"/>
+      <c r="C190" s="92" t="s">
+        <v>673</v>
+      </c>
+      <c r="D190" s="93"/>
+      <c r="E190" s="91"/>
+      <c r="F190" s="76" t="s">
+        <v>674</v>
+      </c>
+      <c r="G190" s="98"/>
+      <c r="H190" s="98"/>
+      <c r="I190" s="98"/>
+      <c r="J190" s="70"/>
+      <c r="K190" s="70"/>
       <c r="L190" s="30"/>
       <c r="M190" s="30"/>
       <c r="N190" s="30"/>
@@ -10972,20 +10995,20 @@
     </row>
     <row r="191" spans="1:26" ht="43.5" thickBot="1">
       <c r="A191" s="29"/>
-      <c r="B191" s="95"/>
-      <c r="C191" s="96" t="s">
-        <v>677</v>
-      </c>
-      <c r="D191" s="97"/>
-      <c r="E191" s="95"/>
-      <c r="F191" s="70" t="s">
-        <v>678</v>
-      </c>
-      <c r="G191" s="103"/>
-      <c r="H191" s="103"/>
-      <c r="I191" s="103"/>
-      <c r="J191" s="71"/>
-      <c r="K191" s="71"/>
+      <c r="B191" s="91"/>
+      <c r="C191" s="92" t="s">
+        <v>675</v>
+      </c>
+      <c r="D191" s="93"/>
+      <c r="E191" s="91"/>
+      <c r="F191" s="76" t="s">
+        <v>676</v>
+      </c>
+      <c r="G191" s="98"/>
+      <c r="H191" s="98"/>
+      <c r="I191" s="98"/>
+      <c r="J191" s="70"/>
+      <c r="K191" s="70"/>
       <c r="L191" s="30"/>
       <c r="M191" s="30"/>
       <c r="N191" s="30"/>
@@ -11004,20 +11027,20 @@
     </row>
     <row r="192" spans="1:26" ht="15" thickBot="1">
       <c r="A192" s="29"/>
-      <c r="B192" s="95"/>
-      <c r="C192" s="96" t="s">
-        <v>679</v>
-      </c>
-      <c r="D192" s="97"/>
-      <c r="E192" s="95"/>
-      <c r="F192" s="70" t="s">
-        <v>674</v>
-      </c>
-      <c r="G192" s="103"/>
-      <c r="H192" s="103"/>
-      <c r="I192" s="103"/>
-      <c r="J192" s="71"/>
-      <c r="K192" s="71"/>
+      <c r="B192" s="91"/>
+      <c r="C192" s="92" t="s">
+        <v>677</v>
+      </c>
+      <c r="D192" s="93"/>
+      <c r="E192" s="91"/>
+      <c r="F192" s="76" t="s">
+        <v>672</v>
+      </c>
+      <c r="G192" s="98"/>
+      <c r="H192" s="98"/>
+      <c r="I192" s="98"/>
+      <c r="J192" s="70"/>
+      <c r="K192" s="70"/>
       <c r="L192" s="30"/>
       <c r="M192" s="30"/>
       <c r="N192" s="30"/>
@@ -11036,20 +11059,20 @@
     </row>
     <row r="193" spans="1:26" ht="15" thickBot="1">
       <c r="A193" s="29"/>
-      <c r="B193" s="95"/>
-      <c r="C193" s="96" t="s">
-        <v>680</v>
-      </c>
-      <c r="D193" s="97"/>
-      <c r="E193" s="95"/>
-      <c r="F193" s="70" t="s">
-        <v>681</v>
-      </c>
-      <c r="G193" s="103"/>
-      <c r="H193" s="103"/>
-      <c r="I193" s="103"/>
-      <c r="J193" s="71"/>
-      <c r="K193" s="71"/>
+      <c r="B193" s="91"/>
+      <c r="C193" s="92" t="s">
+        <v>678</v>
+      </c>
+      <c r="D193" s="93"/>
+      <c r="E193" s="91"/>
+      <c r="F193" s="76" t="s">
+        <v>679</v>
+      </c>
+      <c r="G193" s="98"/>
+      <c r="H193" s="98"/>
+      <c r="I193" s="98"/>
+      <c r="J193" s="70"/>
+      <c r="K193" s="70"/>
       <c r="L193" s="30"/>
       <c r="M193" s="30"/>
       <c r="N193" s="30"/>
@@ -11068,20 +11091,20 @@
     </row>
     <row r="194" spans="1:26" ht="15" thickBot="1">
       <c r="A194" s="29"/>
-      <c r="B194" s="95"/>
-      <c r="C194" s="96" t="s">
-        <v>682</v>
-      </c>
-      <c r="D194" s="97"/>
-      <c r="E194" s="95"/>
-      <c r="F194" s="70" t="s">
-        <v>683</v>
-      </c>
-      <c r="G194" s="103"/>
-      <c r="H194" s="103"/>
-      <c r="I194" s="103"/>
-      <c r="J194" s="71"/>
-      <c r="K194" s="71"/>
+      <c r="B194" s="91"/>
+      <c r="C194" s="92" t="s">
+        <v>680</v>
+      </c>
+      <c r="D194" s="93"/>
+      <c r="E194" s="91"/>
+      <c r="F194" s="76" t="s">
+        <v>681</v>
+      </c>
+      <c r="G194" s="98"/>
+      <c r="H194" s="98"/>
+      <c r="I194" s="98"/>
+      <c r="J194" s="70"/>
+      <c r="K194" s="70"/>
       <c r="L194" s="30"/>
       <c r="M194" s="30"/>
       <c r="N194" s="30"/>
@@ -11100,20 +11123,20 @@
     </row>
     <row r="195" spans="1:26" ht="15" thickBot="1">
       <c r="A195" s="29"/>
-      <c r="B195" s="95"/>
-      <c r="C195" s="96" t="s">
-        <v>684</v>
-      </c>
-      <c r="D195" s="97"/>
-      <c r="E195" s="95"/>
-      <c r="F195" s="70" t="s">
-        <v>685</v>
-      </c>
-      <c r="G195" s="103"/>
-      <c r="H195" s="103"/>
-      <c r="I195" s="103"/>
-      <c r="J195" s="71"/>
-      <c r="K195" s="71"/>
+      <c r="B195" s="91"/>
+      <c r="C195" s="92" t="s">
+        <v>682</v>
+      </c>
+      <c r="D195" s="93"/>
+      <c r="E195" s="91"/>
+      <c r="F195" s="99" t="s">
+        <v>810</v>
+      </c>
+      <c r="G195" s="98"/>
+      <c r="H195" s="98"/>
+      <c r="I195" s="98"/>
+      <c r="J195" s="70"/>
+      <c r="K195" s="70"/>
       <c r="L195" s="30"/>
       <c r="M195" s="30"/>
       <c r="N195" s="30"/>
@@ -11132,20 +11155,20 @@
     </row>
     <row r="196" spans="1:26" thickBot="1">
       <c r="A196" s="29"/>
-      <c r="B196" s="95"/>
-      <c r="C196" s="96" t="s">
-        <v>686</v>
-      </c>
-      <c r="D196" s="97"/>
-      <c r="E196" s="95"/>
-      <c r="F196" s="107" t="s">
-        <v>815</v>
-      </c>
-      <c r="G196" s="103"/>
-      <c r="H196" s="103"/>
-      <c r="I196" s="103"/>
-      <c r="J196" s="71"/>
-      <c r="K196" s="71"/>
+      <c r="B196" s="91"/>
+      <c r="C196" s="92" t="s">
+        <v>683</v>
+      </c>
+      <c r="D196" s="93"/>
+      <c r="E196" s="91"/>
+      <c r="F196" s="109" t="s">
+        <v>811</v>
+      </c>
+      <c r="G196" s="98"/>
+      <c r="H196" s="98"/>
+      <c r="I196" s="98"/>
+      <c r="J196" s="70"/>
+      <c r="K196" s="70"/>
       <c r="L196" s="30"/>
       <c r="M196" s="30"/>
       <c r="N196" s="30"/>
@@ -11164,20 +11187,20 @@
     </row>
     <row r="197" spans="1:26" ht="15" thickBot="1">
       <c r="A197" s="29"/>
-      <c r="B197" s="95"/>
-      <c r="C197" s="96" t="s">
-        <v>687</v>
-      </c>
-      <c r="D197" s="97"/>
-      <c r="E197" s="95"/>
-      <c r="F197" s="79" t="s">
-        <v>688</v>
-      </c>
-      <c r="G197" s="103"/>
-      <c r="H197" s="103"/>
-      <c r="I197" s="103"/>
-      <c r="J197" s="71"/>
-      <c r="K197" s="71"/>
+      <c r="B197" s="91"/>
+      <c r="C197" s="92" t="s">
+        <v>684</v>
+      </c>
+      <c r="D197" s="93"/>
+      <c r="E197" s="91"/>
+      <c r="F197" s="76" t="s">
+        <v>685</v>
+      </c>
+      <c r="G197" s="98"/>
+      <c r="H197" s="98"/>
+      <c r="I197" s="98"/>
+      <c r="J197" s="70"/>
+      <c r="K197" s="70"/>
       <c r="L197" s="30"/>
       <c r="M197" s="30"/>
       <c r="N197" s="30"/>
@@ -11196,18 +11219,18 @@
     </row>
     <row r="198" spans="1:26" ht="13.5" thickBot="1">
       <c r="A198" s="29"/>
-      <c r="B198" s="95"/>
-      <c r="C198" s="108" t="s">
-        <v>689</v>
-      </c>
-      <c r="D198" s="97"/>
-      <c r="E198" s="95"/>
-      <c r="F198" s="109"/>
-      <c r="G198" s="103"/>
-      <c r="H198" s="103"/>
-      <c r="I198" s="103"/>
-      <c r="J198" s="71"/>
-      <c r="K198" s="71"/>
+      <c r="B198" s="91"/>
+      <c r="C198" s="103" t="s">
+        <v>686</v>
+      </c>
+      <c r="D198" s="93"/>
+      <c r="E198" s="91"/>
+      <c r="F198" s="104"/>
+      <c r="G198" s="98"/>
+      <c r="H198" s="98"/>
+      <c r="I198" s="98"/>
+      <c r="J198" s="70"/>
+      <c r="K198" s="70"/>
       <c r="L198" s="30"/>
       <c r="M198" s="30"/>
       <c r="N198" s="30"/>
@@ -11226,20 +11249,20 @@
     </row>
     <row r="199" spans="1:26" thickBot="1">
       <c r="A199" s="29"/>
-      <c r="B199" s="95"/>
-      <c r="C199" s="96" t="s">
-        <v>690</v>
-      </c>
-      <c r="D199" s="97"/>
-      <c r="E199" s="95"/>
-      <c r="F199" s="107" t="s">
-        <v>815</v>
-      </c>
-      <c r="G199" s="103"/>
-      <c r="H199" s="103"/>
-      <c r="I199" s="103"/>
-      <c r="J199" s="71"/>
-      <c r="K199" s="71"/>
+      <c r="B199" s="91"/>
+      <c r="C199" s="92" t="s">
+        <v>687</v>
+      </c>
+      <c r="D199" s="93"/>
+      <c r="E199" s="91"/>
+      <c r="F199" s="109" t="s">
+        <v>811</v>
+      </c>
+      <c r="G199" s="98"/>
+      <c r="H199" s="98"/>
+      <c r="I199" s="98"/>
+      <c r="J199" s="70"/>
+      <c r="K199" s="70"/>
       <c r="L199" s="30"/>
       <c r="M199" s="30"/>
       <c r="N199" s="30"/>
@@ -11256,22 +11279,22 @@
       <c r="Y199" s="30"/>
       <c r="Z199" s="30"/>
     </row>
-    <row r="200" spans="1:26" ht="15" thickBot="1">
+    <row r="200" spans="1:26" thickBot="1">
       <c r="A200" s="29"/>
-      <c r="B200" s="95"/>
-      <c r="C200" s="96" t="s">
-        <v>691</v>
-      </c>
-      <c r="D200" s="97"/>
-      <c r="E200" s="95"/>
-      <c r="F200" s="79" t="s">
-        <v>692</v>
-      </c>
-      <c r="G200" s="103"/>
-      <c r="H200" s="103"/>
-      <c r="I200" s="103"/>
-      <c r="J200" s="71"/>
-      <c r="K200" s="71"/>
+      <c r="B200" s="91"/>
+      <c r="C200" s="92" t="s">
+        <v>688</v>
+      </c>
+      <c r="D200" s="93"/>
+      <c r="E200" s="91"/>
+      <c r="F200" s="109" t="s">
+        <v>812</v>
+      </c>
+      <c r="G200" s="98"/>
+      <c r="H200" s="98"/>
+      <c r="I200" s="98"/>
+      <c r="J200" s="70"/>
+      <c r="K200" s="70"/>
       <c r="L200" s="30"/>
       <c r="M200" s="30"/>
       <c r="N200" s="30"/>
@@ -11290,18 +11313,18 @@
     </row>
     <row r="201" spans="1:26" ht="13.5" thickBot="1">
       <c r="A201" s="29"/>
-      <c r="B201" s="95"/>
-      <c r="C201" s="96" t="s">
-        <v>693</v>
-      </c>
-      <c r="D201" s="97"/>
-      <c r="E201" s="95"/>
-      <c r="F201" s="109"/>
-      <c r="G201" s="103"/>
-      <c r="H201" s="103"/>
-      <c r="I201" s="103"/>
-      <c r="J201" s="71"/>
-      <c r="K201" s="71"/>
+      <c r="B201" s="91"/>
+      <c r="C201" s="92" t="s">
+        <v>689</v>
+      </c>
+      <c r="D201" s="93"/>
+      <c r="E201" s="91"/>
+      <c r="F201" s="104"/>
+      <c r="G201" s="98"/>
+      <c r="H201" s="98"/>
+      <c r="I201" s="98"/>
+      <c r="J201" s="70"/>
+      <c r="K201" s="70"/>
       <c r="L201" s="30"/>
       <c r="M201" s="30"/>
       <c r="N201" s="30"/>
@@ -11320,20 +11343,20 @@
     </row>
     <row r="202" spans="1:26" thickBot="1">
       <c r="A202" s="29"/>
-      <c r="B202" s="95"/>
-      <c r="C202" s="96" t="s">
-        <v>694</v>
-      </c>
-      <c r="D202" s="97"/>
-      <c r="E202" s="95"/>
-      <c r="F202" s="107" t="s">
-        <v>816</v>
-      </c>
-      <c r="G202" s="103"/>
-      <c r="H202" s="103"/>
-      <c r="I202" s="103"/>
-      <c r="J202" s="71"/>
-      <c r="K202" s="71"/>
+      <c r="B202" s="91"/>
+      <c r="C202" s="92" t="s">
+        <v>690</v>
+      </c>
+      <c r="D202" s="93"/>
+      <c r="E202" s="91"/>
+      <c r="F202" s="109" t="s">
+        <v>813</v>
+      </c>
+      <c r="G202" s="98"/>
+      <c r="H202" s="98"/>
+      <c r="I202" s="98"/>
+      <c r="J202" s="70"/>
+      <c r="K202" s="70"/>
       <c r="L202" s="30"/>
       <c r="M202" s="30"/>
       <c r="N202" s="30"/>
@@ -11352,20 +11375,20 @@
     </row>
     <row r="203" spans="1:26" ht="15" thickBot="1">
       <c r="A203" s="29"/>
-      <c r="B203" s="95"/>
-      <c r="C203" s="96" t="s">
-        <v>695</v>
-      </c>
-      <c r="D203" s="97"/>
-      <c r="E203" s="95"/>
-      <c r="F203" s="70" t="s">
-        <v>696</v>
-      </c>
-      <c r="G203" s="103"/>
-      <c r="H203" s="103"/>
-      <c r="I203" s="103"/>
-      <c r="J203" s="71"/>
-      <c r="K203" s="71"/>
+      <c r="B203" s="91"/>
+      <c r="C203" s="92" t="s">
+        <v>691</v>
+      </c>
+      <c r="D203" s="93"/>
+      <c r="E203" s="91"/>
+      <c r="F203" s="76" t="s">
+        <v>692</v>
+      </c>
+      <c r="G203" s="98"/>
+      <c r="H203" s="98"/>
+      <c r="I203" s="98"/>
+      <c r="J203" s="70"/>
+      <c r="K203" s="70"/>
       <c r="L203" s="30"/>
       <c r="M203" s="30"/>
       <c r="N203" s="30"/>
@@ -11384,26 +11407,26 @@
     </row>
     <row r="204" spans="1:26" ht="15" thickBot="1">
       <c r="A204" s="29"/>
-      <c r="B204" s="68"/>
-      <c r="C204" s="68" t="s">
-        <v>697</v>
-      </c>
-      <c r="D204" s="69" t="s">
+      <c r="B204" s="67"/>
+      <c r="C204" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="D204" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="E204" s="68" t="s">
+      <c r="E204" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F204" s="70" t="s">
-        <v>698</v>
-      </c>
-      <c r="G204" s="71" t="s">
-        <v>699</v>
-      </c>
-      <c r="H204" s="103"/>
-      <c r="I204" s="103"/>
-      <c r="J204" s="73"/>
-      <c r="K204" s="73"/>
+      <c r="F204" s="69" t="s">
+        <v>694</v>
+      </c>
+      <c r="G204" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="H204" s="98"/>
+      <c r="I204" s="98"/>
+      <c r="J204" s="72"/>
+      <c r="K204" s="72"/>
       <c r="L204" s="30"/>
       <c r="M204" s="30"/>
       <c r="N204" s="30"/>
@@ -11422,22 +11445,22 @@
     </row>
     <row r="205" spans="1:26" ht="15" thickBot="1">
       <c r="A205" s="29"/>
-      <c r="B205" s="95"/>
-      <c r="C205" s="96" t="s">
-        <v>700</v>
-      </c>
-      <c r="D205" s="97"/>
-      <c r="E205" s="95"/>
-      <c r="F205" s="70" t="s">
-        <v>701</v>
-      </c>
-      <c r="G205" s="71" t="s">
-        <v>702</v>
-      </c>
-      <c r="H205" s="71"/>
-      <c r="I205" s="71"/>
-      <c r="J205" s="71"/>
-      <c r="K205" s="71"/>
+      <c r="B205" s="91"/>
+      <c r="C205" s="92" t="s">
+        <v>696</v>
+      </c>
+      <c r="D205" s="93"/>
+      <c r="E205" s="91"/>
+      <c r="F205" s="69" t="s">
+        <v>697</v>
+      </c>
+      <c r="G205" s="70" t="s">
+        <v>698</v>
+      </c>
+      <c r="H205" s="70"/>
+      <c r="I205" s="70"/>
+      <c r="J205" s="70"/>
+      <c r="K205" s="70"/>
       <c r="L205" s="30"/>
       <c r="M205" s="30"/>
       <c r="N205" s="30"/>
@@ -11456,24 +11479,24 @@
     </row>
     <row r="206" spans="1:26" ht="15" thickBot="1">
       <c r="A206" s="29"/>
-      <c r="B206" s="95"/>
-      <c r="C206" s="96" t="s">
-        <v>703</v>
-      </c>
-      <c r="D206" s="97"/>
-      <c r="E206" s="96" t="s">
-        <v>257</v>
-      </c>
-      <c r="F206" s="70" t="s">
-        <v>704</v>
-      </c>
-      <c r="G206" s="71" t="s">
-        <v>705</v>
-      </c>
-      <c r="H206" s="71"/>
-      <c r="I206" s="71"/>
-      <c r="J206" s="71"/>
-      <c r="K206" s="71"/>
+      <c r="B206" s="91"/>
+      <c r="C206" s="92" t="s">
+        <v>699</v>
+      </c>
+      <c r="D206" s="93"/>
+      <c r="E206" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="F206" s="69" t="s">
+        <v>700</v>
+      </c>
+      <c r="G206" s="70" t="s">
+        <v>701</v>
+      </c>
+      <c r="H206" s="70"/>
+      <c r="I206" s="70"/>
+      <c r="J206" s="70"/>
+      <c r="K206" s="70"/>
       <c r="L206" s="30"/>
       <c r="M206" s="30"/>
       <c r="N206" s="30"/>
@@ -11492,20 +11515,20 @@
     </row>
     <row r="207" spans="1:26" ht="15" thickBot="1">
       <c r="A207" s="29"/>
-      <c r="B207" s="95"/>
-      <c r="C207" s="96" t="s">
-        <v>706</v>
-      </c>
-      <c r="D207" s="97"/>
-      <c r="E207" s="95"/>
-      <c r="F207" s="70" t="s">
-        <v>707</v>
-      </c>
-      <c r="G207" s="71"/>
-      <c r="H207" s="71"/>
-      <c r="I207" s="71"/>
-      <c r="J207" s="71"/>
-      <c r="K207" s="71"/>
+      <c r="B207" s="91"/>
+      <c r="C207" s="92" t="s">
+        <v>702</v>
+      </c>
+      <c r="D207" s="93"/>
+      <c r="E207" s="91"/>
+      <c r="F207" s="69" t="s">
+        <v>703</v>
+      </c>
+      <c r="G207" s="70"/>
+      <c r="H207" s="70"/>
+      <c r="I207" s="70"/>
+      <c r="J207" s="70"/>
+      <c r="K207" s="70"/>
       <c r="L207" s="30"/>
       <c r="M207" s="30"/>
       <c r="N207" s="30"/>
@@ -11522,22 +11545,22 @@
       <c r="Y207" s="30"/>
       <c r="Z207" s="30"/>
     </row>
-    <row r="208" spans="1:26" ht="13.5" thickBot="1">
+    <row r="208" spans="1:26" thickBot="1">
       <c r="A208" s="29"/>
-      <c r="B208" s="95"/>
-      <c r="C208" s="96" t="s">
-        <v>708</v>
-      </c>
-      <c r="D208" s="97"/>
-      <c r="E208" s="95"/>
-      <c r="F208" s="71" t="s">
-        <v>709</v>
-      </c>
-      <c r="G208" s="71"/>
-      <c r="H208" s="71"/>
-      <c r="I208" s="71"/>
-      <c r="J208" s="71"/>
-      <c r="K208" s="71"/>
+      <c r="B208" s="91"/>
+      <c r="C208" s="92" t="s">
+        <v>704</v>
+      </c>
+      <c r="D208" s="93"/>
+      <c r="E208" s="91"/>
+      <c r="F208" s="109" t="s">
+        <v>814</v>
+      </c>
+      <c r="G208" s="70"/>
+      <c r="H208" s="70"/>
+      <c r="I208" s="70"/>
+      <c r="J208" s="70"/>
+      <c r="K208" s="70"/>
       <c r="L208" s="30"/>
       <c r="M208" s="30"/>
       <c r="N208" s="30"/>
@@ -11554,22 +11577,22 @@
       <c r="Y208" s="30"/>
       <c r="Z208" s="30"/>
     </row>
-    <row r="209" spans="1:26" ht="15" thickBot="1">
+    <row r="209" spans="1:26" thickBot="1">
       <c r="A209" s="29"/>
-      <c r="B209" s="95"/>
-      <c r="C209" s="96" t="s">
-        <v>710</v>
-      </c>
-      <c r="D209" s="97"/>
-      <c r="E209" s="95"/>
-      <c r="F209" s="70" t="s">
-        <v>711</v>
-      </c>
-      <c r="G209" s="71"/>
-      <c r="H209" s="71"/>
-      <c r="I209" s="71"/>
-      <c r="J209" s="71"/>
-      <c r="K209" s="71"/>
+      <c r="B209" s="91"/>
+      <c r="C209" s="92" t="s">
+        <v>705</v>
+      </c>
+      <c r="D209" s="93"/>
+      <c r="E209" s="91"/>
+      <c r="F209" s="109" t="s">
+        <v>815</v>
+      </c>
+      <c r="G209" s="70"/>
+      <c r="H209" s="70"/>
+      <c r="I209" s="70"/>
+      <c r="J209" s="70"/>
+      <c r="K209" s="70"/>
       <c r="L209" s="30"/>
       <c r="M209" s="30"/>
       <c r="N209" s="30"/>
@@ -11588,20 +11611,20 @@
     </row>
     <row r="210" spans="1:26" ht="15" thickBot="1">
       <c r="A210" s="29"/>
-      <c r="B210" s="95"/>
-      <c r="C210" s="96" t="s">
-        <v>712</v>
-      </c>
-      <c r="D210" s="97"/>
-      <c r="E210" s="95"/>
-      <c r="F210" s="70" t="s">
-        <v>713</v>
-      </c>
-      <c r="G210" s="71"/>
-      <c r="H210" s="71"/>
-      <c r="I210" s="71"/>
-      <c r="J210" s="71"/>
-      <c r="K210" s="71"/>
+      <c r="B210" s="91"/>
+      <c r="C210" s="92" t="s">
+        <v>706</v>
+      </c>
+      <c r="D210" s="93"/>
+      <c r="E210" s="91"/>
+      <c r="F210" s="69" t="s">
+        <v>707</v>
+      </c>
+      <c r="G210" s="70"/>
+      <c r="H210" s="70"/>
+      <c r="I210" s="70"/>
+      <c r="J210" s="70"/>
+      <c r="K210" s="70"/>
       <c r="L210" s="30"/>
       <c r="M210" s="30"/>
       <c r="N210" s="30"/>
@@ -11620,20 +11643,20 @@
     </row>
     <row r="211" spans="1:26" ht="15" thickBot="1">
       <c r="A211" s="29"/>
-      <c r="B211" s="95"/>
-      <c r="C211" s="96" t="s">
-        <v>714</v>
-      </c>
-      <c r="D211" s="97"/>
-      <c r="E211" s="95"/>
-      <c r="F211" s="70" t="s">
-        <v>715</v>
-      </c>
-      <c r="G211" s="71"/>
-      <c r="H211" s="71"/>
-      <c r="I211" s="71"/>
-      <c r="J211" s="71"/>
-      <c r="K211" s="71"/>
+      <c r="B211" s="91"/>
+      <c r="C211" s="92" t="s">
+        <v>708</v>
+      </c>
+      <c r="D211" s="93"/>
+      <c r="E211" s="91"/>
+      <c r="F211" s="69" t="s">
+        <v>709</v>
+      </c>
+      <c r="G211" s="70"/>
+      <c r="H211" s="70"/>
+      <c r="I211" s="70"/>
+      <c r="J211" s="70"/>
+      <c r="K211" s="70"/>
       <c r="L211" s="30"/>
       <c r="M211" s="30"/>
       <c r="N211" s="30"/>
@@ -11652,20 +11675,20 @@
     </row>
     <row r="212" spans="1:26" ht="15" thickBot="1">
       <c r="A212" s="29"/>
-      <c r="B212" s="95"/>
-      <c r="C212" s="96" t="s">
-        <v>716</v>
-      </c>
-      <c r="D212" s="97"/>
-      <c r="E212" s="95"/>
-      <c r="F212" s="70" t="s">
-        <v>717</v>
-      </c>
-      <c r="G212" s="71"/>
-      <c r="H212" s="71"/>
-      <c r="I212" s="71"/>
-      <c r="J212" s="71"/>
-      <c r="K212" s="71"/>
+      <c r="B212" s="91"/>
+      <c r="C212" s="92" t="s">
+        <v>710</v>
+      </c>
+      <c r="D212" s="93"/>
+      <c r="E212" s="91"/>
+      <c r="F212" s="69" t="s">
+        <v>711</v>
+      </c>
+      <c r="G212" s="70"/>
+      <c r="H212" s="70"/>
+      <c r="I212" s="70"/>
+      <c r="J212" s="70"/>
+      <c r="K212" s="70"/>
       <c r="L212" s="30"/>
       <c r="M212" s="30"/>
       <c r="N212" s="30"/>
@@ -11684,20 +11707,20 @@
     </row>
     <row r="213" spans="1:26" ht="15" thickBot="1">
       <c r="A213" s="29"/>
-      <c r="B213" s="95"/>
-      <c r="C213" s="96" t="s">
-        <v>718</v>
-      </c>
-      <c r="D213" s="97"/>
-      <c r="E213" s="95"/>
-      <c r="F213" s="70" t="s">
-        <v>719</v>
-      </c>
-      <c r="G213" s="71"/>
-      <c r="H213" s="71"/>
-      <c r="I213" s="71"/>
-      <c r="J213" s="71"/>
-      <c r="K213" s="71"/>
+      <c r="B213" s="91"/>
+      <c r="C213" s="92" t="s">
+        <v>712</v>
+      </c>
+      <c r="D213" s="93"/>
+      <c r="E213" s="91"/>
+      <c r="F213" s="69" t="s">
+        <v>713</v>
+      </c>
+      <c r="G213" s="70"/>
+      <c r="H213" s="70"/>
+      <c r="I213" s="70"/>
+      <c r="J213" s="70"/>
+      <c r="K213" s="70"/>
       <c r="L213" s="30"/>
       <c r="M213" s="30"/>
       <c r="N213" s="30"/>
@@ -11714,18 +11737,22 @@
       <c r="Y213" s="30"/>
       <c r="Z213" s="30"/>
     </row>
-    <row r="214" spans="1:26" ht="14.25">
+    <row r="214" spans="1:26" thickBot="1">
       <c r="A214" s="29"/>
-      <c r="B214" s="33"/>
-      <c r="C214" s="32"/>
-      <c r="D214" s="31"/>
-      <c r="E214" s="32"/>
-      <c r="F214" s="40"/>
-      <c r="G214" s="38"/>
-      <c r="H214" s="38"/>
-      <c r="I214" s="38"/>
-      <c r="J214" s="30"/>
-      <c r="K214" s="30"/>
+      <c r="B214" s="91"/>
+      <c r="C214" s="92" t="s">
+        <v>816</v>
+      </c>
+      <c r="D214" s="93"/>
+      <c r="E214" s="91"/>
+      <c r="F214" s="102" t="s">
+        <v>817</v>
+      </c>
+      <c r="G214" s="70"/>
+      <c r="H214" s="70"/>
+      <c r="I214" s="70"/>
+      <c r="J214" s="70"/>
+      <c r="K214" s="70"/>
       <c r="L214" s="30"/>
       <c r="M214" s="30"/>
       <c r="N214" s="30"/>
@@ -11742,18 +11769,22 @@
       <c r="Y214" s="30"/>
       <c r="Z214" s="30"/>
     </row>
-    <row r="215" spans="1:26" ht="14.25">
+    <row r="215" spans="1:26" thickBot="1">
       <c r="A215" s="29"/>
-      <c r="B215" s="33"/>
-      <c r="C215" s="32"/>
-      <c r="D215" s="31"/>
-      <c r="E215" s="32"/>
-      <c r="F215" s="40"/>
-      <c r="G215" s="38"/>
-      <c r="H215" s="38"/>
-      <c r="I215" s="38"/>
-      <c r="J215" s="30"/>
-      <c r="K215" s="30"/>
+      <c r="B215" s="91"/>
+      <c r="C215" s="92" t="s">
+        <v>818</v>
+      </c>
+      <c r="D215" s="93"/>
+      <c r="E215" s="91"/>
+      <c r="F215" s="109" t="s">
+        <v>819</v>
+      </c>
+      <c r="G215" s="70"/>
+      <c r="H215" s="70"/>
+      <c r="I215" s="70"/>
+      <c r="J215" s="70"/>
+      <c r="K215" s="70"/>
       <c r="L215" s="30"/>
       <c r="M215" s="30"/>
       <c r="N215" s="30"/>
@@ -35377,22 +35408,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
@@ -35416,18 +35447,18 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="44" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="35" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -35456,10 +35487,10 @@
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
       <c r="E3" s="45" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="G3" s="47"/>
       <c r="H3" s="44"/>
@@ -35488,10 +35519,10 @@
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
       <c r="E4" s="45" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G4" s="47"/>
       <c r="H4" s="44"/>
@@ -35520,10 +35551,10 @@
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
       <c r="E5" s="45" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="H5" s="44"/>
       <c r="I5" s="44"/>
@@ -35551,10 +35582,10 @@
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="45" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G6" s="35"/>
       <c r="H6" s="44"/>
@@ -35583,13 +35614,13 @@
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="49" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
@@ -35617,10 +35648,10 @@
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
       <c r="E8" s="51" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="44"/>
@@ -35649,10 +35680,10 @@
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
       <c r="E9" s="51" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="44"/>
@@ -35681,10 +35712,10 @@
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
       <c r="E10" s="52" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="44"/>
@@ -35713,10 +35744,10 @@
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
       <c r="E11" s="53" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="44"/>
@@ -35745,10 +35776,10 @@
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
       <c r="E12" s="53" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="44"/>
@@ -35777,10 +35808,10 @@
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
       <c r="E13" s="51" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="44"/>
@@ -35809,10 +35840,10 @@
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
       <c r="E14" s="51" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="44"/>
@@ -35841,10 +35872,10 @@
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
       <c r="E15" s="51" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="G15" s="38"/>
       <c r="H15" s="44"/>
@@ -35876,7 +35907,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="44"/>
@@ -35908,7 +35939,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="44"/>
@@ -35940,7 +35971,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="44"/>
@@ -35969,10 +36000,10 @@
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
       <c r="E19" s="51" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="44"/>

--- a/src/GridaBoard/language/textData.xlsx
+++ b/src/GridaBoard/language/textData.xlsx
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">그리다보드 샘플 영문 명언으로 수정 예정/ 수정 후 링크 등 변경 예정(남)
 =&gt;0525 하기 링크로 변경
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="1076">
   <si>
     <t>Gridaboard 2.0 string</t>
   </si>
@@ -3267,6 +3268,15 @@
   </si>
   <si>
     <t>The password is four digits</t>
+  </si>
+  <si>
+    <t>reset_penData</t>
+  </si>
+  <si>
+    <t>비밀번호 입력 횟수 초과하여 펜 데이터를 초기화합니다</t>
+  </si>
+  <si>
+    <t>The handwritten data is reset because you have entered the wrong password 10 times.</t>
   </si>
 </sst>
 </file>
@@ -3567,7 +3577,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3655,6 +3665,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3930,7 +3946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4507,6 +4523,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4731,7 +4750,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G226" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F241" sqref="F241"/>
+      <selection pane="bottomRight" activeCell="F234" sqref="F234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4749,7 +4768,7 @@
     <col min="15" max="15" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -4807,7 +4826,7 @@
       <c r="Y2" s="16"/>
       <c r="Z2" s="17"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="14.25">
       <c r="A3" s="9"/>
       <c r="B3" s="18"/>
       <c r="C3" s="11"/>
@@ -4835,7 +4854,7 @@
       <c r="Y3" s="23"/>
       <c r="Z3" s="24"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="15">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
         <v>1</v>
@@ -4917,7 +4936,7 @@
       <c r="Y5" s="42"/>
       <c r="Z5" s="42"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="14.25">
       <c r="A6" s="43"/>
       <c r="B6" s="44" t="s">
         <v>14</v>
@@ -5003,7 +5022,7 @@
       <c r="Y7" s="53"/>
       <c r="Z7" s="53"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="14.25">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
       <c r="C8" s="45" t="s">
@@ -5045,7 +5064,7 @@
       <c r="Y8" s="53"/>
       <c r="Z8" s="53"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="14.25">
       <c r="A9" s="43"/>
       <c r="B9" s="44"/>
       <c r="C9" s="54" t="s">
@@ -5087,7 +5106,7 @@
       <c r="Y9" s="53"/>
       <c r="Z9" s="53"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="14.25">
       <c r="A10" s="43"/>
       <c r="B10" s="44"/>
       <c r="C10" s="54" t="s">
@@ -5129,7 +5148,7 @@
       <c r="Y10" s="53"/>
       <c r="Z10" s="53"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="14.25">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
       <c r="C11" s="45" t="s">
@@ -5171,7 +5190,7 @@
       <c r="Y11" s="53"/>
       <c r="Z11" s="53"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="14.25">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
       <c r="C12" s="45" t="s">
@@ -5213,7 +5232,7 @@
       <c r="Y12" s="53"/>
       <c r="Z12" s="53"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14.25">
       <c r="A13" s="43"/>
       <c r="B13" s="44"/>
       <c r="C13" s="45" t="s">
@@ -5255,7 +5274,7 @@
       <c r="Y13" s="53"/>
       <c r="Z13" s="53"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="14.25">
       <c r="A14" s="43"/>
       <c r="B14" s="44"/>
       <c r="C14" s="45" t="s">
@@ -5297,7 +5316,7 @@
       <c r="Y14" s="53"/>
       <c r="Z14" s="53"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="14.25">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
       <c r="C15" s="45" t="s">
@@ -5339,7 +5358,7 @@
       <c r="Y15" s="53"/>
       <c r="Z15" s="53"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="14.25">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
       <c r="C16" s="45" t="s">
@@ -5381,7 +5400,7 @@
       <c r="Y16" s="53"/>
       <c r="Z16" s="53"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="15">
       <c r="A17" s="43"/>
       <c r="B17" s="44"/>
       <c r="C17" s="45" t="s">
@@ -5423,7 +5442,7 @@
       <c r="Y17" s="53"/>
       <c r="Z17" s="53"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="15">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
       <c r="C18" s="45" t="s">
@@ -5465,7 +5484,7 @@
       <c r="Y18" s="53"/>
       <c r="Z18" s="53"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="14.25">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
       <c r="C19" s="45" t="s">
@@ -5507,7 +5526,7 @@
       <c r="Y19" s="53"/>
       <c r="Z19" s="53"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="14.25">
       <c r="A20" s="43"/>
       <c r="B20" s="44"/>
       <c r="C20" s="45" t="s">
@@ -5549,7 +5568,7 @@
       <c r="Y20" s="53"/>
       <c r="Z20" s="53"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="14.25">
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
       <c r="C21" s="45" t="s">
@@ -5591,7 +5610,7 @@
       <c r="Y21" s="53"/>
       <c r="Z21" s="53"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="15">
       <c r="A22" s="43"/>
       <c r="B22" s="44"/>
       <c r="C22" s="45" t="s">
@@ -5633,7 +5652,7 @@
       <c r="Y22" s="53"/>
       <c r="Z22" s="53"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="14.25">
       <c r="A23" s="43"/>
       <c r="B23" s="44"/>
       <c r="C23" s="45" t="s">
@@ -5675,7 +5694,7 @@
       <c r="Y23" s="53"/>
       <c r="Z23" s="53"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="28.5">
       <c r="A24" s="43"/>
       <c r="B24" s="44"/>
       <c r="C24" s="45" t="s">
@@ -5717,7 +5736,7 @@
       <c r="Y24" s="53"/>
       <c r="Z24" s="53"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="14.25">
       <c r="A25" s="43"/>
       <c r="B25" s="44"/>
       <c r="C25" s="45" t="s">
@@ -5759,7 +5778,7 @@
       <c r="Y25" s="53"/>
       <c r="Z25" s="53"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="14.25">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
       <c r="C26" s="45" t="s">
@@ -5801,7 +5820,7 @@
       <c r="Y26" s="53"/>
       <c r="Z26" s="53"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="15">
       <c r="A27" s="43"/>
       <c r="B27" s="44"/>
       <c r="C27" s="45" t="s">
@@ -5843,7 +5862,7 @@
       <c r="Y27" s="53"/>
       <c r="Z27" s="53"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="42.75">
       <c r="A28" s="43"/>
       <c r="B28" s="44"/>
       <c r="C28" s="45" t="s">
@@ -5885,7 +5904,7 @@
       <c r="Y28" s="53"/>
       <c r="Z28" s="53"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" ht="14.25">
       <c r="A29" s="43"/>
       <c r="B29" s="44"/>
       <c r="C29" s="45" t="s">
@@ -5927,7 +5946,7 @@
       <c r="Y29" s="53"/>
       <c r="Z29" s="53"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" ht="14.25">
       <c r="A30" s="43"/>
       <c r="B30" s="44"/>
       <c r="C30" s="45" t="s">
@@ -5969,7 +5988,7 @@
       <c r="Y30" s="53"/>
       <c r="Z30" s="53"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="14.25">
       <c r="A31" s="43"/>
       <c r="B31" s="44"/>
       <c r="C31" s="45" t="s">
@@ -6011,7 +6030,7 @@
       <c r="Y31" s="53"/>
       <c r="Z31" s="53"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="42.75">
       <c r="A32" s="43"/>
       <c r="B32" s="44"/>
       <c r="C32" s="45" t="s">
@@ -6053,7 +6072,7 @@
       <c r="Y32" s="53"/>
       <c r="Z32" s="53"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" ht="14.25">
       <c r="A33" s="43"/>
       <c r="B33" s="44"/>
       <c r="C33" s="45" t="s">
@@ -6095,7 +6114,7 @@
       <c r="Y33" s="53"/>
       <c r="Z33" s="53"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" ht="14.25">
       <c r="A34" s="43"/>
       <c r="B34" s="44"/>
       <c r="C34" s="45" t="s">
@@ -6137,7 +6156,7 @@
       <c r="Y34" s="53"/>
       <c r="Z34" s="53"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" ht="14.25">
       <c r="A35" s="43"/>
       <c r="B35" s="44"/>
       <c r="C35" s="45" t="s">
@@ -6179,7 +6198,7 @@
       <c r="Y35" s="53"/>
       <c r="Z35" s="53"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" ht="42.75">
       <c r="A36" s="43"/>
       <c r="B36" s="44"/>
       <c r="C36" s="45" t="s">
@@ -6221,7 +6240,7 @@
       <c r="Y36" s="53"/>
       <c r="Z36" s="53"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" ht="28.5">
       <c r="A37" s="43"/>
       <c r="B37" s="44"/>
       <c r="C37" s="45" t="s">
@@ -6263,7 +6282,7 @@
       <c r="Y37" s="53"/>
       <c r="Z37" s="53"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" ht="14.25">
       <c r="A38" s="43"/>
       <c r="B38" s="44"/>
       <c r="C38" s="45" t="s">
@@ -6305,7 +6324,7 @@
       <c r="Y38" s="53"/>
       <c r="Z38" s="53"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" ht="14.25">
       <c r="A39" s="43"/>
       <c r="B39" s="44"/>
       <c r="C39" s="45" t="s">
@@ -6389,7 +6408,7 @@
       <c r="Y40" s="53"/>
       <c r="Z40" s="53"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" ht="28.5">
       <c r="A41" s="43"/>
       <c r="B41" s="44"/>
       <c r="C41" s="45" t="s">
@@ -6431,7 +6450,7 @@
       <c r="Y41" s="53"/>
       <c r="Z41" s="53"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" ht="14.25">
       <c r="A42" s="43"/>
       <c r="B42" s="44"/>
       <c r="C42" s="54" t="s">
@@ -13887,14 +13906,20 @@
       <c r="Y228" s="53"/>
       <c r="Z228" s="53"/>
     </row>
-    <row r="229" spans="1:26" ht="14.25">
+    <row r="229" spans="1:26" ht="26.25" thickBot="1">
       <c r="A229" s="43"/>
       <c r="B229" s="116"/>
-      <c r="C229" s="114"/>
-      <c r="D229" s="113"/>
-      <c r="E229" s="114"/>
-      <c r="F229" s="205"/>
-      <c r="G229" s="204"/>
+      <c r="C229" s="231" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D229" s="232"/>
+      <c r="E229" s="233"/>
+      <c r="F229" s="236" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G229" s="235" t="s">
+        <v>1075</v>
+      </c>
       <c r="H229" s="204"/>
       <c r="I229" s="204"/>
       <c r="J229" s="53"/>
